--- a/xydata.xlsx
+++ b/xydata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\jakkalavanya1 GITHUB\MATLAB_MDV-CAVsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D2B8E09-6953-4916-9BAA-0D02213F3D2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41B97200-307A-4886-8233-2AD63DD8A9E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570" activeTab="2" xr2:uid="{F98D9FE5-D3A0-4DE8-BF4A-8BBC3F858E26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570" xr2:uid="{F98D9FE5-D3A0-4DE8-BF4A-8BBC3F858E26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,151 +373,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C862A-38C2-4849-93F4-E94D4D74C631}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E160"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>107.625</v>
+      </c>
+      <c r="F1">
+        <v>-31.25</v>
+      </c>
+      <c r="G1">
+        <v>107.625</v>
+      </c>
+      <c r="H1">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>-125</v>
       </c>
-      <c r="B1">
+      <c r="B2">
+        <v>-130</v>
+      </c>
+      <c r="C2">
         <v>-125</v>
       </c>
-      <c r="C1">
-        <v>-130</v>
-      </c>
-      <c r="D1">
-        <v>-140</v>
-      </c>
-      <c r="E1">
+      <c r="D2">
         <v>-150</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-118.2944</v>
-      </c>
-      <c r="B2">
-        <v>-118.2944</v>
-      </c>
-      <c r="C2">
-        <v>-123.2944</v>
-      </c>
-      <c r="D2">
-        <v>-133.2944</v>
-      </c>
       <c r="E2">
-        <v>-143.2944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F2">
+        <v>-29.573599999999999</v>
+      </c>
+      <c r="G2">
+        <v>107.625</v>
+      </c>
+      <c r="H2">
+        <v>-35.823599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-111.58879999999999</v>
+        <v>107.625</v>
       </c>
       <c r="B3">
-        <v>-111.58879999999999</v>
+        <v>107.625</v>
       </c>
       <c r="C3">
-        <v>-117.58879999999999</v>
+        <v>-31.25</v>
       </c>
       <c r="D3">
-        <v>-126.58879999999999</v>
+        <v>-37.5</v>
       </c>
       <c r="E3">
-        <v>-137.58879999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F3">
+        <v>-27.897199999999998</v>
+      </c>
+      <c r="G3">
+        <v>107.625</v>
+      </c>
+      <c r="H3">
+        <v>-34.647199999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-104.88319999999999</v>
+        <v>400</v>
       </c>
       <c r="B4">
-        <v>-104.88319999999999</v>
+        <v>400</v>
       </c>
       <c r="C4">
-        <v>-111.88319999999999</v>
+        <v>400</v>
       </c>
       <c r="D4">
-        <v>-119.88319999999999</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>-131.88319999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F4">
+        <v>-26.220799999999997</v>
+      </c>
+      <c r="G4">
+        <v>107.625</v>
+      </c>
+      <c r="H4">
+        <v>-33.470799999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-98.177599999999984</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="B5">
-        <v>-98.177599999999984</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="C5">
-        <v>-106.17759999999998</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="D5">
-        <v>-113.17759999999998</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="E5">
-        <v>-126.17759999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F5">
+        <v>-24.544399999999996</v>
+      </c>
+      <c r="G5">
+        <v>107.625</v>
+      </c>
+      <c r="H5">
+        <v>-32.294399999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-91.47199999999998</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="B6">
-        <v>-91.47199999999998</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="C6">
-        <v>-100.47199999999998</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="D6">
-        <v>-106.47199999999998</v>
+        <v>13.411199999999999</v>
       </c>
       <c r="E6">
-        <v>-120.47199999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F6">
+        <v>-22.867999999999995</v>
+      </c>
+      <c r="G6">
+        <v>107.625</v>
+      </c>
+      <c r="H6">
+        <v>-31.117999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-84.766399999999976</v>
+        <v>39.146385110952039</v>
       </c>
       <c r="B7">
-        <v>-84.766399999999976</v>
+        <v>39.519207826294441</v>
       </c>
       <c r="C7">
-        <v>-94.766399999999976</v>
+        <v>39.146385110952039</v>
       </c>
       <c r="D7">
-        <v>-99.766399999999976</v>
+        <v>41.010498687664047</v>
       </c>
       <c r="E7">
-        <v>-114.76639999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F7">
+        <v>-21.191599999999994</v>
+      </c>
+      <c r="G7">
+        <v>107.625</v>
+      </c>
+      <c r="H7">
+        <v>-29.941599999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-78.060799999999972</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>-78.060799999999972</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-89.060799999999972</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>-93.060799999999972</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-109.06079999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F8">
+        <v>-19.515199999999993</v>
+      </c>
+      <c r="G8">
+        <v>107.625</v>
+      </c>
+      <c r="H8">
+        <v>-28.765199999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-71.355199999999968</v>
       </c>
@@ -528,13 +600,22 @@
         <v>-83.355199999999968</v>
       </c>
       <c r="D9">
-        <v>-86.355199999999968</v>
+        <v>-110.35519999999997</v>
       </c>
       <c r="E9">
-        <v>-103.35519999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F9">
+        <v>-17.838799999999992</v>
+      </c>
+      <c r="G9">
+        <v>107.625</v>
+      </c>
+      <c r="H9">
+        <v>-27.588799999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-64.649599999999964</v>
       </c>
@@ -545,13 +626,22 @@
         <v>-77.649599999999964</v>
       </c>
       <c r="D10">
-        <v>-79.649599999999964</v>
+        <v>-105.64959999999996</v>
       </c>
       <c r="E10">
-        <v>-97.649599999999964</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F10">
+        <v>-16.162399999999991</v>
+      </c>
+      <c r="G10">
+        <v>107.625</v>
+      </c>
+      <c r="H10">
+        <v>-26.412399999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-57.943999999999967</v>
       </c>
@@ -562,13 +652,22 @@
         <v>-71.94399999999996</v>
       </c>
       <c r="D11">
-        <v>-72.94399999999996</v>
+        <v>-100.94399999999996</v>
       </c>
       <c r="E11">
-        <v>-91.94399999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F11">
+        <v>-14.485999999999992</v>
+      </c>
+      <c r="G11">
+        <v>107.625</v>
+      </c>
+      <c r="H11">
+        <v>-25.23599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-51.23839999999997</v>
       </c>
@@ -579,13 +678,22 @@
         <v>-66.238399999999956</v>
       </c>
       <c r="D12">
-        <v>-66.238399999999956</v>
+        <v>-96.238399999999956</v>
       </c>
       <c r="E12">
-        <v>-86.238399999999956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F12">
+        <v>-12.809599999999993</v>
+      </c>
+      <c r="G12">
+        <v>107.625</v>
+      </c>
+      <c r="H12">
+        <v>-24.059599999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-44.532799999999973</v>
       </c>
@@ -596,13 +704,22 @@
         <v>-60.532799999999959</v>
       </c>
       <c r="D13">
-        <v>-59.532799999999959</v>
+        <v>-91.532799999999952</v>
       </c>
       <c r="E13">
-        <v>-80.532799999999952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F13">
+        <v>-11.133199999999993</v>
+      </c>
+      <c r="G13">
+        <v>107.625</v>
+      </c>
+      <c r="H13">
+        <v>-22.883199999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-37.827199999999976</v>
       </c>
@@ -613,13 +730,22 @@
         <v>-54.827199999999962</v>
       </c>
       <c r="D14">
-        <v>-52.827199999999962</v>
+        <v>-86.827199999999948</v>
       </c>
       <c r="E14">
-        <v>-74.827199999999948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F14">
+        <v>-9.4567999999999941</v>
+      </c>
+      <c r="G14">
+        <v>107.625</v>
+      </c>
+      <c r="H14">
+        <v>-21.706799999999987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-31.121599999999976</v>
       </c>
@@ -630,13 +756,22 @@
         <v>-49.121599999999965</v>
       </c>
       <c r="D15">
-        <v>-46.121599999999965</v>
+        <v>-82.121599999999944</v>
       </c>
       <c r="E15">
-        <v>-69.121599999999944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F15">
+        <v>-7.780399999999994</v>
+      </c>
+      <c r="G15">
+        <v>107.625</v>
+      </c>
+      <c r="H15">
+        <v>-20.530399999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-24.415999999999976</v>
       </c>
@@ -647,13 +782,22 @@
         <v>-43.415999999999968</v>
       </c>
       <c r="D16">
-        <v>-39.415999999999968</v>
+        <v>-77.41599999999994</v>
       </c>
       <c r="E16">
-        <v>-63.415999999999947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F16">
+        <v>-6.1039999999999939</v>
+      </c>
+      <c r="G16">
+        <v>107.625</v>
+      </c>
+      <c r="H16">
+        <v>-19.353999999999985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-17.710399999999975</v>
       </c>
@@ -664,13 +808,22 @@
         <v>-37.710399999999971</v>
       </c>
       <c r="D17">
-        <v>-32.710399999999971</v>
+        <v>-72.710399999999936</v>
       </c>
       <c r="E17">
-        <v>-57.71039999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F17">
+        <v>-4.4275999999999938</v>
+      </c>
+      <c r="G17">
+        <v>107.625</v>
+      </c>
+      <c r="H17">
+        <v>-18.177599999999984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-11.004799999999975</v>
       </c>
@@ -681,13 +834,22 @@
         <v>-32.004799999999975</v>
       </c>
       <c r="D18">
-        <v>-26.004799999999971</v>
+        <v>-68.004799999999932</v>
       </c>
       <c r="E18">
-        <v>-52.004799999999953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F18">
+        <v>-2.7511999999999937</v>
+      </c>
+      <c r="G18">
+        <v>107.625</v>
+      </c>
+      <c r="H18">
+        <v>-17.001199999999983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-4.299199999999975</v>
       </c>
@@ -698,13 +860,22 @@
         <v>-26.299199999999974</v>
       </c>
       <c r="D19">
-        <v>-19.299199999999971</v>
+        <v>-63.299199999999935</v>
       </c>
       <c r="E19">
-        <v>-46.299199999999956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F19">
+        <v>-1.0747999999999938</v>
+      </c>
+      <c r="G19">
+        <v>107.625</v>
+      </c>
+      <c r="H19">
+        <v>-15.824799999999984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.4064000000000245</v>
       </c>
@@ -715,2390 +886,3659 @@
         <v>-20.593599999999974</v>
       </c>
       <c r="D20">
-        <v>-12.59359999999997</v>
+        <v>-58.593599999999938</v>
       </c>
       <c r="E20">
-        <v>-40.593599999999959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F20">
+        <v>0.60160000000000613</v>
+      </c>
+      <c r="G20">
+        <v>107.625</v>
+      </c>
+      <c r="H20">
+        <v>-14.648399999999985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9.3132329946482457</v>
+        <v>9.4029130098151512</v>
       </c>
       <c r="B21">
-        <v>9.2346643785570137</v>
+        <v>9.2962523318743138</v>
       </c>
       <c r="C21">
         <v>-14.887999999999973</v>
       </c>
       <c r="D21">
-        <v>-5.8879999999999706</v>
+        <v>-53.887999999999941</v>
       </c>
       <c r="E21">
-        <v>-34.887999999999963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F21">
+        <v>2.3240630829685784</v>
+      </c>
+      <c r="G21">
+        <v>107.625</v>
+      </c>
+      <c r="H21">
+        <v>-13.471999999999985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16.609439660563979</v>
+        <v>16.960482538950529</v>
       </c>
       <c r="B22">
-        <v>16.301062283762192</v>
+        <v>16.542861869517665</v>
       </c>
       <c r="C22">
-        <v>-8.9388700507700189</v>
+        <v>-8.8168322009524935</v>
       </c>
       <c r="D22">
-        <v>0.81760000000002897</v>
+        <v>-48.816832200952462</v>
       </c>
       <c r="E22">
-        <v>-29.182399999999962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F22">
+        <v>4.1357154673794163</v>
+      </c>
+      <c r="G22">
+        <v>107.625</v>
+      </c>
+      <c r="H22">
+        <v>-12.204208050238115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24.275381522529017</v>
+        <v>25.047954337269829</v>
       </c>
       <c r="B23">
-        <v>23.594800872610293</v>
+        <v>24.128607425607328</v>
       </c>
       <c r="C23">
-        <v>-2.7570029966505247</v>
+        <v>-2.3977177894650197</v>
       </c>
       <c r="D23">
-        <v>7.5488540880836865</v>
+        <v>-43.397717789464991</v>
       </c>
       <c r="E23">
-        <v>-23.476799999999962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F23">
+        <v>6.0321518564018319</v>
+      </c>
+      <c r="G23">
+        <v>107.625</v>
+      </c>
+      <c r="H23">
+        <v>-10.849429447366248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>32.291420108136947</v>
+        <v>33.634174153906145</v>
       </c>
       <c r="B24">
-        <v>31.105087299229879</v>
+        <v>32.035867814874294</v>
       </c>
       <c r="C24">
-        <v>3.6468083181293549</v>
+        <v>4.3517220478383702</v>
       </c>
       <c r="D24">
-        <v>14.330169806870884</v>
+        <v>-37.6482779521616</v>
       </c>
       <c r="E24">
-        <v>-17.720203461103637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F24">
+        <v>8.0089669537185735</v>
+      </c>
+      <c r="G24">
+        <v>107.625</v>
+      </c>
+      <c r="H24">
+        <v>-9.4120694880403999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>40.637916941182056</v>
+        <v>42.687987737130527</v>
       </c>
       <c r="B25">
-        <v>38.821128719219175</v>
+        <v>40.247021849812569</v>
       </c>
       <c r="C25">
-        <v>10.58309367915426</v>
+        <v>11.286738099203818</v>
       </c>
       <c r="D25">
-        <v>21.177087199320425</v>
+        <v>-31.586133875700646</v>
       </c>
       <c r="E25">
-        <v>-11.914480199155895</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F25">
+        <v>10.061755462453142</v>
+      </c>
+      <c r="G25">
+        <v>107.625</v>
+      </c>
+      <c r="H25">
+        <v>-7.8965334689251616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>49.295233546902608</v>
+        <v>52.178240834553606</v>
       </c>
       <c r="B26">
-        <v>46.732132289860658</v>
+        <v>48.744448344110651</v>
       </c>
       <c r="C26">
-        <v>17.506879040179165</v>
+        <v>18.209254150569265</v>
       </c>
       <c r="D26">
-        <v>28.104180778238472</v>
+        <v>-25.228906746685077</v>
       </c>
       <c r="E26">
-        <v>-6.0269216949719171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F26">
+        <v>12.186112086027663</v>
+      </c>
+      <c r="G26">
+        <v>107.625</v>
+      </c>
+      <c r="H26">
+        <v>-6.3072266866712692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>58.243731452309248</v>
+        <v>62.073779199870387</v>
       </c>
       <c r="B27">
-        <v>54.827305164259599</v>
+        <v>57.51052611151124</v>
       </c>
       <c r="C27">
-        <v>24.418164401204066</v>
+        <v>25.119270201934711</v>
       </c>
       <c r="D27">
-        <v>35.108132434460998</v>
+        <v>-18.594217751772469</v>
       </c>
       <c r="E27">
-        <v>-6.0846059347267278E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F27">
+        <v>14.37763152787781</v>
+      </c>
+      <c r="G27">
+        <v>107.625</v>
+      </c>
+      <c r="H27">
+        <v>-4.6485544379431172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>67.463772182331354</v>
+        <v>72.343448579503445</v>
       </c>
       <c r="B28">
-        <v>63.095854502373527</v>
+        <v>66.527633961835875</v>
       </c>
       <c r="C28">
-        <v>31.316949762228969</v>
+        <v>32.016786253300161</v>
       </c>
       <c r="D28">
-        <v>42.185624055830971</v>
+        <v>-11.699688077624234</v>
       </c>
       <c r="E28">
-        <v>5.980428596950671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F28">
+        <v>16.631908490458969</v>
+      </c>
+      <c r="G28">
+        <v>107.625</v>
+      </c>
+      <c r="H28">
+        <v>-2.9249220194060586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>76.93571725763826</v>
+        <v>82.956094722297905</v>
       </c>
       <c r="B29">
-        <v>71.526987457023978</v>
+        <v>75.778150711824253</v>
       </c>
       <c r="C29">
-        <v>38.203235123253869</v>
+        <v>38.901802304665608</v>
       </c>
       <c r="D29">
-        <v>49.333337530466366</v>
+        <v>-4.5629389109798684</v>
       </c>
       <c r="E29">
-        <v>13.362593748799403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F29">
+        <v>18.944537677956063</v>
+      </c>
+      <c r="G29">
+        <v>107.625</v>
+      </c>
+      <c r="H29">
+        <v>-1.1407347277449671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>86.639928207361038</v>
+        <v>93.880563376100611</v>
       </c>
       <c r="B30">
-        <v>80.109911181625222</v>
+        <v>85.244455178956059</v>
       </c>
       <c r="C30">
-        <v>45.077020484278769</v>
+        <v>45.774318356031053</v>
       </c>
       <c r="D30">
-        <v>56.547954750981006</v>
+        <v>2.7984085616668448</v>
       </c>
       <c r="E30">
-        <v>20.732258900648134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F30">
+        <v>21.311113794739015</v>
+      </c>
+      <c r="G30">
+        <v>107.625</v>
+      </c>
+      <c r="H30">
+        <v>0.6996021404167112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>96.556766554818324</v>
+        <v>105.08570029534059</v>
       </c>
       <c r="B31">
-        <v>88.833832839515225</v>
+        <v>94.908926174261921</v>
       </c>
       <c r="C31">
-        <v>51.938305845303674</v>
+        <v>52.634334407396501</v>
       </c>
       <c r="D31">
-        <v>63.82615760074458</v>
+        <v>10.439040639625434</v>
       </c>
       <c r="E31">
-        <v>28.089424052496863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F31">
+        <v>23.72723154356548</v>
+      </c>
+      <c r="G31">
+        <v>107.625</v>
+      </c>
+      <c r="H31">
+        <v>2.6097601599063585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>106.66659382988024</v>
+        <v>116.5403512324375</v>
       </c>
       <c r="B32">
-        <v>97.687959579396079</v>
+        <v>104.75394250901098</v>
       </c>
       <c r="C32">
-        <v>58.787091206328576</v>
+        <v>59.481850458761947</v>
       </c>
       <c r="D32">
-        <v>71.164627976574906</v>
+        <v>18.067172717584022</v>
       </c>
       <c r="E32">
-        <v>35.43408920434559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F32">
+        <v>26.188485627252746</v>
+      </c>
+      <c r="G32">
+        <v>107.625</v>
+      </c>
+      <c r="H32">
+        <v>4.5167931793960054</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>116.94977155586807</v>
+        <v>128.21336192803119</v>
       </c>
       <c r="B33">
-        <v>106.66149856119884</v>
+        <v>114.76188298849058</v>
       </c>
       <c r="C33">
-        <v>65.623376567353489</v>
+        <v>66.316866510127397</v>
       </c>
       <c r="D33">
-        <v>78.560047761889052</v>
+        <v>25.682804795542609</v>
       </c>
       <c r="E33">
-        <v>42.766254356194317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F33">
+        <v>28.690470747122646</v>
+      </c>
+      <c r="G33">
+        <v>107.625</v>
+      </c>
+      <c r="H33">
+        <v>6.4207011988856522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>127.3866612505451</v>
+        <v>140.0735781383417</v>
       </c>
       <c r="B34">
-        <v>115.74365693265361</v>
+        <v>124.91512643592736</v>
       </c>
       <c r="C34">
-        <v>72.447161928378392</v>
+        <v>73.139382561492852</v>
       </c>
       <c r="D34">
-        <v>86.009098850188934</v>
+        <v>33.285936873501193</v>
       </c>
       <c r="E34">
-        <v>50.085919508043048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F34">
+        <v>31.228781608981841</v>
+      </c>
+      <c r="G34">
+        <v>107.625</v>
+      </c>
+      <c r="H34">
+        <v>8.3214842183752982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>137.95762445125951</v>
+        <v>152.08984561335421</v>
       </c>
       <c r="B35">
-        <v>124.9236418625253</v>
+        <v>135.19605166150163</v>
       </c>
       <c r="C35">
-        <v>79.258447289403307</v>
+        <v>79.949398612858303</v>
       </c>
       <c r="D35">
-        <v>93.508463125658608</v>
+        <v>40.876568951459781</v>
       </c>
       <c r="E35">
-        <v>57.393084659891777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F35">
+        <v>33.799012915375407</v>
+      </c>
+      <c r="G35">
+        <v>107.625</v>
+      </c>
+      <c r="H35">
+        <v>10.219142237864945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>148.64302267881624</v>
+        <v>164.23101008051833</v>
       </c>
       <c r="B36">
-        <v>134.19066049261809</v>
+        <v>145.5870374831091</v>
       </c>
       <c r="C36">
-        <v>86.057232650428219</v>
+        <v>86.746914664223752</v>
       </c>
       <c r="D36">
-        <v>101.05482247717799</v>
+        <v>48.454701029418366</v>
       </c>
       <c r="E36">
-        <v>64.687749811740517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F36">
+        <v>36.396759370777275</v>
+      </c>
+      <c r="G36">
+        <v>107.625</v>
+      </c>
+      <c r="H36">
+        <v>12.113675257354592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>159.42321745199297</v>
+        <v>176.46591730199066</v>
       </c>
       <c r="B37">
-        <v>143.53391998129769</v>
+        <v>156.07046271605748</v>
       </c>
       <c r="C37">
-        <v>92.843518011453128</v>
+        <v>93.531930715589198</v>
       </c>
       <c r="D37">
-        <v>108.64485879152915</v>
+        <v>56.020333107376956</v>
       </c>
       <c r="E37">
-        <v>71.969914963589247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F37">
+        <v>39.017615679014369</v>
+      </c>
+      <c r="G37">
+        <v>107.625</v>
+      </c>
+      <c r="H37">
+        <v>14.005083276844239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>170.27857031553501</v>
+        <v>188.76341305665755</v>
       </c>
       <c r="B38">
-        <v>152.94262749475257</v>
+        <v>166.62870617845766</v>
       </c>
       <c r="C38">
-        <v>99.617303372478034</v>
+        <v>100.30444676695465</v>
       </c>
       <c r="D38">
-        <v>116.27525397123625</v>
+        <v>63.573465185335543</v>
       </c>
       <c r="E38">
-        <v>79.239580115437988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F38">
+        <v>41.657176544614416</v>
+      </c>
+      <c r="G38">
+        <v>107.625</v>
+      </c>
+      <c r="H38">
+        <v>15.893366296333886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>181.18944279143631</v>
+        <v>201.09234301398698</v>
       </c>
       <c r="B39">
-        <v>162.40599018127736</v>
+        <v>177.24414663982236</v>
       </c>
       <c r="C39">
-        <v>106.37858873350294</v>
+        <v>107.06446281832011</v>
       </c>
       <c r="D39">
-        <v>123.9426898915944</v>
+        <v>71.114097263294141</v>
       </c>
       <c r="E39">
-        <v>86.496745267286727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F39">
+        <v>44.31103665995559</v>
+      </c>
+      <c r="G39">
+        <v>107.625</v>
+      </c>
+      <c r="H39">
+        <v>17.778524315823535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>192.13619636261444</v>
+        <v>213.42155310751082</v>
       </c>
       <c r="B40">
-        <v>171.9132151906569</v>
+        <v>187.89916297104514</v>
       </c>
       <c r="C40">
-        <v>113.12737409452785</v>
+        <v>113.81197886968556</v>
       </c>
       <c r="D40">
-        <v>131.64384845891655</v>
+        <v>78.64222934125273</v>
       </c>
       <c r="E40">
-        <v>93.741410419135462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F40">
+        <v>46.974790742761286</v>
+      </c>
+      <c r="G40">
+        <v>107.625</v>
+      </c>
+      <c r="H40">
+        <v>19.660557335313182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>203.09919254939936</v>
+        <v>225.71988888624128</v>
       </c>
       <c r="B41">
-        <v>181.45350967940666</v>
+        <v>198.57613392224073</v>
       </c>
       <c r="C41">
-        <v>119.86365945555276</v>
+        <v>120.54699492105101</v>
       </c>
       <c r="D41">
-        <v>139.3754115440185</v>
+        <v>86.157861419211329</v>
       </c>
       <c r="E41">
-        <v>100.9735755709842</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F41">
+        <v>49.644033480560182</v>
+      </c>
+      <c r="G41">
+        <v>107.625</v>
+      </c>
+      <c r="H41">
+        <v>21.539465354802832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>214.0587929354364</v>
+        <v>237.9561961150921</v>
       </c>
       <c r="B42">
-        <v>191.0160808463599</v>
+        <v>209.25743841185485</v>
       </c>
       <c r="C42">
-        <v>126.58744481657767</v>
+        <v>127.26951097241647</v>
       </c>
       <c r="D42">
-        <v>147.13406104477332</v>
+        <v>93.660993497169926</v>
       </c>
       <c r="E42">
-        <v>108.19324072283294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F42">
+        <v>52.314359602963712</v>
+      </c>
+      <c r="G42">
+        <v>107.625</v>
+      </c>
+      <c r="H42">
+        <v>23.415248374292482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>224.99535908008332</v>
+        <v>250.09932060457874</v>
       </c>
       <c r="B43">
-        <v>200.59013582370392</v>
+        <v>219.92545512666771</v>
       </c>
       <c r="C43">
-        <v>133.29873017760258</v>
+        <v>133.97952702378191</v>
       </c>
       <c r="D43">
-        <v>154.91647884893621</v>
+        <v>101.15162557512852</v>
       </c>
       <c r="E43">
-        <v>115.40040587468168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F43">
+        <v>54.981363781666929</v>
+      </c>
+      <c r="G43">
+        <v>107.625</v>
+      </c>
+      <c r="H43">
+        <v>25.28790639378213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>235.88925238214017</v>
+        <v>262.11810827409317</v>
       </c>
       <c r="B44">
-        <v>210.16488170485297</v>
+        <v>230.56256296984162</v>
       </c>
       <c r="C44">
-        <v>139.99751553862748</v>
+        <v>140.67704307514737</v>
       </c>
       <c r="D44">
-        <v>162.71934685564474</v>
+        <v>108.62975765308711</v>
       </c>
       <c r="E44">
-        <v>122.59507102653042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F44">
+        <v>57.640640742460405</v>
+      </c>
+      <c r="G44">
+        <v>107.625</v>
+      </c>
+      <c r="H44">
+        <v>27.157439413271778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>246.72083433829096</v>
+        <v>273.98140467166127</v>
       </c>
       <c r="B45">
-        <v>219.72952571176722</v>
+        <v>241.15114071818965</v>
       </c>
       <c r="C45">
-        <v>146.6838008996524</v>
+        <v>147.36205912651283</v>
       </c>
       <c r="D45">
-        <v>170.5393469264834</v>
+        <v>116.0953897310457</v>
       </c>
       <c r="E45">
-        <v>129.77723617837916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F45">
+        <v>60.287785179547413</v>
+      </c>
+      <c r="G45">
+        <v>107.625</v>
+      </c>
+      <c r="H45">
+        <v>29.023847432761425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>257.47046688097294</v>
+        <v>285.65805478537311</v>
       </c>
       <c r="B46">
-        <v>229.27327498442662</v>
+        <v>251.67356710214477</v>
       </c>
       <c r="C46">
-        <v>153.35758626067729</v>
+        <v>154.03457517787828</v>
       </c>
       <c r="D46">
-        <v>178.37316099407508</v>
+        <v>123.5485218090043</v>
       </c>
       <c r="E46">
-        <v>136.94690133022789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F46">
+        <v>62.918391775536193</v>
+      </c>
+      <c r="G46">
+        <v>107.625</v>
+      </c>
+      <c r="H46">
+        <v>30.887130452251075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>268.11851090314514</v>
+        <v>297.1169074287501</v>
       </c>
       <c r="B47">
-        <v>238.78533655742024</v>
+        <v>262.11222116424017</v>
       </c>
       <c r="C47">
-        <v>160.0188716217022</v>
+        <v>160.69459122924374</v>
       </c>
       <c r="D47">
-        <v>186.21747088031634</v>
+        <v>130.9891538869629</v>
       </c>
       <c r="E47">
-        <v>144.10406648207663</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F47">
+        <v>65.528055291060042</v>
+      </c>
+      <c r="G47">
+        <v>107.625</v>
+      </c>
+      <c r="H47">
+        <v>32.747288471740724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>278.64532831730821</v>
+        <v>308.32680395455941</v>
       </c>
       <c r="B48">
-        <v>248.25491769569578</v>
+        <v>272.44948126533029</v>
       </c>
       <c r="C48">
-        <v>166.66765698272712</v>
+        <v>167.34210728060918</v>
       </c>
       <c r="D48">
-        <v>194.0689585705577</v>
+        <v>138.41728596492149</v>
       </c>
       <c r="E48">
-        <v>151.24873163392536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F48">
+        <v>68.112370316332573</v>
+      </c>
+      <c r="G48">
+        <v>107.625</v>
+      </c>
+      <c r="H48">
+        <v>34.604321491230372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>289.0312801979286</v>
+        <v>319.25659195547269</v>
       </c>
       <c r="B49">
-        <v>257.67122548727576</v>
+        <v>282.66772667279321</v>
       </c>
       <c r="C49">
-        <v>173.30394234375203</v>
+        <v>173.97712333197464</v>
       </c>
       <c r="D49">
-        <v>201.92430584862996</v>
+        <v>145.8329180428801</v>
       </c>
       <c r="E49">
-        <v>158.3808967857741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F49">
+        <v>70.666931668198302</v>
+      </c>
+      <c r="G49">
+        <v>107.625</v>
+      </c>
+      <c r="H49">
+        <v>36.458229510720024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>299.25672918783846</v>
+        <v>329.8751178423737</v>
       </c>
       <c r="B50">
-        <v>267.02346732626501</v>
+        <v>292.74933561164528</v>
       </c>
       <c r="C50">
-        <v>179.92772770477694</v>
+        <v>180.5996393833401</v>
       </c>
       <c r="D50">
-        <v>209.78019471352854</v>
+        <v>153.23605012083868</v>
       </c>
       <c r="E50">
-        <v>165.50056193762285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F50">
+        <v>73.18733390291132</v>
+      </c>
+      <c r="G50">
+        <v>107.625</v>
+      </c>
+      <c r="H50">
+        <v>38.309012530209671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>309.30203680214885</v>
+        <v>340.15122256143468</v>
       </c>
       <c r="B51">
-        <v>276.30085027887026</v>
+        <v>302.6766875905729</v>
       </c>
       <c r="C51">
-        <v>186.53901306580184</v>
+        <v>187.20965543470555</v>
       </c>
       <c r="D51">
-        <v>217.63330696722687</v>
+        <v>160.62668219879728</v>
       </c>
       <c r="E51">
-        <v>172.60772708947158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F51">
+        <v>75.669171897643224</v>
+      </c>
+      <c r="G51">
+        <v>107.625</v>
+      </c>
+      <c r="H51">
+        <v>40.156670549699321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>319.14756429754516</v>
+        <v>350.05376564990729</v>
       </c>
       <c r="B52">
-        <v>285.4925812354237</v>
+        <v>312.4321596352238</v>
       </c>
       <c r="C52">
-        <v>193.13779842682675</v>
+        <v>193.80717148607101</v>
       </c>
       <c r="D52">
-        <v>225.48032451760304</v>
+        <v>168.00481427675587</v>
       </c>
       <c r="E52">
-        <v>179.70239224132033</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F52">
+        <v>78.108039908805949</v>
+      </c>
+      <c r="G52">
+        <v>107.625</v>
+      </c>
+      <c r="H52">
+        <v>42.001203569188966</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>328.77367120694612</v>
+        <v>359.55154454262436</v>
       </c>
       <c r="B53">
-        <v>294.58786749634527</v>
+        <v>321.99813702279653</v>
       </c>
       <c r="C53">
-        <v>199.72408378785167</v>
+        <v>200.39218753743646</v>
       </c>
       <c r="D53">
-        <v>233.31792940411412</v>
+        <v>175.37044635471446</v>
       </c>
       <c r="E53">
-        <v>186.78455739316905</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F53">
+        <v>80.499534255699132</v>
+      </c>
+      <c r="G53">
+        <v>107.625</v>
+      </c>
+      <c r="H53">
+        <v>43.842611588678615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>338.16071754065104</v>
+        <v>368.61340686639085</v>
       </c>
       <c r="B54">
-        <v>303.57591671224753</v>
+        <v>331.35698440928854</v>
       </c>
       <c r="C54">
-        <v>206.29786914887657</v>
+        <v>206.96470358880191</v>
       </c>
       <c r="D54">
-        <v>241.14280340637282</v>
+        <v>182.72357843267307</v>
       </c>
       <c r="E54">
-        <v>193.85422254501779</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F54">
+        <v>82.839246102322136</v>
+      </c>
+      <c r="G54">
+        <v>107.625</v>
+      </c>
+      <c r="H54">
+        <v>45.680894608168266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>347.28907694185125</v>
+        <v>377.2095957716557</v>
       </c>
       <c r="B55">
-        <v>312.44593535073017</v>
+        <v>340.49109102099135</v>
       </c>
       <c r="C55">
-        <v>212.85915450990149</v>
+        <v>213.52471964016738</v>
       </c>
       <c r="D55">
-        <v>248.95162836205645</v>
+        <v>190.06421051063165</v>
       </c>
       <c r="E55">
-        <v>200.91138769686654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F55">
+        <v>85.122772755247837</v>
+      </c>
+      <c r="G55">
+        <v>107.625</v>
+      </c>
+      <c r="H55">
+        <v>47.516052627657913</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>356.13909214308967</v>
+        <v>385.30607831745851</v>
       </c>
       <c r="B56">
-        <v>321.18713147135082</v>
+        <v>349.38285075775218</v>
       </c>
       <c r="C56">
-        <v>219.40793987092638</v>
+        <v>220.07223569153282</v>
       </c>
       <c r="D56">
-        <v>256.74108603368438</v>
+        <v>197.39234258859025</v>
       </c>
       <c r="E56">
-        <v>207.95605284871527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F56">
+        <v>87.345712689438045</v>
+      </c>
+      <c r="G56">
+        <v>107.625</v>
+      </c>
+      <c r="H56">
+        <v>49.348085647147563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>364.69107792775469</v>
+        <v>392.8726538644957</v>
       </c>
       <c r="B57">
-        <v>329.78871173150054</v>
+        <v>358.01460976706392</v>
       </c>
       <c r="C57">
-        <v>225.94422523195129</v>
+        <v>226.60725174289828</v>
       </c>
       <c r="D57">
-        <v>264.50785822977332</v>
+        <v>204.70797466654884</v>
       </c>
       <c r="E57">
-        <v>214.98821800056402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F57">
+        <v>89.503652441765979</v>
+      </c>
+      <c r="G57">
+        <v>107.625</v>
+      </c>
+      <c r="H57">
+        <v>51.176993666637209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>372.92433748403323</v>
+        <v>399.87894515510715</v>
       </c>
       <c r="B58">
-        <v>338.23987860071799</v>
+        <v>366.36615703437303</v>
       </c>
       <c r="C58">
-        <v>232.46801059297621</v>
+        <v>233.12976779426373</v>
       </c>
       <c r="D58">
-        <v>272.24862769450726</v>
+        <v>212.01110674450743</v>
       </c>
       <c r="E58">
-        <v>222.00788315241275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F58">
+        <v>91.591539258593258</v>
+      </c>
+      <c r="G58">
+        <v>107.625</v>
+      </c>
+      <c r="H58">
+        <v>53.002776686126857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>380.82152403375051</v>
+        <v>406.29523851086884</v>
       </c>
       <c r="B59">
-        <v>346.52984531971475</v>
+        <v>374.42456201120893</v>
       </c>
       <c r="C59">
-        <v>238.97929595400112</v>
+        <v>239.63978384562918</v>
       </c>
       <c r="D59">
-        <v>279.96007539685178</v>
+        <v>219.30173882246604</v>
       </c>
       <c r="E59">
-        <v>229.01504830426148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F59">
+        <v>93.606140502802234</v>
+      </c>
+      <c r="G59">
+        <v>107.625</v>
+      </c>
+      <c r="H59">
+        <v>54.825434705616509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>388.36243045789394</v>
+        <v>413.00083851086885</v>
       </c>
       <c r="B60">
-        <v>354.64780285661158</v>
+        <v>381.13016201120894</v>
       </c>
       <c r="C60">
-        <v>245.47808131502603</v>
+        <v>246.13729989699465</v>
       </c>
       <c r="D60">
-        <v>287.63888328075092</v>
+        <v>226.57987090042462</v>
       </c>
       <c r="E60">
-        <v>236.00971345611023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F60">
+        <v>95.282540502802235</v>
+      </c>
+      <c r="G60">
+        <v>107.625</v>
+      </c>
+      <c r="H60">
+        <v>56.644967725106156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>395.52700837297351</v>
+        <v>419.70643851086885</v>
       </c>
       <c r="B61">
-        <v>362.58296160577146</v>
+        <v>387.83576201120894</v>
       </c>
       <c r="C61">
-        <v>251.96436667605093</v>
+        <v>252.6223159483601</v>
       </c>
       <c r="D61">
-        <v>295.28173206949288</v>
+        <v>233.84550297838322</v>
       </c>
       <c r="E61">
-        <v>242.99187860795897</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F61">
+        <v>96.958940502802236</v>
+      </c>
+      <c r="G61">
+        <v>107.625</v>
+      </c>
+      <c r="H61">
+        <v>58.461375744595806</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>402.29465162734891</v>
+        <v>426.41203851086885</v>
       </c>
       <c r="B62">
-        <v>370.32080787980965</v>
+        <v>394.54136201120895</v>
       </c>
       <c r="C62">
-        <v>258.43815203707584</v>
+        <v>259.0948319997255</v>
       </c>
       <c r="D62">
-        <v>302.88530450631458</v>
+        <v>241.09863505634181</v>
       </c>
       <c r="E62">
-        <v>249.96154375980771</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F62">
+        <v>98.635340502802237</v>
+      </c>
+      <c r="G62">
+        <v>107.625</v>
+      </c>
+      <c r="H62">
+        <v>60.274658764085451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>409.00025162734892</v>
+        <v>433.11763851086886</v>
       </c>
       <c r="B63">
-        <v>377.85756377028872</v>
+        <v>401.24696201120895</v>
       </c>
       <c r="C63">
-        <v>264.8994373981007</v>
+        <v>265.55484805109091</v>
       </c>
       <c r="D63">
-        <v>310.4462847155537</v>
+        <v>248.3392671343004</v>
       </c>
       <c r="E63">
-        <v>256.91870891165644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F63">
+        <v>100.31174050280224</v>
+      </c>
+      <c r="G63">
+        <v>107.625</v>
+      </c>
+      <c r="H63">
+        <v>62.0848167835751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>415.70585162734892</v>
+        <v>439.82323851086886</v>
       </c>
       <c r="B64">
-        <v>384.56316377028872</v>
+        <v>407.95256201120895</v>
       </c>
       <c r="C64">
-        <v>271.34822275912558</v>
+        <v>272.00236410245634</v>
       </c>
       <c r="D64">
-        <v>317.9613498766297</v>
+        <v>255.56739921225901</v>
       </c>
       <c r="E64">
-        <v>263.86337406350515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F64">
+        <v>101.98814050280224</v>
+      </c>
+      <c r="G64">
+        <v>107.625</v>
+      </c>
+      <c r="H64">
+        <v>63.891849803064751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>422.41145162734892</v>
+        <v>446.52883851086887</v>
       </c>
       <c r="B65">
-        <v>391.26876377028873</v>
+        <v>414.65816201120896</v>
       </c>
       <c r="C65">
-        <v>277.78450812015046</v>
+        <v>278.43738015382178</v>
       </c>
       <c r="D65">
-        <v>325.4271869828691</v>
+        <v>262.78303129021759</v>
       </c>
       <c r="E65">
-        <v>270.79553921535387</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F65">
+        <v>103.66454050280224</v>
+      </c>
+      <c r="G65">
+        <v>107.625</v>
+      </c>
+      <c r="H65">
+        <v>65.695757822554398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>429.11705162734893</v>
+        <v>453.23443851086887</v>
       </c>
       <c r="B66">
-        <v>397.97436377028873</v>
+        <v>421.36376201120896</v>
       </c>
       <c r="C66">
-        <v>284.20829348117536</v>
+        <v>284.85989620518723</v>
       </c>
       <c r="D66">
-        <v>332.8404823075208</v>
+        <v>269.98616336817616</v>
       </c>
       <c r="E66">
-        <v>277.7152043672026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F66">
+        <v>105.34094050280224</v>
+      </c>
+      <c r="G66">
+        <v>107.625</v>
+      </c>
+      <c r="H66">
+        <v>67.496540842044041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>435.82265162734893</v>
+        <v>459.94003851086887</v>
       </c>
       <c r="B67">
-        <v>404.67996377028874</v>
+        <v>428.06936201120897</v>
       </c>
       <c r="C67">
-        <v>290.61957884220027</v>
+        <v>291.26991225655263</v>
       </c>
       <c r="D67">
-        <v>340.19792529383108</v>
+        <v>277.17679544613475</v>
       </c>
       <c r="E67">
-        <v>284.62236951905129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F67">
+        <v>107.01734050280224</v>
+      </c>
+      <c r="G67">
+        <v>107.625</v>
+      </c>
+      <c r="H67">
+        <v>69.294198861533687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>442.52825162734894</v>
+        <v>466.64563851086888</v>
       </c>
       <c r="B68">
-        <v>411.38556377028874</v>
+        <v>434.77496201120897</v>
       </c>
       <c r="C68">
-        <v>297.01836420322513</v>
+        <v>297.66742830791804</v>
       </c>
       <c r="D68">
-        <v>347.49618887959218</v>
+        <v>284.35492752409328</v>
       </c>
       <c r="E68">
-        <v>291.51703467089999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F68">
+        <v>107.625</v>
+      </c>
+      <c r="G68">
+        <v>107.625</v>
+      </c>
+      <c r="H68">
+        <v>71.088731881023321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>449.23385162734894</v>
+        <v>473.35123851086888</v>
       </c>
       <c r="B69">
-        <v>418.09116377028874</v>
+        <v>441.48056201120897</v>
       </c>
       <c r="C69">
-        <v>303.40464956425001</v>
+        <v>304.05244435928347</v>
       </c>
       <c r="D69">
-        <v>354.72051262379631</v>
+        <v>291.52055960205183</v>
       </c>
       <c r="E69">
-        <v>298.3991998227487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F69">
+        <v>107.625</v>
+      </c>
+      <c r="G69">
+        <v>107.625</v>
+      </c>
+      <c r="H69">
+        <v>72.880139900512958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>455.93945162734894</v>
+        <v>480.05683851086889</v>
       </c>
       <c r="B70">
-        <v>424.79676377028875</v>
+        <v>448.18616201120898</v>
       </c>
       <c r="C70">
-        <v>309.77843492527489</v>
+        <v>310.42496041064891</v>
       </c>
       <c r="D70">
-        <v>361.88514329298039</v>
+        <v>298.67369168001039</v>
       </c>
       <c r="E70">
-        <v>305.26886497459742</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F70">
+        <v>107.625</v>
+      </c>
+      <c r="G70">
+        <v>107.625</v>
+      </c>
+      <c r="H70">
+        <v>74.668422920002598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>462.64505162734895</v>
+        <v>486.76243851086889</v>
       </c>
       <c r="B71">
-        <v>431.50236377028875</v>
+        <v>454.89176201120898</v>
       </c>
       <c r="C71">
-        <v>316.13972028629979</v>
+        <v>316.78497646201436</v>
       </c>
       <c r="D71">
-        <v>368.98563653558574</v>
+        <v>305.81432375796896</v>
       </c>
       <c r="E71">
-        <v>312.12603012644615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F71">
+        <v>107.625</v>
+      </c>
+      <c r="G71">
+        <v>107.625</v>
+      </c>
+      <c r="H71">
+        <v>76.453580939492241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>469.35065162734895</v>
+        <v>493.46803851086889</v>
       </c>
       <c r="B72">
-        <v>438.20796377028876</v>
+        <v>461.59736201120899</v>
       </c>
       <c r="C72">
-        <v>322.4885056473247</v>
+        <v>323.13249251337976</v>
       </c>
       <c r="D72">
-        <v>376.01715944166841</v>
+        <v>312.94245583592755</v>
       </c>
       <c r="E72">
-        <v>318.97069527829484</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F72">
+        <v>107.625</v>
+      </c>
+      <c r="G72">
+        <v>107.625</v>
+      </c>
+      <c r="H72">
+        <v>78.235613958981887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>476.05625162734896</v>
+        <v>500.1736385108689</v>
       </c>
       <c r="B73">
-        <v>444.91356377028876</v>
+        <v>468.30296201120899</v>
       </c>
       <c r="C73">
-        <v>328.82479100834956</v>
+        <v>329.46750856474517</v>
       </c>
       <c r="D73">
-        <v>382.72275944166842</v>
+        <v>320.05808791388608</v>
       </c>
       <c r="E73">
-        <v>325.80286043014354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F73">
+        <v>107.625</v>
+      </c>
+      <c r="G73">
+        <v>107.625</v>
+      </c>
+      <c r="H73">
+        <v>80.014521978471521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>482.76185162734896</v>
+        <v>506.8792385108689</v>
       </c>
       <c r="B74">
-        <v>451.61916377028876</v>
+        <v>475.00856201120899</v>
       </c>
       <c r="C74">
-        <v>335.14857636937444</v>
+        <v>335.7900246161106</v>
       </c>
       <c r="D74">
-        <v>389.42835944166842</v>
+        <v>327.16121999184463</v>
       </c>
       <c r="E74">
-        <v>332.62252558199225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F74">
+        <v>107.625</v>
+      </c>
+      <c r="G74">
+        <v>107.625</v>
+      </c>
+      <c r="H74">
+        <v>81.790304997961158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>489.46745162734896</v>
+        <v>513.58483851086885</v>
       </c>
       <c r="B75">
-        <v>458.32476377028877</v>
+        <v>481.714162011209</v>
       </c>
       <c r="C75">
-        <v>341.45986173039933</v>
+        <v>342.10004066747604</v>
       </c>
       <c r="D75">
-        <v>396.13395944166842</v>
+        <v>334.25185206980319</v>
       </c>
       <c r="E75">
-        <v>339.42969073384097</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F75">
+        <v>107.625</v>
+      </c>
+      <c r="G75">
+        <v>107.625</v>
+      </c>
+      <c r="H75">
+        <v>83.562963017450798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>496.17305162734897</v>
+        <v>520.29043851086885</v>
       </c>
       <c r="B76">
-        <v>465.03036377028877</v>
+        <v>488.419762011209</v>
       </c>
       <c r="C76">
-        <v>347.75864709142422</v>
+        <v>348.39755671884149</v>
       </c>
       <c r="D76">
-        <v>402.83955944166843</v>
+        <v>341.32998414776176</v>
       </c>
       <c r="E76">
-        <v>346.2243558856897</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F76">
+        <v>107.625</v>
+      </c>
+      <c r="G76">
+        <v>107.625</v>
+      </c>
+      <c r="H76">
+        <v>85.332496036940441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>502.87865162734897</v>
+        <v>526.99603851086886</v>
       </c>
       <c r="B77">
-        <v>471.73596377028878</v>
+        <v>495.12536201120901</v>
       </c>
       <c r="C77">
-        <v>354.04493245244913</v>
+        <v>354.68257277020689</v>
       </c>
       <c r="D77">
-        <v>409.54515944166843</v>
+        <v>348.39561622572035</v>
       </c>
       <c r="E77">
-        <v>353.00652103753839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F77">
+        <v>107.625</v>
+      </c>
+      <c r="G77">
+        <v>107.625</v>
+      </c>
+      <c r="H77">
+        <v>87.098904056430086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>509.58425162734898</v>
+        <v>533.70163851086886</v>
       </c>
       <c r="B78">
-        <v>478.44156377028878</v>
+        <v>501.83096201120901</v>
       </c>
       <c r="C78">
-        <v>360.318717813474</v>
+        <v>360.9550888215723</v>
       </c>
       <c r="D78">
-        <v>416.25075944166844</v>
+        <v>355.44874830367894</v>
       </c>
       <c r="E78">
-        <v>359.77618618938709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F78">
+        <v>107.625</v>
+      </c>
+      <c r="G78">
+        <v>107.625</v>
+      </c>
+      <c r="H78">
+        <v>88.862187075919735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>516.28985162734898</v>
+        <v>540.40723851086886</v>
       </c>
       <c r="B79">
-        <v>485.14716377028878</v>
+        <v>508.53656201120901</v>
       </c>
       <c r="C79">
-        <v>366.58000317449887</v>
+        <v>367.21510487293773</v>
       </c>
       <c r="D79">
-        <v>422.95635944166844</v>
+        <v>362.48938038163749</v>
       </c>
       <c r="E79">
-        <v>366.5333513412358</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F79">
+        <v>107.625</v>
+      </c>
+      <c r="G79">
+        <v>107.625</v>
+      </c>
+      <c r="H79">
+        <v>90.622345095409372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>522.99545162734898</v>
+        <v>547.11283851086887</v>
       </c>
       <c r="B80">
-        <v>491.85276377028879</v>
+        <v>515.24216201120896</v>
       </c>
       <c r="C80">
-        <v>372.82878853552376</v>
+        <v>373.46262092430317</v>
       </c>
       <c r="D80">
-        <v>429.66195944166844</v>
+        <v>369.51751245959605</v>
       </c>
       <c r="E80">
-        <v>373.27801649308452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F80">
+        <v>107.625</v>
+      </c>
+      <c r="G80">
+        <v>107.625</v>
+      </c>
+      <c r="H80">
+        <v>92.379378114899012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>529.70105162734899</v>
+        <v>553.81843851086887</v>
       </c>
       <c r="B81">
-        <v>498.55836377028879</v>
+        <v>521.94776201120897</v>
       </c>
       <c r="C81">
-        <v>379.06507389654865</v>
+        <v>379.69763697566862</v>
       </c>
       <c r="D81">
-        <v>436.36755944166845</v>
+        <v>376.53314453755462</v>
       </c>
       <c r="E81">
-        <v>380.01018164493325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F81">
+        <v>107.625</v>
+      </c>
+      <c r="G81">
+        <v>107.625</v>
+      </c>
+      <c r="H81">
+        <v>94.133286134388655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>536.40665162734899</v>
+        <v>560.52403851086888</v>
       </c>
       <c r="B82">
-        <v>505.2639637702888</v>
+        <v>528.65336201120897</v>
       </c>
       <c r="C82">
-        <v>385.28885925757356</v>
+        <v>385.92015302703402</v>
       </c>
       <c r="D82">
-        <v>443.07315944166845</v>
+        <v>383.5362766155132</v>
       </c>
       <c r="E82">
-        <v>386.72984679678194</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F82">
+        <v>107.625</v>
+      </c>
+      <c r="G82">
+        <v>107.625</v>
+      </c>
+      <c r="H82">
+        <v>95.884069153878301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>543.112251627349</v>
+        <v>567.22963851086888</v>
       </c>
       <c r="B83">
-        <v>511.9695637702888</v>
+        <v>535.35896201120897</v>
       </c>
       <c r="C83">
-        <v>391.50014461859843</v>
+        <v>392.13016907839943</v>
       </c>
       <c r="D83">
-        <v>449.77875944166846</v>
+        <v>390.5269086934718</v>
       </c>
       <c r="E83">
-        <v>393.43701194863064</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F83">
+        <v>107.625</v>
+      </c>
+      <c r="G83">
+        <v>107.625</v>
+      </c>
+      <c r="H83">
+        <v>97.631727173367949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>549.817851627349</v>
+        <v>573.93523851086888</v>
       </c>
       <c r="B84">
-        <v>518.6751637702888</v>
+        <v>542.06456201120898</v>
       </c>
       <c r="C84">
-        <v>397.6989299796233</v>
+        <v>398.32768512976486</v>
       </c>
       <c r="D84">
-        <v>456.48435944166846</v>
+        <v>397.50504077143034</v>
       </c>
       <c r="E84">
-        <v>400.13167710047935</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F84">
+        <v>107.625</v>
+      </c>
+      <c r="G84">
+        <v>107.625</v>
+      </c>
+      <c r="H84">
+        <v>99.376260192857586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>556.523451627349</v>
+        <v>580.64083851086889</v>
       </c>
       <c r="B85">
-        <v>525.38076377028881</v>
+        <v>548.77016201120898</v>
       </c>
       <c r="C85">
-        <v>403.88521534064819</v>
+        <v>404.5127011811303</v>
       </c>
       <c r="D85">
-        <v>463.18995944166846</v>
+        <v>404.4706728493889</v>
       </c>
       <c r="E85">
-        <v>406.81384225232807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F85">
+        <v>107.625</v>
+      </c>
+      <c r="G85">
+        <v>107.625</v>
+      </c>
+      <c r="H85">
+        <v>101.11766821234723</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>563.22905162734901</v>
+        <v>587.34643851086889</v>
       </c>
       <c r="B86">
-        <v>532.08636377028881</v>
+        <v>555.47576201120899</v>
       </c>
       <c r="C86">
-        <v>410.05900070167309</v>
+        <v>410.68521723249575</v>
       </c>
       <c r="D86">
-        <v>469.89555944166847</v>
+        <v>411.42380492734748</v>
       </c>
       <c r="E86">
-        <v>413.48350740417681</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F86">
+        <v>107.625</v>
+      </c>
+      <c r="G86">
+        <v>107.625</v>
+      </c>
+      <c r="H86">
+        <v>102.85595123183687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>569.93465162734901</v>
+        <v>594.0520385108689</v>
       </c>
       <c r="B87">
-        <v>538.79196377028882</v>
+        <v>562.18136201120899</v>
       </c>
       <c r="C87">
-        <v>416.22028606269799</v>
+        <v>416.84523328386115</v>
       </c>
       <c r="D87">
-        <v>476.60115944166847</v>
+        <v>418.36443700530606</v>
       </c>
       <c r="E87">
-        <v>420.14067255602549</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F87">
+        <v>107.625</v>
+      </c>
+      <c r="G87">
+        <v>107.625</v>
+      </c>
+      <c r="H87">
+        <v>104.59110925132651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>576.64025162734902</v>
+        <v>600.7576385108689</v>
       </c>
       <c r="B88">
-        <v>545.49756377028882</v>
+        <v>568.88696201120899</v>
       </c>
       <c r="C88">
-        <v>422.36907142372286</v>
+        <v>422.99274933522656</v>
       </c>
       <c r="D88">
-        <v>483.30675944166848</v>
+        <v>425.29256908326465</v>
       </c>
       <c r="E88">
-        <v>426.78533770787419</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F88">
+        <v>107.625</v>
+      </c>
+      <c r="G88">
+        <v>107.625</v>
+      </c>
+      <c r="H88">
+        <v>106.32314227081616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>583.34585162734902</v>
+        <v>607.4632385108689</v>
       </c>
       <c r="B89">
-        <v>552.20316377028882</v>
+        <v>575.592562011209</v>
       </c>
       <c r="C89">
-        <v>428.50535678474773</v>
+        <v>429.12776538659199</v>
       </c>
       <c r="D89">
-        <v>490.01235944166848</v>
+        <v>432.2082011612232</v>
       </c>
       <c r="E89">
-        <v>433.4175028597229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F89">
+        <v>107.625</v>
+      </c>
+      <c r="G89">
+        <v>107.625</v>
+      </c>
+      <c r="H89">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>590.05145162734902</v>
+        <v>614.16883851086891</v>
       </c>
       <c r="B90">
-        <v>558.90876377028883</v>
+        <v>582.298162011209</v>
       </c>
       <c r="C90">
-        <v>434.62914214577262</v>
+        <v>435.25028143795743</v>
       </c>
       <c r="D90">
-        <v>496.71795944166848</v>
+        <v>439.1215770173622</v>
       </c>
       <c r="E90">
-        <v>440.04986210594831</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F90">
+        <v>107.625</v>
+      </c>
+      <c r="G90">
+        <v>107.625</v>
+      </c>
+      <c r="H90">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>596.75705162734903</v>
+        <v>620.87443851086891</v>
       </c>
       <c r="B91">
-        <v>565.61436377028883</v>
+        <v>589.00376201120901</v>
       </c>
       <c r="C91">
-        <v>440.7561289620661</v>
+        <v>441.37726825425091</v>
       </c>
       <c r="D91">
-        <v>503.42355944166849</v>
+        <v>446.0349528735012</v>
       </c>
       <c r="E91">
-        <v>446.68222135217371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F91">
+        <v>107.625</v>
+      </c>
+      <c r="G91">
+        <v>107.625</v>
+      </c>
+      <c r="H91">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>603.46265162734903</v>
+        <v>627.58003851086892</v>
       </c>
       <c r="B92">
-        <v>572.31996377028884</v>
+        <v>595.70936201120901</v>
       </c>
       <c r="C92">
-        <v>446.88311577835958</v>
+        <v>447.50425507054439</v>
       </c>
       <c r="D92">
-        <v>510.12915944166849</v>
+        <v>452.9483287296402</v>
       </c>
       <c r="E92">
-        <v>453.31458059839912</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F92">
+        <v>107.625</v>
+      </c>
+      <c r="G92">
+        <v>107.625</v>
+      </c>
+      <c r="H92">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>610.16825162734904</v>
+        <v>634.28563851086892</v>
       </c>
       <c r="B93">
-        <v>579.02556377028884</v>
+        <v>602.41496201120901</v>
       </c>
       <c r="C93">
-        <v>453.01010259465306</v>
+        <v>453.63124188683787</v>
       </c>
       <c r="D93">
-        <v>516.83475944166844</v>
+        <v>459.86170458577919</v>
       </c>
       <c r="E93">
-        <v>459.94693984462452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F93">
+        <v>107.625</v>
+      </c>
+      <c r="G93">
+        <v>107.625</v>
+      </c>
+      <c r="H93">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>616.87385162734904</v>
+        <v>640.99123851086893</v>
       </c>
       <c r="B94">
-        <v>585.73116377028884</v>
+        <v>609.12056201120902</v>
       </c>
       <c r="C94">
-        <v>459.13708941094654</v>
+        <v>459.75822870313135</v>
       </c>
       <c r="D94">
-        <v>523.54035944166844</v>
+        <v>466.77508044191819</v>
       </c>
       <c r="E94">
-        <v>466.57929909084993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F94">
+        <v>107.625</v>
+      </c>
+      <c r="G94">
+        <v>107.625</v>
+      </c>
+      <c r="H94">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>623.57945162734904</v>
+        <v>647.69683851086893</v>
       </c>
       <c r="B95">
-        <v>592.43676377028885</v>
+        <v>615.82616201120902</v>
       </c>
       <c r="C95">
-        <v>465.26407622724003</v>
+        <v>465.88521551942483</v>
       </c>
       <c r="D95">
-        <v>530.24595944166845</v>
+        <v>473.68845629805719</v>
       </c>
       <c r="E95">
-        <v>473.21165833707533</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F95">
+        <v>107.625</v>
+      </c>
+      <c r="G95">
+        <v>107.625</v>
+      </c>
+      <c r="H95">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>630.28505162734905</v>
+        <v>654.40243851086893</v>
       </c>
       <c r="B96">
-        <v>599.14236377028885</v>
+        <v>622.53176201120903</v>
       </c>
       <c r="C96">
-        <v>471.39106304353351</v>
+        <v>472.01220233571831</v>
       </c>
       <c r="D96">
-        <v>536.95155944166845</v>
+        <v>480.60183215419619</v>
       </c>
       <c r="E96">
-        <v>479.84401758330074</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F96">
+        <v>107.625</v>
+      </c>
+      <c r="G96">
+        <v>107.625</v>
+      </c>
+      <c r="H96">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>636.99065162734905</v>
+        <v>661.10803851086894</v>
       </c>
       <c r="B97">
-        <v>605.84796377028886</v>
+        <v>629.23736201120903</v>
       </c>
       <c r="C97">
-        <v>477.51804985982699</v>
+        <v>478.1391891520118</v>
       </c>
       <c r="D97">
-        <v>543.65715944166845</v>
+        <v>487.51520801033519</v>
       </c>
       <c r="E97">
-        <v>486.47637682952615</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F97">
+        <v>107.625</v>
+      </c>
+      <c r="G97">
+        <v>107.625</v>
+      </c>
+      <c r="H97">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>643.69625162734906</v>
+        <v>667.81363851086894</v>
       </c>
       <c r="B98">
-        <v>612.55356377028886</v>
+        <v>635.94296201120903</v>
       </c>
       <c r="C98">
-        <v>483.64503667612047</v>
+        <v>484.26617596830528</v>
       </c>
       <c r="D98">
-        <v>550.36275944166846</v>
+        <v>494.42858386647418</v>
       </c>
       <c r="E98">
-        <v>493.10873607575155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F98">
+        <v>107.625</v>
+      </c>
+      <c r="G98">
+        <v>107.625</v>
+      </c>
+      <c r="H98">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>650.40185162734906</v>
+        <v>674.51923851086895</v>
       </c>
       <c r="B99">
-        <v>619.25916377028886</v>
+        <v>642.64856201120904</v>
       </c>
       <c r="C99">
-        <v>489.77202349241395</v>
+        <v>490.39316278459876</v>
       </c>
       <c r="D99">
-        <v>557.06835944166846</v>
+        <v>501.34195972261318</v>
       </c>
       <c r="E99">
-        <v>499.74109532197696</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F99">
+        <v>107.625</v>
+      </c>
+      <c r="G99">
+        <v>107.625</v>
+      </c>
+      <c r="H99">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>657.10745162734906</v>
+        <v>681.22483851086895</v>
       </c>
       <c r="B100">
-        <v>625.96476377028887</v>
+        <v>649.35416201120904</v>
       </c>
       <c r="C100">
-        <v>495.89901030870743</v>
+        <v>496.52014960089224</v>
       </c>
       <c r="D100">
-        <v>563.77395944166847</v>
+        <v>508.25533557875218</v>
       </c>
       <c r="E100">
-        <v>506.37345456820236</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F100">
+        <v>107.625</v>
+      </c>
+      <c r="G100">
+        <v>107.625</v>
+      </c>
+      <c r="H100">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>663.81305162734907</v>
+        <v>687.93043851086895</v>
       </c>
       <c r="B101">
-        <v>632.67036377028887</v>
+        <v>656.05976201120905</v>
       </c>
       <c r="C101">
-        <v>502.02599712500091</v>
+        <v>502.64713641718572</v>
       </c>
       <c r="D101">
-        <v>570.47955944166847</v>
+        <v>515.16871143489118</v>
       </c>
       <c r="E101">
-        <v>513.00581381442782</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F101">
+        <v>107.625</v>
+      </c>
+      <c r="G101">
+        <v>107.625</v>
+      </c>
+      <c r="H101">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>670.51865162734907</v>
+        <v>694.63603851086896</v>
       </c>
       <c r="B102">
-        <v>639.37596377028888</v>
+        <v>662.76536201120905</v>
       </c>
       <c r="C102">
-        <v>508.15298394129439</v>
+        <v>508.7741232334792</v>
       </c>
       <c r="D102">
-        <v>577.18515944166847</v>
+        <v>522.08208729103023</v>
       </c>
       <c r="E102">
-        <v>519.63817306065323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F102">
+        <v>107.625</v>
+      </c>
+      <c r="G102">
+        <v>107.625</v>
+      </c>
+      <c r="H102">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>677.22425162734908</v>
+        <v>701.34163851086896</v>
       </c>
       <c r="B103">
-        <v>646.08156377028888</v>
+        <v>669.47096201120905</v>
       </c>
       <c r="C103">
-        <v>514.27997075758788</v>
+        <v>514.90111004977268</v>
       </c>
       <c r="D103">
-        <v>583.89075944166848</v>
+        <v>528.99546314716929</v>
       </c>
       <c r="E103">
-        <v>526.27053230687864</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F103">
+        <v>107.625</v>
+      </c>
+      <c r="G103">
+        <v>107.625</v>
+      </c>
+      <c r="H103">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>683.92985162734908</v>
+        <v>708.04723851086897</v>
       </c>
       <c r="B104">
-        <v>652.78716377028888</v>
+        <v>676.17656201120906</v>
       </c>
       <c r="C104">
-        <v>520.40695757388141</v>
+        <v>521.02809686606622</v>
       </c>
       <c r="D104">
-        <v>590.59635944166848</v>
+        <v>535.90883900330834</v>
       </c>
       <c r="E104">
-        <v>532.90289155310404</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F104">
+        <v>107.625</v>
+      </c>
+      <c r="G104">
+        <v>107.625</v>
+      </c>
+      <c r="H104">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>690.63545162734908</v>
+        <v>714.75283851086897</v>
       </c>
       <c r="B105">
-        <v>659.49276377028889</v>
+        <v>682.88216201120906</v>
       </c>
       <c r="C105">
-        <v>526.53394439017495</v>
+        <v>527.15508368235976</v>
       </c>
       <c r="D105">
-        <v>597.30195944166849</v>
+        <v>542.8222148594474</v>
       </c>
       <c r="E105">
-        <v>539.53525079932945</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F105">
+        <v>107.625</v>
+      </c>
+      <c r="G105">
+        <v>107.625</v>
+      </c>
+      <c r="H105">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>697.34105162734909</v>
+        <v>721.45843851086897</v>
       </c>
       <c r="B106">
-        <v>666.19836377028889</v>
+        <v>689.58776201120907</v>
       </c>
       <c r="C106">
-        <v>532.66093120646849</v>
+        <v>533.2820704986533</v>
       </c>
       <c r="D106">
-        <v>604.00755944166849</v>
+        <v>549.73559071558645</v>
       </c>
       <c r="E106">
-        <v>546.16761004555485</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F106">
+        <v>107.625</v>
+      </c>
+      <c r="G106">
+        <v>107.625</v>
+      </c>
+      <c r="H106">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>704.04665162734909</v>
+        <v>728.16403851086898</v>
       </c>
       <c r="B107">
-        <v>672.9039637702889</v>
+        <v>696.29336201120907</v>
       </c>
       <c r="C107">
-        <v>538.78791802276203</v>
+        <v>539.40905731494684</v>
       </c>
       <c r="D107">
-        <v>610.71315944166849</v>
+        <v>556.64896657172551</v>
       </c>
       <c r="E107">
-        <v>552.79996929178026</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F107">
+        <v>107.625</v>
+      </c>
+      <c r="G107">
+        <v>107.625</v>
+      </c>
+      <c r="H107">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>710.7522516273491</v>
+        <v>734.86963851086898</v>
       </c>
       <c r="B108">
-        <v>679.6095637702889</v>
+        <v>702.99896201120907</v>
       </c>
       <c r="C108">
-        <v>544.91490483905557</v>
+        <v>545.53604413124037</v>
       </c>
       <c r="D108">
-        <v>617.4187594416685</v>
+        <v>563.56234242786456</v>
       </c>
       <c r="E108">
-        <v>559.43232853800566</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F108">
+        <v>107.625</v>
+      </c>
+      <c r="G108">
+        <v>107.625</v>
+      </c>
+      <c r="H108">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>717.4578516273491</v>
+        <v>741.57523851086899</v>
       </c>
       <c r="B109">
-        <v>686.3151637702889</v>
+        <v>709.70456201120908</v>
       </c>
       <c r="C109">
-        <v>551.0418916553491</v>
+        <v>551.66303094753391</v>
       </c>
       <c r="D109">
-        <v>624.1243594416685</v>
+        <v>570.47571828400362</v>
       </c>
       <c r="E109">
-        <v>566.06468778423107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F109">
+        <v>107.625</v>
+      </c>
+      <c r="G109">
+        <v>107.625</v>
+      </c>
+      <c r="H109">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>724.1634516273491</v>
+        <v>748.28083851086899</v>
       </c>
       <c r="B110">
-        <v>693.02076377028891</v>
+        <v>716.41016201120908</v>
       </c>
       <c r="C110">
-        <v>557.16887847164264</v>
+        <v>557.79001776382745</v>
       </c>
       <c r="D110">
-        <v>630.82995944166851</v>
+        <v>577.38909414014267</v>
       </c>
       <c r="E110">
-        <v>572.69704703045647</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F110">
+        <v>107.625</v>
+      </c>
+      <c r="G110">
+        <v>107.625</v>
+      </c>
+      <c r="H110">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>730.86905162734911</v>
+        <v>754.98643851086899</v>
       </c>
       <c r="B111">
-        <v>699.72636377028891</v>
+        <v>723.11576201120909</v>
       </c>
       <c r="C111">
-        <v>563.29586528793618</v>
+        <v>563.91700458012099</v>
       </c>
       <c r="D111">
-        <v>637.53555944166851</v>
+        <v>584.30246999628173</v>
       </c>
       <c r="E111">
-        <v>579.32940627668188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F111">
+        <v>107.625</v>
+      </c>
+      <c r="G111">
+        <v>107.625</v>
+      </c>
+      <c r="H111">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>737.57465162734911</v>
+        <v>761.692038510869</v>
       </c>
       <c r="B112">
-        <v>706.43196377028892</v>
+        <v>729.82136201120909</v>
       </c>
       <c r="C112">
-        <v>569.42285210422972</v>
+        <v>570.04399139641453</v>
       </c>
       <c r="D112">
-        <v>644.24115944166851</v>
+        <v>591.21584585242078</v>
       </c>
       <c r="E112">
-        <v>585.96176552290729</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F112">
+        <v>107.625</v>
+      </c>
+      <c r="G112">
+        <v>107.625</v>
+      </c>
+      <c r="H112">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>744.28025162734912</v>
+        <v>768.397638510869</v>
       </c>
       <c r="B113">
-        <v>713.13756377028892</v>
+        <v>736.52696201120909</v>
       </c>
       <c r="C113">
-        <v>575.54983892052326</v>
+        <v>576.17097821270806</v>
       </c>
       <c r="D113">
-        <v>650.94675944166852</v>
+        <v>598.12922170855984</v>
       </c>
       <c r="E113">
-        <v>592.59412476913269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F113">
+        <v>107.625</v>
+      </c>
+      <c r="G113">
+        <v>107.625</v>
+      </c>
+      <c r="H113">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>750.98585162734912</v>
+        <v>775.10323851086901</v>
       </c>
       <c r="B114">
-        <v>719.84316377028892</v>
+        <v>743.2325620112091</v>
       </c>
       <c r="C114">
-        <v>581.6768257368168</v>
+        <v>582.2979650290016</v>
       </c>
       <c r="D114">
-        <v>657.65235944166852</v>
+        <v>605.04259756469889</v>
       </c>
       <c r="E114">
-        <v>599.2264840153581</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F114">
+        <v>107.625</v>
+      </c>
+      <c r="G114">
+        <v>107.625</v>
+      </c>
+      <c r="H114">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>757.69145162734912</v>
+        <v>781.80883851086901</v>
       </c>
       <c r="B115">
-        <v>726.54876377028893</v>
+        <v>749.9381620112091</v>
       </c>
       <c r="C115">
-        <v>587.80381255311033</v>
+        <v>588.42495184529514</v>
       </c>
       <c r="D115">
-        <v>664.35795944166853</v>
+        <v>611.95597342083795</v>
       </c>
       <c r="E115">
-        <v>605.8588432615835</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F115">
+        <v>107.625</v>
+      </c>
+      <c r="G115">
+        <v>107.625</v>
+      </c>
+      <c r="H115">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>764.39705162734913</v>
+        <v>788.51443851086901</v>
       </c>
       <c r="B116">
-        <v>733.25436377028893</v>
+        <v>756.64376201120911</v>
       </c>
       <c r="C116">
-        <v>593.93079936940387</v>
+        <v>594.55193866158868</v>
       </c>
       <c r="D116">
-        <v>671.06355944166853</v>
+        <v>618.869349276977</v>
       </c>
       <c r="E116">
-        <v>612.49120250780891</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F116">
+        <v>107.625</v>
+      </c>
+      <c r="G116">
+        <v>107.625</v>
+      </c>
+      <c r="H116">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>771.10265162734913</v>
+        <v>795.22003851086902</v>
       </c>
       <c r="B117">
-        <v>739.95996377028894</v>
+        <v>763.34936201120911</v>
       </c>
       <c r="C117">
-        <v>600.05778618569741</v>
+        <v>600.67892547788222</v>
       </c>
       <c r="D117">
-        <v>677.76915944166853</v>
+        <v>625.78272513311606</v>
       </c>
       <c r="E117">
-        <v>619.12356175403431</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F117">
+        <v>107.625</v>
+      </c>
+      <c r="G117">
+        <v>107.625</v>
+      </c>
+      <c r="H117">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>777.80825162734914</v>
+        <v>801.92563851086902</v>
       </c>
       <c r="B118">
-        <v>746.66556377028894</v>
+        <v>770.05496201120911</v>
       </c>
       <c r="C118">
-        <v>606.18477300199095</v>
+        <v>606.80591229417576</v>
       </c>
       <c r="D118">
-        <v>684.47475944166854</v>
+        <v>632.69610098925511</v>
       </c>
       <c r="E118">
-        <v>625.75592100025972</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F118">
+        <v>107.625</v>
+      </c>
+      <c r="G118">
+        <v>107.625</v>
+      </c>
+      <c r="H118">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>784.51385162734914</v>
+        <v>808.63123851086903</v>
       </c>
       <c r="B119">
-        <v>753.37116377028894</v>
+        <v>776.76056201120912</v>
       </c>
       <c r="C119">
-        <v>612.31175981828449</v>
+        <v>612.93289911046929</v>
       </c>
       <c r="D119">
-        <v>691.18035944166854</v>
+        <v>639.60947684539417</v>
       </c>
       <c r="E119">
-        <v>632.38828024648512</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F119">
+        <v>107.625</v>
+      </c>
+      <c r="G119">
+        <v>107.625</v>
+      </c>
+      <c r="H119">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>791.21945162734914</v>
+        <v>815.33683851086903</v>
       </c>
       <c r="B120">
-        <v>760.07676377028895</v>
+        <v>783.46616201120912</v>
       </c>
       <c r="C120">
-        <v>618.43874663457802</v>
+        <v>619.05988592676283</v>
       </c>
       <c r="D120">
-        <v>697.88595944166855</v>
+        <v>646.52285270153322</v>
       </c>
       <c r="E120">
-        <v>639.02063949271053</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F120">
+        <v>107.625</v>
+      </c>
+      <c r="G120">
+        <v>107.625</v>
+      </c>
+      <c r="H120">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>797.92505162734915</v>
+        <v>822.04243851086903</v>
       </c>
       <c r="B121">
-        <v>766.78236377028895</v>
+        <v>790.17176201120913</v>
       </c>
       <c r="C121">
-        <v>624.56573345087156</v>
+        <v>625.18687274305637</v>
       </c>
       <c r="D121">
-        <v>704.59155944166855</v>
+        <v>653.43622855767228</v>
       </c>
       <c r="E121">
-        <v>645.65299873893593</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F121">
+        <v>107.625</v>
+      </c>
+      <c r="G121">
+        <v>107.625</v>
+      </c>
+      <c r="H121">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>804.63065162734915</v>
+        <v>828.74803851086904</v>
       </c>
       <c r="B122">
-        <v>773.48796377028896</v>
+        <v>796.87736201120913</v>
       </c>
       <c r="C122">
-        <v>630.6927202671651</v>
+        <v>631.31385955934991</v>
       </c>
       <c r="D122">
-        <v>711.29715944166855</v>
+        <v>660.34960441381133</v>
       </c>
       <c r="E122">
-        <v>652.28535798516134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F122">
+        <v>107.625</v>
+      </c>
+      <c r="G122">
+        <v>107.625</v>
+      </c>
+      <c r="H122">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>811.33625162734916</v>
+        <v>835.45363851086904</v>
       </c>
       <c r="B123">
-        <v>780.19356377028896</v>
+        <v>803.58296201120913</v>
       </c>
       <c r="C123">
-        <v>636.81970708345864</v>
+        <v>637.44084637564345</v>
       </c>
       <c r="D123">
-        <v>718.00275944166856</v>
+        <v>667.26298026995039</v>
       </c>
       <c r="E123">
-        <v>658.91771723138675</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F123">
+        <v>107.625</v>
+      </c>
+      <c r="G123">
+        <v>107.625</v>
+      </c>
+      <c r="H123">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>818.04185162734916</v>
+        <v>842.15923851086905</v>
       </c>
       <c r="B124">
-        <v>786.89916377028896</v>
+        <v>810.28856201120914</v>
       </c>
       <c r="C124">
-        <v>642.94669389975218</v>
+        <v>643.56783319193698</v>
       </c>
       <c r="D124">
-        <v>724.70835944166856</v>
+        <v>674.17635612608944</v>
       </c>
       <c r="E124">
-        <v>665.55007647761215</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F124">
+        <v>107.625</v>
+      </c>
+      <c r="G124">
+        <v>107.625</v>
+      </c>
+      <c r="H124">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>824.74745162734916</v>
+        <v>848.86483851086905</v>
       </c>
       <c r="B125">
-        <v>793.60476377028897</v>
+        <v>816.99416201120914</v>
       </c>
       <c r="C125">
-        <v>649.07368071604571</v>
+        <v>649.69482000823052</v>
       </c>
       <c r="D125">
-        <v>731.41395944166857</v>
+        <v>681.0897319822285</v>
       </c>
       <c r="E125">
-        <v>672.18243572383756</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F125">
+        <v>107.625</v>
+      </c>
+      <c r="G125">
+        <v>107.625</v>
+      </c>
+      <c r="H125">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>831.45305162734917</v>
+        <v>855.57043851086905</v>
       </c>
       <c r="B126">
-        <v>800.31036377028897</v>
+        <v>823.69976201120915</v>
       </c>
       <c r="C126">
-        <v>655.20066753233925</v>
+        <v>655.82180682452406</v>
       </c>
       <c r="D126">
-        <v>738.11955944166857</v>
+        <v>688.00310783836755</v>
       </c>
       <c r="E126">
-        <v>678.81479497006296</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F126">
+        <v>107.625</v>
+      </c>
+      <c r="G126">
+        <v>107.625</v>
+      </c>
+      <c r="H126">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>838.15865162734917</v>
+        <v>862.27603851086906</v>
       </c>
       <c r="B127">
-        <v>807.01596377028898</v>
+        <v>830.40536201120915</v>
       </c>
       <c r="C127">
-        <v>661.32765434863279</v>
+        <v>661.9487936408176</v>
       </c>
       <c r="D127">
-        <v>744.82515944166857</v>
+        <v>694.91648369450661</v>
       </c>
       <c r="E127">
-        <v>685.44715421628837</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F127">
+        <v>107.625</v>
+      </c>
+      <c r="G127">
+        <v>107.625</v>
+      </c>
+      <c r="H127">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>844.86425162734918</v>
+        <v>868.98163851086906</v>
       </c>
       <c r="B128">
-        <v>813.72156377028898</v>
+        <v>837.11096201120915</v>
       </c>
       <c r="C128">
-        <v>667.45464116492633</v>
+        <v>668.07578045711114</v>
       </c>
       <c r="D128">
-        <v>751.53075944166858</v>
+        <v>701.82985955064566</v>
       </c>
       <c r="E128">
-        <v>692.07951346251377</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F128">
+        <v>107.625</v>
+      </c>
+      <c r="G128">
+        <v>107.625</v>
+      </c>
+      <c r="H128">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>851.56985162734918</v>
+        <v>875.68723851086907</v>
       </c>
       <c r="B129">
-        <v>820.42716377028898</v>
+        <v>843.81656201120916</v>
       </c>
       <c r="C129">
-        <v>673.58162798121987</v>
+        <v>674.20276727340467</v>
       </c>
       <c r="D129">
-        <v>758.23635944166858</v>
+        <v>708.74323540678472</v>
       </c>
       <c r="E129">
-        <v>698.71187270873918</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F129">
+        <v>107.625</v>
+      </c>
+      <c r="G129">
+        <v>107.625</v>
+      </c>
+      <c r="H129">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>858.27545162734918</v>
+        <v>882.39283851086907</v>
       </c>
       <c r="B130">
-        <v>827.13276377028899</v>
+        <v>850.52216201120916</v>
       </c>
       <c r="C130">
-        <v>679.70861479751341</v>
+        <v>680.32975408969821</v>
       </c>
       <c r="D130">
-        <v>764.94195944166859</v>
+        <v>715.65661126292378</v>
       </c>
       <c r="E130">
-        <v>705.34423195496458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F130">
+        <v>107.625</v>
+      </c>
+      <c r="G130">
+        <v>107.625</v>
+      </c>
+      <c r="H130">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>864.98105162734919</v>
+        <v>889.09843851086907</v>
       </c>
       <c r="B131">
-        <v>833.83836377028899</v>
+        <v>857.22776201120917</v>
       </c>
       <c r="C131">
-        <v>685.83560161380694</v>
+        <v>686.45674090599175</v>
       </c>
       <c r="D131">
-        <v>771.64755944166859</v>
+        <v>722.56998711906283</v>
       </c>
       <c r="E131">
-        <v>711.97659120118999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F131">
+        <v>107.625</v>
+      </c>
+      <c r="G131">
+        <v>107.625</v>
+      </c>
+      <c r="H131">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>871.68665162734919</v>
+        <v>895.80403851086908</v>
       </c>
       <c r="B132">
-        <v>840.543963770289</v>
+        <v>863.93336201120917</v>
       </c>
       <c r="C132">
-        <v>691.96258843010048</v>
+        <v>692.58372772228529</v>
       </c>
       <c r="D132">
-        <v>778.35315944166859</v>
+        <v>729.48336297520189</v>
       </c>
       <c r="E132">
-        <v>718.6089504474154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F132">
+        <v>107.625</v>
+      </c>
+      <c r="G132">
+        <v>107.625</v>
+      </c>
+      <c r="H132">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>878.3922516273492</v>
+        <v>902.50963851086908</v>
       </c>
       <c r="B133">
-        <v>847.249563770289</v>
+        <v>870.63896201120917</v>
       </c>
       <c r="C133">
-        <v>698.08957524639402</v>
+        <v>698.71071453857883</v>
       </c>
       <c r="D133">
-        <v>785.0587594416686</v>
+        <v>736.39673883134094</v>
       </c>
       <c r="E133">
-        <v>725.2413096936408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F133">
+        <v>107.625</v>
+      </c>
+      <c r="G133">
+        <v>107.625</v>
+      </c>
+      <c r="H133">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>885.0978516273492</v>
+        <v>909.21523851086909</v>
       </c>
       <c r="B134">
-        <v>853.955163770289</v>
+        <v>877.34456201120918</v>
       </c>
       <c r="C134">
-        <v>704.21656206268756</v>
+        <v>704.83770135487237</v>
       </c>
       <c r="D134">
-        <v>791.7643594416686</v>
+        <v>743.31011468748</v>
       </c>
       <c r="E134">
-        <v>731.87366893986621</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F134">
+        <v>107.625</v>
+      </c>
+      <c r="G134">
+        <v>107.625</v>
+      </c>
+      <c r="H134">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>891.8034516273492</v>
+        <v>915.92083851086909</v>
       </c>
       <c r="B135">
-        <v>860.66076377028901</v>
+        <v>884.05016201120918</v>
       </c>
       <c r="C135">
-        <v>710.3435488789811</v>
+        <v>710.9646881711659</v>
       </c>
       <c r="D135">
-        <v>798.46995944166861</v>
+        <v>750.22349054361905</v>
       </c>
       <c r="E135">
-        <v>738.50602818609161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F135">
+        <v>107.625</v>
+      </c>
+      <c r="G135">
+        <v>107.625</v>
+      </c>
+      <c r="H135">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>898.50905162734921</v>
+        <v>922.62643851086909</v>
       </c>
       <c r="B136">
-        <v>867.36636377028901</v>
+        <v>890.75576201120919</v>
       </c>
       <c r="C136">
-        <v>716.47053569527463</v>
+        <v>717.09167498745944</v>
       </c>
       <c r="D136">
-        <v>805.17555944166861</v>
+        <v>757.13686639975811</v>
       </c>
       <c r="E136">
-        <v>745.13838743231702</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F136">
+        <v>107.625</v>
+      </c>
+      <c r="G136">
+        <v>107.625</v>
+      </c>
+      <c r="H136">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>905.21465162734921</v>
+        <v>929.3320385108691</v>
       </c>
       <c r="B137">
-        <v>874.07196377028902</v>
+        <v>897.46136201120919</v>
       </c>
       <c r="C137">
-        <v>722.59752251156817</v>
+        <v>723.21866180375298</v>
       </c>
       <c r="D137">
-        <v>811.88115944166861</v>
+        <v>764.05024225589716</v>
       </c>
       <c r="E137">
-        <v>751.77074667854242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F137">
+        <v>107.625</v>
+      </c>
+      <c r="G137">
+        <v>107.625</v>
+      </c>
+      <c r="H137">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>911.92025162734922</v>
+        <v>936.0376385108691</v>
       </c>
       <c r="B138">
-        <v>880.77756377028902</v>
+        <v>904.16696201120919</v>
       </c>
       <c r="C138">
-        <v>728.72450932786171</v>
+        <v>729.34564862004652</v>
       </c>
       <c r="D138">
-        <v>818.58675944166862</v>
+        <v>770.96361811203622</v>
       </c>
       <c r="E138">
-        <v>758.40310592476783</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F138">
+        <v>107.625</v>
+      </c>
+      <c r="G138">
+        <v>107.625</v>
+      </c>
+      <c r="H138">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>918.62585162734922</v>
+        <v>942.74323851086911</v>
       </c>
       <c r="B139">
-        <v>887.48316377028902</v>
+        <v>910.8725620112092</v>
       </c>
       <c r="C139">
-        <v>734.85149614415525</v>
+        <v>735.47263543634006</v>
       </c>
       <c r="D139">
-        <v>825.29235944166862</v>
+        <v>777.87699396817527</v>
       </c>
       <c r="E139">
-        <v>765.03546517099323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F139">
+        <v>107.625</v>
+      </c>
+      <c r="G139">
+        <v>107.625</v>
+      </c>
+      <c r="H139">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>925.33145162734922</v>
+        <v>949.44883851086911</v>
       </c>
       <c r="B140">
-        <v>894.18876377028903</v>
+        <v>917.5781620112092</v>
       </c>
       <c r="C140">
-        <v>740.97848296044879</v>
+        <v>741.59962225263359</v>
       </c>
       <c r="D140">
-        <v>831.99795944166863</v>
+        <v>784.79036982431433</v>
       </c>
       <c r="E140">
-        <v>771.66782441721864</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F140">
+        <v>107.625</v>
+      </c>
+      <c r="G140">
+        <v>107.625</v>
+      </c>
+      <c r="H140">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>932.03705162734923</v>
+        <v>956.15443851086911</v>
       </c>
       <c r="B141">
-        <v>900.89436377028903</v>
+        <v>924.28376201120921</v>
       </c>
       <c r="C141">
-        <v>747.10546977674232</v>
+        <v>747.72660906892713</v>
       </c>
       <c r="D141">
-        <v>838.70355944166863</v>
+        <v>791.70374568045338</v>
       </c>
       <c r="E141">
-        <v>778.30018366344405</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F141">
+        <v>107.625</v>
+      </c>
+      <c r="G141">
+        <v>107.625</v>
+      </c>
+      <c r="H141">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>938.74265162734923</v>
+        <v>962.86003851086912</v>
       </c>
       <c r="B142">
-        <v>907.59996377028904</v>
+        <v>930.98936201120921</v>
       </c>
       <c r="C142">
-        <v>753.23245659303586</v>
+        <v>753.85359588522067</v>
       </c>
       <c r="D142">
-        <v>845.40915944166863</v>
+        <v>798.61712153659244</v>
       </c>
       <c r="E142">
-        <v>784.93254290966945</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F142">
+        <v>107.625</v>
+      </c>
+      <c r="G142">
+        <v>107.625</v>
+      </c>
+      <c r="H142">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>945.44825162734924</v>
+        <v>969.56563851086912</v>
       </c>
       <c r="B143">
-        <v>914.30556377028904</v>
+        <v>937.69496201120921</v>
       </c>
       <c r="C143">
-        <v>759.3594434093294</v>
+        <v>759.98058270151421</v>
       </c>
       <c r="D143">
-        <v>852.11475944166864</v>
+        <v>805.53049739273149</v>
       </c>
       <c r="E143">
-        <v>791.56490215589486</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F143">
+        <v>107.625</v>
+      </c>
+      <c r="G143">
+        <v>107.625</v>
+      </c>
+      <c r="H143">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>952.15385162734924</v>
+        <v>976.27123851086913</v>
       </c>
       <c r="B144">
-        <v>921.01116377028904</v>
+        <v>944.40056201120922</v>
       </c>
       <c r="C144">
-        <v>765.48643022562294</v>
+        <v>766.10756951780775</v>
       </c>
       <c r="D144">
-        <v>858.82035944166864</v>
+        <v>812.44387324887055</v>
       </c>
       <c r="E144">
-        <v>798.19726140212026</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F144">
+        <v>107.625</v>
+      </c>
+      <c r="G144">
+        <v>107.625</v>
+      </c>
+      <c r="H144">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>958.85945162734924</v>
+        <v>982.97683851086913</v>
       </c>
       <c r="B145">
-        <v>927.71676377028905</v>
+        <v>951.10616201120922</v>
       </c>
       <c r="C145">
-        <v>771.61341704191648</v>
+        <v>772.23455633410128</v>
       </c>
       <c r="D145">
-        <v>865.52595944166865</v>
+        <v>819.3572491050096</v>
       </c>
       <c r="E145">
-        <v>804.82962064834567</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F145">
+        <v>107.625</v>
+      </c>
+      <c r="G145">
+        <v>107.625</v>
+      </c>
+      <c r="H145">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>965.56505162734925</v>
+        <v>989.68243851086913</v>
       </c>
       <c r="B146">
-        <v>934.42236377028905</v>
+        <v>957.81176201120923</v>
       </c>
       <c r="C146">
-        <v>777.74040385821002</v>
+        <v>778.36154315039482</v>
       </c>
       <c r="D146">
-        <v>872.23155944166865</v>
+        <v>826.27062496114866</v>
       </c>
       <c r="E146">
-        <v>811.46197989457107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F146">
+        <v>107.625</v>
+      </c>
+      <c r="G146">
+        <v>107.625</v>
+      </c>
+      <c r="H146">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>972.27065162734925</v>
+        <v>996.38803851086914</v>
       </c>
       <c r="B147">
-        <v>941.12796377028906</v>
+        <v>964.51736201120923</v>
       </c>
       <c r="C147">
-        <v>783.86739067450355</v>
+        <v>784.48852996668836</v>
       </c>
       <c r="D147">
-        <v>878.93715944166865</v>
+        <v>833.18400081728771</v>
       </c>
       <c r="E147">
-        <v>818.09433914079648</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F147">
+        <v>107.625</v>
+      </c>
+      <c r="G147">
+        <v>107.625</v>
+      </c>
+      <c r="H147">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>978.97625162734926</v>
+        <v>1003.0936385108691</v>
       </c>
       <c r="B148">
-        <v>947.83356377028906</v>
+        <v>971.22296201120923</v>
       </c>
       <c r="C148">
-        <v>789.99437749079709</v>
+        <v>790.6155167829819</v>
       </c>
       <c r="D148">
-        <v>885.64275944166866</v>
+        <v>840.09737667342677</v>
       </c>
       <c r="E148">
-        <v>824.72669838702188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F148">
+        <v>107.625</v>
+      </c>
+      <c r="G148">
+        <v>107.625</v>
+      </c>
+      <c r="H148">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>985.68185162734926</v>
+        <v>1009.7992385108691</v>
       </c>
       <c r="B149">
-        <v>954.53916377028906</v>
+        <v>977.92856201120924</v>
       </c>
       <c r="C149">
-        <v>796.12136430709063</v>
+        <v>796.74250359927544</v>
       </c>
       <c r="D149">
-        <v>892.34835944166866</v>
+        <v>847.01075252956582</v>
       </c>
       <c r="E149">
-        <v>831.35905763324729</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F149">
+        <v>107.625</v>
+      </c>
+      <c r="G149">
+        <v>107.625</v>
+      </c>
+      <c r="H149">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>992.38745162734926</v>
+        <v>1016.5048385108691</v>
       </c>
       <c r="B150">
-        <v>961.24476377028907</v>
+        <v>984.63416201120924</v>
       </c>
       <c r="C150">
-        <v>802.24835112338417</v>
+        <v>802.86949041556898</v>
       </c>
       <c r="D150">
-        <v>899.05395944166867</v>
+        <v>853.92412838570488</v>
       </c>
       <c r="E150">
-        <v>837.99141687947269</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F150">
+        <v>107.625</v>
+      </c>
+      <c r="G150">
+        <v>107.625</v>
+      </c>
+      <c r="H150">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>999.09305162734927</v>
+        <v>1023.2104385108692</v>
       </c>
       <c r="B151">
-        <v>967.95036377028907</v>
+        <v>991.33976201120925</v>
       </c>
       <c r="C151">
-        <v>808.37533793967771</v>
+        <v>808.99647723186251</v>
       </c>
       <c r="D151">
-        <v>905.75955944166867</v>
+        <v>860.83750424184393</v>
       </c>
       <c r="E151">
-        <v>844.6237761256981</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F151">
+        <v>107.625</v>
+      </c>
+      <c r="G151">
+        <v>107.625</v>
+      </c>
+      <c r="H151">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1005.7986516273493</v>
+        <v>1029.9160385108692</v>
       </c>
       <c r="B152">
-        <v>974.65596377028908</v>
+        <v>998.04536201120925</v>
       </c>
       <c r="C152">
-        <v>814.50232475597124</v>
+        <v>815.12346404815605</v>
       </c>
       <c r="D152">
-        <v>912.46515944166867</v>
+        <v>867.75088009798299</v>
       </c>
       <c r="E152">
-        <v>851.25613537192351</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F152">
+        <v>107.625</v>
+      </c>
+      <c r="G152">
+        <v>107.625</v>
+      </c>
+      <c r="H152">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1012.5042516273493</v>
+        <v>1036.6216385108692</v>
       </c>
       <c r="B153">
-        <v>981.36156377028908</v>
+        <v>1004.7509620112093</v>
       </c>
       <c r="C153">
-        <v>820.62931157226478</v>
+        <v>821.25045086444959</v>
       </c>
       <c r="D153">
-        <v>919.17075944166868</v>
+        <v>874.66425595412204</v>
       </c>
       <c r="E153">
-        <v>857.88849461814891</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F153">
+        <v>107.625</v>
+      </c>
+      <c r="G153">
+        <v>107.625</v>
+      </c>
+      <c r="H153">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1019.2098516273493</v>
+        <v>1043.3272385108692</v>
       </c>
       <c r="B154">
-        <v>988.06716377028908</v>
+        <v>1011.4565620112093</v>
       </c>
       <c r="C154">
-        <v>826.75629838855832</v>
+        <v>827.37743768074313</v>
       </c>
       <c r="D154">
-        <v>925.87635944166868</v>
+        <v>881.5776318102611</v>
       </c>
       <c r="E154">
-        <v>864.52085386437432</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F154">
+        <v>107.625</v>
+      </c>
+      <c r="G154">
+        <v>107.625</v>
+      </c>
+      <c r="H154">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1025.9154516273493</v>
+        <v>1050.0328385108692</v>
       </c>
       <c r="B155">
-        <v>994.77276377028909</v>
+        <v>1018.1621620112093</v>
       </c>
       <c r="C155">
-        <v>832.88328520485186</v>
+        <v>833.50442449703667</v>
       </c>
       <c r="D155">
-        <v>932.58195944166869</v>
+        <v>888.49100766640015</v>
       </c>
       <c r="E155">
-        <v>871.15321311059972</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F155">
+        <v>107.625</v>
+      </c>
+      <c r="G155">
+        <v>107.625</v>
+      </c>
+      <c r="H155">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1032.6210516273493</v>
+        <v>1056.7384385108692</v>
       </c>
       <c r="B156">
-        <v>1001.4783637702891</v>
+        <v>1024.8677620112092</v>
       </c>
       <c r="C156">
-        <v>839.0102720211454</v>
+        <v>839.6314113133302</v>
       </c>
       <c r="D156">
-        <v>939.28755944166869</v>
+        <v>895.40438352253921</v>
       </c>
       <c r="E156">
-        <v>877.78557235682513</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F156">
+        <v>107.625</v>
+      </c>
+      <c r="G156">
+        <v>107.625</v>
+      </c>
+      <c r="H156">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1039.3266516273493</v>
+        <v>1063.4440385108692</v>
       </c>
       <c r="B157">
-        <v>1008.1839637702891</v>
+        <v>1031.5733620112092</v>
       </c>
       <c r="C157">
-        <v>845.13725883743894</v>
+        <v>845.75839812962374</v>
       </c>
       <c r="D157">
-        <v>945.99315944166869</v>
+        <v>902.31775937867826</v>
       </c>
       <c r="E157">
-        <v>884.41793160305053</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F157">
+        <v>107.625</v>
+      </c>
+      <c r="G157">
+        <v>107.625</v>
+      </c>
+      <c r="H157">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1046.0322516273493</v>
+        <v>1070.1496385108692</v>
       </c>
       <c r="B158">
-        <v>1014.8895637702891</v>
+        <v>1038.2789620112092</v>
       </c>
       <c r="C158">
-        <v>851.26424565373247</v>
+        <v>851.88538494591728</v>
       </c>
       <c r="D158">
-        <v>952.6987594416687</v>
+        <v>909.23113523481732</v>
       </c>
       <c r="E158">
-        <v>891.05029084927594</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F158">
+        <v>107.625</v>
+      </c>
+      <c r="G158">
+        <v>107.625</v>
+      </c>
+      <c r="H158">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1052.7378516273493</v>
+        <v>1076.8552385108692</v>
       </c>
       <c r="B159">
-        <v>1021.5951637702891</v>
+        <v>1044.9845620112092</v>
       </c>
       <c r="C159">
-        <v>857.39123247002601</v>
+        <v>858.01237176221082</v>
       </c>
       <c r="D159">
-        <v>959.4043594416687</v>
+        <v>916.14451109095637</v>
       </c>
       <c r="E159">
-        <v>897.68265009550134</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="F159">
+        <v>107.625</v>
+      </c>
+      <c r="G159">
+        <v>107.625</v>
+      </c>
+      <c r="H159">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1059.4434516273493</v>
+        <v>1083.5608385108692</v>
       </c>
       <c r="B160">
-        <v>1028.300763770289</v>
+        <v>1051.6901620112092</v>
       </c>
       <c r="C160">
-        <v>863.51821928631955</v>
+        <v>864.13935857850436</v>
       </c>
       <c r="D160">
-        <v>966.10995944166871</v>
+        <v>923.05788694709543</v>
       </c>
       <c r="E160">
-        <v>904.31500934172675</v>
+        <v>107.625</v>
+      </c>
+      <c r="F160">
+        <v>107.625</v>
+      </c>
+      <c r="G160">
+        <v>107.625</v>
+      </c>
+      <c r="H160">
+        <v>107.625</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +7285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34807809-E797-40DB-86E5-9E7A1471034F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>

--- a/xydata.xlsx
+++ b/xydata.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\jakkalavanya1 GITHUB\MATLAB_MDV-CAVsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavanyaj\Documents\GitHub\MATLAB_MDV-CAVsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41B97200-307A-4886-8233-2AD63DD8A9E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570" xr2:uid="{F98D9FE5-D3A0-4DE8-BF4A-8BBC3F858E26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,224 +371,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C862A-38C2-4849-93F4-E94D4D74C631}">
-  <dimension ref="A1:H160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection sqref="A1:J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>-125</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>-125</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>-130</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>-140</v>
       </c>
       <c r="E1">
-        <v>107.625</v>
+        <v>-150</v>
       </c>
       <c r="F1">
+        <v>107.625</v>
+      </c>
+      <c r="G1">
         <v>-31.25</v>
       </c>
-      <c r="G1">
-        <v>107.625</v>
-      </c>
       <c r="H1">
+        <v>107.625</v>
+      </c>
+      <c r="I1">
+        <v>107.625</v>
+      </c>
+      <c r="J1">
         <v>-37.5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-125</v>
+        <v>-118.2944</v>
       </c>
       <c r="B2">
-        <v>-130</v>
+        <v>-118.2944</v>
       </c>
       <c r="C2">
-        <v>-125</v>
+        <v>-123.2944</v>
       </c>
       <c r="D2">
-        <v>-150</v>
+        <v>-133.2944</v>
       </c>
       <c r="E2">
-        <v>107.625</v>
+        <v>-143.2944</v>
       </c>
       <c r="F2">
+        <v>107.625</v>
+      </c>
+      <c r="G2">
         <v>-29.573599999999999</v>
       </c>
-      <c r="G2">
-        <v>107.625</v>
-      </c>
       <c r="H2">
+        <v>107.625</v>
+      </c>
+      <c r="I2">
+        <v>107.625</v>
+      </c>
+      <c r="J2">
         <v>-35.823599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>107.625</v>
+        <v>-111.58879999999999</v>
       </c>
       <c r="B3">
-        <v>107.625</v>
+        <v>-111.58879999999999</v>
       </c>
       <c r="C3">
-        <v>-31.25</v>
+        <v>-117.58879999999999</v>
       </c>
       <c r="D3">
-        <v>-37.5</v>
+        <v>-126.58879999999999</v>
       </c>
       <c r="E3">
-        <v>107.625</v>
+        <v>-137.58879999999999</v>
       </c>
       <c r="F3">
+        <v>107.625</v>
+      </c>
+      <c r="G3">
         <v>-27.897199999999998</v>
       </c>
-      <c r="G3">
-        <v>107.625</v>
-      </c>
       <c r="H3">
-        <v>-34.647199999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I3">
+        <v>107.625</v>
+      </c>
+      <c r="J3">
+        <v>-34.397199999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>400</v>
+        <v>-104.88319999999999</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>-104.88319999999999</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>-111.88319999999999</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>-119.88319999999999</v>
       </c>
       <c r="E4">
-        <v>107.625</v>
+        <v>-131.88319999999999</v>
       </c>
       <c r="F4">
+        <v>107.625</v>
+      </c>
+      <c r="G4">
         <v>-26.220799999999997</v>
       </c>
-      <c r="G4">
-        <v>107.625</v>
-      </c>
       <c r="H4">
-        <v>-33.470799999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I4">
+        <v>107.625</v>
+      </c>
+      <c r="J4">
+        <v>-32.970799999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13.411199999999999</v>
+        <v>-98.177599999999984</v>
       </c>
       <c r="B5">
-        <v>13.411199999999999</v>
+        <v>-98.177599999999984</v>
       </c>
       <c r="C5">
-        <v>13.411199999999999</v>
+        <v>-106.17759999999998</v>
       </c>
       <c r="D5">
-        <v>13.411199999999999</v>
+        <v>-113.17759999999998</v>
       </c>
       <c r="E5">
-        <v>107.625</v>
+        <v>-126.17759999999998</v>
       </c>
       <c r="F5">
+        <v>107.625</v>
+      </c>
+      <c r="G5">
         <v>-24.544399999999996</v>
       </c>
-      <c r="G5">
-        <v>107.625</v>
-      </c>
       <c r="H5">
-        <v>-32.294399999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I5">
+        <v>107.625</v>
+      </c>
+      <c r="J5">
+        <v>-31.544399999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13.411199999999999</v>
+        <v>-91.47199999999998</v>
       </c>
       <c r="B6">
-        <v>13.411199999999999</v>
+        <v>-91.47199999999998</v>
       </c>
       <c r="C6">
-        <v>13.411199999999999</v>
+        <v>-100.47199999999998</v>
       </c>
       <c r="D6">
-        <v>13.411199999999999</v>
+        <v>-106.47199999999998</v>
       </c>
       <c r="E6">
-        <v>107.625</v>
+        <v>-120.47199999999998</v>
       </c>
       <c r="F6">
+        <v>107.625</v>
+      </c>
+      <c r="G6">
         <v>-22.867999999999995</v>
       </c>
-      <c r="G6">
-        <v>107.625</v>
-      </c>
       <c r="H6">
-        <v>-31.117999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I6">
+        <v>107.625</v>
+      </c>
+      <c r="J6">
+        <v>-30.117999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>39.146385110952039</v>
+        <v>-84.766399999999976</v>
       </c>
       <c r="B7">
-        <v>39.519207826294441</v>
+        <v>-84.766399999999976</v>
       </c>
       <c r="C7">
-        <v>39.146385110952039</v>
+        <v>-94.766399999999976</v>
       </c>
       <c r="D7">
-        <v>41.010498687664047</v>
+        <v>-99.766399999999976</v>
       </c>
       <c r="E7">
-        <v>107.625</v>
+        <v>-114.76639999999998</v>
       </c>
       <c r="F7">
+        <v>107.625</v>
+      </c>
+      <c r="G7">
         <v>-21.191599999999994</v>
       </c>
-      <c r="G7">
-        <v>107.625</v>
-      </c>
       <c r="H7">
-        <v>-29.941599999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I7">
+        <v>107.625</v>
+      </c>
+      <c r="J7">
+        <v>-28.691599999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>-78.060799999999972</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>-78.060799999999972</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>-89.060799999999972</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>-93.060799999999972</v>
       </c>
       <c r="E8">
-        <v>107.625</v>
+        <v>-109.06079999999997</v>
       </c>
       <c r="F8">
+        <v>107.625</v>
+      </c>
+      <c r="G8">
         <v>-19.515199999999993</v>
       </c>
-      <c r="G8">
-        <v>107.625</v>
-      </c>
       <c r="H8">
-        <v>-28.765199999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I8">
+        <v>107.625</v>
+      </c>
+      <c r="J8">
+        <v>-27.265199999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-71.355199999999968</v>
       </c>
@@ -600,22 +647,28 @@
         <v>-83.355199999999968</v>
       </c>
       <c r="D9">
-        <v>-110.35519999999997</v>
+        <v>-86.355199999999968</v>
       </c>
       <c r="E9">
-        <v>107.625</v>
+        <v>-103.35519999999997</v>
       </c>
       <c r="F9">
+        <v>107.625</v>
+      </c>
+      <c r="G9">
         <v>-17.838799999999992</v>
       </c>
-      <c r="G9">
-        <v>107.625</v>
-      </c>
       <c r="H9">
-        <v>-27.588799999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I9">
+        <v>107.625</v>
+      </c>
+      <c r="J9">
+        <v>-25.838799999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-64.649599999999964</v>
       </c>
@@ -626,22 +679,28 @@
         <v>-77.649599999999964</v>
       </c>
       <c r="D10">
-        <v>-105.64959999999996</v>
+        <v>-79.649599999999964</v>
       </c>
       <c r="E10">
-        <v>107.625</v>
+        <v>-97.649599999999964</v>
       </c>
       <c r="F10">
+        <v>107.625</v>
+      </c>
+      <c r="G10">
         <v>-16.162399999999991</v>
       </c>
-      <c r="G10">
-        <v>107.625</v>
-      </c>
       <c r="H10">
-        <v>-26.412399999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I10">
+        <v>107.625</v>
+      </c>
+      <c r="J10">
+        <v>-24.412399999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-57.943999999999967</v>
       </c>
@@ -652,22 +711,28 @@
         <v>-71.94399999999996</v>
       </c>
       <c r="D11">
-        <v>-100.94399999999996</v>
+        <v>-72.94399999999996</v>
       </c>
       <c r="E11">
-        <v>107.625</v>
+        <v>-91.94399999999996</v>
       </c>
       <c r="F11">
+        <v>107.625</v>
+      </c>
+      <c r="G11">
         <v>-14.485999999999992</v>
       </c>
-      <c r="G11">
-        <v>107.625</v>
-      </c>
       <c r="H11">
-        <v>-25.23599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I11">
+        <v>107.625</v>
+      </c>
+      <c r="J11">
+        <v>-22.98599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-51.23839999999997</v>
       </c>
@@ -678,22 +743,28 @@
         <v>-66.238399999999956</v>
       </c>
       <c r="D12">
-        <v>-96.238399999999956</v>
+        <v>-66.238399999999956</v>
       </c>
       <c r="E12">
-        <v>107.625</v>
+        <v>-86.238399999999956</v>
       </c>
       <c r="F12">
+        <v>107.625</v>
+      </c>
+      <c r="G12">
         <v>-12.809599999999993</v>
       </c>
-      <c r="G12">
-        <v>107.625</v>
-      </c>
       <c r="H12">
-        <v>-24.059599999999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I12">
+        <v>107.625</v>
+      </c>
+      <c r="J12">
+        <v>-21.559599999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-44.532799999999973</v>
       </c>
@@ -704,22 +775,28 @@
         <v>-60.532799999999959</v>
       </c>
       <c r="D13">
-        <v>-91.532799999999952</v>
+        <v>-59.532799999999959</v>
       </c>
       <c r="E13">
-        <v>107.625</v>
+        <v>-80.532799999999952</v>
       </c>
       <c r="F13">
+        <v>107.625</v>
+      </c>
+      <c r="G13">
         <v>-11.133199999999993</v>
       </c>
-      <c r="G13">
-        <v>107.625</v>
-      </c>
       <c r="H13">
-        <v>-22.883199999999988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I13">
+        <v>107.625</v>
+      </c>
+      <c r="J13">
+        <v>-20.133199999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-37.827199999999976</v>
       </c>
@@ -730,22 +807,28 @@
         <v>-54.827199999999962</v>
       </c>
       <c r="D14">
-        <v>-86.827199999999948</v>
+        <v>-52.827199999999962</v>
       </c>
       <c r="E14">
-        <v>107.625</v>
+        <v>-74.827199999999948</v>
       </c>
       <c r="F14">
+        <v>107.625</v>
+      </c>
+      <c r="G14">
         <v>-9.4567999999999941</v>
       </c>
-      <c r="G14">
-        <v>107.625</v>
-      </c>
       <c r="H14">
-        <v>-21.706799999999987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I14">
+        <v>107.625</v>
+      </c>
+      <c r="J14">
+        <v>-18.706799999999987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-31.121599999999976</v>
       </c>
@@ -756,22 +839,28 @@
         <v>-49.121599999999965</v>
       </c>
       <c r="D15">
-        <v>-82.121599999999944</v>
+        <v>-46.121599999999965</v>
       </c>
       <c r="E15">
-        <v>107.625</v>
+        <v>-69.121599999999944</v>
       </c>
       <c r="F15">
+        <v>107.625</v>
+      </c>
+      <c r="G15">
         <v>-7.780399999999994</v>
       </c>
-      <c r="G15">
-        <v>107.625</v>
-      </c>
       <c r="H15">
-        <v>-20.530399999999986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I15">
+        <v>107.625</v>
+      </c>
+      <c r="J15">
+        <v>-17.280399999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-24.415999999999976</v>
       </c>
@@ -782,22 +871,28 @@
         <v>-43.415999999999968</v>
       </c>
       <c r="D16">
-        <v>-77.41599999999994</v>
+        <v>-39.415999999999968</v>
       </c>
       <c r="E16">
-        <v>107.625</v>
+        <v>-63.415999999999947</v>
       </c>
       <c r="F16">
+        <v>107.625</v>
+      </c>
+      <c r="G16">
         <v>-6.1039999999999939</v>
       </c>
-      <c r="G16">
-        <v>107.625</v>
-      </c>
       <c r="H16">
-        <v>-19.353999999999985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I16">
+        <v>107.625</v>
+      </c>
+      <c r="J16">
+        <v>-15.853999999999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-17.710399999999975</v>
       </c>
@@ -808,22 +903,28 @@
         <v>-37.710399999999971</v>
       </c>
       <c r="D17">
-        <v>-72.710399999999936</v>
+        <v>-32.710399999999971</v>
       </c>
       <c r="E17">
-        <v>107.625</v>
+        <v>-57.71039999999995</v>
       </c>
       <c r="F17">
+        <v>107.625</v>
+      </c>
+      <c r="G17">
         <v>-4.4275999999999938</v>
       </c>
-      <c r="G17">
-        <v>107.625</v>
-      </c>
       <c r="H17">
-        <v>-18.177599999999984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I17">
+        <v>107.625</v>
+      </c>
+      <c r="J17">
+        <v>-14.427599999999988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-11.004799999999975</v>
       </c>
@@ -834,22 +935,28 @@
         <v>-32.004799999999975</v>
       </c>
       <c r="D18">
-        <v>-68.004799999999932</v>
+        <v>-26.004799999999971</v>
       </c>
       <c r="E18">
-        <v>107.625</v>
+        <v>-52.004799999999953</v>
       </c>
       <c r="F18">
+        <v>107.625</v>
+      </c>
+      <c r="G18">
         <v>-2.7511999999999937</v>
       </c>
-      <c r="G18">
-        <v>107.625</v>
-      </c>
       <c r="H18">
-        <v>-17.001199999999983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I18">
+        <v>107.625</v>
+      </c>
+      <c r="J18">
+        <v>-13.001199999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-4.299199999999975</v>
       </c>
@@ -860,22 +967,28 @@
         <v>-26.299199999999974</v>
       </c>
       <c r="D19">
-        <v>-63.299199999999935</v>
+        <v>-19.299199999999971</v>
       </c>
       <c r="E19">
-        <v>107.625</v>
+        <v>-46.299199999999956</v>
       </c>
       <c r="F19">
+        <v>107.625</v>
+      </c>
+      <c r="G19">
         <v>-1.0747999999999938</v>
       </c>
-      <c r="G19">
-        <v>107.625</v>
-      </c>
       <c r="H19">
-        <v>-15.824799999999984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I19">
+        <v>107.625</v>
+      </c>
+      <c r="J19">
+        <v>-11.574799999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.4064000000000245</v>
       </c>
@@ -886,1258 +999,1546 @@
         <v>-20.593599999999974</v>
       </c>
       <c r="D20">
-        <v>-58.593599999999938</v>
+        <v>-12.59359999999997</v>
       </c>
       <c r="E20">
-        <v>107.625</v>
+        <v>-40.593599999999959</v>
       </c>
       <c r="F20">
+        <v>107.625</v>
+      </c>
+      <c r="G20">
         <v>0.60160000000000613</v>
       </c>
-      <c r="G20">
-        <v>107.625</v>
-      </c>
       <c r="H20">
-        <v>-14.648399999999985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I20">
+        <v>107.625</v>
+      </c>
+      <c r="J20">
+        <v>-10.14839999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9.4029130098151512</v>
+        <v>9.4145289484161054</v>
       </c>
       <c r="B21">
-        <v>9.2962523318743138</v>
+        <v>9.304122446504941</v>
       </c>
       <c r="C21">
         <v>-14.887999999999973</v>
       </c>
       <c r="D21">
-        <v>-53.887999999999941</v>
+        <v>-5.8879999999999706</v>
       </c>
       <c r="E21">
-        <v>107.625</v>
+        <v>-34.887999999999963</v>
       </c>
       <c r="F21">
-        <v>2.3240630829685784</v>
+        <v>107.625</v>
       </c>
       <c r="G21">
-        <v>107.625</v>
+        <v>2.3260306116262353</v>
       </c>
       <c r="H21">
-        <v>-13.471999999999985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I21">
+        <v>107.625</v>
+      </c>
+      <c r="J21">
+        <v>-8.7219999999999906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16.960482538950529</v>
+        <v>17.00588579562055</v>
       </c>
       <c r="B22">
-        <v>16.542861869517665</v>
+        <v>16.573723596496023</v>
       </c>
       <c r="C22">
-        <v>-8.8168322009524935</v>
+        <v>-8.8012466544536316</v>
       </c>
       <c r="D22">
-        <v>-48.816832200952462</v>
+        <v>0.81760000000002897</v>
       </c>
       <c r="E22">
-        <v>107.625</v>
+        <v>-29.182399999999962</v>
       </c>
       <c r="F22">
-        <v>4.1357154673794163</v>
+        <v>107.625</v>
       </c>
       <c r="G22">
-        <v>107.625</v>
+        <v>4.1434308991240059</v>
       </c>
       <c r="H22">
-        <v>-12.204208050238115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I22">
+        <v>107.625</v>
+      </c>
+      <c r="J22">
+        <v>-7.2955999999999905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25.047954337269829</v>
+        <v>25.147725546439297</v>
       </c>
       <c r="B23">
-        <v>24.128607425607328</v>
+        <v>24.196654166933747</v>
       </c>
       <c r="C23">
-        <v>-2.3977177894650197</v>
+        <v>-2.3518892470441548</v>
       </c>
       <c r="D23">
-        <v>-43.397717789464991</v>
+        <v>7.5488540872341048</v>
       </c>
       <c r="E23">
-        <v>107.625</v>
+        <v>-23.476799999999962</v>
       </c>
       <c r="F23">
-        <v>6.0321518564018319</v>
+        <v>107.625</v>
       </c>
       <c r="G23">
-        <v>107.625</v>
+        <v>6.0491635417334368</v>
       </c>
       <c r="H23">
-        <v>-10.849429447366248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I23">
+        <v>107.625</v>
+      </c>
+      <c r="J23">
+        <v>-5.8691999999999904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>33.634174153906145</v>
+        <v>33.807303205280377</v>
       </c>
       <c r="B24">
-        <v>32.035867814874294</v>
+        <v>32.154364872025717</v>
       </c>
       <c r="C24">
-        <v>4.3517220478383702</v>
+        <v>4.4415229384999355</v>
       </c>
       <c r="D24">
-        <v>-37.6482779521616</v>
+        <v>14.330169805968808</v>
       </c>
       <c r="E24">
-        <v>107.625</v>
+        <v>-17.720203461141882</v>
       </c>
       <c r="F24">
-        <v>8.0089669537185735</v>
+        <v>107.625</v>
       </c>
       <c r="G24">
-        <v>107.625</v>
+        <v>8.0385912180064292</v>
       </c>
       <c r="H24">
-        <v>-9.4120694880403999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I24">
+        <v>107.625</v>
+      </c>
+      <c r="J24">
+        <v>-4.4300508652854704</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>42.687987737130527</v>
+        <v>42.951873777485979</v>
       </c>
       <c r="B25">
-        <v>40.247021849812569</v>
+        <v>40.428306431103664</v>
       </c>
       <c r="C25">
-        <v>11.286738099203818</v>
+        <v>11.403426265614945</v>
       </c>
       <c r="D25">
-        <v>-31.586133875700646</v>
+        <v>21.220476652276233</v>
       </c>
       <c r="E25">
-        <v>107.625</v>
+        <v>-11.914480199239401</v>
       </c>
       <c r="F25">
-        <v>10.061755462453142</v>
+        <v>107.625</v>
       </c>
       <c r="G25">
-        <v>107.625</v>
+        <v>10.107076607775916</v>
       </c>
       <c r="H25">
-        <v>-7.8965334689251616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I25">
+        <v>107.625</v>
+      </c>
+      <c r="J25">
+        <v>-2.9786200498098503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>52.178240834553606</v>
+        <v>52.548692270389424</v>
       </c>
       <c r="B26">
-        <v>48.744448344110651</v>
+        <v>48.999929558406428</v>
       </c>
       <c r="C26">
-        <v>18.209254150569265</v>
+        <v>18.352829592729954</v>
       </c>
       <c r="D26">
-        <v>-25.228906746685077</v>
+        <v>28.275068408199928</v>
       </c>
       <c r="E26">
-        <v>107.625</v>
+        <v>-5.9408103336341167</v>
       </c>
       <c r="F26">
-        <v>12.186112086027663</v>
+        <v>107.625</v>
       </c>
       <c r="G26">
-        <v>107.625</v>
+        <v>12.249982389601607</v>
       </c>
       <c r="H26">
-        <v>-6.3072266866712692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I26">
+        <v>107.625</v>
+      </c>
+      <c r="J26">
+        <v>-1.4852025834085292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>62.073779199870387</v>
+        <v>62.565013685506266</v>
       </c>
       <c r="B27">
-        <v>57.51052611151124</v>
+        <v>57.85068497270052</v>
       </c>
       <c r="C27">
-        <v>25.119270201934711</v>
+        <v>25.289732919844962</v>
       </c>
       <c r="D27">
-        <v>-18.594217751772469</v>
+        <v>35.48662168610737</v>
       </c>
       <c r="E27">
-        <v>107.625</v>
+        <v>0.19348274816993971</v>
       </c>
       <c r="F27">
-        <v>14.37763152787781</v>
+        <v>107.625</v>
       </c>
       <c r="G27">
-        <v>107.625</v>
+        <v>14.46267124317513</v>
       </c>
       <c r="H27">
-        <v>-4.6485544379431172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I27">
+        <v>107.625</v>
+      </c>
+      <c r="J27">
+        <v>4.8370687042484928E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>72.343448579503445</v>
+        <v>72.968093027857122</v>
       </c>
       <c r="B28">
-        <v>66.527633961835875</v>
+        <v>66.962023386901734</v>
       </c>
       <c r="C28">
-        <v>32.016786253300161</v>
+        <v>32.214136246959967</v>
       </c>
       <c r="D28">
-        <v>-11.699688077624234</v>
+        <v>42.847813098905888</v>
       </c>
       <c r="E28">
-        <v>107.625</v>
+        <v>7.877963199630309</v>
       </c>
       <c r="F28">
-        <v>16.631908490458969</v>
+        <v>107.625</v>
       </c>
       <c r="G28">
-        <v>107.625</v>
+        <v>16.740505846725434</v>
       </c>
       <c r="H28">
-        <v>-2.9249220194060586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I28">
+        <v>107.625</v>
+      </c>
+      <c r="J28">
+        <v>1.9694907999075772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>82.956094722297905</v>
+        <v>83.72518530287438</v>
       </c>
       <c r="B29">
-        <v>75.778150711824253</v>
+        <v>76.315395519358447</v>
       </c>
       <c r="C29">
-        <v>38.901802304665608</v>
+        <v>39.126039574074973</v>
       </c>
       <c r="D29">
-        <v>-4.5629389109798684</v>
+        <v>50.351319257646054</v>
       </c>
       <c r="E29">
-        <v>107.625</v>
+        <v>15.549943651090677</v>
       </c>
       <c r="F29">
-        <v>18.944537677956063</v>
+        <v>107.625</v>
       </c>
       <c r="G29">
-        <v>107.625</v>
+        <v>19.078848879839612</v>
       </c>
       <c r="H29">
-        <v>-1.1407347277449671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I29">
+        <v>107.625</v>
+      </c>
+      <c r="J29">
+        <v>3.8874859127726693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>93.880563376100611</v>
+        <v>94.803545510685581</v>
       </c>
       <c r="B30">
-        <v>85.244455178956059</v>
+        <v>85.892252084820925</v>
       </c>
       <c r="C30">
-        <v>45.774318356031053</v>
+        <v>46.025442901189983</v>
       </c>
       <c r="D30">
-        <v>2.7984085616668448</v>
+        <v>57.989816777948604</v>
       </c>
       <c r="E30">
-        <v>107.625</v>
+        <v>23.209424102551043</v>
       </c>
       <c r="F30">
-        <v>21.311113794739015</v>
+        <v>107.625</v>
       </c>
       <c r="G30">
-        <v>107.625</v>
+        <v>21.473063021205231</v>
       </c>
       <c r="H30">
-        <v>0.6996021404167112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I30">
+        <v>107.625</v>
+      </c>
+      <c r="J30">
+        <v>5.8023560256377609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>105.08570029534059</v>
+        <v>106.17042865776216</v>
       </c>
       <c r="B31">
-        <v>94.908926174261921</v>
+        <v>95.674043799677364</v>
       </c>
       <c r="C31">
-        <v>52.634334407396501</v>
+        <v>52.91234622830499</v>
       </c>
       <c r="D31">
-        <v>10.439040639625434</v>
+        <v>65.755982273257928</v>
       </c>
       <c r="E31">
-        <v>107.625</v>
+        <v>30.856404554011412</v>
       </c>
       <c r="F31">
-        <v>23.72723154356548</v>
+        <v>107.625</v>
       </c>
       <c r="G31">
-        <v>107.625</v>
+        <v>23.918510949919341</v>
       </c>
       <c r="H31">
-        <v>2.6097601599063585</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I31">
+        <v>107.625</v>
+      </c>
+      <c r="J31">
+        <v>7.7141011385028531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>116.5403512324375</v>
+        <v>117.79308975890231</v>
       </c>
       <c r="B32">
-        <v>104.75394250901098</v>
+        <v>105.642221380888</v>
       </c>
       <c r="C32">
-        <v>59.481850458761947</v>
+        <v>59.786749555419995</v>
       </c>
       <c r="D32">
-        <v>18.067172717584022</v>
+        <v>73.642492350446133</v>
       </c>
       <c r="E32">
-        <v>107.625</v>
+        <v>38.490885005471782</v>
       </c>
       <c r="F32">
-        <v>26.188485627252746</v>
+        <v>107.625</v>
       </c>
       <c r="G32">
-        <v>107.625</v>
+        <v>26.410555345222001</v>
       </c>
       <c r="H32">
-        <v>4.5167931793960054</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I32">
+        <v>107.625</v>
+      </c>
+      <c r="J32">
+        <v>9.6227212513679454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>128.21336192803119</v>
+        <v>129.63878381474728</v>
       </c>
       <c r="B33">
-        <v>114.76188298849058</v>
+        <v>115.77823553453139</v>
       </c>
       <c r="C33">
-        <v>66.316866510127397</v>
+        <v>66.648652882535004</v>
       </c>
       <c r="D33">
-        <v>25.682804795542609</v>
+        <v>81.642023627437553</v>
       </c>
       <c r="E33">
-        <v>107.625</v>
+        <v>46.112865456932148</v>
       </c>
       <c r="F33">
-        <v>28.690470747122646</v>
+        <v>107.625</v>
       </c>
       <c r="G33">
-        <v>107.625</v>
+        <v>28.944558883632848</v>
       </c>
       <c r="H33">
-        <v>6.4207011988856522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I33">
+        <v>107.625</v>
+      </c>
+      <c r="J33">
+        <v>11.528216364233037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>140.0735781383417</v>
+        <v>141.67476582294967</v>
       </c>
       <c r="B34">
-        <v>124.91512643592736</v>
+        <v>126.06353700473269</v>
       </c>
       <c r="C34">
-        <v>73.139382561492852</v>
+        <v>73.498056209650017</v>
       </c>
       <c r="D34">
-        <v>33.285936873501193</v>
+        <v>89.747252720385617</v>
       </c>
       <c r="E34">
-        <v>107.625</v>
+        <v>53.722345908392519</v>
       </c>
       <c r="F34">
-        <v>31.228781608981841</v>
+        <v>107.625</v>
       </c>
       <c r="G34">
-        <v>107.625</v>
+        <v>31.515884251183174</v>
       </c>
       <c r="H34">
-        <v>8.3214842183752982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I34">
+        <v>107.625</v>
+      </c>
+      <c r="J34">
+        <v>13.43058647709813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>152.08984561335421</v>
+        <v>153.86829079969124</v>
       </c>
       <c r="B35">
-        <v>135.19605166150163</v>
+        <v>136.47957647730397</v>
       </c>
       <c r="C35">
-        <v>79.949398612858303</v>
+        <v>80.334959536765027</v>
       </c>
       <c r="D35">
-        <v>40.876568951459781</v>
+        <v>97.950856222825394</v>
       </c>
       <c r="E35">
-        <v>107.625</v>
+        <v>61.319326359852887</v>
       </c>
       <c r="F35">
-        <v>33.799012915375407</v>
+        <v>107.625</v>
       </c>
       <c r="G35">
-        <v>107.625</v>
+        <v>34.119894119325991</v>
       </c>
       <c r="H35">
-        <v>10.219142237864945</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I35">
+        <v>107.625</v>
+      </c>
+      <c r="J35">
+        <v>15.329831589963222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>164.23101008051833</v>
+        <v>166.18661374144</v>
       </c>
       <c r="B36">
-        <v>145.5870374831091</v>
+        <v>147.00780467697425</v>
       </c>
       <c r="C36">
-        <v>86.746914664223752</v>
+        <v>87.159362863880034</v>
       </c>
       <c r="D36">
-        <v>48.454701029418366</v>
+        <v>106.24551077641718</v>
       </c>
       <c r="E36">
-        <v>107.625</v>
+        <v>68.90380681131326</v>
       </c>
       <c r="F36">
-        <v>36.396759370777275</v>
+        <v>107.625</v>
       </c>
       <c r="G36">
-        <v>107.625</v>
+        <v>36.751951169243561</v>
       </c>
       <c r="H36">
-        <v>12.113675257354592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I36">
+        <v>107.625</v>
+      </c>
+      <c r="J36">
+        <v>17.225951702828315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>176.46591730199066</v>
+        <v>178.59698965020164</v>
       </c>
       <c r="B37">
-        <v>156.07046271605748</v>
+        <v>157.62967233389369</v>
       </c>
       <c r="C37">
-        <v>93.531930715589198</v>
+        <v>93.971266190995053</v>
       </c>
       <c r="D37">
-        <v>56.020333107376956</v>
+        <v>114.62389296298383</v>
       </c>
       <c r="E37">
-        <v>107.625</v>
+        <v>76.475787262773636</v>
       </c>
       <c r="F37">
-        <v>39.017615679014369</v>
+        <v>107.625</v>
       </c>
       <c r="G37">
-        <v>107.625</v>
+        <v>39.407418083473424</v>
       </c>
       <c r="H37">
-        <v>14.005083276844239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I37">
+        <v>107.625</v>
+      </c>
+      <c r="J37">
+        <v>19.118946815693409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>188.76341305665755</v>
+        <v>191.06667352158723</v>
       </c>
       <c r="B38">
-        <v>166.62870617845766</v>
+        <v>168.32663014245855</v>
       </c>
       <c r="C38">
-        <v>100.30444676695465</v>
+        <v>100.77066951811007</v>
       </c>
       <c r="D38">
-        <v>63.573465185335543</v>
+        <v>123.07867941947545</v>
       </c>
       <c r="E38">
-        <v>107.625</v>
+        <v>84.03526771423401</v>
       </c>
       <c r="F38">
-        <v>41.657176544614416</v>
+        <v>107.625</v>
       </c>
       <c r="G38">
-        <v>107.625</v>
+        <v>42.081657535614639</v>
       </c>
       <c r="H38">
-        <v>15.893366296333886</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I38">
+        <v>107.625</v>
+      </c>
+      <c r="J38">
+        <v>21.008816928558502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>201.09234301398698</v>
+        <v>203.56292035044365</v>
       </c>
       <c r="B39">
-        <v>177.24414663982236</v>
+        <v>179.08012884848642</v>
       </c>
       <c r="C39">
-        <v>107.06446281832011</v>
+        <v>107.55757284522508</v>
       </c>
       <c r="D39">
-        <v>71.114097263294141</v>
+        <v>131.60254674043912</v>
       </c>
       <c r="E39">
-        <v>107.625</v>
+        <v>91.582248165694381</v>
       </c>
       <c r="F39">
-        <v>44.31103665995559</v>
+        <v>107.625</v>
       </c>
       <c r="G39">
-        <v>107.625</v>
+        <v>44.770032212121606</v>
       </c>
       <c r="H39">
-        <v>17.778524315823535</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I39">
+        <v>107.625</v>
+      </c>
+      <c r="J39">
+        <v>22.895562041423595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>213.42155310751082</v>
+        <v>216.05298516741746</v>
       </c>
       <c r="B40">
-        <v>187.89916297104514</v>
+        <v>189.87161916455784</v>
       </c>
       <c r="C40">
-        <v>113.81197886968556</v>
+        <v>114.33197617234009</v>
       </c>
       <c r="D40">
-        <v>78.64222934125273</v>
+        <v>140.18817154778668</v>
       </c>
       <c r="E40">
-        <v>107.625</v>
+        <v>99.116728617154749</v>
       </c>
       <c r="F40">
-        <v>46.974790742761286</v>
+        <v>107.625</v>
       </c>
       <c r="G40">
-        <v>107.625</v>
+        <v>47.46790479113946</v>
       </c>
       <c r="H40">
-        <v>19.660557335313182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I40">
+        <v>107.625</v>
+      </c>
+      <c r="J40">
+        <v>24.779182154288687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>225.71988888624128</v>
+        <v>228.50412301073237</v>
       </c>
       <c r="B41">
-        <v>198.57613392224073</v>
+        <v>200.68255178810483</v>
       </c>
       <c r="C41">
-        <v>120.54699492105101</v>
+        <v>121.09387949945511</v>
       </c>
       <c r="D41">
-        <v>86.157861419211329</v>
+        <v>148.8282304435682</v>
       </c>
       <c r="E41">
-        <v>107.625</v>
+        <v>106.63870906861513</v>
       </c>
       <c r="F41">
-        <v>49.644033480560182</v>
+        <v>107.625</v>
       </c>
       <c r="G41">
-        <v>107.625</v>
+        <v>50.170637947026208</v>
       </c>
       <c r="H41">
-        <v>21.539465354802832</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I41">
+        <v>107.625</v>
+      </c>
+      <c r="J41">
+        <v>26.659677267153782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>237.9561961150921</v>
+        <v>240.88358883043037</v>
       </c>
       <c r="B42">
-        <v>209.25743841185485</v>
+        <v>211.49437741435221</v>
       </c>
       <c r="C42">
-        <v>127.26951097241647</v>
+        <v>127.84328282657013</v>
       </c>
       <c r="D42">
-        <v>93.660993497169926</v>
+        <v>157.51540006517087</v>
       </c>
       <c r="E42">
-        <v>107.625</v>
+        <v>114.1481895200755</v>
       </c>
       <c r="F42">
-        <v>52.314359602963712</v>
+        <v>107.625</v>
       </c>
       <c r="G42">
-        <v>107.625</v>
+        <v>52.873594353588054</v>
       </c>
       <c r="H42">
-        <v>23.415248374292482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I42">
+        <v>107.625</v>
+      </c>
+      <c r="J42">
+        <v>28.537047380018876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>250.09932060457874</v>
+        <v>253.15863756835745</v>
       </c>
       <c r="B43">
-        <v>219.92545512666771</v>
+        <v>222.28854684791281</v>
       </c>
       <c r="C43">
-        <v>133.97952702378191</v>
+        <v>134.58018615368513</v>
       </c>
       <c r="D43">
-        <v>101.15162557512852</v>
+        <v>166.24235698789772</v>
       </c>
       <c r="E43">
-        <v>107.625</v>
+        <v>121.64516997153588</v>
       </c>
       <c r="F43">
-        <v>54.981363781666929</v>
+        <v>107.625</v>
       </c>
       <c r="G43">
-        <v>107.625</v>
+        <v>55.572136711978203</v>
       </c>
       <c r="H43">
-        <v>25.28790639378213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I43">
+        <v>107.625</v>
+      </c>
+      <c r="J43">
+        <v>30.41129249288397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>262.11810827409317</v>
+        <v>265.29652414163235</v>
       </c>
       <c r="B44">
-        <v>230.56256296984162</v>
+        <v>233.04651056467208</v>
       </c>
       <c r="C44">
-        <v>140.67704307514737</v>
+        <v>141.30458948080016</v>
       </c>
       <c r="D44">
-        <v>108.62975765308711</v>
+        <v>175.00177786114759</v>
       </c>
       <c r="E44">
-        <v>107.625</v>
+        <v>129.12965042299626</v>
       </c>
       <c r="F44">
-        <v>57.640640742460405</v>
+        <v>107.625</v>
       </c>
       <c r="G44">
-        <v>107.625</v>
+        <v>58.261627641168019</v>
       </c>
       <c r="H44">
-        <v>27.157439413271778</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I44">
+        <v>107.625</v>
+      </c>
+      <c r="J44">
+        <v>32.282412605749066</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>273.98140467166127</v>
+        <v>277.26450444852389</v>
       </c>
       <c r="B45">
-        <v>241.15114071818965</v>
+        <v>243.74971958519274</v>
       </c>
       <c r="C45">
-        <v>147.36205912651283</v>
+        <v>148.01649280791517</v>
       </c>
       <c r="D45">
-        <v>116.0953897310457</v>
+        <v>183.7863392742606</v>
       </c>
       <c r="E45">
-        <v>107.625</v>
+        <v>136.60163087445665</v>
       </c>
       <c r="F45">
-        <v>60.287785179547413</v>
+        <v>107.625</v>
       </c>
       <c r="G45">
-        <v>107.625</v>
+        <v>60.937429896298184</v>
       </c>
       <c r="H45">
-        <v>29.023847432761425</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I45">
+        <v>107.625</v>
+      </c>
+      <c r="J45">
+        <v>34.150407718614161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>285.65805478537311</v>
+        <v>289.02983292389888</v>
       </c>
       <c r="B46">
-        <v>251.67356710214477</v>
+        <v>254.3796244989648</v>
       </c>
       <c r="C46">
-        <v>154.03457517787828</v>
+        <v>154.71589613503019</v>
       </c>
       <c r="D46">
-        <v>123.5485218090043</v>
+        <v>192.58871786258547</v>
       </c>
       <c r="E46">
-        <v>107.625</v>
+        <v>144.06111132591701</v>
       </c>
       <c r="F46">
-        <v>62.918391775536193</v>
+        <v>107.625</v>
       </c>
       <c r="G46">
-        <v>107.625</v>
+        <v>63.5949061247412</v>
       </c>
       <c r="H46">
-        <v>30.887130452251075</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I46">
+        <v>107.625</v>
+      </c>
+      <c r="J46">
+        <v>36.015277831479253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>297.1169074287501</v>
+        <v>300.55976422963874</v>
       </c>
       <c r="B47">
-        <v>262.11222116424017</v>
+        <v>264.91767631117489</v>
       </c>
       <c r="C47">
-        <v>160.69459122924374</v>
+        <v>161.4027994621452</v>
       </c>
       <c r="D47">
-        <v>130.9891538869629</v>
+        <v>201.40159026711547</v>
       </c>
       <c r="E47">
-        <v>107.625</v>
+        <v>151.50809177737739</v>
       </c>
       <c r="F47">
-        <v>65.528055291060042</v>
+        <v>107.625</v>
       </c>
       <c r="G47">
-        <v>107.625</v>
+        <v>66.229419077793722</v>
       </c>
       <c r="H47">
-        <v>32.747288471740724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I47">
+        <v>107.625</v>
+      </c>
+      <c r="J47">
+        <v>37.877022944344347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>308.32680395455941</v>
+        <v>311.82155201802135</v>
       </c>
       <c r="B48">
-        <v>272.44948126533029</v>
+        <v>275.3453250159946</v>
       </c>
       <c r="C48">
-        <v>167.34210728060918</v>
+        <v>168.07720278926021</v>
       </c>
       <c r="D48">
-        <v>138.41728596492149</v>
+        <v>210.21763309543496</v>
       </c>
       <c r="E48">
-        <v>107.625</v>
+        <v>158.94257222883778</v>
       </c>
       <c r="F48">
-        <v>68.112370316332573</v>
+        <v>107.625</v>
       </c>
       <c r="G48">
-        <v>107.625</v>
+        <v>68.836331253998651</v>
       </c>
       <c r="H48">
-        <v>34.604321491230372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I48">
+        <v>107.625</v>
+      </c>
+      <c r="J48">
+        <v>39.735643057209444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>319.25659195547269</v>
+        <v>322.7824554385964</v>
       </c>
       <c r="B49">
-        <v>282.66772667279321</v>
+        <v>285.64402167994336</v>
       </c>
       <c r="C49">
-        <v>173.97712333197464</v>
+        <v>174.73910611637524</v>
       </c>
       <c r="D49">
-        <v>145.8329180428801</v>
+        <v>219.02952289781729</v>
       </c>
       <c r="E49">
-        <v>107.625</v>
+        <v>166.36455268029815</v>
       </c>
       <c r="F49">
-        <v>70.666931668198302</v>
+        <v>107.625</v>
       </c>
       <c r="G49">
-        <v>107.625</v>
+        <v>71.411005419985841</v>
       </c>
       <c r="H49">
-        <v>36.458229510720024</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I49">
+        <v>107.625</v>
+      </c>
+      <c r="J49">
+        <v>41.591138170074537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>329.8751178423737</v>
+        <v>333.40972358327599</v>
       </c>
       <c r="B50">
-        <v>292.74933561164528</v>
+        <v>295.79521708348818</v>
       </c>
       <c r="C50">
-        <v>180.5996393833401</v>
+        <v>181.38850944349025</v>
       </c>
       <c r="D50">
-        <v>153.23605012083868</v>
+        <v>227.82993624011766</v>
       </c>
       <c r="E50">
-        <v>107.625</v>
+        <v>173.77403313175853</v>
       </c>
       <c r="F50">
-        <v>73.18733390291132</v>
+        <v>107.625</v>
       </c>
       <c r="G50">
-        <v>107.625</v>
+        <v>73.948804270872046</v>
       </c>
       <c r="H50">
-        <v>38.309012530209671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I50">
+        <v>107.625</v>
+      </c>
+      <c r="J50">
+        <v>43.443508282939632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>340.15122256143468</v>
+        <v>343.67061476012032</v>
       </c>
       <c r="B51">
-        <v>302.6766875905729</v>
+        <v>305.78036152417832</v>
       </c>
       <c r="C51">
-        <v>187.20965543470555</v>
+        <v>188.02541277060527</v>
       </c>
       <c r="D51">
-        <v>160.62668219879728</v>
+        <v>236.6115496946272</v>
       </c>
       <c r="E51">
-        <v>107.625</v>
+        <v>181.17101358321889</v>
       </c>
       <c r="F51">
-        <v>75.669171897643224</v>
+        <v>107.625</v>
       </c>
       <c r="G51">
-        <v>107.625</v>
+        <v>76.445090381044579</v>
       </c>
       <c r="H51">
-        <v>40.156670549699321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I51">
+        <v>107.625</v>
+      </c>
+      <c r="J51">
+        <v>45.292753395804723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>350.05376564990729</v>
+        <v>353.53237022286396</v>
       </c>
       <c r="B52">
-        <v>312.4321596352238</v>
+        <v>315.5809069196909</v>
       </c>
       <c r="C52">
-        <v>193.80717148607101</v>
+        <v>194.64981609772028</v>
       </c>
       <c r="D52">
-        <v>168.00481427675587</v>
+        <v>245.36704011262697</v>
       </c>
       <c r="E52">
-        <v>107.625</v>
+        <v>188.55549403467927</v>
       </c>
       <c r="F52">
-        <v>78.108039908805949</v>
+        <v>107.625</v>
       </c>
       <c r="G52">
-        <v>107.625</v>
+        <v>78.895226729922726</v>
       </c>
       <c r="H52">
-        <v>42.001203569188966</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I52">
+        <v>107.625</v>
+      </c>
+      <c r="J52">
+        <v>47.138873508669818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>359.55154454262436</v>
+        <v>362.96224141633064</v>
       </c>
       <c r="B53">
-        <v>321.99813702279653</v>
+        <v>325.17830142282844</v>
       </c>
       <c r="C53">
-        <v>200.39218753743646</v>
+        <v>201.26171942483529</v>
       </c>
       <c r="D53">
-        <v>175.37044635471446</v>
+        <v>254.08908374361062</v>
       </c>
       <c r="E53">
-        <v>107.625</v>
+        <v>195.92747448613966</v>
       </c>
       <c r="F53">
-        <v>80.499534255699132</v>
+        <v>107.625</v>
       </c>
       <c r="G53">
-        <v>107.625</v>
+        <v>81.29457535570711</v>
       </c>
       <c r="H53">
-        <v>43.842611588678615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I53">
+        <v>107.625</v>
+      </c>
+      <c r="J53">
+        <v>48.981868621534915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>368.61340686639085</v>
+        <v>371.92754151297527</v>
       </c>
       <c r="B54">
-        <v>331.35698440928854</v>
+        <v>334.55400155205859</v>
       </c>
       <c r="C54">
-        <v>206.96470358880191</v>
+        <v>207.86112275195032</v>
       </c>
       <c r="D54">
-        <v>182.72357843267307</v>
+        <v>262.77035761104838</v>
       </c>
       <c r="E54">
-        <v>107.625</v>
+        <v>203.28695493760003</v>
       </c>
       <c r="F54">
-        <v>82.839246102322136</v>
+        <v>107.625</v>
       </c>
       <c r="G54">
-        <v>107.625</v>
+        <v>83.638500388014648</v>
       </c>
       <c r="H54">
-        <v>45.680894608168266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I54">
+        <v>107.625</v>
+      </c>
+      <c r="J54">
+        <v>50.821738734400007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>377.2095957716557</v>
+        <v>380.39659711511916</v>
       </c>
       <c r="B55">
-        <v>340.49109102099135</v>
+        <v>343.68944539889935</v>
       </c>
       <c r="C55">
-        <v>213.52471964016738</v>
+        <v>214.44802607906533</v>
       </c>
       <c r="D55">
-        <v>190.06421051063165</v>
+        <v>271.40353838150276</v>
       </c>
       <c r="E55">
-        <v>107.625</v>
+        <v>210.63393538906041</v>
       </c>
       <c r="F55">
-        <v>85.122772755247837</v>
+        <v>107.625</v>
       </c>
       <c r="G55">
-        <v>107.625</v>
+        <v>85.922361349724838</v>
       </c>
       <c r="H55">
-        <v>47.516052627657913</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I55">
+        <v>107.625</v>
+      </c>
+      <c r="J55">
+        <v>52.658483847265103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>385.30607831745851</v>
+        <v>388.33399260002153</v>
       </c>
       <c r="B56">
-        <v>349.38285075775218</v>
+        <v>352.56607792798707</v>
       </c>
       <c r="C56">
-        <v>220.07223569153282</v>
+        <v>221.02242940618035</v>
       </c>
       <c r="D56">
-        <v>197.39234258859025</v>
+        <v>279.9813029371486</v>
       </c>
       <c r="E56">
-        <v>107.625</v>
+        <v>217.96841584052078</v>
       </c>
       <c r="F56">
-        <v>87.345712689438045</v>
+        <v>107.625</v>
       </c>
       <c r="G56">
-        <v>107.625</v>
+        <v>88.141519481996767</v>
       </c>
       <c r="H56">
-        <v>49.348085647147563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I56">
+        <v>107.625</v>
+      </c>
+      <c r="J56">
+        <v>54.492103960130194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>392.8726538644957</v>
+        <v>395.70776408508817</v>
       </c>
       <c r="B57">
-        <v>358.01460976706392</v>
+        <v>361.16539995220415</v>
       </c>
       <c r="C57">
-        <v>226.60725174289828</v>
+        <v>227.58433273329535</v>
       </c>
       <c r="D57">
-        <v>204.70797466654884</v>
+        <v>288.49632705549539</v>
       </c>
       <c r="E57">
-        <v>107.625</v>
+        <v>225.29039629198115</v>
       </c>
       <c r="F57">
-        <v>89.503652441765979</v>
+        <v>107.625</v>
       </c>
       <c r="G57">
-        <v>107.625</v>
+        <v>90.291349988051039</v>
       </c>
       <c r="H57">
-        <v>51.176993666637209</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I57">
+        <v>107.625</v>
+      </c>
+      <c r="J57">
+        <v>56.322599072995288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>399.87894515510715</v>
+        <v>402.48721504254519</v>
       </c>
       <c r="B58">
-        <v>366.36615703437303</v>
+        <v>369.46694682746744</v>
       </c>
       <c r="C58">
-        <v>233.12976779426373</v>
+        <v>234.13373606041037</v>
       </c>
       <c r="D58">
-        <v>212.01110674450743</v>
+        <v>296.94128720630783</v>
       </c>
       <c r="E58">
-        <v>107.625</v>
+        <v>232.59987674344154</v>
       </c>
       <c r="F58">
-        <v>91.591539258593258</v>
+        <v>107.625</v>
       </c>
       <c r="G58">
-        <v>107.625</v>
+        <v>92.36673670686686</v>
       </c>
       <c r="H58">
-        <v>53.002776686126857</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I58">
+        <v>107.625</v>
+      </c>
+      <c r="J58">
+        <v>58.149969185860385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>406.29523851086884</v>
+        <v>409.19281504254519</v>
       </c>
       <c r="B59">
-        <v>374.42456201120893</v>
+        <v>377.45568784500887</v>
       </c>
       <c r="C59">
-        <v>239.63978384562918</v>
+        <v>240.6706393875254</v>
       </c>
       <c r="D59">
-        <v>219.30173882246604</v>
+        <v>305.30885921896663</v>
       </c>
       <c r="E59">
-        <v>107.625</v>
+        <v>239.89685719490191</v>
       </c>
       <c r="F59">
-        <v>93.606140502802234</v>
+        <v>107.625</v>
       </c>
       <c r="G59">
-        <v>107.625</v>
+        <v>94.363921961252217</v>
       </c>
       <c r="H59">
-        <v>54.825434705616509</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I59">
+        <v>107.625</v>
+      </c>
+      <c r="J59">
+        <v>59.974214298725478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>413.00083851086885</v>
+        <v>415.8984150425452</v>
       </c>
       <c r="B60">
-        <v>381.13016201120894</v>
+        <v>384.16128784500887</v>
       </c>
       <c r="C60">
-        <v>246.13729989699465</v>
+        <v>247.19504271464041</v>
       </c>
       <c r="D60">
-        <v>226.57987090042462</v>
+        <v>313.59172063565904</v>
       </c>
       <c r="E60">
-        <v>107.625</v>
+        <v>247.18133764636229</v>
       </c>
       <c r="F60">
-        <v>95.282540502802235</v>
+        <v>107.625</v>
       </c>
       <c r="G60">
-        <v>107.625</v>
+        <v>96.040321961252218</v>
       </c>
       <c r="H60">
-        <v>56.644967725106156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I60">
+        <v>107.625</v>
+      </c>
+      <c r="J60">
+        <v>61.795334411590574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>419.70643851086885</v>
+        <v>422.6040150425452</v>
       </c>
       <c r="B61">
-        <v>387.83576201120894</v>
+        <v>390.86688784500888</v>
       </c>
       <c r="C61">
-        <v>252.6223159483601</v>
+        <v>253.70694604175543</v>
       </c>
       <c r="D61">
-        <v>233.84550297838322</v>
+        <v>321.78255257488161</v>
       </c>
       <c r="E61">
-        <v>107.625</v>
+        <v>254.45331809782266</v>
       </c>
       <c r="F61">
-        <v>96.958940502802236</v>
+        <v>107.625</v>
       </c>
       <c r="G61">
-        <v>107.625</v>
+        <v>97.716721961252219</v>
       </c>
       <c r="H61">
-        <v>58.461375744595806</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I61">
+        <v>107.625</v>
+      </c>
+      <c r="J61">
+        <v>63.613329524455665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>426.41203851086885</v>
+        <v>429.3096150425452</v>
       </c>
       <c r="B62">
-        <v>394.54136201120895</v>
+        <v>397.57248784500888</v>
       </c>
       <c r="C62">
-        <v>259.0948319997255</v>
+        <v>260.20634936887041</v>
       </c>
       <c r="D62">
-        <v>241.09863505634181</v>
+        <v>329.87401948087876</v>
       </c>
       <c r="E62">
-        <v>107.625</v>
+        <v>261.71279854928298</v>
       </c>
       <c r="F62">
-        <v>98.635340502802237</v>
+        <v>107.625</v>
       </c>
       <c r="G62">
-        <v>107.625</v>
+        <v>99.39312196125222</v>
       </c>
       <c r="H62">
-        <v>60.274658764085451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I62">
+        <v>107.625</v>
+      </c>
+      <c r="J62">
+        <v>65.428199637320745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>433.11763851086886</v>
+        <v>436.01521504254521</v>
       </c>
       <c r="B63">
-        <v>401.24696201120895</v>
+        <v>404.27808784500888</v>
       </c>
       <c r="C63">
-        <v>265.55484805109091</v>
+        <v>266.69325269598539</v>
       </c>
       <c r="D63">
-        <v>248.3392671343004</v>
+        <v>337.85881405692362</v>
       </c>
       <c r="E63">
-        <v>107.625</v>
+        <v>268.95977900074331</v>
       </c>
       <c r="F63">
-        <v>100.31174050280224</v>
+        <v>107.625</v>
       </c>
       <c r="G63">
-        <v>107.625</v>
+        <v>101.06952196125222</v>
       </c>
       <c r="H63">
-        <v>62.0848167835751</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I63">
+        <v>107.625</v>
+      </c>
+      <c r="J63">
+        <v>67.239944750185828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>439.82323851086886</v>
+        <v>442.72081504254521</v>
       </c>
       <c r="B64">
-        <v>407.95256201120895</v>
+        <v>410.98368784500889</v>
       </c>
       <c r="C64">
-        <v>272.00236410245634</v>
+        <v>273.16765602310039</v>
       </c>
       <c r="D64">
-        <v>255.56739921225901</v>
+        <v>345.72960358564006</v>
       </c>
       <c r="E64">
-        <v>107.625</v>
+        <v>276.19425945220365</v>
       </c>
       <c r="F64">
-        <v>101.98814050280224</v>
+        <v>107.625</v>
       </c>
       <c r="G64">
-        <v>107.625</v>
+        <v>102.74592196125222</v>
       </c>
       <c r="H64">
-        <v>63.891849803064751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I64">
+        <v>107.625</v>
+      </c>
+      <c r="J64">
+        <v>69.048564863050913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>446.52883851086887</v>
+        <v>449.42641504254522</v>
       </c>
       <c r="B65">
-        <v>414.65816201120896</v>
+        <v>417.68928784500889</v>
       </c>
       <c r="C65">
-        <v>278.43738015382178</v>
+        <v>279.6295593502154</v>
       </c>
       <c r="D65">
-        <v>262.78303129021759</v>
+        <v>353.46969398509515</v>
       </c>
       <c r="E65">
-        <v>107.625</v>
+        <v>283.41623990366401</v>
       </c>
       <c r="F65">
-        <v>103.66454050280224</v>
+        <v>107.625</v>
       </c>
       <c r="G65">
-        <v>107.625</v>
+        <v>104.42232196125222</v>
       </c>
       <c r="H65">
-        <v>65.695757822554398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I65">
+        <v>107.625</v>
+      </c>
+      <c r="J65">
+        <v>70.854059975916002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>453.23443851086887</v>
+        <v>456.13201504254522</v>
       </c>
       <c r="B66">
-        <v>421.36376201120896</v>
+        <v>424.3948878450089</v>
       </c>
       <c r="C66">
-        <v>284.85989620518723</v>
+        <v>286.07896267733037</v>
       </c>
       <c r="D66">
-        <v>269.98616336817616</v>
+        <v>361.0862284596098</v>
       </c>
       <c r="E66">
-        <v>107.625</v>
+        <v>290.62572035512437</v>
       </c>
       <c r="F66">
-        <v>105.34094050280224</v>
+        <v>107.625</v>
       </c>
       <c r="G66">
-        <v>107.625</v>
+        <v>106.09872196125222</v>
       </c>
       <c r="H66">
-        <v>67.496540842044041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I66">
+        <v>107.625</v>
+      </c>
+      <c r="J66">
+        <v>72.656430088781093</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>459.94003851086887</v>
+        <v>462.83761504254522</v>
       </c>
       <c r="B67">
-        <v>428.06936201120897</v>
+        <v>431.1004878450089</v>
       </c>
       <c r="C67">
-        <v>291.26991225655263</v>
+        <v>292.51586600444534</v>
       </c>
       <c r="D67">
-        <v>277.17679544613475</v>
+        <v>368.57091504705562</v>
       </c>
       <c r="E67">
-        <v>107.625</v>
+        <v>297.82270080658469</v>
       </c>
       <c r="F67">
-        <v>107.01734050280224</v>
+        <v>107.625</v>
       </c>
       <c r="G67">
         <v>107.625</v>
       </c>
       <c r="H67">
-        <v>69.294198861533687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I67">
+        <v>107.625</v>
+      </c>
+      <c r="J67">
+        <v>74.455675201646173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>466.64563851086888</v>
+        <v>469.54321504254523</v>
       </c>
       <c r="B68">
-        <v>434.77496201120897</v>
+        <v>437.8060878450089</v>
       </c>
       <c r="C68">
-        <v>297.66742830791804</v>
+        <v>298.94026933156033</v>
       </c>
       <c r="D68">
-        <v>284.35492752409328</v>
+        <v>375.91515503445976</v>
       </c>
       <c r="E68">
-        <v>107.625</v>
+        <v>305.00718125804502</v>
       </c>
       <c r="F68">
         <v>107.625</v>
@@ -2146,24 +2547,30 @@
         <v>107.625</v>
       </c>
       <c r="H68">
-        <v>71.088731881023321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I68">
+        <v>107.625</v>
+      </c>
+      <c r="J68">
+        <v>76.251795314511256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>473.35123851086888</v>
+        <v>476.24881504254523</v>
       </c>
       <c r="B69">
-        <v>441.48056201120897</v>
+        <v>444.51168784500891</v>
       </c>
       <c r="C69">
-        <v>304.05244435928347</v>
+        <v>305.35217265867533</v>
       </c>
       <c r="D69">
-        <v>291.52055960205183</v>
+        <v>382.62075503445976</v>
       </c>
       <c r="E69">
-        <v>107.625</v>
+        <v>312.17916170950537</v>
       </c>
       <c r="F69">
         <v>107.625</v>
@@ -2172,24 +2579,30 @@
         <v>107.625</v>
       </c>
       <c r="H69">
-        <v>72.880139900512958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I69">
+        <v>107.625</v>
+      </c>
+      <c r="J69">
+        <v>78.044790427376341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>480.05683851086889</v>
+        <v>482.95441504254524</v>
       </c>
       <c r="B70">
-        <v>448.18616201120898</v>
+        <v>451.21728784500891</v>
       </c>
       <c r="C70">
-        <v>310.42496041064891</v>
+        <v>311.75157598579034</v>
       </c>
       <c r="D70">
-        <v>298.67369168001039</v>
+        <v>389.32635503445977</v>
       </c>
       <c r="E70">
-        <v>107.625</v>
+        <v>319.33864216096572</v>
       </c>
       <c r="F70">
         <v>107.625</v>
@@ -2198,24 +2611,30 @@
         <v>107.625</v>
       </c>
       <c r="H70">
-        <v>74.668422920002598</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I70">
+        <v>107.625</v>
+      </c>
+      <c r="J70">
+        <v>79.83466054024143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>486.76243851086889</v>
+        <v>489.66001504254524</v>
       </c>
       <c r="B71">
-        <v>454.89176201120898</v>
+        <v>457.92288784500892</v>
       </c>
       <c r="C71">
-        <v>316.78497646201436</v>
+        <v>318.1384793129053</v>
       </c>
       <c r="D71">
-        <v>305.81432375796896</v>
+        <v>396.03195503445977</v>
       </c>
       <c r="E71">
-        <v>107.625</v>
+        <v>326.48562261242608</v>
       </c>
       <c r="F71">
         <v>107.625</v>
@@ -2224,24 +2643,30 @@
         <v>107.625</v>
       </c>
       <c r="H71">
-        <v>76.453580939492241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I71">
+        <v>107.625</v>
+      </c>
+      <c r="J71">
+        <v>81.621405653106521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>493.46803851086889</v>
+        <v>496.36561504254524</v>
       </c>
       <c r="B72">
-        <v>461.59736201120899</v>
+        <v>464.62848784500892</v>
       </c>
       <c r="C72">
-        <v>323.13249251337976</v>
+        <v>324.51288264002028</v>
       </c>
       <c r="D72">
-        <v>312.94245583592755</v>
+        <v>402.73755503445977</v>
       </c>
       <c r="E72">
-        <v>107.625</v>
+        <v>333.6201030638864</v>
       </c>
       <c r="F72">
         <v>107.625</v>
@@ -2250,24 +2675,30 @@
         <v>107.625</v>
       </c>
       <c r="H72">
-        <v>78.235613958981887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I72">
+        <v>107.625</v>
+      </c>
+      <c r="J72">
+        <v>83.405025765971601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>500.1736385108689</v>
+        <v>503.07121504254525</v>
       </c>
       <c r="B73">
-        <v>468.30296201120899</v>
+        <v>471.33408784500892</v>
       </c>
       <c r="C73">
-        <v>329.46750856474517</v>
+        <v>330.87478596713527</v>
       </c>
       <c r="D73">
-        <v>320.05808791388608</v>
+        <v>409.44315503445978</v>
       </c>
       <c r="E73">
-        <v>107.625</v>
+        <v>340.74208351534674</v>
       </c>
       <c r="F73">
         <v>107.625</v>
@@ -2276,24 +2707,30 @@
         <v>107.625</v>
       </c>
       <c r="H73">
-        <v>80.014521978471521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I73">
+        <v>107.625</v>
+      </c>
+      <c r="J73">
+        <v>85.185520878836684</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>506.8792385108689</v>
+        <v>509.77681504254525</v>
       </c>
       <c r="B74">
-        <v>475.00856201120899</v>
+        <v>478.03968784500893</v>
       </c>
       <c r="C74">
-        <v>335.7900246161106</v>
+        <v>337.22418929425027</v>
       </c>
       <c r="D74">
-        <v>327.16121999184463</v>
+        <v>416.14875503445978</v>
       </c>
       <c r="E74">
-        <v>107.625</v>
+        <v>347.85156396680708</v>
       </c>
       <c r="F74">
         <v>107.625</v>
@@ -2302,24 +2739,30 @@
         <v>107.625</v>
       </c>
       <c r="H74">
-        <v>81.790304997961158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I74">
+        <v>107.625</v>
+      </c>
+      <c r="J74">
+        <v>86.962890991701769</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>513.58483851086885</v>
+        <v>516.4824150425452</v>
       </c>
       <c r="B75">
-        <v>481.714162011209</v>
+        <v>484.74528784500893</v>
       </c>
       <c r="C75">
-        <v>342.10004066747604</v>
+        <v>343.56109262136528</v>
       </c>
       <c r="D75">
-        <v>334.25185206980319</v>
+        <v>422.85435503445979</v>
       </c>
       <c r="E75">
-        <v>107.625</v>
+        <v>354.94854441826743</v>
       </c>
       <c r="F75">
         <v>107.625</v>
@@ -2328,24 +2771,30 @@
         <v>107.625</v>
       </c>
       <c r="H75">
-        <v>83.562963017450798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I75">
+        <v>107.625</v>
+      </c>
+      <c r="J75">
+        <v>88.737136104566858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>520.29043851086885</v>
+        <v>523.1880150425452</v>
       </c>
       <c r="B76">
-        <v>488.419762011209</v>
+        <v>491.45088784500894</v>
       </c>
       <c r="C76">
-        <v>348.39755671884149</v>
+        <v>349.88549594848024</v>
       </c>
       <c r="D76">
-        <v>341.32998414776176</v>
+        <v>429.55995503445979</v>
       </c>
       <c r="E76">
-        <v>107.625</v>
+        <v>362.0330248697278</v>
       </c>
       <c r="F76">
         <v>107.625</v>
@@ -2354,24 +2803,30 @@
         <v>107.625</v>
       </c>
       <c r="H76">
-        <v>85.332496036940441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I76">
+        <v>107.625</v>
+      </c>
+      <c r="J76">
+        <v>90.508256217431949</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>526.99603851086886</v>
+        <v>529.89361504254521</v>
       </c>
       <c r="B77">
-        <v>495.12536201120901</v>
+        <v>498.15648784500894</v>
       </c>
       <c r="C77">
-        <v>354.68257277020689</v>
+        <v>356.19739927559522</v>
       </c>
       <c r="D77">
-        <v>348.39561622572035</v>
+        <v>436.26555503445979</v>
       </c>
       <c r="E77">
-        <v>107.625</v>
+        <v>369.10500532118812</v>
       </c>
       <c r="F77">
         <v>107.625</v>
@@ -2380,24 +2835,30 @@
         <v>107.625</v>
       </c>
       <c r="H77">
-        <v>87.098904056430086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I77">
+        <v>107.625</v>
+      </c>
+      <c r="J77">
+        <v>92.276251330297029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>533.70163851086886</v>
+        <v>536.59921504254521</v>
       </c>
       <c r="B78">
-        <v>501.83096201120901</v>
+        <v>504.86208784500894</v>
       </c>
       <c r="C78">
-        <v>360.9550888215723</v>
+        <v>362.4968026027102</v>
       </c>
       <c r="D78">
-        <v>355.44874830367894</v>
+        <v>442.9711550344598</v>
       </c>
       <c r="E78">
-        <v>107.625</v>
+        <v>376.16448577264845</v>
       </c>
       <c r="F78">
         <v>107.625</v>
@@ -2406,24 +2867,30 @@
         <v>107.625</v>
       </c>
       <c r="H78">
-        <v>88.862187075919735</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I78">
+        <v>107.625</v>
+      </c>
+      <c r="J78">
+        <v>94.041121443162112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>540.40723851086886</v>
+        <v>543.30481504254521</v>
       </c>
       <c r="B79">
-        <v>508.53656201120901</v>
+        <v>511.56768784500895</v>
       </c>
       <c r="C79">
-        <v>367.21510487293773</v>
+        <v>368.7837059298252</v>
       </c>
       <c r="D79">
-        <v>362.48938038163749</v>
+        <v>449.6767550344598</v>
       </c>
       <c r="E79">
-        <v>107.625</v>
+        <v>383.21146622410879</v>
       </c>
       <c r="F79">
         <v>107.625</v>
@@ -2432,24 +2899,30 @@
         <v>107.625</v>
       </c>
       <c r="H79">
-        <v>90.622345095409372</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I79">
+        <v>107.625</v>
+      </c>
+      <c r="J79">
+        <v>95.802866556027197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>547.11283851086887</v>
+        <v>550.01041504254522</v>
       </c>
       <c r="B80">
-        <v>515.24216201120896</v>
+        <v>518.27328784500889</v>
       </c>
       <c r="C80">
-        <v>373.46262092430317</v>
+        <v>375.05810925694021</v>
       </c>
       <c r="D80">
-        <v>369.51751245959605</v>
+        <v>456.38235503445981</v>
       </c>
       <c r="E80">
-        <v>107.625</v>
+        <v>390.24594667556914</v>
       </c>
       <c r="F80">
         <v>107.625</v>
@@ -2458,24 +2931,30 @@
         <v>107.625</v>
       </c>
       <c r="H80">
-        <v>92.379378114899012</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I80">
+        <v>107.625</v>
+      </c>
+      <c r="J80">
+        <v>97.561486668892286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>553.81843851086887</v>
+        <v>556.71601504254522</v>
       </c>
       <c r="B81">
-        <v>521.94776201120897</v>
+        <v>524.9788878450089</v>
       </c>
       <c r="C81">
-        <v>379.69763697566862</v>
+        <v>381.32001258405518</v>
       </c>
       <c r="D81">
-        <v>376.53314453755462</v>
+        <v>463.08795503445981</v>
       </c>
       <c r="E81">
-        <v>107.625</v>
+        <v>397.26792712702951</v>
       </c>
       <c r="F81">
         <v>107.625</v>
@@ -2484,24 +2963,30 @@
         <v>107.625</v>
       </c>
       <c r="H81">
-        <v>94.133286134388655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I81">
+        <v>107.625</v>
+      </c>
+      <c r="J81">
+        <v>99.316981781757377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>560.52403851086888</v>
+        <v>563.42161504254523</v>
       </c>
       <c r="B82">
-        <v>528.65336201120897</v>
+        <v>531.6844878450089</v>
       </c>
       <c r="C82">
-        <v>385.92015302703402</v>
+        <v>387.56941591117015</v>
       </c>
       <c r="D82">
-        <v>383.5362766155132</v>
+        <v>469.79355503445981</v>
       </c>
       <c r="E82">
-        <v>107.625</v>
+        <v>404.27740757848983</v>
       </c>
       <c r="F82">
         <v>107.625</v>
@@ -2510,24 +2995,30 @@
         <v>107.625</v>
       </c>
       <c r="H82">
-        <v>95.884069153878301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I82">
+        <v>107.625</v>
+      </c>
+      <c r="J82">
+        <v>101.06935189462246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>567.22963851086888</v>
+        <v>570.12721504254523</v>
       </c>
       <c r="B83">
-        <v>535.35896201120897</v>
+        <v>538.39008784500891</v>
       </c>
       <c r="C83">
-        <v>392.13016907839943</v>
+        <v>393.80631923828514</v>
       </c>
       <c r="D83">
-        <v>390.5269086934718</v>
+        <v>476.49915503445982</v>
       </c>
       <c r="E83">
-        <v>107.625</v>
+        <v>411.27438802995016</v>
       </c>
       <c r="F83">
         <v>107.625</v>
@@ -2536,24 +3027,30 @@
         <v>107.625</v>
       </c>
       <c r="H83">
-        <v>97.631727173367949</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I83">
+        <v>107.625</v>
+      </c>
+      <c r="J83">
+        <v>102.81859700748754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>573.93523851086888</v>
+        <v>576.83281504254523</v>
       </c>
       <c r="B84">
-        <v>542.06456201120898</v>
+        <v>545.09568784500891</v>
       </c>
       <c r="C84">
-        <v>398.32768512976486</v>
+        <v>400.03072256540014</v>
       </c>
       <c r="D84">
-        <v>397.50504077143034</v>
+        <v>483.20475503445982</v>
       </c>
       <c r="E84">
-        <v>107.625</v>
+        <v>418.2588684814105</v>
       </c>
       <c r="F84">
         <v>107.625</v>
@@ -2562,24 +3059,30 @@
         <v>107.625</v>
       </c>
       <c r="H84">
-        <v>99.376260192857586</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I84">
+        <v>107.625</v>
+      </c>
+      <c r="J84">
+        <v>104.56471712035263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>580.64083851086889</v>
+        <v>583.53841504254524</v>
       </c>
       <c r="B85">
-        <v>548.77016201120898</v>
+        <v>551.80128784500891</v>
       </c>
       <c r="C85">
-        <v>404.5127011811303</v>
+        <v>406.24262589251515</v>
       </c>
       <c r="D85">
-        <v>404.4706728493889</v>
+        <v>489.91035503445983</v>
       </c>
       <c r="E85">
-        <v>107.625</v>
+        <v>425.23084893287086</v>
       </c>
       <c r="F85">
         <v>107.625</v>
@@ -2588,24 +3091,30 @@
         <v>107.625</v>
       </c>
       <c r="H85">
-        <v>101.11766821234723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I85">
+        <v>107.625</v>
+      </c>
+      <c r="J85">
+        <v>106.30771223321771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>587.34643851086889</v>
+        <v>590.24401504254524</v>
       </c>
       <c r="B86">
-        <v>555.47576201120899</v>
+        <v>558.50688784500892</v>
       </c>
       <c r="C86">
-        <v>410.68521723249575</v>
+        <v>412.44202921963011</v>
       </c>
       <c r="D86">
-        <v>411.42380492734748</v>
+        <v>496.61595503445983</v>
       </c>
       <c r="E86">
-        <v>107.625</v>
+        <v>432.19032938433122</v>
       </c>
       <c r="F86">
         <v>107.625</v>
@@ -2614,24 +3123,30 @@
         <v>107.625</v>
       </c>
       <c r="H86">
-        <v>102.85595123183687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I86">
+        <v>107.625</v>
+      </c>
+      <c r="J86">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>594.0520385108689</v>
+        <v>596.94961504254525</v>
       </c>
       <c r="B87">
-        <v>562.18136201120899</v>
+        <v>565.21248784500892</v>
       </c>
       <c r="C87">
-        <v>416.84523328386115</v>
+        <v>418.62893254674509</v>
       </c>
       <c r="D87">
-        <v>418.36443700530606</v>
+        <v>503.32155503445983</v>
       </c>
       <c r="E87">
-        <v>107.625</v>
+        <v>439.14749633257418</v>
       </c>
       <c r="F87">
         <v>107.625</v>
@@ -2640,24 +3155,30 @@
         <v>107.625</v>
       </c>
       <c r="H87">
-        <v>104.59110925132651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I87">
+        <v>107.625</v>
+      </c>
+      <c r="J87">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>600.7576385108689</v>
+        <v>603.65521504254525</v>
       </c>
       <c r="B88">
-        <v>568.88696201120899</v>
+        <v>571.91808784500893</v>
       </c>
       <c r="C88">
-        <v>422.99274933522656</v>
+        <v>424.80333587386008</v>
       </c>
       <c r="D88">
-        <v>425.29256908326465</v>
+        <v>510.02715503445984</v>
       </c>
       <c r="E88">
-        <v>107.625</v>
+        <v>446.10466328081714</v>
       </c>
       <c r="F88">
         <v>107.625</v>
@@ -2666,24 +3187,30 @@
         <v>107.625</v>
       </c>
       <c r="H88">
-        <v>106.32314227081616</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107.625</v>
+      </c>
+      <c r="I88">
+        <v>107.625</v>
+      </c>
+      <c r="J88">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>607.4632385108689</v>
+        <v>610.36081504254525</v>
       </c>
       <c r="B89">
-        <v>575.592562011209</v>
+        <v>578.62368784500893</v>
       </c>
       <c r="C89">
-        <v>429.12776538659199</v>
+        <v>430.96523920097508</v>
       </c>
       <c r="D89">
-        <v>432.2082011612232</v>
+        <v>516.73275503445984</v>
       </c>
       <c r="E89">
-        <v>107.625</v>
+        <v>453.06183022906009</v>
       </c>
       <c r="F89">
         <v>107.625</v>
@@ -2694,22 +3221,28 @@
       <c r="H89">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>107.625</v>
+      </c>
+      <c r="J89">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>614.16883851086891</v>
+        <v>617.06641504254526</v>
       </c>
       <c r="B90">
-        <v>582.298162011209</v>
+        <v>585.32928784500893</v>
       </c>
       <c r="C90">
-        <v>435.25028143795743</v>
+        <v>437.12285228265262</v>
       </c>
       <c r="D90">
-        <v>439.1215770173622</v>
+        <v>523.43835503445985</v>
       </c>
       <c r="E90">
-        <v>107.625</v>
+        <v>460.01899717730305</v>
       </c>
       <c r="F90">
         <v>107.625</v>
@@ -2720,22 +3253,28 @@
       <c r="H90">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>107.625</v>
+      </c>
+      <c r="J90">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>620.87443851086891</v>
+        <v>623.77201504254526</v>
       </c>
       <c r="B91">
-        <v>589.00376201120901</v>
+        <v>592.03488784500894</v>
       </c>
       <c r="C91">
-        <v>441.37726825425091</v>
+        <v>443.28046536433015</v>
       </c>
       <c r="D91">
-        <v>446.0349528735012</v>
+        <v>530.14395503445985</v>
       </c>
       <c r="E91">
-        <v>107.625</v>
+        <v>466.97616412554601</v>
       </c>
       <c r="F91">
         <v>107.625</v>
@@ -2746,22 +3285,28 @@
       <c r="H91">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>107.625</v>
+      </c>
+      <c r="J91">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>627.58003851086892</v>
+        <v>630.47761504254527</v>
       </c>
       <c r="B92">
-        <v>595.70936201120901</v>
+        <v>598.74048784500894</v>
       </c>
       <c r="C92">
-        <v>447.50425507054439</v>
+        <v>449.43807844600769</v>
       </c>
       <c r="D92">
-        <v>452.9483287296402</v>
+        <v>536.84955503445985</v>
       </c>
       <c r="E92">
-        <v>107.625</v>
+        <v>473.93333107378896</v>
       </c>
       <c r="F92">
         <v>107.625</v>
@@ -2772,22 +3317,28 @@
       <c r="H92">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>107.625</v>
+      </c>
+      <c r="J92">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>634.28563851086892</v>
+        <v>637.18321504254527</v>
       </c>
       <c r="B93">
-        <v>602.41496201120901</v>
+        <v>605.44608784500895</v>
       </c>
       <c r="C93">
-        <v>453.63124188683787</v>
+        <v>455.59569152768523</v>
       </c>
       <c r="D93">
-        <v>459.86170458577919</v>
+        <v>543.55515503445986</v>
       </c>
       <c r="E93">
-        <v>107.625</v>
+        <v>480.89049802203192</v>
       </c>
       <c r="F93">
         <v>107.625</v>
@@ -2798,22 +3349,28 @@
       <c r="H93">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>107.625</v>
+      </c>
+      <c r="J93">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>640.99123851086893</v>
+        <v>643.88881504254527</v>
       </c>
       <c r="B94">
-        <v>609.12056201120902</v>
+        <v>612.15168784500895</v>
       </c>
       <c r="C94">
-        <v>459.75822870313135</v>
+        <v>461.75330460936277</v>
       </c>
       <c r="D94">
-        <v>466.77508044191819</v>
+        <v>550.26075503445986</v>
       </c>
       <c r="E94">
-        <v>107.625</v>
+        <v>487.84766497027488</v>
       </c>
       <c r="F94">
         <v>107.625</v>
@@ -2824,22 +3381,28 @@
       <c r="H94">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>107.625</v>
+      </c>
+      <c r="J94">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>647.69683851086893</v>
+        <v>650.59441504254528</v>
       </c>
       <c r="B95">
-        <v>615.82616201120902</v>
+        <v>618.85728784500895</v>
       </c>
       <c r="C95">
-        <v>465.88521551942483</v>
+        <v>467.91091769104031</v>
       </c>
       <c r="D95">
-        <v>473.68845629805719</v>
+        <v>556.96635503445987</v>
       </c>
       <c r="E95">
-        <v>107.625</v>
+        <v>494.80483191851783</v>
       </c>
       <c r="F95">
         <v>107.625</v>
@@ -2850,22 +3413,28 @@
       <c r="H95">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>107.625</v>
+      </c>
+      <c r="J95">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>654.40243851086893</v>
+        <v>657.30001504254528</v>
       </c>
       <c r="B96">
-        <v>622.53176201120903</v>
+        <v>625.56288784500896</v>
       </c>
       <c r="C96">
-        <v>472.01220233571831</v>
+        <v>474.06853077271785</v>
       </c>
       <c r="D96">
-        <v>480.60183215419619</v>
+        <v>563.67195503445987</v>
       </c>
       <c r="E96">
-        <v>107.625</v>
+        <v>501.76199886676079</v>
       </c>
       <c r="F96">
         <v>107.625</v>
@@ -2876,22 +3445,28 @@
       <c r="H96">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>107.625</v>
+      </c>
+      <c r="J96">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>661.10803851086894</v>
+        <v>664.00561504254529</v>
       </c>
       <c r="B97">
-        <v>629.23736201120903</v>
+        <v>632.26848784500896</v>
       </c>
       <c r="C97">
-        <v>478.1391891520118</v>
+        <v>480.22614385439539</v>
       </c>
       <c r="D97">
-        <v>487.51520801033519</v>
+        <v>570.37755503445987</v>
       </c>
       <c r="E97">
-        <v>107.625</v>
+        <v>508.71916581500375</v>
       </c>
       <c r="F97">
         <v>107.625</v>
@@ -2902,22 +3477,28 @@
       <c r="H97">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>107.625</v>
+      </c>
+      <c r="J97">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>667.81363851086894</v>
+        <v>670.71121504254529</v>
       </c>
       <c r="B98">
-        <v>635.94296201120903</v>
+        <v>638.97408784500897</v>
       </c>
       <c r="C98">
-        <v>484.26617596830528</v>
+        <v>486.38375693607293</v>
       </c>
       <c r="D98">
-        <v>494.42858386647418</v>
+        <v>577.08315503445988</v>
       </c>
       <c r="E98">
-        <v>107.625</v>
+        <v>515.67633276324671</v>
       </c>
       <c r="F98">
         <v>107.625</v>
@@ -2928,22 +3509,28 @@
       <c r="H98">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>107.625</v>
+      </c>
+      <c r="J98">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>674.51923851086895</v>
+        <v>677.4168150425453</v>
       </c>
       <c r="B99">
-        <v>642.64856201120904</v>
+        <v>645.67968784500897</v>
       </c>
       <c r="C99">
-        <v>490.39316278459876</v>
+        <v>492.54137001775047</v>
       </c>
       <c r="D99">
-        <v>501.34195972261318</v>
+        <v>583.78875503445988</v>
       </c>
       <c r="E99">
-        <v>107.625</v>
+        <v>522.63349971148966</v>
       </c>
       <c r="F99">
         <v>107.625</v>
@@ -2954,22 +3541,28 @@
       <c r="H99">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>107.625</v>
+      </c>
+      <c r="J99">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>681.22483851086895</v>
+        <v>684.1224150425453</v>
       </c>
       <c r="B100">
-        <v>649.35416201120904</v>
+        <v>652.38528784500897</v>
       </c>
       <c r="C100">
-        <v>496.52014960089224</v>
+        <v>498.69898309942801</v>
       </c>
       <c r="D100">
-        <v>508.25533557875218</v>
+        <v>590.49435503445989</v>
       </c>
       <c r="E100">
-        <v>107.625</v>
+        <v>529.59066665973262</v>
       </c>
       <c r="F100">
         <v>107.625</v>
@@ -2980,22 +3573,28 @@
       <c r="H100">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>107.625</v>
+      </c>
+      <c r="J100">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>687.93043851086895</v>
+        <v>690.8280150425453</v>
       </c>
       <c r="B101">
-        <v>656.05976201120905</v>
+        <v>659.09088784500898</v>
       </c>
       <c r="C101">
-        <v>502.64713641718572</v>
+        <v>504.85659618110554</v>
       </c>
       <c r="D101">
-        <v>515.16871143489118</v>
+        <v>597.19995503445989</v>
       </c>
       <c r="E101">
-        <v>107.625</v>
+        <v>536.54783360797558</v>
       </c>
       <c r="F101">
         <v>107.625</v>
@@ -3006,22 +3605,28 @@
       <c r="H101">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>107.625</v>
+      </c>
+      <c r="J101">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>694.63603851086896</v>
+        <v>697.53361504254531</v>
       </c>
       <c r="B102">
-        <v>662.76536201120905</v>
+        <v>665.79648784500898</v>
       </c>
       <c r="C102">
-        <v>508.7741232334792</v>
+        <v>511.01420926278308</v>
       </c>
       <c r="D102">
-        <v>522.08208729103023</v>
+        <v>603.90555503445989</v>
       </c>
       <c r="E102">
-        <v>107.625</v>
+        <v>543.50500055621853</v>
       </c>
       <c r="F102">
         <v>107.625</v>
@@ -3032,22 +3637,28 @@
       <c r="H102">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>107.625</v>
+      </c>
+      <c r="J102">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>701.34163851086896</v>
+        <v>704.23921504254531</v>
       </c>
       <c r="B103">
-        <v>669.47096201120905</v>
+        <v>672.50208784500899</v>
       </c>
       <c r="C103">
-        <v>514.90111004977268</v>
+        <v>517.17182234446068</v>
       </c>
       <c r="D103">
-        <v>528.99546314716929</v>
+        <v>610.6111550344599</v>
       </c>
       <c r="E103">
-        <v>107.625</v>
+        <v>550.46216750446149</v>
       </c>
       <c r="F103">
         <v>107.625</v>
@@ -3058,22 +3669,28 @@
       <c r="H103">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>107.625</v>
+      </c>
+      <c r="J103">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>708.04723851086897</v>
+        <v>710.94481504254532</v>
       </c>
       <c r="B104">
-        <v>676.17656201120906</v>
+        <v>679.20768784500899</v>
       </c>
       <c r="C104">
-        <v>521.02809686606622</v>
+        <v>523.32943542613828</v>
       </c>
       <c r="D104">
-        <v>535.90883900330834</v>
+        <v>617.3167550344599</v>
       </c>
       <c r="E104">
-        <v>107.625</v>
+        <v>557.41933445270445</v>
       </c>
       <c r="F104">
         <v>107.625</v>
@@ -3084,22 +3701,28 @@
       <c r="H104">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>107.625</v>
+      </c>
+      <c r="J104">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>714.75283851086897</v>
+        <v>717.65041504254532</v>
       </c>
       <c r="B105">
-        <v>682.88216201120906</v>
+        <v>685.91328784500899</v>
       </c>
       <c r="C105">
-        <v>527.15508368235976</v>
+        <v>529.48704850781587</v>
       </c>
       <c r="D105">
-        <v>542.8222148594474</v>
+        <v>624.02235503445991</v>
       </c>
       <c r="E105">
-        <v>107.625</v>
+        <v>564.3765014009474</v>
       </c>
       <c r="F105">
         <v>107.625</v>
@@ -3110,22 +3733,28 @@
       <c r="H105">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>107.625</v>
+      </c>
+      <c r="J105">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>721.45843851086897</v>
+        <v>724.35601504254532</v>
       </c>
       <c r="B106">
-        <v>689.58776201120907</v>
+        <v>692.618887845009</v>
       </c>
       <c r="C106">
-        <v>533.2820704986533</v>
+        <v>535.64466158949347</v>
       </c>
       <c r="D106">
-        <v>549.73559071558645</v>
+        <v>630.72795503445991</v>
       </c>
       <c r="E106">
-        <v>107.625</v>
+        <v>571.33366834919036</v>
       </c>
       <c r="F106">
         <v>107.625</v>
@@ -3136,22 +3765,28 @@
       <c r="H106">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>107.625</v>
+      </c>
+      <c r="J106">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>728.16403851086898</v>
+        <v>731.06161504254533</v>
       </c>
       <c r="B107">
-        <v>696.29336201120907</v>
+        <v>699.324487845009</v>
       </c>
       <c r="C107">
-        <v>539.40905731494684</v>
+        <v>541.80227467117106</v>
       </c>
       <c r="D107">
-        <v>556.64896657172551</v>
+        <v>637.43355503445991</v>
       </c>
       <c r="E107">
-        <v>107.625</v>
+        <v>578.29083529743332</v>
       </c>
       <c r="F107">
         <v>107.625</v>
@@ -3162,22 +3797,28 @@
       <c r="H107">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>107.625</v>
+      </c>
+      <c r="J107">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>734.86963851086898</v>
+        <v>737.76721504254533</v>
       </c>
       <c r="B108">
-        <v>702.99896201120907</v>
+        <v>706.03008784500901</v>
       </c>
       <c r="C108">
-        <v>545.53604413124037</v>
+        <v>547.95988775284866</v>
       </c>
       <c r="D108">
-        <v>563.56234242786456</v>
+        <v>644.13915503445992</v>
       </c>
       <c r="E108">
-        <v>107.625</v>
+        <v>585.24800224567628</v>
       </c>
       <c r="F108">
         <v>107.625</v>
@@ -3188,22 +3829,28 @@
       <c r="H108">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>107.625</v>
+      </c>
+      <c r="J108">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>741.57523851086899</v>
+        <v>744.47281504254534</v>
       </c>
       <c r="B109">
-        <v>709.70456201120908</v>
+        <v>712.73568784500901</v>
       </c>
       <c r="C109">
-        <v>551.66303094753391</v>
+        <v>554.11750083452625</v>
       </c>
       <c r="D109">
-        <v>570.47571828400362</v>
+        <v>650.84475503445992</v>
       </c>
       <c r="E109">
-        <v>107.625</v>
+        <v>592.20516919391923</v>
       </c>
       <c r="F109">
         <v>107.625</v>
@@ -3214,22 +3861,28 @@
       <c r="H109">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>107.625</v>
+      </c>
+      <c r="J109">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>748.28083851086899</v>
+        <v>751.17841504254534</v>
       </c>
       <c r="B110">
-        <v>716.41016201120908</v>
+        <v>719.44128784500901</v>
       </c>
       <c r="C110">
-        <v>557.79001776382745</v>
+        <v>560.27511391620385</v>
       </c>
       <c r="D110">
-        <v>577.38909414014267</v>
+        <v>657.55035503445993</v>
       </c>
       <c r="E110">
-        <v>107.625</v>
+        <v>599.16233614216219</v>
       </c>
       <c r="F110">
         <v>107.625</v>
@@ -3240,22 +3893,28 @@
       <c r="H110">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>107.625</v>
+      </c>
+      <c r="J110">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>754.98643851086899</v>
+        <v>757.88401504254534</v>
       </c>
       <c r="B111">
-        <v>723.11576201120909</v>
+        <v>726.14688784500902</v>
       </c>
       <c r="C111">
-        <v>563.91700458012099</v>
+        <v>566.43272699788145</v>
       </c>
       <c r="D111">
-        <v>584.30246999628173</v>
+        <v>664.25595503445993</v>
       </c>
       <c r="E111">
-        <v>107.625</v>
+        <v>606.11950309040515</v>
       </c>
       <c r="F111">
         <v>107.625</v>
@@ -3266,22 +3925,28 @@
       <c r="H111">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>107.625</v>
+      </c>
+      <c r="J111">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>761.692038510869</v>
+        <v>764.58961504254535</v>
       </c>
       <c r="B112">
-        <v>729.82136201120909</v>
+        <v>732.85248784500902</v>
       </c>
       <c r="C112">
-        <v>570.04399139641453</v>
+        <v>572.59034007955904</v>
       </c>
       <c r="D112">
-        <v>591.21584585242078</v>
+        <v>670.96155503445993</v>
       </c>
       <c r="E112">
-        <v>107.625</v>
+        <v>613.0766700386481</v>
       </c>
       <c r="F112">
         <v>107.625</v>
@@ -3292,22 +3957,28 @@
       <c r="H112">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>107.625</v>
+      </c>
+      <c r="J112">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>768.397638510869</v>
+        <v>771.29521504254535</v>
       </c>
       <c r="B113">
-        <v>736.52696201120909</v>
+        <v>739.55808784500903</v>
       </c>
       <c r="C113">
-        <v>576.17097821270806</v>
+        <v>578.74795316123664</v>
       </c>
       <c r="D113">
-        <v>598.12922170855984</v>
+        <v>677.66715503445994</v>
       </c>
       <c r="E113">
-        <v>107.625</v>
+        <v>620.03383698689106</v>
       </c>
       <c r="F113">
         <v>107.625</v>
@@ -3318,22 +3989,28 @@
       <c r="H113">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>107.625</v>
+      </c>
+      <c r="J113">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>775.10323851086901</v>
+        <v>778.00081504254536</v>
       </c>
       <c r="B114">
-        <v>743.2325620112091</v>
+        <v>746.26368784500903</v>
       </c>
       <c r="C114">
-        <v>582.2979650290016</v>
+        <v>584.90556624291423</v>
       </c>
       <c r="D114">
-        <v>605.04259756469889</v>
+        <v>684.37275503445994</v>
       </c>
       <c r="E114">
-        <v>107.625</v>
+        <v>626.99100393513402</v>
       </c>
       <c r="F114">
         <v>107.625</v>
@@ -3344,22 +4021,28 @@
       <c r="H114">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>107.625</v>
+      </c>
+      <c r="J114">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>781.80883851086901</v>
+        <v>784.70641504254536</v>
       </c>
       <c r="B115">
-        <v>749.9381620112091</v>
+        <v>752.96928784500903</v>
       </c>
       <c r="C115">
-        <v>588.42495184529514</v>
+        <v>591.06317932459183</v>
       </c>
       <c r="D115">
-        <v>611.95597342083795</v>
+        <v>691.07835503445995</v>
       </c>
       <c r="E115">
-        <v>107.625</v>
+        <v>633.94817088337697</v>
       </c>
       <c r="F115">
         <v>107.625</v>
@@ -3370,22 +4053,28 @@
       <c r="H115">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>107.625</v>
+      </c>
+      <c r="J115">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>788.51443851086901</v>
+        <v>791.41201504254536</v>
       </c>
       <c r="B116">
-        <v>756.64376201120911</v>
+        <v>759.67488784500904</v>
       </c>
       <c r="C116">
-        <v>594.55193866158868</v>
+        <v>597.22079240626942</v>
       </c>
       <c r="D116">
-        <v>618.869349276977</v>
+        <v>697.78395503445995</v>
       </c>
       <c r="E116">
-        <v>107.625</v>
+        <v>640.90533783161993</v>
       </c>
       <c r="F116">
         <v>107.625</v>
@@ -3396,22 +4085,28 @@
       <c r="H116">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>107.625</v>
+      </c>
+      <c r="J116">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>795.22003851086902</v>
+        <v>798.11761504254537</v>
       </c>
       <c r="B117">
-        <v>763.34936201120911</v>
+        <v>766.38048784500904</v>
       </c>
       <c r="C117">
-        <v>600.67892547788222</v>
+        <v>603.37840548794702</v>
       </c>
       <c r="D117">
-        <v>625.78272513311606</v>
+        <v>704.48955503445995</v>
       </c>
       <c r="E117">
-        <v>107.625</v>
+        <v>647.86250477986289</v>
       </c>
       <c r="F117">
         <v>107.625</v>
@@ -3422,22 +4117,28 @@
       <c r="H117">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>107.625</v>
+      </c>
+      <c r="J117">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>801.92563851086902</v>
+        <v>804.82321504254537</v>
       </c>
       <c r="B118">
-        <v>770.05496201120911</v>
+        <v>773.08608784500905</v>
       </c>
       <c r="C118">
-        <v>606.80591229417576</v>
+        <v>609.53601856962462</v>
       </c>
       <c r="D118">
-        <v>632.69610098925511</v>
+        <v>711.19515503445996</v>
       </c>
       <c r="E118">
-        <v>107.625</v>
+        <v>654.81967172810585</v>
       </c>
       <c r="F118">
         <v>107.625</v>
@@ -3448,22 +4149,28 @@
       <c r="H118">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>107.625</v>
+      </c>
+      <c r="J118">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>808.63123851086903</v>
+        <v>811.52881504254538</v>
       </c>
       <c r="B119">
-        <v>776.76056201120912</v>
+        <v>779.79168784500905</v>
       </c>
       <c r="C119">
-        <v>612.93289911046929</v>
+        <v>615.69363165130221</v>
       </c>
       <c r="D119">
-        <v>639.60947684539417</v>
+        <v>717.90075503445996</v>
       </c>
       <c r="E119">
-        <v>107.625</v>
+        <v>661.7768386763488</v>
       </c>
       <c r="F119">
         <v>107.625</v>
@@ -3474,22 +4181,28 @@
       <c r="H119">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>107.625</v>
+      </c>
+      <c r="J119">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>815.33683851086903</v>
+        <v>818.23441504254538</v>
       </c>
       <c r="B120">
-        <v>783.46616201120912</v>
+        <v>786.49728784500905</v>
       </c>
       <c r="C120">
-        <v>619.05988592676283</v>
+        <v>621.85124473297981</v>
       </c>
       <c r="D120">
-        <v>646.52285270153322</v>
+        <v>724.60635503445997</v>
       </c>
       <c r="E120">
-        <v>107.625</v>
+        <v>668.73400562459176</v>
       </c>
       <c r="F120">
         <v>107.625</v>
@@ -3500,22 +4213,28 @@
       <c r="H120">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>107.625</v>
+      </c>
+      <c r="J120">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>822.04243851086903</v>
+        <v>824.94001504254538</v>
       </c>
       <c r="B121">
-        <v>790.17176201120913</v>
+        <v>793.20288784500906</v>
       </c>
       <c r="C121">
-        <v>625.18687274305637</v>
+        <v>628.0088578146574</v>
       </c>
       <c r="D121">
-        <v>653.43622855767228</v>
+        <v>731.31195503445997</v>
       </c>
       <c r="E121">
-        <v>107.625</v>
+        <v>675.69117257283472</v>
       </c>
       <c r="F121">
         <v>107.625</v>
@@ -3526,22 +4245,28 @@
       <c r="H121">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>107.625</v>
+      </c>
+      <c r="J121">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>828.74803851086904</v>
+        <v>831.64561504254539</v>
       </c>
       <c r="B122">
-        <v>796.87736201120913</v>
+        <v>799.90848784500906</v>
       </c>
       <c r="C122">
-        <v>631.31385955934991</v>
+        <v>634.166470896335</v>
       </c>
       <c r="D122">
-        <v>660.34960441381133</v>
+        <v>738.01755503445997</v>
       </c>
       <c r="E122">
-        <v>107.625</v>
+        <v>682.64833952107767</v>
       </c>
       <c r="F122">
         <v>107.625</v>
@@ -3552,22 +4277,28 @@
       <c r="H122">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>107.625</v>
+      </c>
+      <c r="J122">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>835.45363851086904</v>
+        <v>838.35121504254539</v>
       </c>
       <c r="B123">
-        <v>803.58296201120913</v>
+        <v>806.61408784500907</v>
       </c>
       <c r="C123">
-        <v>637.44084637564345</v>
+        <v>640.3240839780126</v>
       </c>
       <c r="D123">
-        <v>667.26298026995039</v>
+        <v>744.72315503445998</v>
       </c>
       <c r="E123">
-        <v>107.625</v>
+        <v>689.60550646932063</v>
       </c>
       <c r="F123">
         <v>107.625</v>
@@ -3578,22 +4309,28 @@
       <c r="H123">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>107.625</v>
+      </c>
+      <c r="J123">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>842.15923851086905</v>
+        <v>845.0568150425454</v>
       </c>
       <c r="B124">
-        <v>810.28856201120914</v>
+        <v>813.31968784500907</v>
       </c>
       <c r="C124">
-        <v>643.56783319193698</v>
+        <v>646.48169705969019</v>
       </c>
       <c r="D124">
-        <v>674.17635612608944</v>
+        <v>751.42875503445998</v>
       </c>
       <c r="E124">
-        <v>107.625</v>
+        <v>696.56267341756359</v>
       </c>
       <c r="F124">
         <v>107.625</v>
@@ -3604,22 +4341,28 @@
       <c r="H124">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>107.625</v>
+      </c>
+      <c r="J124">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>848.86483851086905</v>
+        <v>851.7624150425454</v>
       </c>
       <c r="B125">
-        <v>816.99416201120914</v>
+        <v>820.02528784500907</v>
       </c>
       <c r="C125">
-        <v>649.69482000823052</v>
+        <v>652.63931014136779</v>
       </c>
       <c r="D125">
-        <v>681.0897319822285</v>
+        <v>758.13435503445999</v>
       </c>
       <c r="E125">
-        <v>107.625</v>
+        <v>703.51984036580654</v>
       </c>
       <c r="F125">
         <v>107.625</v>
@@ -3630,22 +4373,28 @@
       <c r="H125">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>107.625</v>
+      </c>
+      <c r="J125">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>855.57043851086905</v>
+        <v>858.4680150425454</v>
       </c>
       <c r="B126">
-        <v>823.69976201120915</v>
+        <v>826.73088784500908</v>
       </c>
       <c r="C126">
-        <v>655.82180682452406</v>
+        <v>658.79692322304538</v>
       </c>
       <c r="D126">
-        <v>688.00310783836755</v>
+        <v>764.83995503445999</v>
       </c>
       <c r="E126">
-        <v>107.625</v>
+        <v>710.4770073140495</v>
       </c>
       <c r="F126">
         <v>107.625</v>
@@ -3656,22 +4405,28 @@
       <c r="H126">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>107.625</v>
+      </c>
+      <c r="J126">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>862.27603851086906</v>
+        <v>865.17361504254541</v>
       </c>
       <c r="B127">
-        <v>830.40536201120915</v>
+        <v>833.43648784500908</v>
       </c>
       <c r="C127">
-        <v>661.9487936408176</v>
+        <v>664.95453630472298</v>
       </c>
       <c r="D127">
-        <v>694.91648369450661</v>
+        <v>771.54555503445999</v>
       </c>
       <c r="E127">
-        <v>107.625</v>
+        <v>717.43417426229246</v>
       </c>
       <c r="F127">
         <v>107.625</v>
@@ -3682,22 +4437,28 @@
       <c r="H127">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>107.625</v>
+      </c>
+      <c r="J127">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>868.98163851086906</v>
+        <v>871.87921504254541</v>
       </c>
       <c r="B128">
-        <v>837.11096201120915</v>
+        <v>840.14208784500909</v>
       </c>
       <c r="C128">
-        <v>668.07578045711114</v>
+        <v>671.11214938640057</v>
       </c>
       <c r="D128">
-        <v>701.82985955064566</v>
+        <v>778.25115503446</v>
       </c>
       <c r="E128">
-        <v>107.625</v>
+        <v>724.39134121053542</v>
       </c>
       <c r="F128">
         <v>107.625</v>
@@ -3708,22 +4469,28 @@
       <c r="H128">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>107.625</v>
+      </c>
+      <c r="J128">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>875.68723851086907</v>
+        <v>878.58481504254542</v>
       </c>
       <c r="B129">
-        <v>843.81656201120916</v>
+        <v>846.84768784500909</v>
       </c>
       <c r="C129">
-        <v>674.20276727340467</v>
+        <v>677.26976246807817</v>
       </c>
       <c r="D129">
-        <v>708.74323540678472</v>
+        <v>784.95675503446</v>
       </c>
       <c r="E129">
-        <v>107.625</v>
+        <v>731.34850815877837</v>
       </c>
       <c r="F129">
         <v>107.625</v>
@@ -3734,22 +4501,28 @@
       <c r="H129">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>107.625</v>
+      </c>
+      <c r="J129">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>882.39283851086907</v>
+        <v>885.29041504254542</v>
       </c>
       <c r="B130">
-        <v>850.52216201120916</v>
+        <v>853.55328784500909</v>
       </c>
       <c r="C130">
-        <v>680.32975408969821</v>
+        <v>683.42737554975577</v>
       </c>
       <c r="D130">
-        <v>715.65661126292378</v>
+        <v>791.66235503446001</v>
       </c>
       <c r="E130">
-        <v>107.625</v>
+        <v>738.30567510702133</v>
       </c>
       <c r="F130">
         <v>107.625</v>
@@ -3760,22 +4533,28 @@
       <c r="H130">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>107.625</v>
+      </c>
+      <c r="J130">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>889.09843851086907</v>
+        <v>891.99601504254542</v>
       </c>
       <c r="B131">
-        <v>857.22776201120917</v>
+        <v>860.2588878450091</v>
       </c>
       <c r="C131">
-        <v>686.45674090599175</v>
+        <v>689.58498863143336</v>
       </c>
       <c r="D131">
-        <v>722.56998711906283</v>
+        <v>798.36795503446001</v>
       </c>
       <c r="E131">
-        <v>107.625</v>
+        <v>745.26284205526429</v>
       </c>
       <c r="F131">
         <v>107.625</v>
@@ -3786,22 +4565,28 @@
       <c r="H131">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>107.625</v>
+      </c>
+      <c r="J131">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>895.80403851086908</v>
+        <v>898.70161504254543</v>
       </c>
       <c r="B132">
-        <v>863.93336201120917</v>
+        <v>866.9644878450091</v>
       </c>
       <c r="C132">
-        <v>692.58372772228529</v>
+        <v>695.74260171311096</v>
       </c>
       <c r="D132">
-        <v>729.48336297520189</v>
+        <v>805.07355503446001</v>
       </c>
       <c r="E132">
-        <v>107.625</v>
+        <v>752.22000900350724</v>
       </c>
       <c r="F132">
         <v>107.625</v>
@@ -3812,22 +4597,28 @@
       <c r="H132">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>107.625</v>
+      </c>
+      <c r="J132">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>902.50963851086908</v>
+        <v>905.40721504254543</v>
       </c>
       <c r="B133">
-        <v>870.63896201120917</v>
+        <v>873.67008784500911</v>
       </c>
       <c r="C133">
-        <v>698.71071453857883</v>
+        <v>701.90021479478855</v>
       </c>
       <c r="D133">
-        <v>736.39673883134094</v>
+        <v>811.77915503446002</v>
       </c>
       <c r="E133">
-        <v>107.625</v>
+        <v>759.1771759517502</v>
       </c>
       <c r="F133">
         <v>107.625</v>
@@ -3838,22 +4629,28 @@
       <c r="H133">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>107.625</v>
+      </c>
+      <c r="J133">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>909.21523851086909</v>
+        <v>912.11281504254544</v>
       </c>
       <c r="B134">
-        <v>877.34456201120918</v>
+        <v>880.37568784500911</v>
       </c>
       <c r="C134">
-        <v>704.83770135487237</v>
+        <v>708.05782787646615</v>
       </c>
       <c r="D134">
-        <v>743.31011468748</v>
+        <v>818.48475503446002</v>
       </c>
       <c r="E134">
-        <v>107.625</v>
+        <v>766.13434289999316</v>
       </c>
       <c r="F134">
         <v>107.625</v>
@@ -3864,22 +4661,28 @@
       <c r="H134">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>107.625</v>
+      </c>
+      <c r="J134">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>915.92083851086909</v>
+        <v>918.81841504254544</v>
       </c>
       <c r="B135">
-        <v>884.05016201120918</v>
+        <v>887.08128784500911</v>
       </c>
       <c r="C135">
-        <v>710.9646881711659</v>
+        <v>714.21544095814374</v>
       </c>
       <c r="D135">
-        <v>750.22349054361905</v>
+        <v>825.19035503446003</v>
       </c>
       <c r="E135">
-        <v>107.625</v>
+        <v>773.09150984823611</v>
       </c>
       <c r="F135">
         <v>107.625</v>
@@ -3890,22 +4693,28 @@
       <c r="H135">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>107.625</v>
+      </c>
+      <c r="J135">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>922.62643851086909</v>
+        <v>925.52401504254544</v>
       </c>
       <c r="B136">
-        <v>890.75576201120919</v>
+        <v>893.78688784500912</v>
       </c>
       <c r="C136">
-        <v>717.09167498745944</v>
+        <v>720.37305403982134</v>
       </c>
       <c r="D136">
-        <v>757.13686639975811</v>
+        <v>831.89595503446003</v>
       </c>
       <c r="E136">
-        <v>107.625</v>
+        <v>780.04867679647907</v>
       </c>
       <c r="F136">
         <v>107.625</v>
@@ -3916,22 +4725,28 @@
       <c r="H136">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>107.625</v>
+      </c>
+      <c r="J136">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>929.3320385108691</v>
+        <v>932.22961504254545</v>
       </c>
       <c r="B137">
-        <v>897.46136201120919</v>
+        <v>900.49248784500912</v>
       </c>
       <c r="C137">
-        <v>723.21866180375298</v>
+        <v>726.53066712149894</v>
       </c>
       <c r="D137">
-        <v>764.05024225589716</v>
+        <v>838.60155503446003</v>
       </c>
       <c r="E137">
-        <v>107.625</v>
+        <v>787.00584374472203</v>
       </c>
       <c r="F137">
         <v>107.625</v>
@@ -3942,22 +4757,28 @@
       <c r="H137">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>107.625</v>
+      </c>
+      <c r="J137">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>936.0376385108691</v>
+        <v>938.93521504254545</v>
       </c>
       <c r="B138">
-        <v>904.16696201120919</v>
+        <v>907.19808784500913</v>
       </c>
       <c r="C138">
-        <v>729.34564862004652</v>
+        <v>732.68828020317653</v>
       </c>
       <c r="D138">
-        <v>770.96361811203622</v>
+        <v>845.30715503446004</v>
       </c>
       <c r="E138">
-        <v>107.625</v>
+        <v>793.96301069296499</v>
       </c>
       <c r="F138">
         <v>107.625</v>
@@ -3968,22 +4789,28 @@
       <c r="H138">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>107.625</v>
+      </c>
+      <c r="J138">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>942.74323851086911</v>
+        <v>945.64081504254546</v>
       </c>
       <c r="B139">
-        <v>910.8725620112092</v>
+        <v>913.90368784500913</v>
       </c>
       <c r="C139">
-        <v>735.47263543634006</v>
+        <v>738.84589328485413</v>
       </c>
       <c r="D139">
-        <v>777.87699396817527</v>
+        <v>852.01275503446004</v>
       </c>
       <c r="E139">
-        <v>107.625</v>
+        <v>800.92017764120794</v>
       </c>
       <c r="F139">
         <v>107.625</v>
@@ -3994,22 +4821,28 @@
       <c r="H139">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>107.625</v>
+      </c>
+      <c r="J139">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>949.44883851086911</v>
+        <v>952.34641504254546</v>
       </c>
       <c r="B140">
-        <v>917.5781620112092</v>
+        <v>920.60928784500913</v>
       </c>
       <c r="C140">
-        <v>741.59962225263359</v>
+        <v>745.00350636653172</v>
       </c>
       <c r="D140">
-        <v>784.79036982431433</v>
+        <v>858.71835503446005</v>
       </c>
       <c r="E140">
-        <v>107.625</v>
+        <v>807.8773445894509</v>
       </c>
       <c r="F140">
         <v>107.625</v>
@@ -4020,22 +4853,28 @@
       <c r="H140">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>107.625</v>
+      </c>
+      <c r="J140">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>956.15443851086911</v>
+        <v>959.05201504254546</v>
       </c>
       <c r="B141">
-        <v>924.28376201120921</v>
+        <v>927.31488784500914</v>
       </c>
       <c r="C141">
-        <v>747.72660906892713</v>
+        <v>751.16111944820932</v>
       </c>
       <c r="D141">
-        <v>791.70374568045338</v>
+        <v>865.42395503446005</v>
       </c>
       <c r="E141">
-        <v>107.625</v>
+        <v>814.83451153769386</v>
       </c>
       <c r="F141">
         <v>107.625</v>
@@ -4046,22 +4885,28 @@
       <c r="H141">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>107.625</v>
+      </c>
+      <c r="J141">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>962.86003851086912</v>
+        <v>965.75761504254547</v>
       </c>
       <c r="B142">
-        <v>930.98936201120921</v>
+        <v>934.02048784500914</v>
       </c>
       <c r="C142">
-        <v>753.85359588522067</v>
+        <v>757.31873252988692</v>
       </c>
       <c r="D142">
-        <v>798.61712153659244</v>
+        <v>872.12955503446005</v>
       </c>
       <c r="E142">
-        <v>107.625</v>
+        <v>821.79167848593681</v>
       </c>
       <c r="F142">
         <v>107.625</v>
@@ -4072,22 +4917,28 @@
       <c r="H142">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>107.625</v>
+      </c>
+      <c r="J142">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>969.56563851086912</v>
+        <v>972.46321504254547</v>
       </c>
       <c r="B143">
-        <v>937.69496201120921</v>
+        <v>940.72608784500915</v>
       </c>
       <c r="C143">
-        <v>759.98058270151421</v>
+        <v>763.47634561156451</v>
       </c>
       <c r="D143">
-        <v>805.53049739273149</v>
+        <v>878.83515503446006</v>
       </c>
       <c r="E143">
-        <v>107.625</v>
+        <v>828.74884543417977</v>
       </c>
       <c r="F143">
         <v>107.625</v>
@@ -4098,22 +4949,28 @@
       <c r="H143">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>107.625</v>
+      </c>
+      <c r="J143">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>976.27123851086913</v>
+        <v>979.16881504254548</v>
       </c>
       <c r="B144">
-        <v>944.40056201120922</v>
+        <v>947.43168784500915</v>
       </c>
       <c r="C144">
-        <v>766.10756951780775</v>
+        <v>769.63395869324211</v>
       </c>
       <c r="D144">
-        <v>812.44387324887055</v>
+        <v>885.54075503446006</v>
       </c>
       <c r="E144">
-        <v>107.625</v>
+        <v>835.70601238242273</v>
       </c>
       <c r="F144">
         <v>107.625</v>
@@ -4124,22 +4981,28 @@
       <c r="H144">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>107.625</v>
+      </c>
+      <c r="J144">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>982.97683851086913</v>
+        <v>985.87441504254548</v>
       </c>
       <c r="B145">
-        <v>951.10616201120922</v>
+        <v>954.13728784500915</v>
       </c>
       <c r="C145">
-        <v>772.23455633410128</v>
+        <v>775.7915717749197</v>
       </c>
       <c r="D145">
-        <v>819.3572491050096</v>
+        <v>892.24635503446007</v>
       </c>
       <c r="E145">
-        <v>107.625</v>
+        <v>842.66317933066568</v>
       </c>
       <c r="F145">
         <v>107.625</v>
@@ -4150,22 +5013,28 @@
       <c r="H145">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>107.625</v>
+      </c>
+      <c r="J145">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>989.68243851086913</v>
+        <v>992.58001504254548</v>
       </c>
       <c r="B146">
-        <v>957.81176201120923</v>
+        <v>960.84288784500916</v>
       </c>
       <c r="C146">
-        <v>778.36154315039482</v>
+        <v>781.9491848565973</v>
       </c>
       <c r="D146">
-        <v>826.27062496114866</v>
+        <v>898.95195503446007</v>
       </c>
       <c r="E146">
-        <v>107.625</v>
+        <v>849.62034627890864</v>
       </c>
       <c r="F146">
         <v>107.625</v>
@@ -4176,22 +5045,28 @@
       <c r="H146">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>107.625</v>
+      </c>
+      <c r="J146">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>996.38803851086914</v>
+        <v>999.28561504254549</v>
       </c>
       <c r="B147">
-        <v>964.51736201120923</v>
+        <v>967.54848784500916</v>
       </c>
       <c r="C147">
-        <v>784.48852996668836</v>
+        <v>788.10679793827489</v>
       </c>
       <c r="D147">
-        <v>833.18400081728771</v>
+        <v>905.65755503446007</v>
       </c>
       <c r="E147">
-        <v>107.625</v>
+        <v>856.5775132271516</v>
       </c>
       <c r="F147">
         <v>107.625</v>
@@ -4202,22 +5077,28 @@
       <c r="H147">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>107.625</v>
+      </c>
+      <c r="J147">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1003.0936385108691</v>
+        <v>1005.9912150425455</v>
       </c>
       <c r="B148">
-        <v>971.22296201120923</v>
+        <v>974.25408784500917</v>
       </c>
       <c r="C148">
-        <v>790.6155167829819</v>
+        <v>794.26441101995249</v>
       </c>
       <c r="D148">
-        <v>840.09737667342677</v>
+        <v>912.36315503446008</v>
       </c>
       <c r="E148">
-        <v>107.625</v>
+        <v>863.53468017539456</v>
       </c>
       <c r="F148">
         <v>107.625</v>
@@ -4228,22 +5109,28 @@
       <c r="H148">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>107.625</v>
+      </c>
+      <c r="J148">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1009.7992385108691</v>
+        <v>1012.6968150425455</v>
       </c>
       <c r="B149">
-        <v>977.92856201120924</v>
+        <v>980.95968784500917</v>
       </c>
       <c r="C149">
-        <v>796.74250359927544</v>
+        <v>800.42202410163009</v>
       </c>
       <c r="D149">
-        <v>847.01075252956582</v>
+        <v>919.06875503446008</v>
       </c>
       <c r="E149">
-        <v>107.625</v>
+        <v>870.49184712363751</v>
       </c>
       <c r="F149">
         <v>107.625</v>
@@ -4254,22 +5141,28 @@
       <c r="H149">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>107.625</v>
+      </c>
+      <c r="J149">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1016.5048385108691</v>
+        <v>1019.4024150425455</v>
       </c>
       <c r="B150">
-        <v>984.63416201120924</v>
+        <v>987.66528784500917</v>
       </c>
       <c r="C150">
-        <v>802.86949041556898</v>
+        <v>806.57963718330768</v>
       </c>
       <c r="D150">
-        <v>853.92412838570488</v>
+        <v>925.77435503446009</v>
       </c>
       <c r="E150">
-        <v>107.625</v>
+        <v>877.44901407188047</v>
       </c>
       <c r="F150">
         <v>107.625</v>
@@ -4280,22 +5173,28 @@
       <c r="H150">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>107.625</v>
+      </c>
+      <c r="J150">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1023.2104385108692</v>
+        <v>1026.1080150425455</v>
       </c>
       <c r="B151">
-        <v>991.33976201120925</v>
+        <v>994.37088784500918</v>
       </c>
       <c r="C151">
-        <v>808.99647723186251</v>
+        <v>812.73725026498528</v>
       </c>
       <c r="D151">
-        <v>860.83750424184393</v>
+        <v>932.47995503446009</v>
       </c>
       <c r="E151">
-        <v>107.625</v>
+        <v>884.40618102012343</v>
       </c>
       <c r="F151">
         <v>107.625</v>
@@ -4306,22 +5205,28 @@
       <c r="H151">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>107.625</v>
+      </c>
+      <c r="J151">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1029.9160385108692</v>
+        <v>1032.8136150425455</v>
       </c>
       <c r="B152">
-        <v>998.04536201120925</v>
+        <v>1001.0764878450092</v>
       </c>
       <c r="C152">
-        <v>815.12346404815605</v>
+        <v>818.89486334666287</v>
       </c>
       <c r="D152">
-        <v>867.75088009798299</v>
+        <v>939.18555503446009</v>
       </c>
       <c r="E152">
-        <v>107.625</v>
+        <v>891.36334796836638</v>
       </c>
       <c r="F152">
         <v>107.625</v>
@@ -4332,22 +5237,28 @@
       <c r="H152">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>107.625</v>
+      </c>
+      <c r="J152">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1036.6216385108692</v>
+        <v>1039.5192150425455</v>
       </c>
       <c r="B153">
-        <v>1004.7509620112093</v>
+        <v>1007.7820878450092</v>
       </c>
       <c r="C153">
-        <v>821.25045086444959</v>
+        <v>825.05247642834047</v>
       </c>
       <c r="D153">
-        <v>874.66425595412204</v>
+        <v>945.8911550344601</v>
       </c>
       <c r="E153">
-        <v>107.625</v>
+        <v>898.32051491660934</v>
       </c>
       <c r="F153">
         <v>107.625</v>
@@ -4358,22 +5269,28 @@
       <c r="H153">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>107.625</v>
+      </c>
+      <c r="J153">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1043.3272385108692</v>
+        <v>1046.2248150425455</v>
       </c>
       <c r="B154">
-        <v>1011.4565620112093</v>
+        <v>1014.4876878450092</v>
       </c>
       <c r="C154">
-        <v>827.37743768074313</v>
+        <v>831.21008951001807</v>
       </c>
       <c r="D154">
-        <v>881.5776318102611</v>
+        <v>952.5967550344601</v>
       </c>
       <c r="E154">
-        <v>107.625</v>
+        <v>905.2776818648523</v>
       </c>
       <c r="F154">
         <v>107.625</v>
@@ -4384,22 +5301,28 @@
       <c r="H154">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>107.625</v>
+      </c>
+      <c r="J154">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1050.0328385108692</v>
+        <v>1052.9304150425455</v>
       </c>
       <c r="B155">
-        <v>1018.1621620112093</v>
+        <v>1021.1932878450092</v>
       </c>
       <c r="C155">
-        <v>833.50442449703667</v>
+        <v>837.36770259169566</v>
       </c>
       <c r="D155">
-        <v>888.49100766640015</v>
+        <v>959.30235503446011</v>
       </c>
       <c r="E155">
-        <v>107.625</v>
+        <v>912.23484881309525</v>
       </c>
       <c r="F155">
         <v>107.625</v>
@@ -4410,22 +5333,28 @@
       <c r="H155">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>107.625</v>
+      </c>
+      <c r="J155">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1056.7384385108692</v>
+        <v>1059.6360150425455</v>
       </c>
       <c r="B156">
-        <v>1024.8677620112092</v>
+        <v>1027.8988878450091</v>
       </c>
       <c r="C156">
-        <v>839.6314113133302</v>
+        <v>843.52531567337326</v>
       </c>
       <c r="D156">
-        <v>895.40438352253921</v>
+        <v>966.00795503446011</v>
       </c>
       <c r="E156">
-        <v>107.625</v>
+        <v>919.19201576133821</v>
       </c>
       <c r="F156">
         <v>107.625</v>
@@ -4436,22 +5365,28 @@
       <c r="H156">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>107.625</v>
+      </c>
+      <c r="J156">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1063.4440385108692</v>
+        <v>1066.3416150425455</v>
       </c>
       <c r="B157">
-        <v>1031.5733620112092</v>
+        <v>1034.6044878450091</v>
       </c>
       <c r="C157">
-        <v>845.75839812962374</v>
+        <v>849.68292875505085</v>
       </c>
       <c r="D157">
-        <v>902.31775937867826</v>
+        <v>972.71355503446011</v>
       </c>
       <c r="E157">
-        <v>107.625</v>
+        <v>926.14918270958117</v>
       </c>
       <c r="F157">
         <v>107.625</v>
@@ -4462,22 +5397,28 @@
       <c r="H157">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>107.625</v>
+      </c>
+      <c r="J157">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1070.1496385108692</v>
+        <v>1073.0472150425455</v>
       </c>
       <c r="B158">
-        <v>1038.2789620112092</v>
+        <v>1041.3100878450091</v>
       </c>
       <c r="C158">
-        <v>851.88538494591728</v>
+        <v>855.84054183672845</v>
       </c>
       <c r="D158">
-        <v>909.23113523481732</v>
+        <v>979.41915503446012</v>
       </c>
       <c r="E158">
-        <v>107.625</v>
+        <v>933.10634965782413</v>
       </c>
       <c r="F158">
         <v>107.625</v>
@@ -4488,22 +5429,28 @@
       <c r="H158">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>107.625</v>
+      </c>
+      <c r="J158">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1076.8552385108692</v>
+        <v>1079.7528150425455</v>
       </c>
       <c r="B159">
-        <v>1044.9845620112092</v>
+        <v>1048.0156878450091</v>
       </c>
       <c r="C159">
-        <v>858.01237176221082</v>
+        <v>861.99815491840604</v>
       </c>
       <c r="D159">
-        <v>916.14451109095637</v>
+        <v>986.12475503446012</v>
       </c>
       <c r="E159">
-        <v>107.625</v>
+        <v>940.06351660606708</v>
       </c>
       <c r="F159">
         <v>107.625</v>
@@ -4514,22 +5461,28 @@
       <c r="H159">
         <v>107.625</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>107.625</v>
+      </c>
+      <c r="J159">
+        <v>107.625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1083.5608385108692</v>
+        <v>1086.4584150425455</v>
       </c>
       <c r="B160">
-        <v>1051.6901620112092</v>
+        <v>1054.7212878450091</v>
       </c>
       <c r="C160">
-        <v>864.13935857850436</v>
+        <v>868.15576800008364</v>
       </c>
       <c r="D160">
-        <v>923.05788694709543</v>
+        <v>992.83035503446013</v>
       </c>
       <c r="E160">
-        <v>107.625</v>
+        <v>947.02068355431004</v>
       </c>
       <c r="F160">
         <v>107.625</v>
@@ -4538,6 +5491,12 @@
         <v>107.625</v>
       </c>
       <c r="H160">
+        <v>107.625</v>
+      </c>
+      <c r="I160">
+        <v>107.625</v>
+      </c>
+      <c r="J160">
         <v>107.625</v>
       </c>
     </row>
@@ -4547,7 +5506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A1B91-464D-423E-B7B6-B458A560EA32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7282,7 +8241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34807809-E797-40DB-86E5-9E7A1471034F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/xydata.xlsx
+++ b/xydata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavanyaj\Documents\GitHub\MATLAB_MDV-CAVsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\jakkalavanya1 GITHUB\MATLAB_MDV-CAVsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1C0BA7B-DF67-4F96-9A76-13A6CA1088DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,11 +372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J160"/>
+      <selection sqref="A1:H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,19 +392,19 @@
         <v>-130</v>
       </c>
       <c r="D1">
-        <v>-140</v>
+        <v>-150</v>
       </c>
       <c r="E1">
-        <v>-150</v>
+        <v>107.625</v>
       </c>
       <c r="F1">
-        <v>107.625</v>
+        <v>-31.25</v>
       </c>
       <c r="G1">
-        <v>-31.25</v>
+        <v>107.625</v>
       </c>
       <c r="H1">
-        <v>107.625</v>
+        <v>-37.5</v>
       </c>
       <c r="I1">
         <v>107.625</v>
@@ -423,19 +424,19 @@
         <v>-123.2944</v>
       </c>
       <c r="D2">
-        <v>-133.2944</v>
+        <v>-143.2944</v>
       </c>
       <c r="E2">
-        <v>-143.2944</v>
+        <v>107.625</v>
       </c>
       <c r="F2">
-        <v>107.625</v>
+        <v>-29.573599999999999</v>
       </c>
       <c r="G2">
-        <v>-29.573599999999999</v>
+        <v>107.625</v>
       </c>
       <c r="H2">
-        <v>107.625</v>
+        <v>-35.823599999999999</v>
       </c>
       <c r="I2">
         <v>107.625</v>
@@ -455,19 +456,19 @@
         <v>-117.58879999999999</v>
       </c>
       <c r="D3">
-        <v>-126.58879999999999</v>
+        <v>-138.58879999999999</v>
       </c>
       <c r="E3">
-        <v>-137.58879999999999</v>
+        <v>107.625</v>
       </c>
       <c r="F3">
-        <v>107.625</v>
+        <v>-27.897199999999998</v>
       </c>
       <c r="G3">
-        <v>-27.897199999999998</v>
+        <v>107.625</v>
       </c>
       <c r="H3">
-        <v>107.625</v>
+        <v>-34.647199999999998</v>
       </c>
       <c r="I3">
         <v>107.625</v>
@@ -487,19 +488,19 @@
         <v>-111.88319999999999</v>
       </c>
       <c r="D4">
-        <v>-119.88319999999999</v>
+        <v>-133.88319999999999</v>
       </c>
       <c r="E4">
-        <v>-131.88319999999999</v>
+        <v>107.625</v>
       </c>
       <c r="F4">
-        <v>107.625</v>
+        <v>-26.220799999999997</v>
       </c>
       <c r="G4">
-        <v>-26.220799999999997</v>
+        <v>107.625</v>
       </c>
       <c r="H4">
-        <v>107.625</v>
+        <v>-33.470799999999997</v>
       </c>
       <c r="I4">
         <v>107.625</v>
@@ -519,19 +520,19 @@
         <v>-106.17759999999998</v>
       </c>
       <c r="D5">
-        <v>-113.17759999999998</v>
+        <v>-129.17759999999998</v>
       </c>
       <c r="E5">
-        <v>-126.17759999999998</v>
+        <v>107.625</v>
       </c>
       <c r="F5">
-        <v>107.625</v>
+        <v>-24.544399999999996</v>
       </c>
       <c r="G5">
-        <v>-24.544399999999996</v>
+        <v>107.625</v>
       </c>
       <c r="H5">
-        <v>107.625</v>
+        <v>-32.294399999999996</v>
       </c>
       <c r="I5">
         <v>107.625</v>
@@ -551,19 +552,19 @@
         <v>-100.47199999999998</v>
       </c>
       <c r="D6">
-        <v>-106.47199999999998</v>
+        <v>-124.47199999999998</v>
       </c>
       <c r="E6">
-        <v>-120.47199999999998</v>
+        <v>107.625</v>
       </c>
       <c r="F6">
-        <v>107.625</v>
+        <v>-22.867999999999995</v>
       </c>
       <c r="G6">
-        <v>-22.867999999999995</v>
+        <v>107.625</v>
       </c>
       <c r="H6">
-        <v>107.625</v>
+        <v>-31.117999999999995</v>
       </c>
       <c r="I6">
         <v>107.625</v>
@@ -583,19 +584,19 @@
         <v>-94.766399999999976</v>
       </c>
       <c r="D7">
-        <v>-99.766399999999976</v>
+        <v>-119.76639999999998</v>
       </c>
       <c r="E7">
-        <v>-114.76639999999998</v>
+        <v>107.625</v>
       </c>
       <c r="F7">
-        <v>107.625</v>
+        <v>-21.191599999999994</v>
       </c>
       <c r="G7">
-        <v>-21.191599999999994</v>
+        <v>107.625</v>
       </c>
       <c r="H7">
-        <v>107.625</v>
+        <v>-29.941599999999994</v>
       </c>
       <c r="I7">
         <v>107.625</v>
@@ -615,19 +616,19 @@
         <v>-89.060799999999972</v>
       </c>
       <c r="D8">
-        <v>-93.060799999999972</v>
+        <v>-115.06079999999997</v>
       </c>
       <c r="E8">
-        <v>-109.06079999999997</v>
+        <v>107.625</v>
       </c>
       <c r="F8">
-        <v>107.625</v>
+        <v>-19.515199999999993</v>
       </c>
       <c r="G8">
-        <v>-19.515199999999993</v>
+        <v>107.625</v>
       </c>
       <c r="H8">
-        <v>107.625</v>
+        <v>-28.765199999999993</v>
       </c>
       <c r="I8">
         <v>107.625</v>
@@ -647,19 +648,19 @@
         <v>-83.355199999999968</v>
       </c>
       <c r="D9">
-        <v>-86.355199999999968</v>
+        <v>-110.35519999999997</v>
       </c>
       <c r="E9">
-        <v>-103.35519999999997</v>
+        <v>107.625</v>
       </c>
       <c r="F9">
-        <v>107.625</v>
+        <v>-17.838799999999992</v>
       </c>
       <c r="G9">
-        <v>-17.838799999999992</v>
+        <v>107.625</v>
       </c>
       <c r="H9">
-        <v>107.625</v>
+        <v>-27.588799999999992</v>
       </c>
       <c r="I9">
         <v>107.625</v>
@@ -679,19 +680,19 @@
         <v>-77.649599999999964</v>
       </c>
       <c r="D10">
-        <v>-79.649599999999964</v>
+        <v>-105.64959999999996</v>
       </c>
       <c r="E10">
-        <v>-97.649599999999964</v>
+        <v>107.625</v>
       </c>
       <c r="F10">
-        <v>107.625</v>
+        <v>-16.162399999999991</v>
       </c>
       <c r="G10">
-        <v>-16.162399999999991</v>
+        <v>107.625</v>
       </c>
       <c r="H10">
-        <v>107.625</v>
+        <v>-26.412399999999991</v>
       </c>
       <c r="I10">
         <v>107.625</v>
@@ -711,19 +712,19 @@
         <v>-71.94399999999996</v>
       </c>
       <c r="D11">
-        <v>-72.94399999999996</v>
+        <v>-100.94399999999996</v>
       </c>
       <c r="E11">
-        <v>-91.94399999999996</v>
+        <v>107.625</v>
       </c>
       <c r="F11">
-        <v>107.625</v>
+        <v>-14.485999999999992</v>
       </c>
       <c r="G11">
-        <v>-14.485999999999992</v>
+        <v>107.625</v>
       </c>
       <c r="H11">
-        <v>107.625</v>
+        <v>-25.23599999999999</v>
       </c>
       <c r="I11">
         <v>107.625</v>
@@ -743,19 +744,19 @@
         <v>-66.238399999999956</v>
       </c>
       <c r="D12">
-        <v>-66.238399999999956</v>
+        <v>-96.238399999999956</v>
       </c>
       <c r="E12">
-        <v>-86.238399999999956</v>
+        <v>107.625</v>
       </c>
       <c r="F12">
-        <v>107.625</v>
+        <v>-12.809599999999993</v>
       </c>
       <c r="G12">
-        <v>-12.809599999999993</v>
+        <v>107.625</v>
       </c>
       <c r="H12">
-        <v>107.625</v>
+        <v>-24.059599999999989</v>
       </c>
       <c r="I12">
         <v>107.625</v>
@@ -775,19 +776,19 @@
         <v>-60.532799999999959</v>
       </c>
       <c r="D13">
-        <v>-59.532799999999959</v>
+        <v>-91.532799999999952</v>
       </c>
       <c r="E13">
-        <v>-80.532799999999952</v>
+        <v>107.625</v>
       </c>
       <c r="F13">
-        <v>107.625</v>
+        <v>-11.133199999999993</v>
       </c>
       <c r="G13">
-        <v>-11.133199999999993</v>
+        <v>107.625</v>
       </c>
       <c r="H13">
-        <v>107.625</v>
+        <v>-22.883199999999988</v>
       </c>
       <c r="I13">
         <v>107.625</v>
@@ -807,19 +808,19 @@
         <v>-54.827199999999962</v>
       </c>
       <c r="D14">
-        <v>-52.827199999999962</v>
+        <v>-86.827199999999948</v>
       </c>
       <c r="E14">
-        <v>-74.827199999999948</v>
+        <v>107.625</v>
       </c>
       <c r="F14">
-        <v>107.625</v>
+        <v>-9.4567999999999941</v>
       </c>
       <c r="G14">
-        <v>-9.4567999999999941</v>
+        <v>107.625</v>
       </c>
       <c r="H14">
-        <v>107.625</v>
+        <v>-21.706799999999987</v>
       </c>
       <c r="I14">
         <v>107.625</v>
@@ -839,19 +840,19 @@
         <v>-49.121599999999965</v>
       </c>
       <c r="D15">
-        <v>-46.121599999999965</v>
+        <v>-82.121599999999944</v>
       </c>
       <c r="E15">
-        <v>-69.121599999999944</v>
+        <v>107.625</v>
       </c>
       <c r="F15">
-        <v>107.625</v>
+        <v>-7.780399999999994</v>
       </c>
       <c r="G15">
-        <v>-7.780399999999994</v>
+        <v>107.625</v>
       </c>
       <c r="H15">
-        <v>107.625</v>
+        <v>-20.530399999999986</v>
       </c>
       <c r="I15">
         <v>107.625</v>
@@ -871,19 +872,19 @@
         <v>-43.415999999999968</v>
       </c>
       <c r="D16">
-        <v>-39.415999999999968</v>
+        <v>-77.41599999999994</v>
       </c>
       <c r="E16">
-        <v>-63.415999999999947</v>
+        <v>107.625</v>
       </c>
       <c r="F16">
-        <v>107.625</v>
+        <v>-6.1039999999999939</v>
       </c>
       <c r="G16">
-        <v>-6.1039999999999939</v>
+        <v>107.625</v>
       </c>
       <c r="H16">
-        <v>107.625</v>
+        <v>-19.353999999999985</v>
       </c>
       <c r="I16">
         <v>107.625</v>
@@ -903,19 +904,19 @@
         <v>-37.710399999999971</v>
       </c>
       <c r="D17">
-        <v>-32.710399999999971</v>
+        <v>-72.710399999999936</v>
       </c>
       <c r="E17">
-        <v>-57.71039999999995</v>
+        <v>107.625</v>
       </c>
       <c r="F17">
-        <v>107.625</v>
+        <v>-4.4275999999999938</v>
       </c>
       <c r="G17">
-        <v>-4.4275999999999938</v>
+        <v>107.625</v>
       </c>
       <c r="H17">
-        <v>107.625</v>
+        <v>-18.177599999999984</v>
       </c>
       <c r="I17">
         <v>107.625</v>
@@ -935,19 +936,19 @@
         <v>-32.004799999999975</v>
       </c>
       <c r="D18">
-        <v>-26.004799999999971</v>
+        <v>-68.004799999999932</v>
       </c>
       <c r="E18">
-        <v>-52.004799999999953</v>
+        <v>107.625</v>
       </c>
       <c r="F18">
-        <v>107.625</v>
+        <v>-2.7511999999999937</v>
       </c>
       <c r="G18">
-        <v>-2.7511999999999937</v>
+        <v>107.625</v>
       </c>
       <c r="H18">
-        <v>107.625</v>
+        <v>-17.001199999999983</v>
       </c>
       <c r="I18">
         <v>107.625</v>
@@ -967,19 +968,19 @@
         <v>-26.299199999999974</v>
       </c>
       <c r="D19">
-        <v>-19.299199999999971</v>
+        <v>-63.299199999999935</v>
       </c>
       <c r="E19">
-        <v>-46.299199999999956</v>
+        <v>107.625</v>
       </c>
       <c r="F19">
-        <v>107.625</v>
+        <v>-1.0747999999999938</v>
       </c>
       <c r="G19">
-        <v>-1.0747999999999938</v>
+        <v>107.625</v>
       </c>
       <c r="H19">
-        <v>107.625</v>
+        <v>-15.824799999999984</v>
       </c>
       <c r="I19">
         <v>107.625</v>
@@ -999,19 +1000,19 @@
         <v>-20.593599999999974</v>
       </c>
       <c r="D20">
-        <v>-12.59359999999997</v>
+        <v>-58.593599999999938</v>
       </c>
       <c r="E20">
-        <v>-40.593599999999959</v>
+        <v>107.625</v>
       </c>
       <c r="F20">
-        <v>107.625</v>
+        <v>0.60160000000000613</v>
       </c>
       <c r="G20">
-        <v>0.60160000000000613</v>
+        <v>107.625</v>
       </c>
       <c r="H20">
-        <v>107.625</v>
+        <v>-14.648399999999985</v>
       </c>
       <c r="I20">
         <v>107.625</v>
@@ -1022,28 +1023,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9.4145289484161054</v>
+        <v>9.5312169113715868</v>
       </c>
       <c r="B21">
-        <v>9.304122446504941</v>
+        <v>9.3819506023751984</v>
       </c>
       <c r="C21">
         <v>-14.887999999999973</v>
       </c>
       <c r="D21">
-        <v>-5.8879999999999706</v>
+        <v>-53.887999999999941</v>
       </c>
       <c r="E21">
-        <v>-34.887999999999963</v>
+        <v>107.625</v>
       </c>
       <c r="F21">
-        <v>107.625</v>
+        <v>2.3454876505937996</v>
       </c>
       <c r="G21">
-        <v>2.3260306116262353</v>
+        <v>107.625</v>
       </c>
       <c r="H21">
-        <v>107.625</v>
+        <v>-13.471999999999985</v>
       </c>
       <c r="I21">
         <v>107.625</v>
@@ -1054,28 +1055,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17.00588579562055</v>
+        <v>17.461225294095243</v>
       </c>
       <c r="B22">
-        <v>16.573723596496023</v>
+        <v>16.878509724276924</v>
       </c>
       <c r="C22">
-        <v>-8.8012466544536316</v>
+        <v>-8.6472219660359517</v>
       </c>
       <c r="D22">
-        <v>0.81760000000002897</v>
+        <v>-48.647221966035922</v>
       </c>
       <c r="E22">
-        <v>-29.182399999999962</v>
+        <v>107.625</v>
       </c>
       <c r="F22">
-        <v>107.625</v>
+        <v>4.219627431069231</v>
       </c>
       <c r="G22">
-        <v>4.1434308991240059</v>
+        <v>107.625</v>
       </c>
       <c r="H22">
-        <v>107.625</v>
+        <v>-12.16180549150898</v>
       </c>
       <c r="I22">
         <v>107.625</v>
@@ -1086,28 +1087,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25.147725546439297</v>
+        <v>26.146561616314472</v>
       </c>
       <c r="B23">
-        <v>24.196654166933747</v>
+        <v>24.867738336906626</v>
       </c>
       <c r="C23">
-        <v>-2.3518892470441548</v>
+        <v>-1.8996049269884523</v>
       </c>
       <c r="D23">
-        <v>7.5488540872341048</v>
+        <v>-42.899604926988424</v>
       </c>
       <c r="E23">
-        <v>-23.476799999999962</v>
+        <v>107.625</v>
       </c>
       <c r="F23">
-        <v>107.625</v>
+        <v>6.2169345842266566</v>
       </c>
       <c r="G23">
-        <v>6.0491635417334368</v>
+        <v>107.625</v>
       </c>
       <c r="H23">
-        <v>107.625</v>
+        <v>-10.724901231747106</v>
       </c>
       <c r="I23">
         <v>107.625</v>
@@ -1118,28 +1119,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>33.807303205280377</v>
+        <v>35.537362352049911</v>
       </c>
       <c r="B24">
-        <v>32.154364872025717</v>
+        <v>33.321297411132349</v>
       </c>
       <c r="C24">
-        <v>4.4415229384999355</v>
+        <v>5.3265120882686467</v>
       </c>
       <c r="D24">
-        <v>14.330169805968808</v>
+        <v>-36.673487911731328</v>
       </c>
       <c r="E24">
-        <v>-17.720203461141882</v>
+        <v>107.625</v>
       </c>
       <c r="F24">
-        <v>107.625</v>
+        <v>8.3303243527830872</v>
       </c>
       <c r="G24">
-        <v>8.0385912180064292</v>
+        <v>107.625</v>
       </c>
       <c r="H24">
-        <v>107.625</v>
+        <v>-9.1683719779328321</v>
       </c>
       <c r="I24">
         <v>107.625</v>
@@ -1150,28 +1151,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>42.951873777485979</v>
+        <v>45.5837639714332</v>
       </c>
       <c r="B25">
-        <v>40.428306431103664</v>
+        <v>42.210847919675473</v>
       </c>
       <c r="C25">
-        <v>11.403426265614945</v>
+        <v>12.179318340018602</v>
       </c>
       <c r="D25">
-        <v>21.220476652276233</v>
+        <v>-29.997209949159124</v>
       </c>
       <c r="E25">
-        <v>-11.914480199239401</v>
+        <v>107.625</v>
       </c>
       <c r="F25">
-        <v>107.625</v>
+        <v>10.552711979918868</v>
       </c>
       <c r="G25">
-        <v>10.107076607775916</v>
+        <v>107.625</v>
       </c>
       <c r="H25">
-        <v>107.625</v>
+        <v>-7.4993024872897811</v>
       </c>
       <c r="I25">
         <v>107.625</v>
@@ -1182,28 +1183,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>52.548692270389424</v>
+        <v>56.235902947543821</v>
       </c>
       <c r="B26">
-        <v>48.999929558406428</v>
+        <v>51.508050831062945</v>
       </c>
       <c r="C26">
-        <v>18.352829592729954</v>
+        <v>19.019624591768554</v>
       </c>
       <c r="D26">
-        <v>28.275068408199928</v>
+        <v>-22.899110068053446</v>
       </c>
       <c r="E26">
-        <v>-5.9408103336341167</v>
+        <v>107.625</v>
       </c>
       <c r="F26">
-        <v>107.625</v>
+        <v>12.877012707765736</v>
       </c>
       <c r="G26">
-        <v>12.249982389601607</v>
+        <v>107.625</v>
       </c>
       <c r="H26">
-        <v>107.625</v>
+        <v>-5.7247775170133615</v>
       </c>
       <c r="I26">
         <v>107.625</v>
@@ -1214,28 +1215,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>62.565013685506266</v>
+        <v>67.443915750300619</v>
       </c>
       <c r="B27">
-        <v>57.85068497270052</v>
+        <v>61.184567115474465</v>
       </c>
       <c r="C27">
-        <v>25.289732919844962</v>
+        <v>25.847430843518509</v>
       </c>
       <c r="D27">
-        <v>35.48662168610737</v>
+        <v>-15.407527297324727</v>
       </c>
       <c r="E27">
-        <v>0.19348274816993971</v>
+        <v>107.625</v>
       </c>
       <c r="F27">
-        <v>107.625</v>
+        <v>15.296141778868616</v>
       </c>
       <c r="G27">
-        <v>14.46267124317513</v>
+        <v>107.625</v>
       </c>
       <c r="H27">
-        <v>107.625</v>
+        <v>-3.8518818243311816</v>
       </c>
       <c r="I27">
         <v>107.625</v>
@@ -1246,28 +1247,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>72.968093027857122</v>
+        <v>79.157938852345637</v>
       </c>
       <c r="B28">
-        <v>66.962023386901734</v>
+        <v>71.212057747985341</v>
       </c>
       <c r="C28">
-        <v>32.214136246959967</v>
+        <v>32.662737095268461</v>
       </c>
       <c r="D28">
-        <v>42.847813098905888</v>
+        <v>-7.5508006659562739</v>
       </c>
       <c r="E28">
-        <v>7.877963199630309</v>
+        <v>107.625</v>
       </c>
       <c r="F28">
-        <v>107.625</v>
+        <v>17.803014436996335</v>
       </c>
       <c r="G28">
-        <v>16.740505846725434</v>
+        <v>107.625</v>
       </c>
       <c r="H28">
-        <v>107.625</v>
+        <v>-1.8877001664890685</v>
       </c>
       <c r="I28">
         <v>107.625</v>
@@ -1278,28 +1279,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>83.72518530287438</v>
+        <v>91.328108727287599</v>
       </c>
       <c r="B29">
-        <v>76.315395519358447</v>
+        <v>81.562183698067088</v>
       </c>
       <c r="C29">
-        <v>39.126039574074973</v>
+        <v>39.465543347018418</v>
       </c>
       <c r="D29">
-        <v>50.351319257646054</v>
+        <v>0.64273079738357453</v>
       </c>
       <c r="E29">
-        <v>15.549943651090677</v>
+        <v>107.625</v>
       </c>
       <c r="F29">
-        <v>107.625</v>
+        <v>20.390545924516772</v>
       </c>
       <c r="G29">
-        <v>19.078848879839612</v>
+        <v>107.625</v>
       </c>
       <c r="H29">
-        <v>107.625</v>
+        <v>0.16068269934589363</v>
       </c>
       <c r="I29">
         <v>107.625</v>
@@ -1310,28 +1311,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>94.803545510685581</v>
+        <v>103.90456184366383</v>
       </c>
       <c r="B30">
-        <v>85.892252084820925</v>
+        <v>92.206605940080692</v>
       </c>
       <c r="C30">
-        <v>46.025442901189983</v>
+        <v>46.255849598768371</v>
       </c>
       <c r="D30">
-        <v>57.989816777948604</v>
+        <v>8.228878572696452</v>
       </c>
       <c r="E30">
-        <v>23.209424102551043</v>
+        <v>107.625</v>
       </c>
       <c r="F30">
-        <v>107.625</v>
+        <v>23.051651485020173</v>
       </c>
       <c r="G30">
-        <v>21.473063021205231</v>
+        <v>107.625</v>
       </c>
       <c r="H30">
-        <v>107.625</v>
+        <v>2.057219643174113</v>
       </c>
       <c r="I30">
         <v>107.625</v>
@@ -1342,28 +1343,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>106.17042865776216</v>
+        <v>116.83743467840452</v>
       </c>
       <c r="B31">
-        <v>95.674043799677364</v>
+        <v>103.11698544461967</v>
       </c>
       <c r="C31">
-        <v>52.91234622830499</v>
+        <v>53.033655850518322</v>
       </c>
       <c r="D31">
-        <v>65.755982273257928</v>
+        <v>15.802526348009328</v>
       </c>
       <c r="E31">
-        <v>30.856404554011412</v>
+        <v>107.625</v>
       </c>
       <c r="F31">
-        <v>107.625</v>
+        <v>25.779246361154918</v>
       </c>
       <c r="G31">
-        <v>23.918510949919341</v>
+        <v>107.625</v>
       </c>
       <c r="H31">
-        <v>107.625</v>
+        <v>3.9506315870023321</v>
       </c>
       <c r="I31">
         <v>107.625</v>
@@ -1374,28 +1375,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>117.79308975890231</v>
+        <v>130.07686369288911</v>
       </c>
       <c r="B32">
-        <v>105.642221380888</v>
+        <v>114.26498317665778</v>
       </c>
       <c r="C32">
-        <v>59.786749555419995</v>
+        <v>59.798962102268277</v>
       </c>
       <c r="D32">
-        <v>73.642492350446133</v>
+        <v>23.363674123322205</v>
       </c>
       <c r="E32">
-        <v>38.490885005471782</v>
+        <v>107.625</v>
       </c>
       <c r="F32">
-        <v>107.625</v>
+        <v>28.566245794164445</v>
       </c>
       <c r="G32">
-        <v>26.410555345222001</v>
+        <v>107.625</v>
       </c>
       <c r="H32">
-        <v>107.625</v>
+        <v>5.8409185308305513</v>
       </c>
       <c r="I32">
         <v>107.625</v>
@@ -1406,28 +1407,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>129.63878381474728</v>
+        <v>143.57298535773384</v>
       </c>
       <c r="B33">
-        <v>115.77823553453139</v>
+        <v>125.62226012603736</v>
       </c>
       <c r="C33">
-        <v>66.648652882535004</v>
+        <v>66.551768354018236</v>
       </c>
       <c r="D33">
-        <v>81.642023627437553</v>
+        <v>30.912321898635081</v>
       </c>
       <c r="E33">
-        <v>46.112865456932148</v>
+        <v>107.625</v>
       </c>
       <c r="F33">
-        <v>107.625</v>
+        <v>31.40556503150934</v>
       </c>
       <c r="G33">
-        <v>28.944558883632848</v>
+        <v>107.625</v>
       </c>
       <c r="H33">
-        <v>107.625</v>
+        <v>7.7280804746587703</v>
       </c>
       <c r="I33">
         <v>107.625</v>
@@ -1438,28 +1439,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>141.67476582294967</v>
+        <v>157.27593614959687</v>
       </c>
       <c r="B34">
-        <v>126.06353700473269</v>
+        <v>137.16047724008649</v>
       </c>
       <c r="C34">
-        <v>73.498056209650017</v>
+        <v>73.292074605768192</v>
       </c>
       <c r="D34">
-        <v>89.747252720385617</v>
+        <v>38.448469673947955</v>
       </c>
       <c r="E34">
-        <v>53.722345908392519</v>
+        <v>107.625</v>
       </c>
       <c r="F34">
-        <v>107.625</v>
+        <v>34.290119310021623</v>
       </c>
       <c r="G34">
-        <v>31.515884251183174</v>
+        <v>107.625</v>
       </c>
       <c r="H34">
-        <v>107.625</v>
+        <v>9.6121174184869886</v>
       </c>
       <c r="I34">
         <v>107.625</v>
@@ -1470,28 +1471,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>153.86829079969124</v>
+        <v>171.13585251784764</v>
       </c>
       <c r="B35">
-        <v>136.47957647730397</v>
+        <v>148.85129548309192</v>
       </c>
       <c r="C35">
-        <v>80.334959536765027</v>
+        <v>80.01988085751816</v>
       </c>
       <c r="D35">
-        <v>97.950856222825394</v>
+        <v>45.972117449260828</v>
       </c>
       <c r="E35">
-        <v>61.319326359852887</v>
+        <v>107.625</v>
       </c>
       <c r="F35">
-        <v>107.625</v>
+        <v>37.212823870772979</v>
       </c>
       <c r="G35">
-        <v>34.119894119325991</v>
+        <v>107.625</v>
       </c>
       <c r="H35">
-        <v>107.625</v>
+        <v>11.493029362315207</v>
       </c>
       <c r="I35">
         <v>107.625</v>
@@ -1502,28 +1503,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>166.18661374144</v>
+        <v>185.10287097855996</v>
       </c>
       <c r="B36">
-        <v>147.00780467697425</v>
+        <v>160.6663758462675</v>
       </c>
       <c r="C36">
-        <v>87.159362863880034</v>
+        <v>86.735187109268125</v>
       </c>
       <c r="D36">
-        <v>106.24551077641718</v>
+        <v>53.483265224573707</v>
       </c>
       <c r="E36">
-        <v>68.90380681131326</v>
+        <v>107.625</v>
       </c>
       <c r="F36">
-        <v>107.625</v>
+        <v>40.166593961566875</v>
       </c>
       <c r="G36">
-        <v>36.751951169243561</v>
+        <v>107.625</v>
       </c>
       <c r="H36">
-        <v>107.625</v>
+        <v>13.370816306143427</v>
       </c>
       <c r="I36">
         <v>107.625</v>
@@ -1534,28 +1535,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>178.59698965020164</v>
+        <v>199.12712796263793</v>
       </c>
       <c r="B37">
-        <v>157.62967233389369</v>
+        <v>172.57737931139343</v>
       </c>
       <c r="C37">
-        <v>93.971266190995053</v>
+        <v>93.437993361018087</v>
       </c>
       <c r="D37">
-        <v>114.62389296298383</v>
+        <v>60.981912999886582</v>
       </c>
       <c r="E37">
-        <v>76.475787262773636</v>
+        <v>107.625</v>
       </c>
       <c r="F37">
-        <v>107.625</v>
+        <v>43.144344827848357</v>
       </c>
       <c r="G37">
-        <v>39.407418083473424</v>
+        <v>107.625</v>
       </c>
       <c r="H37">
-        <v>107.625</v>
+        <v>15.245478249971645</v>
       </c>
       <c r="I37">
         <v>107.625</v>
@@ -1566,28 +1567,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>191.06667352158723</v>
+        <v>213.15875992940084</v>
       </c>
       <c r="B38">
-        <v>168.32663014245855</v>
+        <v>184.55596680321253</v>
       </c>
       <c r="C38">
-        <v>100.77066951811007</v>
+        <v>100.12829961276805</v>
       </c>
       <c r="D38">
-        <v>123.07867941947545</v>
+        <v>68.468060775199461</v>
       </c>
       <c r="E38">
-        <v>84.03526771423401</v>
+        <v>107.625</v>
       </c>
       <c r="F38">
-        <v>107.625</v>
+        <v>46.138991700803132</v>
       </c>
       <c r="G38">
-        <v>42.081657535614639</v>
+        <v>107.625</v>
       </c>
       <c r="H38">
-        <v>107.625</v>
+        <v>17.117015193799865</v>
       </c>
       <c r="I38">
         <v>107.625</v>
@@ -1598,28 +1599,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>203.56292035044365</v>
+        <v>227.14790349142868</v>
       </c>
       <c r="B39">
-        <v>179.08012884848642</v>
+        <v>196.57379935956988</v>
       </c>
       <c r="C39">
-        <v>107.55757284522508</v>
+        <v>106.806105864518</v>
       </c>
       <c r="D39">
-        <v>131.60254674043912</v>
+        <v>75.941708550512345</v>
       </c>
       <c r="E39">
-        <v>91.582248165694381</v>
+        <v>107.625</v>
       </c>
       <c r="F39">
-        <v>107.625</v>
+        <v>49.143449839892469</v>
       </c>
       <c r="G39">
-        <v>44.770032212121606</v>
+        <v>107.625</v>
       </c>
       <c r="H39">
-        <v>107.625</v>
+        <v>18.985427137628086</v>
       </c>
       <c r="I39">
         <v>107.625</v>
@@ -1630,28 +1631,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>216.05298516741746</v>
+        <v>241.04469499507479</v>
       </c>
       <c r="B40">
-        <v>189.87161916455784</v>
+        <v>208.60253793362028</v>
       </c>
       <c r="C40">
-        <v>114.33197617234009</v>
+        <v>113.47141211626797</v>
       </c>
       <c r="D40">
-        <v>140.18817154778668</v>
+        <v>83.402856325825226</v>
       </c>
       <c r="E40">
-        <v>99.116728617154749</v>
+        <v>107.625</v>
       </c>
       <c r="F40">
-        <v>107.625</v>
+        <v>52.150634483405071</v>
       </c>
       <c r="G40">
-        <v>47.46790479113946</v>
+        <v>107.625</v>
       </c>
       <c r="H40">
-        <v>107.625</v>
+        <v>20.850714081456307</v>
       </c>
       <c r="I40">
         <v>107.625</v>
@@ -1662,28 +1663,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>228.50412301073237</v>
+        <v>254.79927083366624</v>
       </c>
       <c r="B41">
-        <v>200.68255178810483</v>
+        <v>220.61384340383739</v>
       </c>
       <c r="C41">
-        <v>121.09387949945511</v>
+        <v>120.12421836801794</v>
       </c>
       <c r="D41">
-        <v>148.8282304435682</v>
+        <v>90.851504101138104</v>
       </c>
       <c r="E41">
-        <v>106.63870906861513</v>
+        <v>107.625</v>
       </c>
       <c r="F41">
-        <v>107.625</v>
+        <v>55.153460850959348</v>
       </c>
       <c r="G41">
-        <v>50.170637947026208</v>
+        <v>107.625</v>
       </c>
       <c r="H41">
-        <v>107.625</v>
+        <v>22.712876025284526</v>
       </c>
       <c r="I41">
         <v>107.625</v>
@@ -1694,28 +1695,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>240.88358883043037</v>
+        <v>268.3617675295958</v>
       </c>
       <c r="B42">
-        <v>211.49437741435221</v>
+        <v>232.57937696909073</v>
       </c>
       <c r="C42">
-        <v>127.84328282657013</v>
+        <v>126.7645246197679</v>
       </c>
       <c r="D42">
-        <v>157.51540006517087</v>
+        <v>98.28765187645098</v>
       </c>
       <c r="E42">
-        <v>114.1481895200755</v>
+        <v>107.625</v>
       </c>
       <c r="F42">
-        <v>107.625</v>
+        <v>58.144844242272683</v>
       </c>
       <c r="G42">
-        <v>52.873594353588054</v>
+        <v>107.625</v>
       </c>
       <c r="H42">
-        <v>107.625</v>
+        <v>24.571912969112745</v>
       </c>
       <c r="I42">
         <v>107.625</v>
@@ -1726,28 +1727,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>253.15863756835745</v>
+        <v>281.68232159918193</v>
       </c>
       <c r="B43">
-        <v>222.28854684791281</v>
+        <v>244.4707993487998</v>
       </c>
       <c r="C43">
-        <v>134.58018615368513</v>
+        <v>133.39233087151786</v>
       </c>
       <c r="D43">
-        <v>166.24235698789772</v>
+        <v>105.71129965176387</v>
       </c>
       <c r="E43">
-        <v>121.64516997153588</v>
+        <v>107.625</v>
       </c>
       <c r="F43">
-        <v>107.625</v>
+        <v>61.11769983719995</v>
       </c>
       <c r="G43">
-        <v>55.572136711978203</v>
+        <v>107.625</v>
       </c>
       <c r="H43">
-        <v>107.625</v>
+        <v>26.427824912940967</v>
       </c>
       <c r="I43">
         <v>107.625</v>
@@ -1758,28 +1759,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>265.29652414163235</v>
+        <v>294.71107033599878</v>
       </c>
       <c r="B44">
-        <v>233.04651056467208</v>
+        <v>256.25977141886176</v>
       </c>
       <c r="C44">
-        <v>141.30458948080016</v>
+        <v>140.00763712326781</v>
       </c>
       <c r="D44">
-        <v>175.00177786114759</v>
+        <v>113.12244742707675</v>
       </c>
       <c r="E44">
-        <v>129.12965042299626</v>
+        <v>107.625</v>
       </c>
       <c r="F44">
-        <v>107.625</v>
+        <v>64.06494285471544</v>
       </c>
       <c r="G44">
-        <v>58.261627641168019</v>
+        <v>107.625</v>
       </c>
       <c r="H44">
-        <v>107.625</v>
+        <v>28.280611856769188</v>
       </c>
       <c r="I44">
         <v>107.625</v>
@@ -1790,28 +1791,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>277.26450444852389</v>
+        <v>307.39815070068062</v>
       </c>
       <c r="B45">
-        <v>243.74971958519274</v>
+        <v>267.91795444023677</v>
       </c>
       <c r="C45">
-        <v>148.01649280791517</v>
+        <v>146.61044337501778</v>
       </c>
       <c r="D45">
-        <v>183.7863392742606</v>
+        <v>120.52109520238963</v>
       </c>
       <c r="E45">
-        <v>136.60163087445665</v>
+        <v>107.625</v>
       </c>
       <c r="F45">
-        <v>107.625</v>
+        <v>66.979488610059192</v>
       </c>
       <c r="G45">
-        <v>60.937429896298184</v>
+        <v>107.625</v>
       </c>
       <c r="H45">
-        <v>107.625</v>
+        <v>30.130273800597408</v>
       </c>
       <c r="I45">
         <v>107.625</v>
@@ -1822,28 +1823,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>289.02983292389888</v>
+        <v>319.6936959926411</v>
       </c>
       <c r="B46">
-        <v>254.3796244989648</v>
+        <v>279.41700923584369</v>
       </c>
       <c r="C46">
-        <v>154.71589613503019</v>
+        <v>153.20074962676773</v>
       </c>
       <c r="D46">
-        <v>192.58871786258547</v>
+        <v>127.90724297770251</v>
       </c>
       <c r="E46">
-        <v>144.06111132591701</v>
+        <v>107.625</v>
       </c>
       <c r="F46">
-        <v>107.625</v>
+        <v>69.854252308960923</v>
       </c>
       <c r="G46">
-        <v>63.5949061247412</v>
+        <v>107.625</v>
       </c>
       <c r="H46">
-        <v>107.625</v>
+        <v>31.976810744425627</v>
       </c>
       <c r="I46">
         <v>107.625</v>
@@ -1854,28 +1855,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>300.55976422963874</v>
+        <v>331.54784088877398</v>
       </c>
       <c r="B47">
-        <v>264.91767631117489</v>
+        <v>290.72859729702145</v>
       </c>
       <c r="C47">
-        <v>161.4027994621452</v>
+        <v>159.77855587851769</v>
       </c>
       <c r="D47">
-        <v>201.40159026711547</v>
+        <v>135.2808907530154</v>
       </c>
       <c r="E47">
-        <v>151.50809177737739</v>
+        <v>107.625</v>
       </c>
       <c r="F47">
-        <v>107.625</v>
+        <v>72.682149324255363</v>
       </c>
       <c r="G47">
-        <v>66.229419077793722</v>
+        <v>107.625</v>
       </c>
       <c r="H47">
-        <v>107.625</v>
+        <v>33.82022268825385</v>
       </c>
       <c r="I47">
         <v>107.625</v>
@@ -1886,28 +1887,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>311.82155201802135</v>
+        <v>342.91073799225114</v>
       </c>
       <c r="B48">
-        <v>275.3453250159946</v>
+        <v>301.82437950158931</v>
       </c>
       <c r="C48">
-        <v>168.07720278926021</v>
+        <v>166.34386213026767</v>
       </c>
       <c r="D48">
-        <v>210.21763309543496</v>
+        <v>142.64203852832827</v>
       </c>
       <c r="E48">
-        <v>158.94257222883778</v>
+        <v>107.625</v>
       </c>
       <c r="F48">
-        <v>107.625</v>
+        <v>75.456094875397326</v>
       </c>
       <c r="G48">
-        <v>68.836331253998651</v>
+        <v>107.625</v>
       </c>
       <c r="H48">
-        <v>107.625</v>
+        <v>35.660509632082068</v>
       </c>
       <c r="I48">
         <v>107.625</v>
@@ -1918,28 +1919,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>322.7824554385964</v>
+        <v>353.73250958011113</v>
       </c>
       <c r="B49">
-        <v>285.64402167994336</v>
+        <v>312.67601597244163</v>
       </c>
       <c r="C49">
-        <v>174.73910611637524</v>
+        <v>172.89666838201762</v>
       </c>
       <c r="D49">
-        <v>219.02952289781729</v>
+        <v>149.99068630364116</v>
       </c>
       <c r="E49">
-        <v>166.36455268029815</v>
+        <v>107.625</v>
       </c>
       <c r="F49">
-        <v>107.625</v>
+        <v>78.169003993110408</v>
       </c>
       <c r="G49">
-        <v>71.411005419985841</v>
+        <v>107.625</v>
       </c>
       <c r="H49">
-        <v>107.625</v>
+        <v>37.497671575910289</v>
       </c>
       <c r="I49">
         <v>107.625</v>
@@ -1950,28 +1951,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>333.40972358327599</v>
+        <v>363.96328498203388</v>
       </c>
       <c r="B50">
-        <v>295.79521708348818</v>
+        <v>323.25516895387523</v>
       </c>
       <c r="C50">
-        <v>181.38850944349025</v>
+        <v>179.43697463376759</v>
       </c>
       <c r="D50">
-        <v>227.82993624011766</v>
+        <v>157.32683407895405</v>
       </c>
       <c r="E50">
-        <v>173.77403313175853</v>
+        <v>107.625</v>
       </c>
       <c r="F50">
-        <v>107.625</v>
+        <v>80.813792238468807</v>
       </c>
       <c r="G50">
-        <v>73.948804270872046</v>
+        <v>107.625</v>
       </c>
       <c r="H50">
-        <v>107.625</v>
+        <v>39.331708519738513</v>
       </c>
       <c r="I50">
         <v>107.625</v>
@@ -1982,28 +1983,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>343.67061476012032</v>
+        <v>373.55305588217175</v>
       </c>
       <c r="B51">
-        <v>305.78036152417832</v>
+        <v>333.53349570842977</v>
       </c>
       <c r="C51">
-        <v>188.02541277060527</v>
+        <v>185.96478088551754</v>
       </c>
       <c r="D51">
-        <v>236.6115496946272</v>
+        <v>164.65048185426693</v>
       </c>
       <c r="E51">
-        <v>181.17101358321889</v>
+        <v>107.625</v>
       </c>
       <c r="F51">
-        <v>107.625</v>
+        <v>83.383373927107442</v>
       </c>
       <c r="G51">
-        <v>76.445090381044579</v>
+        <v>107.625</v>
       </c>
       <c r="H51">
-        <v>107.625</v>
+        <v>41.162620463566732</v>
       </c>
       <c r="I51">
         <v>107.625</v>
@@ -2014,28 +2015,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>353.53237022286396</v>
+        <v>382.45504343943401</v>
       </c>
       <c r="B52">
-        <v>315.5809069196909</v>
+        <v>343.482650122172</v>
       </c>
       <c r="C52">
-        <v>194.64981609772028</v>
+        <v>192.4800871372675</v>
       </c>
       <c r="D52">
-        <v>245.36704011262697</v>
+        <v>171.96162962957982</v>
       </c>
       <c r="E52">
-        <v>188.55549403467927</v>
+        <v>107.625</v>
       </c>
       <c r="F52">
-        <v>107.625</v>
+        <v>85.870662530543001</v>
       </c>
       <c r="G52">
-        <v>78.895226729922726</v>
+        <v>107.625</v>
       </c>
       <c r="H52">
-        <v>107.625</v>
+        <v>42.990407407394954</v>
       </c>
       <c r="I52">
         <v>107.625</v>
@@ -2046,28 +2047,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>362.96224141633064</v>
+        <v>390.61198133707404</v>
       </c>
       <c r="B53">
-        <v>325.17830142282844</v>
+        <v>353.07430321719391</v>
       </c>
       <c r="C53">
-        <v>201.26171942483529</v>
+        <v>198.98289338901748</v>
       </c>
       <c r="D53">
-        <v>254.08908374361062</v>
+        <v>179.26027740489269</v>
       </c>
       <c r="E53">
-        <v>195.92747448613966</v>
+        <v>107.625</v>
       </c>
       <c r="F53">
-        <v>107.625</v>
+        <v>88.268575804298479</v>
       </c>
       <c r="G53">
-        <v>81.29457535570711</v>
+        <v>107.625</v>
       </c>
       <c r="H53">
-        <v>107.625</v>
+        <v>44.815069351223173</v>
       </c>
       <c r="I53">
         <v>107.625</v>
@@ -2078,28 +2079,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>371.92754151297527</v>
+        <v>397.97712406268425</v>
       </c>
       <c r="B54">
-        <v>334.55400155205859</v>
+        <v>362.28010937265799</v>
       </c>
       <c r="C54">
-        <v>207.86112275195032</v>
+        <v>205.47319964076743</v>
       </c>
       <c r="D54">
-        <v>262.77035761104838</v>
+        <v>186.54642518020557</v>
       </c>
       <c r="E54">
-        <v>203.28695493760003</v>
+        <v>107.625</v>
       </c>
       <c r="F54">
-        <v>107.625</v>
+        <v>90.570027343164497</v>
       </c>
       <c r="G54">
-        <v>83.638500388014648</v>
+        <v>107.625</v>
       </c>
       <c r="H54">
-        <v>107.625</v>
+        <v>46.636606295051394</v>
       </c>
       <c r="I54">
         <v>107.625</v>
@@ -2110,28 +2111,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>380.39659711511916</v>
+        <v>404.5072580313302</v>
       </c>
       <c r="B55">
-        <v>343.68944539889935</v>
+        <v>371.07167256058744</v>
       </c>
       <c r="C55">
-        <v>214.44802607906533</v>
+        <v>211.9510058925174</v>
       </c>
       <c r="D55">
-        <v>271.40353838150276</v>
+        <v>193.82007295551847</v>
       </c>
       <c r="E55">
-        <v>210.63393538906041</v>
+        <v>107.625</v>
       </c>
       <c r="F55">
-        <v>107.625</v>
+        <v>92.767918140146861</v>
       </c>
       <c r="G55">
-        <v>85.922361349724838</v>
+        <v>107.625</v>
       </c>
       <c r="H55">
-        <v>107.625</v>
+        <v>48.455018238879617</v>
       </c>
       <c r="I55">
         <v>107.625</v>
@@ -2142,28 +2143,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>388.33399260002153</v>
+        <v>411.2128580313302</v>
       </c>
       <c r="B56">
-        <v>352.56607792798707</v>
+        <v>377.77727256058745</v>
       </c>
       <c r="C56">
-        <v>221.02242940618035</v>
+        <v>218.41631214426735</v>
       </c>
       <c r="D56">
-        <v>279.9813029371486</v>
+        <v>201.08122073083135</v>
       </c>
       <c r="E56">
-        <v>217.96841584052078</v>
+        <v>107.625</v>
       </c>
       <c r="F56">
-        <v>107.625</v>
+        <v>94.444318140146862</v>
       </c>
       <c r="G56">
-        <v>88.141519481996767</v>
+        <v>107.625</v>
       </c>
       <c r="H56">
-        <v>107.625</v>
+        <v>50.270305182707837</v>
       </c>
       <c r="I56">
         <v>107.625</v>
@@ -2174,28 +2175,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>395.70776408508817</v>
+        <v>417.9184580313302</v>
       </c>
       <c r="B57">
-        <v>361.16539995220415</v>
+        <v>384.48287256058745</v>
       </c>
       <c r="C57">
-        <v>227.58433273329535</v>
+        <v>224.86911839601731</v>
       </c>
       <c r="D57">
-        <v>288.49632705549539</v>
+        <v>208.32986850614424</v>
       </c>
       <c r="E57">
-        <v>225.29039629198115</v>
+        <v>107.625</v>
       </c>
       <c r="F57">
-        <v>107.625</v>
+        <v>96.120718140146863</v>
       </c>
       <c r="G57">
-        <v>90.291349988051039</v>
+        <v>107.625</v>
       </c>
       <c r="H57">
-        <v>107.625</v>
+        <v>52.082467126536059</v>
       </c>
       <c r="I57">
         <v>107.625</v>
@@ -2206,28 +2207,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>402.48721504254519</v>
+        <v>424.62405803133021</v>
       </c>
       <c r="B58">
-        <v>369.46694682746744</v>
+        <v>391.18847256058746</v>
       </c>
       <c r="C58">
-        <v>234.13373606041037</v>
+        <v>231.30942464776729</v>
       </c>
       <c r="D58">
-        <v>296.94128720630783</v>
+        <v>215.56601628145711</v>
       </c>
       <c r="E58">
-        <v>232.59987674344154</v>
+        <v>107.625</v>
       </c>
       <c r="F58">
-        <v>107.625</v>
+        <v>97.797118140146864</v>
       </c>
       <c r="G58">
-        <v>92.36673670686686</v>
+        <v>107.625</v>
       </c>
       <c r="H58">
-        <v>107.625</v>
+        <v>53.891504070364277</v>
       </c>
       <c r="I58">
         <v>107.625</v>
@@ -2238,28 +2239,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>409.19281504254519</v>
+        <v>431.32965803133021</v>
       </c>
       <c r="B59">
-        <v>377.45568784500887</v>
+        <v>397.89407256058746</v>
       </c>
       <c r="C59">
-        <v>240.6706393875254</v>
+        <v>237.73723089951724</v>
       </c>
       <c r="D59">
-        <v>305.30885921896663</v>
+        <v>222.78966405676999</v>
       </c>
       <c r="E59">
-        <v>239.89685719490191</v>
+        <v>107.625</v>
       </c>
       <c r="F59">
-        <v>107.625</v>
+        <v>99.473518140146865</v>
       </c>
       <c r="G59">
-        <v>94.363921961252217</v>
+        <v>107.625</v>
       </c>
       <c r="H59">
-        <v>107.625</v>
+        <v>55.697416014192498</v>
       </c>
       <c r="I59">
         <v>107.625</v>
@@ -2270,28 +2271,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>415.8984150425452</v>
+        <v>438.03525803133022</v>
       </c>
       <c r="B60">
-        <v>384.16128784500887</v>
+        <v>404.59967256058746</v>
       </c>
       <c r="C60">
-        <v>247.19504271464041</v>
+        <v>244.15253715126721</v>
       </c>
       <c r="D60">
-        <v>313.59172063565904</v>
+        <v>230.00081183208289</v>
       </c>
       <c r="E60">
-        <v>247.18133764636229</v>
+        <v>107.625</v>
       </c>
       <c r="F60">
-        <v>107.625</v>
+        <v>101.14991814014687</v>
       </c>
       <c r="G60">
-        <v>96.040321961252218</v>
+        <v>107.625</v>
       </c>
       <c r="H60">
-        <v>107.625</v>
+        <v>57.500202958020722</v>
       </c>
       <c r="I60">
         <v>107.625</v>
@@ -2302,28 +2303,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>422.6040150425452</v>
+        <v>444.74085803133022</v>
       </c>
       <c r="B61">
-        <v>390.86688784500888</v>
+        <v>411.30527256058747</v>
       </c>
       <c r="C61">
-        <v>253.70694604175543</v>
+        <v>250.55534340301716</v>
       </c>
       <c r="D61">
-        <v>321.78255257488161</v>
+        <v>237.19945960739577</v>
       </c>
       <c r="E61">
-        <v>254.45331809782266</v>
+        <v>107.625</v>
       </c>
       <c r="F61">
-        <v>107.625</v>
+        <v>102.82631814014687</v>
       </c>
       <c r="G61">
-        <v>97.716721961252219</v>
+        <v>107.625</v>
       </c>
       <c r="H61">
-        <v>107.625</v>
+        <v>59.299864901848942</v>
       </c>
       <c r="I61">
         <v>107.625</v>
@@ -2334,28 +2335,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>429.3096150425452</v>
+        <v>451.44645803133022</v>
       </c>
       <c r="B62">
-        <v>397.57248784500888</v>
+        <v>418.01087256058747</v>
       </c>
       <c r="C62">
-        <v>260.20634936887041</v>
+        <v>256.94564965476707</v>
       </c>
       <c r="D62">
-        <v>329.87401948087876</v>
+        <v>244.38560738270866</v>
       </c>
       <c r="E62">
-        <v>261.71279854928298</v>
+        <v>107.625</v>
       </c>
       <c r="F62">
-        <v>107.625</v>
+        <v>104.50271814014687</v>
       </c>
       <c r="G62">
-        <v>99.39312196125222</v>
+        <v>107.625</v>
       </c>
       <c r="H62">
-        <v>107.625</v>
+        <v>61.096401845677164</v>
       </c>
       <c r="I62">
         <v>107.625</v>
@@ -2366,28 +2367,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>436.01521504254521</v>
+        <v>458.15205803133023</v>
       </c>
       <c r="B63">
-        <v>404.27808784500888</v>
+        <v>424.71647256058748</v>
       </c>
       <c r="C63">
-        <v>266.69325269598539</v>
+        <v>263.32345590651698</v>
       </c>
       <c r="D63">
-        <v>337.85881405692362</v>
+        <v>251.55925515802153</v>
       </c>
       <c r="E63">
-        <v>268.95977900074331</v>
+        <v>107.625</v>
       </c>
       <c r="F63">
-        <v>107.625</v>
+        <v>106.17911814014687</v>
       </c>
       <c r="G63">
-        <v>101.06952196125222</v>
+        <v>107.625</v>
       </c>
       <c r="H63">
-        <v>107.625</v>
+        <v>62.889813789505382</v>
       </c>
       <c r="I63">
         <v>107.625</v>
@@ -2398,28 +2399,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>442.72081504254521</v>
+        <v>464.85765803133023</v>
       </c>
       <c r="B64">
-        <v>410.98368784500889</v>
+        <v>431.42207256058748</v>
       </c>
       <c r="C64">
-        <v>273.16765602310039</v>
+        <v>269.68876215826691</v>
       </c>
       <c r="D64">
-        <v>345.72960358564006</v>
+        <v>258.72040293333436</v>
       </c>
       <c r="E64">
-        <v>276.19425945220365</v>
+        <v>107.625</v>
       </c>
       <c r="F64">
         <v>107.625</v>
       </c>
       <c r="G64">
-        <v>102.74592196125222</v>
+        <v>107.625</v>
       </c>
       <c r="H64">
-        <v>107.625</v>
+        <v>64.680100733333589</v>
       </c>
       <c r="I64">
         <v>107.625</v>
@@ -2430,28 +2431,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>449.42641504254522</v>
+        <v>471.56325803133024</v>
       </c>
       <c r="B65">
-        <v>417.68928784500889</v>
+        <v>438.12767256058748</v>
       </c>
       <c r="C65">
-        <v>279.6295593502154</v>
+        <v>276.04156841001685</v>
       </c>
       <c r="D65">
-        <v>353.46969398509515</v>
+        <v>265.86905070864719</v>
       </c>
       <c r="E65">
-        <v>283.41623990366401</v>
+        <v>107.625</v>
       </c>
       <c r="F65">
         <v>107.625</v>
       </c>
       <c r="G65">
-        <v>104.42232196125222</v>
+        <v>107.625</v>
       </c>
       <c r="H65">
-        <v>107.625</v>
+        <v>66.467262677161798</v>
       </c>
       <c r="I65">
         <v>107.625</v>
@@ -2462,28 +2463,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>456.13201504254522</v>
+        <v>478.26885803133024</v>
       </c>
       <c r="B66">
-        <v>424.3948878450089</v>
+        <v>444.83327256058749</v>
       </c>
       <c r="C66">
-        <v>286.07896267733037</v>
+        <v>282.3818746617668</v>
       </c>
       <c r="D66">
-        <v>361.0862284596098</v>
+        <v>273.00519848396004</v>
       </c>
       <c r="E66">
-        <v>290.62572035512437</v>
+        <v>107.625</v>
       </c>
       <c r="F66">
         <v>107.625</v>
       </c>
       <c r="G66">
-        <v>106.09872196125222</v>
+        <v>107.625</v>
       </c>
       <c r="H66">
-        <v>107.625</v>
+        <v>68.251299620990011</v>
       </c>
       <c r="I66">
         <v>107.625</v>
@@ -2494,19 +2495,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>462.83761504254522</v>
+        <v>484.97445803133024</v>
       </c>
       <c r="B67">
-        <v>431.1004878450089</v>
+        <v>451.53887256058749</v>
       </c>
       <c r="C67">
-        <v>292.51586600444534</v>
+        <v>288.70968091351671</v>
       </c>
       <c r="D67">
-        <v>368.57091504705562</v>
+        <v>280.1288462592729</v>
       </c>
       <c r="E67">
-        <v>297.82270080658469</v>
+        <v>107.625</v>
       </c>
       <c r="F67">
         <v>107.625</v>
@@ -2515,7 +2516,7 @@
         <v>107.625</v>
       </c>
       <c r="H67">
-        <v>107.625</v>
+        <v>70.032211564818226</v>
       </c>
       <c r="I67">
         <v>107.625</v>
@@ -2526,19 +2527,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>469.54321504254523</v>
+        <v>491.68005803133025</v>
       </c>
       <c r="B68">
-        <v>437.8060878450089</v>
+        <v>458.2444725605875</v>
       </c>
       <c r="C68">
-        <v>298.94026933156033</v>
+        <v>295.02498716526662</v>
       </c>
       <c r="D68">
-        <v>375.91515503445976</v>
+        <v>287.23999403458578</v>
       </c>
       <c r="E68">
-        <v>305.00718125804502</v>
+        <v>107.625</v>
       </c>
       <c r="F68">
         <v>107.625</v>
@@ -2547,7 +2548,7 @@
         <v>107.625</v>
       </c>
       <c r="H68">
-        <v>107.625</v>
+        <v>71.809998508646444</v>
       </c>
       <c r="I68">
         <v>107.625</v>
@@ -2558,19 +2559,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>476.24881504254523</v>
+        <v>498.38565803133025</v>
       </c>
       <c r="B69">
-        <v>444.51168784500891</v>
+        <v>464.9500725605875</v>
       </c>
       <c r="C69">
-        <v>305.35217265867533</v>
+        <v>301.32779341701655</v>
       </c>
       <c r="D69">
-        <v>382.62075503445976</v>
+        <v>294.3386418098986</v>
       </c>
       <c r="E69">
-        <v>312.17916170950537</v>
+        <v>107.625</v>
       </c>
       <c r="F69">
         <v>107.625</v>
@@ -2579,7 +2580,7 @@
         <v>107.625</v>
       </c>
       <c r="H69">
-        <v>107.625</v>
+        <v>73.584660452474651</v>
       </c>
       <c r="I69">
         <v>107.625</v>
@@ -2590,19 +2591,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>482.95441504254524</v>
+        <v>505.09125803133026</v>
       </c>
       <c r="B70">
-        <v>451.21728784500891</v>
+        <v>471.6556725605875</v>
       </c>
       <c r="C70">
-        <v>311.75157598579034</v>
+        <v>307.61809966876649</v>
       </c>
       <c r="D70">
-        <v>389.32635503445977</v>
+        <v>301.42478958521144</v>
       </c>
       <c r="E70">
-        <v>319.33864216096572</v>
+        <v>107.625</v>
       </c>
       <c r="F70">
         <v>107.625</v>
@@ -2611,7 +2612,7 @@
         <v>107.625</v>
       </c>
       <c r="H70">
-        <v>107.625</v>
+        <v>75.356197396302861</v>
       </c>
       <c r="I70">
         <v>107.625</v>
@@ -2622,19 +2623,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>489.66001504254524</v>
+        <v>511.79685803133026</v>
       </c>
       <c r="B71">
-        <v>457.92288784500892</v>
+        <v>478.36127256058751</v>
       </c>
       <c r="C71">
-        <v>318.1384793129053</v>
+        <v>313.89590592051644</v>
       </c>
       <c r="D71">
-        <v>396.03195503445977</v>
+        <v>308.49843736052429</v>
       </c>
       <c r="E71">
-        <v>326.48562261242608</v>
+        <v>107.625</v>
       </c>
       <c r="F71">
         <v>107.625</v>
@@ -2643,7 +2644,7 @@
         <v>107.625</v>
       </c>
       <c r="H71">
-        <v>107.625</v>
+        <v>77.124609340131073</v>
       </c>
       <c r="I71">
         <v>107.625</v>
@@ -2654,19 +2655,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>496.36561504254524</v>
+        <v>518.50245803133021</v>
       </c>
       <c r="B72">
-        <v>464.62848784500892</v>
+        <v>485.06687256058751</v>
       </c>
       <c r="C72">
-        <v>324.51288264002028</v>
+        <v>320.16121217226635</v>
       </c>
       <c r="D72">
-        <v>402.73755503445977</v>
+        <v>315.55958513583715</v>
       </c>
       <c r="E72">
-        <v>333.6201030638864</v>
+        <v>107.625</v>
       </c>
       <c r="F72">
         <v>107.625</v>
@@ -2675,7 +2676,7 @@
         <v>107.625</v>
       </c>
       <c r="H72">
-        <v>107.625</v>
+        <v>78.889896283959288</v>
       </c>
       <c r="I72">
         <v>107.625</v>
@@ -2686,19 +2687,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>503.07121504254525</v>
+        <v>525.20805803133021</v>
       </c>
       <c r="B73">
-        <v>471.33408784500892</v>
+        <v>491.77247256058752</v>
       </c>
       <c r="C73">
-        <v>330.87478596713527</v>
+        <v>326.41401842401626</v>
       </c>
       <c r="D73">
-        <v>409.44315503445978</v>
+        <v>322.60823291115003</v>
       </c>
       <c r="E73">
-        <v>340.74208351534674</v>
+        <v>107.625</v>
       </c>
       <c r="F73">
         <v>107.625</v>
@@ -2707,7 +2708,7 @@
         <v>107.625</v>
       </c>
       <c r="H73">
-        <v>107.625</v>
+        <v>80.652058227787506</v>
       </c>
       <c r="I73">
         <v>107.625</v>
@@ -2718,19 +2719,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>509.77681504254525</v>
+        <v>531.91365803133021</v>
       </c>
       <c r="B74">
-        <v>478.03968784500893</v>
+        <v>498.47807256058752</v>
       </c>
       <c r="C74">
-        <v>337.22418929425027</v>
+        <v>332.65432467576619</v>
       </c>
       <c r="D74">
-        <v>416.14875503445978</v>
+        <v>329.64438068646285</v>
       </c>
       <c r="E74">
-        <v>347.85156396680708</v>
+        <v>107.625</v>
       </c>
       <c r="F74">
         <v>107.625</v>
@@ -2739,7 +2740,7 @@
         <v>107.625</v>
       </c>
       <c r="H74">
-        <v>107.625</v>
+        <v>82.411095171615713</v>
       </c>
       <c r="I74">
         <v>107.625</v>
@@ -2750,19 +2751,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>516.4824150425452</v>
+        <v>538.61925803133022</v>
       </c>
       <c r="B75">
-        <v>484.74528784500893</v>
+        <v>505.18367256058752</v>
       </c>
       <c r="C75">
-        <v>343.56109262136528</v>
+        <v>338.88213092751613</v>
       </c>
       <c r="D75">
-        <v>422.85435503445979</v>
+        <v>336.66802846177569</v>
       </c>
       <c r="E75">
-        <v>354.94854441826743</v>
+        <v>107.625</v>
       </c>
       <c r="F75">
         <v>107.625</v>
@@ -2771,7 +2772,7 @@
         <v>107.625</v>
       </c>
       <c r="H75">
-        <v>107.625</v>
+        <v>84.167007115443923</v>
       </c>
       <c r="I75">
         <v>107.625</v>
@@ -2782,19 +2783,19 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>523.1880150425452</v>
+        <v>545.32485803133022</v>
       </c>
       <c r="B76">
-        <v>491.45088784500894</v>
+        <v>511.88927256058753</v>
       </c>
       <c r="C76">
-        <v>349.88549594848024</v>
+        <v>345.09743717926608</v>
       </c>
       <c r="D76">
-        <v>429.55995503445979</v>
+        <v>343.67917623708854</v>
       </c>
       <c r="E76">
-        <v>362.0330248697278</v>
+        <v>107.625</v>
       </c>
       <c r="F76">
         <v>107.625</v>
@@ -2803,7 +2804,7 @@
         <v>107.625</v>
       </c>
       <c r="H76">
-        <v>107.625</v>
+        <v>85.919794059272135</v>
       </c>
       <c r="I76">
         <v>107.625</v>
@@ -2814,19 +2815,19 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>529.89361504254521</v>
+        <v>552.03045803133023</v>
       </c>
       <c r="B77">
-        <v>498.15648784500894</v>
+        <v>518.59487256058753</v>
       </c>
       <c r="C77">
-        <v>356.19739927559522</v>
+        <v>351.30024343101599</v>
       </c>
       <c r="D77">
-        <v>436.26555503445979</v>
+        <v>350.6778240124014</v>
       </c>
       <c r="E77">
-        <v>369.10500532118812</v>
+        <v>107.625</v>
       </c>
       <c r="F77">
         <v>107.625</v>
@@ -2835,7 +2836,7 @@
         <v>107.625</v>
       </c>
       <c r="H77">
-        <v>107.625</v>
+        <v>87.66945600310035</v>
       </c>
       <c r="I77">
         <v>107.625</v>
@@ -2846,19 +2847,19 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>536.59921504254521</v>
+        <v>558.73605803133023</v>
       </c>
       <c r="B78">
-        <v>504.86208784500894</v>
+        <v>525.30047256058754</v>
       </c>
       <c r="C78">
-        <v>362.4968026027102</v>
+        <v>357.4905496827659</v>
       </c>
       <c r="D78">
-        <v>442.9711550344598</v>
+        <v>357.66397178771427</v>
       </c>
       <c r="E78">
-        <v>376.16448577264845</v>
+        <v>107.625</v>
       </c>
       <c r="F78">
         <v>107.625</v>
@@ -2867,7 +2868,7 @@
         <v>107.625</v>
       </c>
       <c r="H78">
-        <v>107.625</v>
+        <v>89.415992946928569</v>
       </c>
       <c r="I78">
         <v>107.625</v>
@@ -2878,19 +2879,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>543.30481504254521</v>
+        <v>565.44165803133023</v>
       </c>
       <c r="B79">
-        <v>511.56768784500895</v>
+        <v>532.00607256058754</v>
       </c>
       <c r="C79">
-        <v>368.7837059298252</v>
+        <v>363.66835593451583</v>
       </c>
       <c r="D79">
-        <v>449.6767550344598</v>
+        <v>364.6376195630271</v>
       </c>
       <c r="E79">
-        <v>383.21146622410879</v>
+        <v>107.625</v>
       </c>
       <c r="F79">
         <v>107.625</v>
@@ -2899,7 +2900,7 @@
         <v>107.625</v>
       </c>
       <c r="H79">
-        <v>107.625</v>
+        <v>91.159404890756775</v>
       </c>
       <c r="I79">
         <v>107.625</v>
@@ -2910,19 +2911,19 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>550.01041504254522</v>
+        <v>572.14725803133024</v>
       </c>
       <c r="B80">
-        <v>518.27328784500889</v>
+        <v>538.71167256058754</v>
       </c>
       <c r="C80">
-        <v>375.05810925694021</v>
+        <v>369.83366218626577</v>
       </c>
       <c r="D80">
-        <v>456.38235503445981</v>
+        <v>371.59876733833994</v>
       </c>
       <c r="E80">
-        <v>390.24594667556914</v>
+        <v>107.625</v>
       </c>
       <c r="F80">
         <v>107.625</v>
@@ -2931,7 +2932,7 @@
         <v>107.625</v>
       </c>
       <c r="H80">
-        <v>107.625</v>
+        <v>92.899691834584985</v>
       </c>
       <c r="I80">
         <v>107.625</v>
@@ -2942,19 +2943,19 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>556.71601504254522</v>
+        <v>578.85285803133024</v>
       </c>
       <c r="B81">
-        <v>524.9788878450089</v>
+        <v>545.41727256058755</v>
       </c>
       <c r="C81">
-        <v>381.32001258405518</v>
+        <v>375.98646843801572</v>
       </c>
       <c r="D81">
-        <v>463.08795503445981</v>
+        <v>378.54741511365279</v>
       </c>
       <c r="E81">
-        <v>397.26792712702951</v>
+        <v>107.625</v>
       </c>
       <c r="F81">
         <v>107.625</v>
@@ -2963,7 +2964,7 @@
         <v>107.625</v>
       </c>
       <c r="H81">
-        <v>107.625</v>
+        <v>94.636853778413197</v>
       </c>
       <c r="I81">
         <v>107.625</v>
@@ -2974,19 +2975,19 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>563.42161504254523</v>
+        <v>585.55845803133025</v>
       </c>
       <c r="B82">
-        <v>531.6844878450089</v>
+        <v>552.12287256058755</v>
       </c>
       <c r="C82">
-        <v>387.56941591117015</v>
+        <v>382.12677468976563</v>
       </c>
       <c r="D82">
-        <v>469.79355503445981</v>
+        <v>385.48356288896565</v>
       </c>
       <c r="E82">
-        <v>404.27740757848983</v>
+        <v>107.625</v>
       </c>
       <c r="F82">
         <v>107.625</v>
@@ -2995,7 +2996,7 @@
         <v>107.625</v>
       </c>
       <c r="H82">
-        <v>107.625</v>
+        <v>96.370890722241413</v>
       </c>
       <c r="I82">
         <v>107.625</v>
@@ -3006,19 +3007,19 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>570.12721504254523</v>
+        <v>592.26405803133025</v>
       </c>
       <c r="B83">
-        <v>538.39008784500891</v>
+        <v>558.82847256058756</v>
       </c>
       <c r="C83">
-        <v>393.80631923828514</v>
+        <v>388.25458094151554</v>
       </c>
       <c r="D83">
-        <v>476.49915503445982</v>
+        <v>392.40721066427852</v>
       </c>
       <c r="E83">
-        <v>411.27438802995016</v>
+        <v>107.625</v>
       </c>
       <c r="F83">
         <v>107.625</v>
@@ -3027,7 +3028,7 @@
         <v>107.625</v>
       </c>
       <c r="H83">
-        <v>107.625</v>
+        <v>98.101802666069631</v>
       </c>
       <c r="I83">
         <v>107.625</v>
@@ -3038,19 +3039,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>576.83281504254523</v>
+        <v>598.96965803133025</v>
       </c>
       <c r="B84">
-        <v>545.09568784500891</v>
+        <v>565.53407256058756</v>
       </c>
       <c r="C84">
-        <v>400.03072256540014</v>
+        <v>394.36988719326547</v>
       </c>
       <c r="D84">
-        <v>483.20475503445982</v>
+        <v>399.31835843959135</v>
       </c>
       <c r="E84">
-        <v>418.2588684814105</v>
+        <v>107.625</v>
       </c>
       <c r="F84">
         <v>107.625</v>
@@ -3059,7 +3060,7 @@
         <v>107.625</v>
       </c>
       <c r="H84">
-        <v>107.625</v>
+        <v>99.829589609897837</v>
       </c>
       <c r="I84">
         <v>107.625</v>
@@ -3070,19 +3071,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>583.53841504254524</v>
+        <v>605.67525803133026</v>
       </c>
       <c r="B85">
-        <v>551.80128784500891</v>
+        <v>572.23967256058756</v>
       </c>
       <c r="C85">
-        <v>406.24262589251515</v>
+        <v>400.47269344501541</v>
       </c>
       <c r="D85">
-        <v>489.91035503445983</v>
+        <v>406.21700621490419</v>
       </c>
       <c r="E85">
-        <v>425.23084893287086</v>
+        <v>107.625</v>
       </c>
       <c r="F85">
         <v>107.625</v>
@@ -3091,7 +3092,7 @@
         <v>107.625</v>
       </c>
       <c r="H85">
-        <v>107.625</v>
+        <v>101.55425155372605</v>
       </c>
       <c r="I85">
         <v>107.625</v>
@@ -3102,19 +3103,19 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>590.24401504254524</v>
+        <v>612.38085803133026</v>
       </c>
       <c r="B86">
-        <v>558.50688784500892</v>
+        <v>578.94527256058757</v>
       </c>
       <c r="C86">
-        <v>412.44202921963011</v>
+        <v>406.56299969676536</v>
       </c>
       <c r="D86">
-        <v>496.61595503445983</v>
+        <v>413.10315399021704</v>
       </c>
       <c r="E86">
-        <v>432.19032938433122</v>
+        <v>107.625</v>
       </c>
       <c r="F86">
         <v>107.625</v>
@@ -3123,7 +3124,7 @@
         <v>107.625</v>
       </c>
       <c r="H86">
-        <v>107.625</v>
+        <v>103.27578849755426</v>
       </c>
       <c r="I86">
         <v>107.625</v>
@@ -3134,19 +3135,19 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>596.94961504254525</v>
+        <v>619.08645803133027</v>
       </c>
       <c r="B87">
-        <v>565.21248784500892</v>
+        <v>585.65087256058757</v>
       </c>
       <c r="C87">
-        <v>418.62893254674509</v>
+        <v>412.64080594851532</v>
       </c>
       <c r="D87">
-        <v>503.32155503445983</v>
+        <v>419.9768017655299</v>
       </c>
       <c r="E87">
-        <v>439.14749633257418</v>
+        <v>107.625</v>
       </c>
       <c r="F87">
         <v>107.625</v>
@@ -3155,7 +3156,7 @@
         <v>107.625</v>
       </c>
       <c r="H87">
-        <v>107.625</v>
+        <v>104.99420044138247</v>
       </c>
       <c r="I87">
         <v>107.625</v>
@@ -3166,19 +3167,19 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>603.65521504254525</v>
+        <v>625.79205803133027</v>
       </c>
       <c r="B88">
-        <v>571.91808784500893</v>
+        <v>592.35647256058758</v>
       </c>
       <c r="C88">
-        <v>424.80333587386008</v>
+        <v>418.70611220026524</v>
       </c>
       <c r="D88">
-        <v>510.02715503445984</v>
+        <v>426.83794954084277</v>
       </c>
       <c r="E88">
-        <v>446.10466328081714</v>
+        <v>107.625</v>
       </c>
       <c r="F88">
         <v>107.625</v>
@@ -3187,7 +3188,7 @@
         <v>107.625</v>
       </c>
       <c r="H88">
-        <v>107.625</v>
+        <v>106.70948738521069</v>
       </c>
       <c r="I88">
         <v>107.625</v>
@@ -3198,19 +3199,19 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>610.36081504254525</v>
+        <v>632.49765803133027</v>
       </c>
       <c r="B89">
-        <v>578.62368784500893</v>
+        <v>599.06207256058758</v>
       </c>
       <c r="C89">
-        <v>430.96523920097508</v>
+        <v>424.75891845201517</v>
       </c>
       <c r="D89">
-        <v>516.73275503445984</v>
+        <v>433.6865973161556</v>
       </c>
       <c r="E89">
-        <v>453.06183022906009</v>
+        <v>107.625</v>
       </c>
       <c r="F89">
         <v>107.625</v>
@@ -3230,19 +3231,19 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>617.06641504254526</v>
+        <v>639.20325803133028</v>
       </c>
       <c r="B90">
-        <v>585.32928784500893</v>
+        <v>605.76767256058758</v>
       </c>
       <c r="C90">
-        <v>437.12285228265262</v>
+        <v>430.79922470376511</v>
       </c>
       <c r="D90">
-        <v>523.43835503445985</v>
+        <v>440.53572662202436</v>
       </c>
       <c r="E90">
-        <v>460.01899717730305</v>
+        <v>107.625</v>
       </c>
       <c r="F90">
         <v>107.625</v>
@@ -3262,19 +3263,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>623.77201504254526</v>
+        <v>645.90885803133028</v>
       </c>
       <c r="B91">
-        <v>592.03488784500894</v>
+        <v>612.47327256058759</v>
       </c>
       <c r="C91">
-        <v>443.28046536433015</v>
+        <v>436.83493638233932</v>
       </c>
       <c r="D91">
-        <v>530.14395503445985</v>
+        <v>447.38485592789311</v>
       </c>
       <c r="E91">
-        <v>466.97616412554601</v>
+        <v>107.625</v>
       </c>
       <c r="F91">
         <v>107.625</v>
@@ -3294,19 +3295,19 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>630.47761504254527</v>
+        <v>652.61445803133029</v>
       </c>
       <c r="B92">
-        <v>598.74048784500894</v>
+        <v>619.17887256058759</v>
       </c>
       <c r="C92">
-        <v>449.43807844600769</v>
+        <v>442.87064806091354</v>
       </c>
       <c r="D92">
-        <v>536.84955503445985</v>
+        <v>454.23398523376187</v>
       </c>
       <c r="E92">
-        <v>473.93333107378896</v>
+        <v>107.625</v>
       </c>
       <c r="F92">
         <v>107.625</v>
@@ -3326,19 +3327,19 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>637.18321504254527</v>
+        <v>659.32005803133029</v>
       </c>
       <c r="B93">
-        <v>605.44608784500895</v>
+        <v>625.8844725605876</v>
       </c>
       <c r="C93">
-        <v>455.59569152768523</v>
+        <v>448.90635973948775</v>
       </c>
       <c r="D93">
-        <v>543.55515503445986</v>
+        <v>461.08311453963063</v>
       </c>
       <c r="E93">
-        <v>480.89049802203192</v>
+        <v>107.625</v>
       </c>
       <c r="F93">
         <v>107.625</v>
@@ -3358,19 +3359,19 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>643.88881504254527</v>
+        <v>666.02565803133029</v>
       </c>
       <c r="B94">
-        <v>612.15168784500895</v>
+        <v>632.5900725605876</v>
       </c>
       <c r="C94">
-        <v>461.75330460936277</v>
+        <v>454.94207141806197</v>
       </c>
       <c r="D94">
-        <v>550.26075503445986</v>
+        <v>467.93224384549939</v>
       </c>
       <c r="E94">
-        <v>487.84766497027488</v>
+        <v>107.625</v>
       </c>
       <c r="F94">
         <v>107.625</v>
@@ -3390,19 +3391,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>650.59441504254528</v>
+        <v>672.7312580313303</v>
       </c>
       <c r="B95">
-        <v>618.85728784500895</v>
+        <v>639.2956725605876</v>
       </c>
       <c r="C95">
-        <v>467.91091769104031</v>
+        <v>460.97778309663619</v>
       </c>
       <c r="D95">
-        <v>556.96635503445987</v>
+        <v>474.78137315136814</v>
       </c>
       <c r="E95">
-        <v>494.80483191851783</v>
+        <v>107.625</v>
       </c>
       <c r="F95">
         <v>107.625</v>
@@ -3422,19 +3423,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>657.30001504254528</v>
+        <v>679.4368580313303</v>
       </c>
       <c r="B96">
-        <v>625.56288784500896</v>
+        <v>646.00127256058761</v>
       </c>
       <c r="C96">
-        <v>474.06853077271785</v>
+        <v>467.0134947752104</v>
       </c>
       <c r="D96">
-        <v>563.67195503445987</v>
+        <v>481.6305024572369</v>
       </c>
       <c r="E96">
-        <v>501.76199886676079</v>
+        <v>107.625</v>
       </c>
       <c r="F96">
         <v>107.625</v>
@@ -3454,19 +3455,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>664.00561504254529</v>
+        <v>686.14245803133031</v>
       </c>
       <c r="B97">
-        <v>632.26848784500896</v>
+        <v>652.70687256058761</v>
       </c>
       <c r="C97">
-        <v>480.22614385439539</v>
+        <v>473.04920645378462</v>
       </c>
       <c r="D97">
-        <v>570.37755503445987</v>
+        <v>488.47963176310566</v>
       </c>
       <c r="E97">
-        <v>508.71916581500375</v>
+        <v>107.625</v>
       </c>
       <c r="F97">
         <v>107.625</v>
@@ -3486,19 +3487,19 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>670.71121504254529</v>
+        <v>692.84805803133031</v>
       </c>
       <c r="B98">
-        <v>638.97408784500897</v>
+        <v>659.41247256058762</v>
       </c>
       <c r="C98">
-        <v>486.38375693607293</v>
+        <v>479.08491813235884</v>
       </c>
       <c r="D98">
-        <v>577.08315503445988</v>
+        <v>495.32876106897442</v>
       </c>
       <c r="E98">
-        <v>515.67633276324671</v>
+        <v>107.625</v>
       </c>
       <c r="F98">
         <v>107.625</v>
@@ -3518,19 +3519,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>677.4168150425453</v>
+        <v>699.55365803133031</v>
       </c>
       <c r="B99">
-        <v>645.67968784500897</v>
+        <v>666.11807256058762</v>
       </c>
       <c r="C99">
-        <v>492.54137001775047</v>
+        <v>485.12062981093305</v>
       </c>
       <c r="D99">
-        <v>583.78875503445988</v>
+        <v>502.17789037484317</v>
       </c>
       <c r="E99">
-        <v>522.63349971148966</v>
+        <v>107.625</v>
       </c>
       <c r="F99">
         <v>107.625</v>
@@ -3550,19 +3551,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>684.1224150425453</v>
+        <v>706.25925803133032</v>
       </c>
       <c r="B100">
-        <v>652.38528784500897</v>
+        <v>672.82367256058762</v>
       </c>
       <c r="C100">
-        <v>498.69898309942801</v>
+        <v>491.15634148950727</v>
       </c>
       <c r="D100">
-        <v>590.49435503445989</v>
+        <v>509.02701968071193</v>
       </c>
       <c r="E100">
-        <v>529.59066665973262</v>
+        <v>107.625</v>
       </c>
       <c r="F100">
         <v>107.625</v>
@@ -3582,19 +3583,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>690.8280150425453</v>
+        <v>712.96485803133032</v>
       </c>
       <c r="B101">
-        <v>659.09088784500898</v>
+        <v>679.52927256058763</v>
       </c>
       <c r="C101">
-        <v>504.85659618110554</v>
+        <v>497.19205316808149</v>
       </c>
       <c r="D101">
-        <v>597.19995503445989</v>
+        <v>515.87614898658069</v>
       </c>
       <c r="E101">
-        <v>536.54783360797558</v>
+        <v>107.625</v>
       </c>
       <c r="F101">
         <v>107.625</v>
@@ -3614,19 +3615,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>697.53361504254531</v>
+        <v>719.67045803133033</v>
       </c>
       <c r="B102">
-        <v>665.79648784500898</v>
+        <v>686.23487256058763</v>
       </c>
       <c r="C102">
-        <v>511.01420926278308</v>
+        <v>503.2277648466557</v>
       </c>
       <c r="D102">
-        <v>603.90555503445989</v>
+        <v>522.7252782924495</v>
       </c>
       <c r="E102">
-        <v>543.50500055621853</v>
+        <v>107.625</v>
       </c>
       <c r="F102">
         <v>107.625</v>
@@ -3646,19 +3647,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>704.23921504254531</v>
+        <v>726.37605803133033</v>
       </c>
       <c r="B103">
-        <v>672.50208784500899</v>
+        <v>692.94047256058764</v>
       </c>
       <c r="C103">
-        <v>517.17182234446068</v>
+        <v>509.26347652522992</v>
       </c>
       <c r="D103">
-        <v>610.6111550344599</v>
+        <v>529.57440759831832</v>
       </c>
       <c r="E103">
-        <v>550.46216750446149</v>
+        <v>107.625</v>
       </c>
       <c r="F103">
         <v>107.625</v>
@@ -3678,19 +3679,19 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>710.94481504254532</v>
+        <v>733.08165803133033</v>
       </c>
       <c r="B104">
-        <v>679.20768784500899</v>
+        <v>699.64607256058764</v>
       </c>
       <c r="C104">
-        <v>523.32943542613828</v>
+        <v>515.29918820380408</v>
       </c>
       <c r="D104">
-        <v>617.3167550344599</v>
+        <v>536.42353690418713</v>
       </c>
       <c r="E104">
-        <v>557.41933445270445</v>
+        <v>107.625</v>
       </c>
       <c r="F104">
         <v>107.625</v>
@@ -3710,19 +3711,19 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>717.65041504254532</v>
+        <v>739.78725803133034</v>
       </c>
       <c r="B105">
-        <v>685.91328784500899</v>
+        <v>706.35167256058764</v>
       </c>
       <c r="C105">
-        <v>529.48704850781587</v>
+        <v>521.33489988237829</v>
       </c>
       <c r="D105">
-        <v>624.02235503445991</v>
+        <v>543.27266621005595</v>
       </c>
       <c r="E105">
-        <v>564.3765014009474</v>
+        <v>107.625</v>
       </c>
       <c r="F105">
         <v>107.625</v>
@@ -3742,19 +3743,19 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>724.35601504254532</v>
+        <v>746.49285803133034</v>
       </c>
       <c r="B106">
-        <v>692.618887845009</v>
+        <v>713.05727256058765</v>
       </c>
       <c r="C106">
-        <v>535.64466158949347</v>
+        <v>527.37061156095251</v>
       </c>
       <c r="D106">
-        <v>630.72795503445991</v>
+        <v>550.12179551592476</v>
       </c>
       <c r="E106">
-        <v>571.33366834919036</v>
+        <v>107.625</v>
       </c>
       <c r="F106">
         <v>107.625</v>
@@ -3774,19 +3775,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>731.06161504254533</v>
+        <v>753.19845803133035</v>
       </c>
       <c r="B107">
-        <v>699.324487845009</v>
+        <v>719.76287256058765</v>
       </c>
       <c r="C107">
-        <v>541.80227467117106</v>
+        <v>533.40632323952673</v>
       </c>
       <c r="D107">
-        <v>637.43355503445991</v>
+        <v>556.97092482179357</v>
       </c>
       <c r="E107">
-        <v>578.29083529743332</v>
+        <v>107.625</v>
       </c>
       <c r="F107">
         <v>107.625</v>
@@ -3806,19 +3807,19 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>737.76721504254533</v>
+        <v>759.90405803133035</v>
       </c>
       <c r="B108">
-        <v>706.03008784500901</v>
+        <v>726.46847256058766</v>
       </c>
       <c r="C108">
-        <v>547.95988775284866</v>
+        <v>539.44203491810094</v>
       </c>
       <c r="D108">
-        <v>644.13915503445992</v>
+        <v>563.82005412766239</v>
       </c>
       <c r="E108">
-        <v>585.24800224567628</v>
+        <v>107.625</v>
       </c>
       <c r="F108">
         <v>107.625</v>
@@ -3838,19 +3839,19 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>744.47281504254534</v>
+        <v>766.60965803133035</v>
       </c>
       <c r="B109">
-        <v>712.73568784500901</v>
+        <v>733.17407256058766</v>
       </c>
       <c r="C109">
-        <v>554.11750083452625</v>
+        <v>545.47774659667516</v>
       </c>
       <c r="D109">
-        <v>650.84475503445992</v>
+        <v>570.6691834335312</v>
       </c>
       <c r="E109">
-        <v>592.20516919391923</v>
+        <v>107.625</v>
       </c>
       <c r="F109">
         <v>107.625</v>
@@ -3870,19 +3871,19 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>751.17841504254534</v>
+        <v>773.31525803133036</v>
       </c>
       <c r="B110">
-        <v>719.44128784500901</v>
+        <v>739.87967256058766</v>
       </c>
       <c r="C110">
-        <v>560.27511391620385</v>
+        <v>551.51345827524938</v>
       </c>
       <c r="D110">
-        <v>657.55035503445993</v>
+        <v>577.51831273940002</v>
       </c>
       <c r="E110">
-        <v>599.16233614216219</v>
+        <v>107.625</v>
       </c>
       <c r="F110">
         <v>107.625</v>
@@ -3902,19 +3903,19 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>757.88401504254534</v>
+        <v>780.02085803133036</v>
       </c>
       <c r="B111">
-        <v>726.14688784500902</v>
+        <v>746.58527256058767</v>
       </c>
       <c r="C111">
-        <v>566.43272699788145</v>
+        <v>557.54916995382359</v>
       </c>
       <c r="D111">
-        <v>664.25595503445993</v>
+        <v>584.36744204526883</v>
       </c>
       <c r="E111">
-        <v>606.11950309040515</v>
+        <v>107.625</v>
       </c>
       <c r="F111">
         <v>107.625</v>
@@ -3934,19 +3935,19 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>764.58961504254535</v>
+        <v>786.72645803133037</v>
       </c>
       <c r="B112">
-        <v>732.85248784500902</v>
+        <v>753.29087256058767</v>
       </c>
       <c r="C112">
-        <v>572.59034007955904</v>
+        <v>563.58488163239781</v>
       </c>
       <c r="D112">
-        <v>670.96155503445993</v>
+        <v>591.21657135113765</v>
       </c>
       <c r="E112">
-        <v>613.0766700386481</v>
+        <v>107.625</v>
       </c>
       <c r="F112">
         <v>107.625</v>
@@ -3966,19 +3967,19 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>771.29521504254535</v>
+        <v>793.43205803133037</v>
       </c>
       <c r="B113">
-        <v>739.55808784500903</v>
+        <v>759.99647256058768</v>
       </c>
       <c r="C113">
-        <v>578.74795316123664</v>
+        <v>569.62059331097203</v>
       </c>
       <c r="D113">
-        <v>677.66715503445994</v>
+        <v>598.06570065700646</v>
       </c>
       <c r="E113">
-        <v>620.03383698689106</v>
+        <v>107.625</v>
       </c>
       <c r="F113">
         <v>107.625</v>
@@ -3998,19 +3999,19 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>778.00081504254536</v>
+        <v>800.13765803133037</v>
       </c>
       <c r="B114">
-        <v>746.26368784500903</v>
+        <v>766.70207256058768</v>
       </c>
       <c r="C114">
-        <v>584.90556624291423</v>
+        <v>575.65630498954624</v>
       </c>
       <c r="D114">
-        <v>684.37275503445994</v>
+        <v>604.91482996287527</v>
       </c>
       <c r="E114">
-        <v>626.99100393513402</v>
+        <v>107.625</v>
       </c>
       <c r="F114">
         <v>107.625</v>
@@ -4030,19 +4031,19 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>784.70641504254536</v>
+        <v>806.84325803133038</v>
       </c>
       <c r="B115">
-        <v>752.96928784500903</v>
+        <v>773.40767256058768</v>
       </c>
       <c r="C115">
-        <v>591.06317932459183</v>
+        <v>581.69201666812046</v>
       </c>
       <c r="D115">
-        <v>691.07835503445995</v>
+        <v>611.76395926874409</v>
       </c>
       <c r="E115">
-        <v>633.94817088337697</v>
+        <v>107.625</v>
       </c>
       <c r="F115">
         <v>107.625</v>
@@ -4062,19 +4063,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>791.41201504254536</v>
+        <v>813.54885803133038</v>
       </c>
       <c r="B116">
-        <v>759.67488784500904</v>
+        <v>780.11327256058769</v>
       </c>
       <c r="C116">
-        <v>597.22079240626942</v>
+        <v>587.72772834669468</v>
       </c>
       <c r="D116">
-        <v>697.78395503445995</v>
+        <v>618.6130885746129</v>
       </c>
       <c r="E116">
-        <v>640.90533783161993</v>
+        <v>107.625</v>
       </c>
       <c r="F116">
         <v>107.625</v>
@@ -4094,19 +4095,19 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>798.11761504254537</v>
+        <v>820.25445803133039</v>
       </c>
       <c r="B117">
-        <v>766.38048784500904</v>
+        <v>786.81887256058769</v>
       </c>
       <c r="C117">
-        <v>603.37840548794702</v>
+        <v>593.76344002526889</v>
       </c>
       <c r="D117">
-        <v>704.48955503445995</v>
+        <v>625.46221788048172</v>
       </c>
       <c r="E117">
-        <v>647.86250477986289</v>
+        <v>107.625</v>
       </c>
       <c r="F117">
         <v>107.625</v>
@@ -4126,19 +4127,19 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>804.82321504254537</v>
+        <v>826.96005803133039</v>
       </c>
       <c r="B118">
-        <v>773.08608784500905</v>
+        <v>793.5244725605877</v>
       </c>
       <c r="C118">
-        <v>609.53601856962462</v>
+        <v>599.79915170384311</v>
       </c>
       <c r="D118">
-        <v>711.19515503445996</v>
+        <v>632.31134718635053</v>
       </c>
       <c r="E118">
-        <v>654.81967172810585</v>
+        <v>107.625</v>
       </c>
       <c r="F118">
         <v>107.625</v>
@@ -4158,19 +4159,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>811.52881504254538</v>
+        <v>833.66565803133039</v>
       </c>
       <c r="B119">
-        <v>779.79168784500905</v>
+        <v>800.2300725605877</v>
       </c>
       <c r="C119">
-        <v>615.69363165130221</v>
+        <v>605.83486338241732</v>
       </c>
       <c r="D119">
-        <v>717.90075503445996</v>
+        <v>639.16047649221935</v>
       </c>
       <c r="E119">
-        <v>661.7768386763488</v>
+        <v>107.625</v>
       </c>
       <c r="F119">
         <v>107.625</v>
@@ -4190,19 +4191,19 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>818.23441504254538</v>
+        <v>840.3712580313304</v>
       </c>
       <c r="B120">
-        <v>786.49728784500905</v>
+        <v>806.9356725605877</v>
       </c>
       <c r="C120">
-        <v>621.85124473297981</v>
+        <v>611.87057506099154</v>
       </c>
       <c r="D120">
-        <v>724.60635503445997</v>
+        <v>646.00960579808816</v>
       </c>
       <c r="E120">
-        <v>668.73400562459176</v>
+        <v>107.625</v>
       </c>
       <c r="F120">
         <v>107.625</v>
@@ -4222,19 +4223,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>824.94001504254538</v>
+        <v>847.0768580313304</v>
       </c>
       <c r="B121">
-        <v>793.20288784500906</v>
+        <v>813.64127256058771</v>
       </c>
       <c r="C121">
-        <v>628.0088578146574</v>
+        <v>617.90628673956576</v>
       </c>
       <c r="D121">
-        <v>731.31195503445997</v>
+        <v>652.85873510395697</v>
       </c>
       <c r="E121">
-        <v>675.69117257283472</v>
+        <v>107.625</v>
       </c>
       <c r="F121">
         <v>107.625</v>
@@ -4254,19 +4255,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>831.64561504254539</v>
+        <v>853.78245803133041</v>
       </c>
       <c r="B122">
-        <v>799.90848784500906</v>
+        <v>820.34687256058771</v>
       </c>
       <c r="C122">
-        <v>634.166470896335</v>
+        <v>623.94199841813997</v>
       </c>
       <c r="D122">
-        <v>738.01755503445997</v>
+        <v>659.70786440982579</v>
       </c>
       <c r="E122">
-        <v>682.64833952107767</v>
+        <v>107.625</v>
       </c>
       <c r="F122">
         <v>107.625</v>
@@ -4286,19 +4287,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>838.35121504254539</v>
+        <v>860.48805803133041</v>
       </c>
       <c r="B123">
-        <v>806.61408784500907</v>
+        <v>827.05247256058772</v>
       </c>
       <c r="C123">
-        <v>640.3240839780126</v>
+        <v>629.97771009671419</v>
       </c>
       <c r="D123">
-        <v>744.72315503445998</v>
+        <v>666.5569937156946</v>
       </c>
       <c r="E123">
-        <v>689.60550646932063</v>
+        <v>107.625</v>
       </c>
       <c r="F123">
         <v>107.625</v>
@@ -4318,19 +4319,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>845.0568150425454</v>
+        <v>867.19365803133041</v>
       </c>
       <c r="B124">
-        <v>813.31968784500907</v>
+        <v>833.75807256058772</v>
       </c>
       <c r="C124">
-        <v>646.48169705969019</v>
+        <v>636.01342177528841</v>
       </c>
       <c r="D124">
-        <v>751.42875503445998</v>
+        <v>673.40612302156342</v>
       </c>
       <c r="E124">
-        <v>696.56267341756359</v>
+        <v>107.625</v>
       </c>
       <c r="F124">
         <v>107.625</v>
@@ -4350,19 +4351,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>851.7624150425454</v>
+        <v>873.89925803133042</v>
       </c>
       <c r="B125">
-        <v>820.02528784500907</v>
+        <v>840.46367256058772</v>
       </c>
       <c r="C125">
-        <v>652.63931014136779</v>
+        <v>642.04913345386262</v>
       </c>
       <c r="D125">
-        <v>758.13435503445999</v>
+        <v>680.25525232743223</v>
       </c>
       <c r="E125">
-        <v>703.51984036580654</v>
+        <v>107.625</v>
       </c>
       <c r="F125">
         <v>107.625</v>
@@ -4382,19 +4383,19 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>858.4680150425454</v>
+        <v>880.60485803133042</v>
       </c>
       <c r="B126">
-        <v>826.73088784500908</v>
+        <v>847.16927256058773</v>
       </c>
       <c r="C126">
-        <v>658.79692322304538</v>
+        <v>648.08484513243684</v>
       </c>
       <c r="D126">
-        <v>764.83995503445999</v>
+        <v>687.10438163330105</v>
       </c>
       <c r="E126">
-        <v>710.4770073140495</v>
+        <v>107.625</v>
       </c>
       <c r="F126">
         <v>107.625</v>
@@ -4414,19 +4415,19 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>865.17361504254541</v>
+        <v>887.31045803133043</v>
       </c>
       <c r="B127">
-        <v>833.43648784500908</v>
+        <v>853.87487256058773</v>
       </c>
       <c r="C127">
-        <v>664.95453630472298</v>
+        <v>654.12055681101106</v>
       </c>
       <c r="D127">
-        <v>771.54555503445999</v>
+        <v>693.95351093916986</v>
       </c>
       <c r="E127">
-        <v>717.43417426229246</v>
+        <v>107.625</v>
       </c>
       <c r="F127">
         <v>107.625</v>
@@ -4446,19 +4447,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>871.87921504254541</v>
+        <v>894.01605803133043</v>
       </c>
       <c r="B128">
-        <v>840.14208784500909</v>
+        <v>860.58047256058774</v>
       </c>
       <c r="C128">
-        <v>671.11214938640057</v>
+        <v>660.15626848958527</v>
       </c>
       <c r="D128">
-        <v>778.25115503446</v>
+        <v>700.80264024503867</v>
       </c>
       <c r="E128">
-        <v>724.39134121053542</v>
+        <v>107.625</v>
       </c>
       <c r="F128">
         <v>107.625</v>
@@ -4478,19 +4479,19 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>878.58481504254542</v>
+        <v>900.72165803133043</v>
       </c>
       <c r="B129">
-        <v>846.84768784500909</v>
+        <v>867.28607256058774</v>
       </c>
       <c r="C129">
-        <v>677.26976246807817</v>
+        <v>666.19198016815949</v>
       </c>
       <c r="D129">
-        <v>784.95675503446</v>
+        <v>707.65176955090749</v>
       </c>
       <c r="E129">
-        <v>731.34850815877837</v>
+        <v>107.625</v>
       </c>
       <c r="F129">
         <v>107.625</v>
@@ -4510,19 +4511,19 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>885.29041504254542</v>
+        <v>907.42725803133044</v>
       </c>
       <c r="B130">
-        <v>853.55328784500909</v>
+        <v>873.99167256058774</v>
       </c>
       <c r="C130">
-        <v>683.42737554975577</v>
+        <v>672.22769184673371</v>
       </c>
       <c r="D130">
-        <v>791.66235503446001</v>
+        <v>714.5008988567763</v>
       </c>
       <c r="E130">
-        <v>738.30567510702133</v>
+        <v>107.625</v>
       </c>
       <c r="F130">
         <v>107.625</v>
@@ -4542,19 +4543,19 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>891.99601504254542</v>
+        <v>914.13285803133044</v>
       </c>
       <c r="B131">
-        <v>860.2588878450091</v>
+        <v>880.69727256058775</v>
       </c>
       <c r="C131">
-        <v>689.58498863143336</v>
+        <v>678.26340352530792</v>
       </c>
       <c r="D131">
-        <v>798.36795503446001</v>
+        <v>721.35002816264512</v>
       </c>
       <c r="E131">
-        <v>745.26284205526429</v>
+        <v>107.625</v>
       </c>
       <c r="F131">
         <v>107.625</v>
@@ -4574,19 +4575,19 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>898.70161504254543</v>
+        <v>920.83845803133045</v>
       </c>
       <c r="B132">
-        <v>866.9644878450091</v>
+        <v>887.40287256058775</v>
       </c>
       <c r="C132">
-        <v>695.74260171311096</v>
+        <v>684.29911520388214</v>
       </c>
       <c r="D132">
-        <v>805.07355503446001</v>
+        <v>728.19915746851393</v>
       </c>
       <c r="E132">
-        <v>752.22000900350724</v>
+        <v>107.625</v>
       </c>
       <c r="F132">
         <v>107.625</v>
@@ -4606,19 +4607,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>905.40721504254543</v>
+        <v>927.54405803133045</v>
       </c>
       <c r="B133">
-        <v>873.67008784500911</v>
+        <v>894.10847256058776</v>
       </c>
       <c r="C133">
-        <v>701.90021479478855</v>
+        <v>690.33482688245635</v>
       </c>
       <c r="D133">
-        <v>811.77915503446002</v>
+        <v>735.04828677438275</v>
       </c>
       <c r="E133">
-        <v>759.1771759517502</v>
+        <v>107.625</v>
       </c>
       <c r="F133">
         <v>107.625</v>
@@ -4638,19 +4639,19 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>912.11281504254544</v>
+        <v>934.24965803133045</v>
       </c>
       <c r="B134">
-        <v>880.37568784500911</v>
+        <v>900.81407256058776</v>
       </c>
       <c r="C134">
-        <v>708.05782787646615</v>
+        <v>696.37053856103057</v>
       </c>
       <c r="D134">
-        <v>818.48475503446002</v>
+        <v>741.89741608025156</v>
       </c>
       <c r="E134">
-        <v>766.13434289999316</v>
+        <v>107.625</v>
       </c>
       <c r="F134">
         <v>107.625</v>
@@ -4670,19 +4671,19 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>918.81841504254544</v>
+        <v>940.95525803133046</v>
       </c>
       <c r="B135">
-        <v>887.08128784500911</v>
+        <v>907.51967256058776</v>
       </c>
       <c r="C135">
-        <v>714.21544095814374</v>
+        <v>702.40625023960479</v>
       </c>
       <c r="D135">
-        <v>825.19035503446003</v>
+        <v>748.74654538612037</v>
       </c>
       <c r="E135">
-        <v>773.09150984823611</v>
+        <v>107.625</v>
       </c>
       <c r="F135">
         <v>107.625</v>
@@ -4702,19 +4703,19 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>925.52401504254544</v>
+        <v>947.66085803133046</v>
       </c>
       <c r="B136">
-        <v>893.78688784500912</v>
+        <v>914.22527256058777</v>
       </c>
       <c r="C136">
-        <v>720.37305403982134</v>
+        <v>708.441961918179</v>
       </c>
       <c r="D136">
-        <v>831.89595503446003</v>
+        <v>755.59567469198919</v>
       </c>
       <c r="E136">
-        <v>780.04867679647907</v>
+        <v>107.625</v>
       </c>
       <c r="F136">
         <v>107.625</v>
@@ -4734,19 +4735,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>932.22961504254545</v>
+        <v>954.36645803133047</v>
       </c>
       <c r="B137">
-        <v>900.49248784500912</v>
+        <v>920.93087256058777</v>
       </c>
       <c r="C137">
-        <v>726.53066712149894</v>
+        <v>714.47767359675322</v>
       </c>
       <c r="D137">
-        <v>838.60155503446003</v>
+        <v>762.444803997858</v>
       </c>
       <c r="E137">
-        <v>787.00584374472203</v>
+        <v>107.625</v>
       </c>
       <c r="F137">
         <v>107.625</v>
@@ -4766,19 +4767,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>938.93521504254545</v>
+        <v>961.07205803133047</v>
       </c>
       <c r="B138">
-        <v>907.19808784500913</v>
+        <v>927.63647256058778</v>
       </c>
       <c r="C138">
-        <v>732.68828020317653</v>
+        <v>720.51338527532744</v>
       </c>
       <c r="D138">
-        <v>845.30715503446004</v>
+        <v>769.29393330372682</v>
       </c>
       <c r="E138">
-        <v>793.96301069296499</v>
+        <v>107.625</v>
       </c>
       <c r="F138">
         <v>107.625</v>
@@ -4798,19 +4799,19 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>945.64081504254546</v>
+        <v>967.77765803133047</v>
       </c>
       <c r="B139">
-        <v>913.90368784500913</v>
+        <v>934.34207256058778</v>
       </c>
       <c r="C139">
-        <v>738.84589328485413</v>
+        <v>726.54909695390165</v>
       </c>
       <c r="D139">
-        <v>852.01275503446004</v>
+        <v>776.14306260959563</v>
       </c>
       <c r="E139">
-        <v>800.92017764120794</v>
+        <v>107.625</v>
       </c>
       <c r="F139">
         <v>107.625</v>
@@ -4830,19 +4831,19 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>952.34641504254546</v>
+        <v>974.48325803133048</v>
       </c>
       <c r="B140">
-        <v>920.60928784500913</v>
+        <v>941.04767256058778</v>
       </c>
       <c r="C140">
-        <v>745.00350636653172</v>
+        <v>732.58480863247587</v>
       </c>
       <c r="D140">
-        <v>858.71835503446005</v>
+        <v>782.99219191546445</v>
       </c>
       <c r="E140">
-        <v>807.8773445894509</v>
+        <v>107.625</v>
       </c>
       <c r="F140">
         <v>107.625</v>
@@ -4862,19 +4863,19 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>959.05201504254546</v>
+        <v>981.18885803133048</v>
       </c>
       <c r="B141">
-        <v>927.31488784500914</v>
+        <v>947.75327256058779</v>
       </c>
       <c r="C141">
-        <v>751.16111944820932</v>
+        <v>738.62052031105009</v>
       </c>
       <c r="D141">
-        <v>865.42395503446005</v>
+        <v>789.84132122133326</v>
       </c>
       <c r="E141">
-        <v>814.83451153769386</v>
+        <v>107.625</v>
       </c>
       <c r="F141">
         <v>107.625</v>
@@ -4894,19 +4895,19 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>965.75761504254547</v>
+        <v>987.89445803133049</v>
       </c>
       <c r="B142">
-        <v>934.02048784500914</v>
+        <v>954.45887256058779</v>
       </c>
       <c r="C142">
-        <v>757.31873252988692</v>
+        <v>744.6562319896243</v>
       </c>
       <c r="D142">
-        <v>872.12955503446005</v>
+        <v>796.69045052720207</v>
       </c>
       <c r="E142">
-        <v>821.79167848593681</v>
+        <v>107.625</v>
       </c>
       <c r="F142">
         <v>107.625</v>
@@ -4926,19 +4927,19 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>972.46321504254547</v>
+        <v>994.60005803133049</v>
       </c>
       <c r="B143">
-        <v>940.72608784500915</v>
+        <v>961.1644725605878</v>
       </c>
       <c r="C143">
-        <v>763.47634561156451</v>
+        <v>750.69194366819852</v>
       </c>
       <c r="D143">
-        <v>878.83515503446006</v>
+        <v>803.53957983307089</v>
       </c>
       <c r="E143">
-        <v>828.74884543417977</v>
+        <v>107.625</v>
       </c>
       <c r="F143">
         <v>107.625</v>
@@ -4958,19 +4959,19 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>979.16881504254548</v>
+        <v>1001.3056580313305</v>
       </c>
       <c r="B144">
-        <v>947.43168784500915</v>
+        <v>967.8700725605878</v>
       </c>
       <c r="C144">
-        <v>769.63395869324211</v>
+        <v>756.72765534677274</v>
       </c>
       <c r="D144">
-        <v>885.54075503446006</v>
+        <v>810.3887091389397</v>
       </c>
       <c r="E144">
-        <v>835.70601238242273</v>
+        <v>107.625</v>
       </c>
       <c r="F144">
         <v>107.625</v>
@@ -4990,19 +4991,19 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>985.87441504254548</v>
+        <v>1008.0112580313305</v>
       </c>
       <c r="B145">
-        <v>954.13728784500915</v>
+        <v>974.5756725605878</v>
       </c>
       <c r="C145">
-        <v>775.7915717749197</v>
+        <v>762.76336702534695</v>
       </c>
       <c r="D145">
-        <v>892.24635503446007</v>
+        <v>817.23783844480852</v>
       </c>
       <c r="E145">
-        <v>842.66317933066568</v>
+        <v>107.625</v>
       </c>
       <c r="F145">
         <v>107.625</v>
@@ -5022,19 +5023,19 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>992.58001504254548</v>
+        <v>1014.7168580313305</v>
       </c>
       <c r="B146">
-        <v>960.84288784500916</v>
+        <v>981.28127256058781</v>
       </c>
       <c r="C146">
-        <v>781.9491848565973</v>
+        <v>768.79907870392117</v>
       </c>
       <c r="D146">
-        <v>898.95195503446007</v>
+        <v>824.08696775067733</v>
       </c>
       <c r="E146">
-        <v>849.62034627890864</v>
+        <v>107.625</v>
       </c>
       <c r="F146">
         <v>107.625</v>
@@ -5054,19 +5055,19 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>999.28561504254549</v>
+        <v>1021.4224580313305</v>
       </c>
       <c r="B147">
-        <v>967.54848784500916</v>
+        <v>987.98687256058781</v>
       </c>
       <c r="C147">
-        <v>788.10679793827489</v>
+        <v>774.83479038249538</v>
       </c>
       <c r="D147">
-        <v>905.65755503446007</v>
+        <v>830.93609705654615</v>
       </c>
       <c r="E147">
-        <v>856.5775132271516</v>
+        <v>107.625</v>
       </c>
       <c r="F147">
         <v>107.625</v>
@@ -5086,19 +5087,19 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1005.9912150425455</v>
+        <v>1028.1280580313305</v>
       </c>
       <c r="B148">
-        <v>974.25408784500917</v>
+        <v>994.69247256058782</v>
       </c>
       <c r="C148">
-        <v>794.26441101995249</v>
+        <v>780.8705020610696</v>
       </c>
       <c r="D148">
-        <v>912.36315503446008</v>
+        <v>837.78522636241496</v>
       </c>
       <c r="E148">
-        <v>863.53468017539456</v>
+        <v>107.625</v>
       </c>
       <c r="F148">
         <v>107.625</v>
@@ -5118,19 +5119,19 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1012.6968150425455</v>
+        <v>1034.8336580313305</v>
       </c>
       <c r="B149">
-        <v>980.95968784500917</v>
+        <v>1001.3980725605878</v>
       </c>
       <c r="C149">
-        <v>800.42202410163009</v>
+        <v>786.90621373964382</v>
       </c>
       <c r="D149">
-        <v>919.06875503446008</v>
+        <v>844.63435566828377</v>
       </c>
       <c r="E149">
-        <v>870.49184712363751</v>
+        <v>107.625</v>
       </c>
       <c r="F149">
         <v>107.625</v>
@@ -5150,19 +5151,19 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1019.4024150425455</v>
+        <v>1041.5392580313305</v>
       </c>
       <c r="B150">
-        <v>987.66528784500917</v>
+        <v>1008.1036725605878</v>
       </c>
       <c r="C150">
-        <v>806.57963718330768</v>
+        <v>792.94192541821803</v>
       </c>
       <c r="D150">
-        <v>925.77435503446009</v>
+        <v>851.48348497415259</v>
       </c>
       <c r="E150">
-        <v>877.44901407188047</v>
+        <v>107.625</v>
       </c>
       <c r="F150">
         <v>107.625</v>
@@ -5182,19 +5183,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1026.1080150425455</v>
+        <v>1048.2448580313305</v>
       </c>
       <c r="B151">
-        <v>994.37088784500918</v>
+        <v>1014.8092725605878</v>
       </c>
       <c r="C151">
-        <v>812.73725026498528</v>
+        <v>798.97763709679225</v>
       </c>
       <c r="D151">
-        <v>932.47995503446009</v>
+        <v>858.3326142800214</v>
       </c>
       <c r="E151">
-        <v>884.40618102012343</v>
+        <v>107.625</v>
       </c>
       <c r="F151">
         <v>107.625</v>
@@ -5214,19 +5215,19 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1032.8136150425455</v>
+        <v>1054.9504580313305</v>
       </c>
       <c r="B152">
-        <v>1001.0764878450092</v>
+        <v>1021.5148725605878</v>
       </c>
       <c r="C152">
-        <v>818.89486334666287</v>
+        <v>805.01334877536647</v>
       </c>
       <c r="D152">
-        <v>939.18555503446009</v>
+        <v>865.18174358589022</v>
       </c>
       <c r="E152">
-        <v>891.36334796836638</v>
+        <v>107.625</v>
       </c>
       <c r="F152">
         <v>107.625</v>
@@ -5246,19 +5247,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1039.5192150425455</v>
+        <v>1061.6560580313305</v>
       </c>
       <c r="B153">
-        <v>1007.7820878450092</v>
+        <v>1028.2204725605877</v>
       </c>
       <c r="C153">
-        <v>825.05247642834047</v>
+        <v>811.04906045394068</v>
       </c>
       <c r="D153">
-        <v>945.8911550344601</v>
+        <v>872.03087289175903</v>
       </c>
       <c r="E153">
-        <v>898.32051491660934</v>
+        <v>107.625</v>
       </c>
       <c r="F153">
         <v>107.625</v>
@@ -5278,19 +5279,19 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1046.2248150425455</v>
+        <v>1068.3616580313305</v>
       </c>
       <c r="B154">
-        <v>1014.4876878450092</v>
+        <v>1034.9260725605877</v>
       </c>
       <c r="C154">
-        <v>831.21008951001807</v>
+        <v>817.0847721325149</v>
       </c>
       <c r="D154">
-        <v>952.5967550344601</v>
+        <v>878.88000219762785</v>
       </c>
       <c r="E154">
-        <v>905.2776818648523</v>
+        <v>107.625</v>
       </c>
       <c r="F154">
         <v>107.625</v>
@@ -5310,19 +5311,19 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1052.9304150425455</v>
+        <v>1075.0672580313305</v>
       </c>
       <c r="B155">
-        <v>1021.1932878450092</v>
+        <v>1041.6316725605877</v>
       </c>
       <c r="C155">
-        <v>837.36770259169566</v>
+        <v>823.12048381108912</v>
       </c>
       <c r="D155">
-        <v>959.30235503446011</v>
+        <v>885.72913150349666</v>
       </c>
       <c r="E155">
-        <v>912.23484881309525</v>
+        <v>107.625</v>
       </c>
       <c r="F155">
         <v>107.625</v>
@@ -5342,19 +5343,19 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1059.6360150425455</v>
+        <v>1081.7728580313305</v>
       </c>
       <c r="B156">
-        <v>1027.8988878450091</v>
+        <v>1048.3372725605877</v>
       </c>
       <c r="C156">
-        <v>843.52531567337326</v>
+        <v>829.15619548966333</v>
       </c>
       <c r="D156">
-        <v>966.00795503446011</v>
+        <v>892.57826080936547</v>
       </c>
       <c r="E156">
-        <v>919.19201576133821</v>
+        <v>107.625</v>
       </c>
       <c r="F156">
         <v>107.625</v>
@@ -5374,19 +5375,19 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1066.3416150425455</v>
+        <v>1088.4784580313305</v>
       </c>
       <c r="B157">
-        <v>1034.6044878450091</v>
+        <v>1055.0428725605877</v>
       </c>
       <c r="C157">
-        <v>849.68292875505085</v>
+        <v>835.19190716823755</v>
       </c>
       <c r="D157">
-        <v>972.71355503446011</v>
+        <v>899.42739011523429</v>
       </c>
       <c r="E157">
-        <v>926.14918270958117</v>
+        <v>107.625</v>
       </c>
       <c r="F157">
         <v>107.625</v>
@@ -5406,19 +5407,19 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1073.0472150425455</v>
+        <v>1095.1840580313306</v>
       </c>
       <c r="B158">
-        <v>1041.3100878450091</v>
+        <v>1061.7484725605877</v>
       </c>
       <c r="C158">
-        <v>855.84054183672845</v>
+        <v>841.22761884681177</v>
       </c>
       <c r="D158">
-        <v>979.41915503446012</v>
+        <v>906.2765194211031</v>
       </c>
       <c r="E158">
-        <v>933.10634965782413</v>
+        <v>107.625</v>
       </c>
       <c r="F158">
         <v>107.625</v>
@@ -5438,19 +5439,19 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1079.7528150425455</v>
+        <v>1101.8896580313306</v>
       </c>
       <c r="B159">
-        <v>1048.0156878450091</v>
+        <v>1068.4540725605877</v>
       </c>
       <c r="C159">
-        <v>861.99815491840604</v>
+        <v>847.26333052538598</v>
       </c>
       <c r="D159">
-        <v>986.12475503446012</v>
+        <v>913.12564872697192</v>
       </c>
       <c r="E159">
-        <v>940.06351660606708</v>
+        <v>107.625</v>
       </c>
       <c r="F159">
         <v>107.625</v>
@@ -5470,19 +5471,19 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1086.4584150425455</v>
+        <v>1108.5952580313306</v>
       </c>
       <c r="B160">
-        <v>1054.7212878450091</v>
+        <v>1075.1596725605878</v>
       </c>
       <c r="C160">
-        <v>868.15576800008364</v>
+        <v>853.2990422039602</v>
       </c>
       <c r="D160">
-        <v>992.83035503446013</v>
+        <v>919.97477803284073</v>
       </c>
       <c r="E160">
-        <v>947.02068355431004</v>
+        <v>107.625</v>
       </c>
       <c r="F160">
         <v>107.625</v>
@@ -5506,7 +5507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8241,7 +8242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/xydata.xlsx
+++ b/xydata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\jakkalavanya1 GITHUB\MATLAB_MDV-CAVsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1C0BA7B-DF67-4F96-9A76-13A6CA1088DE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DB1FE25-0C44-42B6-926D-D13D37E5668A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9.5312169113715868</v>
+        <v>9.3115439969289042</v>
       </c>
       <c r="B21">
-        <v>9.3819506023751984</v>
+        <v>9.2334896323687872</v>
       </c>
       <c r="C21">
         <v>-14.887999999999973</v>
@@ -1038,7 +1038,7 @@
         <v>107.625</v>
       </c>
       <c r="F21">
-        <v>2.3454876505937996</v>
+        <v>2.3083724080921968</v>
       </c>
       <c r="G21">
         <v>107.625</v>
@@ -1055,28 +1055,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17.461225294095243</v>
+        <v>16.602819080228556</v>
       </c>
       <c r="B22">
-        <v>16.878509724276924</v>
+        <v>16.296444841648466</v>
       </c>
       <c r="C22">
-        <v>-8.6472219660359517</v>
+        <v>-8.9411991569598328</v>
       </c>
       <c r="D22">
-        <v>-48.647221966035922</v>
+        <v>-48.941199156959797</v>
       </c>
       <c r="E22">
         <v>107.625</v>
       </c>
       <c r="F22">
-        <v>4.219627431069231</v>
+        <v>4.0741112104121164</v>
       </c>
       <c r="G22">
         <v>107.625</v>
       </c>
       <c r="H22">
-        <v>-12.16180549150898</v>
+        <v>-12.235299789239949</v>
       </c>
       <c r="I22">
         <v>107.625</v>
@@ -1087,28 +1087,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26.146561616314472</v>
+        <v>24.26078988765147</v>
       </c>
       <c r="B23">
-        <v>24.867738336906626</v>
+        <v>23.584595093606353</v>
       </c>
       <c r="C23">
-        <v>-1.8996049269884523</v>
+        <v>-2.7638680037943057</v>
       </c>
       <c r="D23">
-        <v>-42.899604926988424</v>
+        <v>-43.763868003794272</v>
       </c>
       <c r="E23">
         <v>107.625</v>
       </c>
       <c r="F23">
-        <v>6.2169345842266566</v>
+        <v>5.8961487734015883</v>
       </c>
       <c r="G23">
         <v>107.625</v>
       </c>
       <c r="H23">
-        <v>-10.724901231747106</v>
+        <v>-10.940967000948568</v>
       </c>
       <c r="I23">
         <v>107.625</v>
@@ -1119,28 +1119,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>35.537362352049911</v>
+        <v>32.266021055658157</v>
       </c>
       <c r="B24">
-        <v>33.321297411132349</v>
+        <v>31.087269856819191</v>
       </c>
       <c r="C24">
-        <v>5.3265120882686467</v>
+        <v>3.6333229265156506</v>
       </c>
       <c r="D24">
-        <v>-36.673487911731328</v>
+        <v>-38.366677073484318</v>
       </c>
       <c r="E24">
         <v>107.625</v>
       </c>
       <c r="F24">
-        <v>8.3303243527830872</v>
+        <v>7.7718174642047977</v>
       </c>
       <c r="G24">
         <v>107.625</v>
       </c>
       <c r="H24">
-        <v>-9.1683719779328321</v>
+        <v>-9.5916692683710796</v>
       </c>
       <c r="I24">
         <v>107.625</v>
@@ -1151,28 +1151,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>45.5837639714332</v>
+        <v>40.599077223117263</v>
       </c>
       <c r="B25">
-        <v>42.210847919675473</v>
+        <v>38.793798598226871</v>
       </c>
       <c r="C25">
-        <v>12.179318340018602</v>
+        <v>10.856779271924728</v>
       </c>
       <c r="D25">
-        <v>-29.997209949159124</v>
+        <v>-32.76029689895298</v>
       </c>
       <c r="E25">
         <v>107.625</v>
       </c>
       <c r="F25">
-        <v>10.552711979918868</v>
+        <v>9.6984496495567178</v>
       </c>
       <c r="G25">
         <v>107.625</v>
       </c>
       <c r="H25">
-        <v>-7.4993024872897811</v>
+        <v>-8.190074224738245</v>
       </c>
       <c r="I25">
         <v>107.625</v>
@@ -1183,28 +1183,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>56.235902947543821</v>
+        <v>49.240523025829305</v>
       </c>
       <c r="B26">
-        <v>51.508050831062945</v>
+        <v>46.693510783463807</v>
       </c>
       <c r="C26">
-        <v>19.019624591768554</v>
+        <v>18.067735617333803</v>
       </c>
       <c r="D26">
-        <v>-22.899110068053446</v>
+        <v>-26.955398013114841</v>
       </c>
       <c r="E26">
         <v>107.625</v>
       </c>
       <c r="F26">
-        <v>12.877012707765736</v>
+        <v>11.673377695865952</v>
       </c>
       <c r="G26">
         <v>107.625</v>
       </c>
       <c r="H26">
-        <v>-5.7247775170133615</v>
+        <v>-6.7388495032787104</v>
       </c>
       <c r="I26">
         <v>107.625</v>
@@ -1215,28 +1215,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>67.443915750300619</v>
+        <v>58.170923103387764</v>
       </c>
       <c r="B27">
-        <v>61.184567115474465</v>
+        <v>54.775735882516742</v>
       </c>
       <c r="C27">
-        <v>25.847430843518509</v>
+        <v>25.266191962742877</v>
       </c>
       <c r="D27">
-        <v>-15.407527297324727</v>
+        <v>-20.962650948926324</v>
       </c>
       <c r="E27">
         <v>107.625</v>
       </c>
       <c r="F27">
-        <v>15.296141778868616</v>
+        <v>13.693933970629185</v>
       </c>
       <c r="G27">
         <v>107.625</v>
       </c>
       <c r="H27">
-        <v>-3.8518818243311816</v>
+        <v>-5.240662737231581</v>
       </c>
       <c r="I27">
         <v>107.625</v>
@@ -1247,28 +1247,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>79.157938852345637</v>
+        <v>67.370842087506418</v>
       </c>
       <c r="B28">
-        <v>71.212057747985341</v>
+        <v>63.02980335860866</v>
       </c>
       <c r="C28">
-        <v>32.662737095268461</v>
+        <v>32.452148308151955</v>
       </c>
       <c r="D28">
-        <v>-7.5508006659562739</v>
+        <v>-14.792726239306925</v>
       </c>
       <c r="E28">
         <v>107.625</v>
       </c>
       <c r="F28">
-        <v>17.803014436996335</v>
+        <v>15.757450839652165</v>
       </c>
       <c r="G28">
         <v>107.625</v>
       </c>
       <c r="H28">
-        <v>-1.8877001664890685</v>
+        <v>-3.6981815598267311</v>
       </c>
       <c r="I28">
         <v>107.625</v>
@@ -1279,28 +1279,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>91.328108727287599</v>
+        <v>76.820844619583283</v>
       </c>
       <c r="B29">
-        <v>81.562183698067088</v>
+        <v>71.445042683074576</v>
       </c>
       <c r="C29">
-        <v>39.465543347018418</v>
+        <v>39.625604653561034</v>
       </c>
       <c r="D29">
-        <v>0.64273079738357453</v>
+        <v>-8.4562944172661876</v>
       </c>
       <c r="E29">
         <v>107.625</v>
       </c>
       <c r="F29">
-        <v>20.390545924516772</v>
+        <v>17.861260670768644</v>
       </c>
       <c r="G29">
         <v>107.625</v>
       </c>
       <c r="H29">
-        <v>0.16068269934589363</v>
+        <v>-2.1140736043165469</v>
       </c>
       <c r="I29">
         <v>107.625</v>
@@ -1311,28 +1311,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>103.90456184366383</v>
+        <v>86.50149533653655</v>
       </c>
       <c r="B30">
-        <v>92.206605940080692</v>
+        <v>80.01078331730281</v>
       </c>
       <c r="C30">
-        <v>46.255849598768371</v>
+        <v>46.78656099897011</v>
       </c>
       <c r="D30">
-        <v>8.228878572696452</v>
+        <v>-1.9640260156100577</v>
       </c>
       <c r="E30">
         <v>107.625</v>
       </c>
       <c r="F30">
-        <v>23.051651485020173</v>
+        <v>20.002695829325702</v>
       </c>
       <c r="G30">
         <v>107.625</v>
       </c>
       <c r="H30">
-        <v>2.057219643174113</v>
+        <v>-0.49100650390251444</v>
       </c>
       <c r="I30">
         <v>107.625</v>
@@ -1343,28 +1343,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>116.83743467840452</v>
+        <v>96.393358873370346</v>
       </c>
       <c r="B31">
-        <v>103.11698544461967</v>
+        <v>88.716354733805758</v>
       </c>
       <c r="C31">
-        <v>53.033655850518322</v>
+        <v>53.935017344379183</v>
       </c>
       <c r="D31">
-        <v>15.802526348009328</v>
+        <v>4.6734084326446776</v>
       </c>
       <c r="E31">
         <v>107.625</v>
       </c>
       <c r="F31">
-        <v>25.779246361154918</v>
+        <v>22.17908868345144</v>
       </c>
       <c r="G31">
         <v>107.625</v>
       </c>
       <c r="H31">
-        <v>3.9506315870023321</v>
+        <v>1.1683521081611694</v>
       </c>
       <c r="I31">
         <v>107.625</v>
@@ -1375,28 +1375,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>130.07686369288911</v>
+        <v>106.47699987570905</v>
       </c>
       <c r="B32">
-        <v>114.26498317665778</v>
+        <v>97.551086394356076</v>
       </c>
       <c r="C32">
-        <v>59.798962102268277</v>
+        <v>61.070973689788261</v>
       </c>
       <c r="D32">
-        <v>23.363674123322205</v>
+        <v>11.569770065103539</v>
       </c>
       <c r="E32">
         <v>107.625</v>
       </c>
       <c r="F32">
-        <v>28.566245794164445</v>
+        <v>24.387771598589019</v>
       </c>
       <c r="G32">
         <v>107.625</v>
       </c>
       <c r="H32">
-        <v>5.8409185308305513</v>
+        <v>2.8924425162758847</v>
       </c>
       <c r="I32">
         <v>107.625</v>
@@ -1407,28 +1407,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>143.57298535773384</v>
+        <v>116.73298297308554</v>
       </c>
       <c r="B33">
-        <v>125.62226012603736</v>
+        <v>106.50430777430998</v>
       </c>
       <c r="C33">
-        <v>66.551768354018236</v>
+        <v>68.194430035197342</v>
       </c>
       <c r="D33">
-        <v>30.912321898635081</v>
+        <v>18.4536316975624</v>
       </c>
       <c r="E33">
         <v>107.625</v>
       </c>
       <c r="F33">
-        <v>31.40556503150934</v>
+        <v>26.626076943577495</v>
       </c>
       <c r="G33">
         <v>107.625</v>
       </c>
       <c r="H33">
-        <v>7.7280804746587703</v>
+        <v>4.6134079243906001</v>
       </c>
       <c r="I33">
         <v>107.625</v>
@@ -1439,28 +1439,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>157.27593614959687</v>
+        <v>127.14187281044033</v>
       </c>
       <c r="B34">
-        <v>137.16047724008649</v>
+        <v>115.56534833561335</v>
       </c>
       <c r="C34">
-        <v>73.292074605768192</v>
+        <v>75.305386380606421</v>
       </c>
       <c r="D34">
-        <v>38.448469673947955</v>
+        <v>25.324993330021261</v>
       </c>
       <c r="E34">
         <v>107.625</v>
       </c>
       <c r="F34">
-        <v>34.290119310021623</v>
+        <v>28.891337083903338</v>
       </c>
       <c r="G34">
         <v>107.625</v>
       </c>
       <c r="H34">
-        <v>9.6121174184869886</v>
+        <v>6.3312483325053153</v>
       </c>
       <c r="I34">
         <v>107.625</v>
@@ -1471,28 +1471,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>171.13585251784764</v>
+        <v>137.68423401679848</v>
       </c>
       <c r="B35">
-        <v>148.85129548309192</v>
+        <v>124.72353753834071</v>
       </c>
       <c r="C35">
-        <v>80.01988085751816</v>
+        <v>82.403842726015498</v>
       </c>
       <c r="D35">
-        <v>45.972117449260828</v>
+        <v>32.183854962480119</v>
       </c>
       <c r="E35">
         <v>107.625</v>
       </c>
       <c r="F35">
-        <v>37.212823870772979</v>
+        <v>31.180884384585177</v>
       </c>
       <c r="G35">
         <v>107.625</v>
       </c>
       <c r="H35">
-        <v>11.493029362315207</v>
+        <v>8.0459637406200297</v>
       </c>
       <c r="I35">
         <v>107.625</v>
@@ -1503,28 +1503,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>185.10287097855996</v>
+        <v>148.34063122157733</v>
       </c>
       <c r="B36">
-        <v>160.6663758462675</v>
+        <v>133.96820485777997</v>
       </c>
       <c r="C36">
-        <v>86.735187109268125</v>
+        <v>89.489799071424585</v>
       </c>
       <c r="D36">
-        <v>53.483265224573707</v>
+        <v>39.030216594938977</v>
       </c>
       <c r="E36">
         <v>107.625</v>
       </c>
       <c r="F36">
-        <v>40.166593961566875</v>
+        <v>33.492051214444992</v>
       </c>
       <c r="G36">
         <v>107.625</v>
       </c>
       <c r="H36">
-        <v>13.370816306143427</v>
+        <v>9.7575541487347444</v>
       </c>
       <c r="I36">
         <v>107.625</v>
@@ -1535,28 +1535,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>199.12712796263793</v>
+        <v>159.09162907817421</v>
       </c>
       <c r="B37">
-        <v>172.57737931139343</v>
+        <v>143.2886797574325</v>
       </c>
       <c r="C37">
-        <v>93.437993361018087</v>
+        <v>96.56325541683367</v>
       </c>
       <c r="D37">
-        <v>60.981912999886582</v>
+        <v>45.864078227397833</v>
       </c>
       <c r="E37">
         <v>107.625</v>
       </c>
       <c r="F37">
-        <v>43.144344827848357</v>
+        <v>35.822169939358126</v>
       </c>
       <c r="G37">
         <v>107.625</v>
       </c>
       <c r="H37">
-        <v>15.245478249971645</v>
+        <v>11.466019556849458</v>
       </c>
       <c r="I37">
         <v>107.625</v>
@@ -1567,28 +1567,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>213.15875992940084</v>
+        <v>169.91779219010539</v>
       </c>
       <c r="B38">
-        <v>184.55596680321253</v>
+        <v>152.67429171448256</v>
       </c>
       <c r="C38">
-        <v>100.12829961276805</v>
+        <v>103.62421176224275</v>
       </c>
       <c r="D38">
-        <v>68.468060775199461</v>
+        <v>52.685439859856693</v>
       </c>
       <c r="E38">
         <v>107.625</v>
       </c>
       <c r="F38">
-        <v>46.138991700803132</v>
+        <v>38.168572928620641</v>
       </c>
       <c r="G38">
         <v>107.625</v>
       </c>
       <c r="H38">
-        <v>17.117015193799865</v>
+        <v>13.171359964964173</v>
       </c>
       <c r="I38">
         <v>107.625</v>
@@ -1599,28 +1599,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>227.14790349142868</v>
+        <v>180.79968523413226</v>
       </c>
       <c r="B39">
-        <v>196.57379935956988</v>
+        <v>162.11437021090521</v>
       </c>
       <c r="C39">
-        <v>106.806105864518</v>
+        <v>110.67266810765183</v>
       </c>
       <c r="D39">
-        <v>75.941708550512345</v>
+        <v>59.49430149231555</v>
       </c>
       <c r="E39">
         <v>107.625</v>
       </c>
       <c r="F39">
-        <v>49.143449839892469</v>
+        <v>40.528592552726302</v>
       </c>
       <c r="G39">
         <v>107.625</v>
       </c>
       <c r="H39">
-        <v>18.985427137628086</v>
+        <v>14.873575373078888</v>
       </c>
       <c r="I39">
         <v>107.625</v>
@@ -1631,28 +1631,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>241.04469499507479</v>
+        <v>191.71787285227276</v>
       </c>
       <c r="B40">
-        <v>208.60253793362028</v>
+        <v>171.59824464846395</v>
       </c>
       <c r="C40">
-        <v>113.47141211626797</v>
+        <v>117.70862445306091</v>
       </c>
       <c r="D40">
-        <v>83.402856325825226</v>
+        <v>66.290663124774412</v>
       </c>
       <c r="E40">
         <v>107.625</v>
       </c>
       <c r="F40">
-        <v>52.150634483405071</v>
+        <v>42.899561162115987</v>
       </c>
       <c r="G40">
         <v>107.625</v>
       </c>
       <c r="H40">
-        <v>20.850714081456307</v>
+        <v>16.572665781193603</v>
       </c>
       <c r="I40">
         <v>107.625</v>
@@ -1663,28 +1663,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>254.79927083366624</v>
+        <v>202.65291964292129</v>
       </c>
       <c r="B41">
-        <v>220.61384340383739</v>
+        <v>181.11524453523515</v>
       </c>
       <c r="C41">
-        <v>120.12421836801794</v>
+        <v>124.73208079846999</v>
       </c>
       <c r="D41">
-        <v>90.851504101138104</v>
+        <v>73.074524757233277</v>
       </c>
       <c r="E41">
         <v>107.625</v>
       </c>
       <c r="F41">
-        <v>55.153460850959348</v>
+        <v>45.278811133808787</v>
       </c>
       <c r="G41">
         <v>107.625</v>
       </c>
       <c r="H41">
-        <v>22.712876025284526</v>
+        <v>18.268631189308319</v>
       </c>
       <c r="I41">
         <v>107.625</v>
@@ -1695,28 +1695,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>268.3617675295958</v>
+        <v>213.58539027520439</v>
       </c>
       <c r="B42">
-        <v>232.57937696909073</v>
+        <v>190.65469934511577</v>
       </c>
       <c r="C42">
-        <v>126.7645246197679</v>
+        <v>131.74303714387906</v>
       </c>
       <c r="D42">
-        <v>98.28765187645098</v>
+        <v>79.84588638969214</v>
       </c>
       <c r="E42">
         <v>107.625</v>
       </c>
       <c r="F42">
-        <v>58.144844242272683</v>
+        <v>47.663674836278943</v>
       </c>
       <c r="G42">
         <v>107.625</v>
       </c>
       <c r="H42">
-        <v>24.571912969112745</v>
+        <v>19.961471597423035</v>
       </c>
       <c r="I42">
         <v>107.625</v>
@@ -1727,28 +1727,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>281.68232159918193</v>
+        <v>224.49584939101339</v>
       </c>
       <c r="B43">
-        <v>244.4707993487998</v>
+        <v>200.205938566746</v>
       </c>
       <c r="C43">
-        <v>133.39233087151786</v>
+        <v>138.74149348928816</v>
       </c>
       <c r="D43">
-        <v>105.71129965176387</v>
+        <v>86.604748022151</v>
       </c>
       <c r="E43">
         <v>107.625</v>
       </c>
       <c r="F43">
-        <v>61.11769983719995</v>
+        <v>50.0514846416865</v>
       </c>
       <c r="G43">
         <v>107.625</v>
       </c>
       <c r="H43">
-        <v>26.427824912940967</v>
+        <v>21.65118700553775</v>
       </c>
       <c r="I43">
         <v>107.625</v>
@@ -1759,28 +1759,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>294.71107033599878</v>
+        <v>235.36486152328376</v>
       </c>
       <c r="B44">
-        <v>256.25977141886176</v>
+        <v>209.75829160346126</v>
       </c>
       <c r="C44">
-        <v>140.00763712326781</v>
+        <v>145.72744983469724</v>
       </c>
       <c r="D44">
-        <v>113.12244742707675</v>
+        <v>93.351109654609871</v>
       </c>
       <c r="E44">
         <v>107.625</v>
       </c>
       <c r="F44">
-        <v>64.06494285471544</v>
+        <v>52.439572900865315</v>
       </c>
       <c r="G44">
         <v>107.625</v>
       </c>
       <c r="H44">
-        <v>28.280611856769188</v>
+        <v>23.337777413652468</v>
       </c>
       <c r="I44">
         <v>107.625</v>
@@ -1791,28 +1791,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>307.39815070068062</v>
+        <v>246.17299144780156</v>
       </c>
       <c r="B45">
-        <v>267.91795444023677</v>
+        <v>219.30108800320585</v>
       </c>
       <c r="C45">
-        <v>146.61044337501778</v>
+        <v>152.70090618010633</v>
       </c>
       <c r="D45">
-        <v>120.52109520238963</v>
+        <v>100.08497128706874</v>
       </c>
       <c r="E45">
         <v>107.625</v>
       </c>
       <c r="F45">
-        <v>66.979488610059192</v>
+        <v>54.825272000801462</v>
       </c>
       <c r="G45">
         <v>107.625</v>
       </c>
       <c r="H45">
-        <v>30.130273800597408</v>
+        <v>25.021242821767185</v>
       </c>
       <c r="I45">
         <v>107.625</v>
@@ -1823,28 +1823,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>319.6936959926411</v>
+        <v>256.90080378502182</v>
       </c>
       <c r="B46">
-        <v>279.41700923584369</v>
+        <v>228.82365722061047</v>
       </c>
       <c r="C46">
-        <v>153.20074962676773</v>
+        <v>159.6618625255154</v>
       </c>
       <c r="D46">
-        <v>127.90724297770251</v>
+        <v>106.80633291952761</v>
       </c>
       <c r="E46">
         <v>107.625</v>
       </c>
       <c r="F46">
-        <v>69.854252308960923</v>
+        <v>57.205914305152618</v>
       </c>
       <c r="G46">
         <v>107.625</v>
       </c>
       <c r="H46">
-        <v>31.976810744425627</v>
+        <v>26.701583229881901</v>
       </c>
       <c r="I46">
         <v>107.625</v>
@@ -1855,28 +1855,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>331.54784088877398</v>
+        <v>267.52886337581299</v>
       </c>
       <c r="B47">
-        <v>290.72859729702145</v>
+        <v>238.315328769345</v>
       </c>
       <c r="C47">
-        <v>159.77855587851769</v>
+        <v>166.61031887092449</v>
       </c>
       <c r="D47">
-        <v>135.2808907530154</v>
+        <v>113.51519455198647</v>
       </c>
       <c r="E47">
         <v>107.625</v>
       </c>
       <c r="F47">
-        <v>72.682149324255363</v>
+        <v>59.57883219233625</v>
       </c>
       <c r="G47">
         <v>107.625</v>
       </c>
       <c r="H47">
-        <v>33.82022268825385</v>
+        <v>28.378798637996617</v>
       </c>
       <c r="I47">
         <v>107.625</v>
@@ -1887,28 +1887,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>342.91073799225114</v>
+        <v>278.03773509143434</v>
       </c>
       <c r="B48">
-        <v>301.82437950158931</v>
+        <v>247.7654319169942</v>
       </c>
       <c r="C48">
-        <v>166.34386213026767</v>
+        <v>173.54627521633356</v>
       </c>
       <c r="D48">
-        <v>142.64203852832827</v>
+        <v>120.21155618444533</v>
       </c>
       <c r="E48">
         <v>107.625</v>
       </c>
       <c r="F48">
-        <v>75.456094875397326</v>
+        <v>61.941357979248551</v>
       </c>
       <c r="G48">
         <v>107.625</v>
       </c>
       <c r="H48">
-        <v>35.660509632082068</v>
+        <v>30.052889046111332</v>
       </c>
       <c r="I48">
         <v>107.625</v>
@@ -1919,28 +1919,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>353.73250958011113</v>
+        <v>288.4079820763734</v>
       </c>
       <c r="B49">
-        <v>312.67601597244163</v>
+        <v>257.16329612769948</v>
       </c>
       <c r="C49">
-        <v>172.89666838201762</v>
+        <v>180.46973156174263</v>
       </c>
       <c r="D49">
-        <v>149.99068630364116</v>
+        <v>126.8954178169042</v>
       </c>
       <c r="E49">
         <v>107.625</v>
       </c>
       <c r="F49">
-        <v>78.169003993110408</v>
+        <v>64.29082403192487</v>
       </c>
       <c r="G49">
         <v>107.625</v>
       </c>
       <c r="H49">
-        <v>37.497671575910289</v>
+        <v>31.72385445422605</v>
       </c>
       <c r="I49">
         <v>107.625</v>
@@ -1951,28 +1951,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>363.96328498203388</v>
+        <v>298.62017070098159</v>
       </c>
       <c r="B50">
-        <v>323.25516895387523</v>
+        <v>266.49825071222364</v>
       </c>
       <c r="C50">
-        <v>179.43697463376759</v>
+        <v>187.38068790715172</v>
       </c>
       <c r="D50">
-        <v>157.32683407895405</v>
+        <v>133.56677944936305</v>
       </c>
       <c r="E50">
         <v>107.625</v>
       </c>
       <c r="F50">
-        <v>80.813792238468807</v>
+        <v>66.624562678055909</v>
       </c>
       <c r="G50">
         <v>107.625</v>
       </c>
       <c r="H50">
-        <v>39.331708519738513</v>
+        <v>33.391694862340763</v>
       </c>
       <c r="I50">
         <v>107.625</v>
@@ -1983,28 +1983,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>373.55305588217175</v>
+        <v>308.6548642212569</v>
       </c>
       <c r="B51">
-        <v>333.53349570842977</v>
+        <v>275.75962575381959</v>
       </c>
       <c r="C51">
-        <v>185.96478088551754</v>
+        <v>194.2791442525608</v>
       </c>
       <c r="D51">
-        <v>164.65048185426693</v>
+        <v>140.22564108182192</v>
       </c>
       <c r="E51">
         <v>107.625</v>
       </c>
       <c r="F51">
-        <v>83.383373927107442</v>
+        <v>68.939906438454898</v>
       </c>
       <c r="G51">
         <v>107.625</v>
       </c>
       <c r="H51">
-        <v>41.162620463566732</v>
+        <v>35.05641027045548</v>
       </c>
       <c r="I51">
         <v>107.625</v>
@@ -2015,28 +2015,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>382.45504343943401</v>
+        <v>318.4926308316501</v>
       </c>
       <c r="B52">
-        <v>343.482650122172</v>
+        <v>284.93675076045031</v>
       </c>
       <c r="C52">
-        <v>192.4800871372675</v>
+        <v>201.16510059796988</v>
       </c>
       <c r="D52">
-        <v>171.96162962957982</v>
+        <v>146.8720027142808</v>
       </c>
       <c r="E52">
         <v>107.625</v>
       </c>
       <c r="F52">
-        <v>85.870662530543001</v>
+        <v>71.234187690112577</v>
       </c>
       <c r="G52">
         <v>107.625</v>
       </c>
       <c r="H52">
-        <v>42.990407407394954</v>
+        <v>36.718000678570199</v>
       </c>
       <c r="I52">
         <v>107.625</v>
@@ -2047,28 +2047,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>390.61198133707404</v>
+        <v>328.11402835229308</v>
       </c>
       <c r="B53">
-        <v>353.07430321719391</v>
+        <v>294.01895515273588</v>
       </c>
       <c r="C53">
-        <v>198.98289338901748</v>
+        <v>208.03855694337895</v>
       </c>
       <c r="D53">
-        <v>179.26027740489269</v>
+        <v>153.50586434673966</v>
       </c>
       <c r="E53">
         <v>107.625</v>
       </c>
       <c r="F53">
-        <v>88.268575804298479</v>
+        <v>73.504738788183971</v>
       </c>
       <c r="G53">
         <v>107.625</v>
       </c>
       <c r="H53">
-        <v>44.815069351223173</v>
+        <v>38.376466086684914</v>
       </c>
       <c r="I53">
         <v>107.625</v>
@@ -2079,28 +2079,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>397.97712406268425</v>
+        <v>337.4996284038416</v>
       </c>
       <c r="B54">
-        <v>362.28010937265799</v>
+        <v>302.99556674565105</v>
       </c>
       <c r="C54">
-        <v>205.47319964076743</v>
+        <v>214.89951328878803</v>
       </c>
       <c r="D54">
-        <v>186.54642518020557</v>
+        <v>160.12722597919853</v>
       </c>
       <c r="E54">
         <v>107.625</v>
       </c>
       <c r="F54">
-        <v>90.570027343164497</v>
+        <v>75.748891686412762</v>
       </c>
       <c r="G54">
         <v>107.625</v>
       </c>
       <c r="H54">
-        <v>46.636606295051394</v>
+        <v>40.031806494799632</v>
       </c>
       <c r="I54">
         <v>107.625</v>
@@ -2111,28 +2111,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>404.5072580313302</v>
+        <v>346.6299998309504</v>
       </c>
       <c r="B55">
-        <v>371.07167256058744</v>
+        <v>311.85591562594988</v>
       </c>
       <c r="C55">
-        <v>211.9510058925174</v>
+        <v>221.74796963419712</v>
       </c>
       <c r="D55">
-        <v>193.82007295551847</v>
+        <v>166.73608761165738</v>
       </c>
       <c r="E55">
         <v>107.625</v>
       </c>
       <c r="F55">
-        <v>92.767918140146861</v>
+        <v>77.963978906487469</v>
       </c>
       <c r="G55">
         <v>107.625</v>
       </c>
       <c r="H55">
-        <v>48.455018238879617</v>
+        <v>41.684021902914346</v>
       </c>
       <c r="I55">
         <v>107.625</v>
@@ -2143,28 +2143,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>411.2128580313302</v>
+        <v>355.48569847900376</v>
       </c>
       <c r="B56">
-        <v>377.77727256058745</v>
+        <v>320.58933053852712</v>
       </c>
       <c r="C56">
-        <v>218.41631214426735</v>
+        <v>228.58392597960619</v>
       </c>
       <c r="D56">
-        <v>201.08122073083135</v>
+        <v>173.33244924411625</v>
       </c>
       <c r="E56">
         <v>107.625</v>
       </c>
       <c r="F56">
-        <v>94.444318140146862</v>
+        <v>80.14733263463178</v>
       </c>
       <c r="G56">
         <v>107.625</v>
       </c>
       <c r="H56">
-        <v>50.270305182707837</v>
+        <v>43.333112311029062</v>
       </c>
       <c r="I56">
         <v>107.625</v>
@@ -2175,28 +2175,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>417.9184580313302</v>
+        <v>364.04732493389179</v>
       </c>
       <c r="B57">
-        <v>384.48287256058745</v>
+        <v>329.18514506597188</v>
       </c>
       <c r="C57">
-        <v>224.86911839601731</v>
+        <v>235.40738232501528</v>
       </c>
       <c r="D57">
-        <v>208.32986850614424</v>
+        <v>179.91631087657512</v>
       </c>
       <c r="E57">
         <v>107.625</v>
       </c>
       <c r="F57">
-        <v>96.120718140146863</v>
+        <v>82.29628626649297</v>
       </c>
       <c r="G57">
         <v>107.625</v>
       </c>
       <c r="H57">
-        <v>52.082467126536059</v>
+        <v>44.979077719143781</v>
       </c>
       <c r="I57">
         <v>107.625</v>
@@ -2207,28 +2207,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>424.62405803133021</v>
+        <v>372.29404082717116</v>
       </c>
       <c r="B58">
-        <v>391.18847256058746</v>
+        <v>337.63268113593324</v>
       </c>
       <c r="C58">
-        <v>231.30942464776729</v>
+        <v>242.21833867042434</v>
       </c>
       <c r="D58">
-        <v>215.56601628145711</v>
+        <v>186.48767250903398</v>
       </c>
       <c r="E58">
         <v>107.625</v>
       </c>
       <c r="F58">
-        <v>97.797118140146864</v>
+        <v>84.40817028398331</v>
       </c>
       <c r="G58">
         <v>107.625</v>
       </c>
       <c r="H58">
-        <v>53.891504070364277</v>
+        <v>46.621918127258496</v>
       </c>
       <c r="I58">
         <v>107.625</v>
@@ -2239,28 +2239,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>431.32965803133021</v>
+        <v>380.20904380677484</v>
       </c>
       <c r="B59">
-        <v>397.89407256058746</v>
+        <v>345.92126745246208</v>
       </c>
       <c r="C59">
-        <v>237.73723089951724</v>
+        <v>249.01679501583342</v>
       </c>
       <c r="D59">
-        <v>222.78966405676999</v>
+        <v>193.04653414149286</v>
       </c>
       <c r="E59">
         <v>107.625</v>
       </c>
       <c r="F59">
-        <v>99.473518140146865</v>
+        <v>86.480316863115519</v>
       </c>
       <c r="G59">
         <v>107.625</v>
       </c>
       <c r="H59">
-        <v>55.697416014192498</v>
+        <v>48.261633535373214</v>
       </c>
       <c r="I59">
         <v>107.625</v>
@@ -2271,28 +2271,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>438.03525803133022</v>
+        <v>387.77231111642197</v>
       </c>
       <c r="B60">
-        <v>404.59967256058746</v>
+        <v>354.04023684858879</v>
       </c>
       <c r="C60">
-        <v>244.15253715126721</v>
+        <v>255.80275136124251</v>
       </c>
       <c r="D60">
-        <v>230.00081183208289</v>
+        <v>199.59289577395171</v>
       </c>
       <c r="E60">
         <v>107.625</v>
       </c>
       <c r="F60">
-        <v>101.14991814014687</v>
+        <v>88.510059212147198</v>
       </c>
       <c r="G60">
         <v>107.625</v>
       </c>
       <c r="H60">
-        <v>57.500202958020722</v>
+        <v>49.898223943487928</v>
       </c>
       <c r="I60">
         <v>107.625</v>
@@ -2303,28 +2303,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>444.74085803133022</v>
+        <v>394.96399708988173</v>
       </c>
       <c r="B61">
-        <v>411.30527256058747</v>
+        <v>361.97898091417551</v>
       </c>
       <c r="C61">
-        <v>250.55534340301716</v>
+        <v>262.57620770665159</v>
       </c>
       <c r="D61">
-        <v>237.19945960739577</v>
+        <v>206.12675740641058</v>
       </c>
       <c r="E61">
         <v>107.625</v>
       </c>
       <c r="F61">
-        <v>102.82631814014687</v>
+        <v>90.494745228543877</v>
       </c>
       <c r="G61">
         <v>107.625</v>
       </c>
       <c r="H61">
-        <v>59.299864901848942</v>
+        <v>51.531689351602644</v>
       </c>
       <c r="I61">
         <v>107.625</v>
@@ -2335,28 +2335,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>451.44645803133022</v>
+        <v>401.76364072493135</v>
       </c>
       <c r="B62">
-        <v>418.01087256058747</v>
+        <v>369.72275317845106</v>
       </c>
       <c r="C62">
-        <v>256.94564965476707</v>
+        <v>269.33716405206064</v>
       </c>
       <c r="D62">
-        <v>244.38560738270866</v>
+        <v>212.64811903886945</v>
       </c>
       <c r="E62">
         <v>107.625</v>
       </c>
       <c r="F62">
-        <v>104.50271814014687</v>
+        <v>92.430688294612764</v>
       </c>
       <c r="G62">
         <v>107.625</v>
       </c>
       <c r="H62">
-        <v>61.096401845677164</v>
+        <v>53.162029759717363</v>
       </c>
       <c r="I62">
         <v>107.625</v>
@@ -2367,28 +2367,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>458.15205803133023</v>
+        <v>408.46924072493135</v>
       </c>
       <c r="B63">
-        <v>424.71647256058748</v>
+        <v>377.26828053790331</v>
       </c>
       <c r="C63">
-        <v>263.32345590651698</v>
+        <v>276.08562039746971</v>
       </c>
       <c r="D63">
-        <v>251.55925515802153</v>
+        <v>219.15698067132831</v>
       </c>
       <c r="E63">
         <v>107.625</v>
       </c>
       <c r="F63">
-        <v>106.17911814014687</v>
+        <v>94.317070134475827</v>
       </c>
       <c r="G63">
         <v>107.625</v>
       </c>
       <c r="H63">
-        <v>62.889813789505382</v>
+        <v>54.789245167832078</v>
       </c>
       <c r="I63">
         <v>107.625</v>
@@ -2399,28 +2399,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>464.85765803133023</v>
+        <v>415.17484072493136</v>
       </c>
       <c r="B64">
-        <v>431.42207256058748</v>
+        <v>383.97388053790331</v>
       </c>
       <c r="C64">
-        <v>269.68876215826691</v>
+        <v>282.82157674287879</v>
       </c>
       <c r="D64">
-        <v>258.72040293333436</v>
+        <v>225.65334230378718</v>
       </c>
       <c r="E64">
         <v>107.625</v>
       </c>
       <c r="F64">
-        <v>107.625</v>
+        <v>95.993470134475828</v>
       </c>
       <c r="G64">
         <v>107.625</v>
       </c>
       <c r="H64">
-        <v>64.680100733333589</v>
+        <v>56.413335575946796</v>
       </c>
       <c r="I64">
         <v>107.625</v>
@@ -2431,28 +2431,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>471.56325803133024</v>
+        <v>421.88044072493136</v>
       </c>
       <c r="B65">
-        <v>438.12767256058748</v>
+        <v>390.67948053790332</v>
       </c>
       <c r="C65">
-        <v>276.04156841001685</v>
+        <v>289.54503308828782</v>
       </c>
       <c r="D65">
-        <v>265.86905070864719</v>
+        <v>232.13720393624604</v>
       </c>
       <c r="E65">
         <v>107.625</v>
       </c>
       <c r="F65">
-        <v>107.625</v>
+        <v>97.669870134475829</v>
       </c>
       <c r="G65">
         <v>107.625</v>
       </c>
       <c r="H65">
-        <v>66.467262677161798</v>
+        <v>58.03430098406151</v>
       </c>
       <c r="I65">
         <v>107.625</v>
@@ -2463,28 +2463,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>478.26885803133024</v>
+        <v>428.58604072493137</v>
       </c>
       <c r="B66">
-        <v>444.83327256058749</v>
+        <v>397.38508053790332</v>
       </c>
       <c r="C66">
-        <v>282.3818746617668</v>
+        <v>296.25598943369687</v>
       </c>
       <c r="D66">
-        <v>273.00519848396004</v>
+        <v>238.6085655687049</v>
       </c>
       <c r="E66">
         <v>107.625</v>
       </c>
       <c r="F66">
-        <v>107.625</v>
+        <v>99.34627013447583</v>
       </c>
       <c r="G66">
         <v>107.625</v>
       </c>
       <c r="H66">
-        <v>68.251299620990011</v>
+        <v>59.652141392176226</v>
       </c>
       <c r="I66">
         <v>107.625</v>
@@ -2495,28 +2495,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>484.97445803133024</v>
+        <v>435.29164072493137</v>
       </c>
       <c r="B67">
-        <v>451.53887256058749</v>
+        <v>404.09068053790332</v>
       </c>
       <c r="C67">
-        <v>288.70968091351671</v>
+        <v>302.95444577910592</v>
       </c>
       <c r="D67">
-        <v>280.1288462592729</v>
+        <v>245.06742720116378</v>
       </c>
       <c r="E67">
         <v>107.625</v>
       </c>
       <c r="F67">
-        <v>107.625</v>
+        <v>101.02267013447583</v>
       </c>
       <c r="G67">
         <v>107.625</v>
       </c>
       <c r="H67">
-        <v>70.032211564818226</v>
+        <v>61.266856800290945</v>
       </c>
       <c r="I67">
         <v>107.625</v>
@@ -2527,28 +2527,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>491.68005803133025</v>
+        <v>441.99724072493137</v>
       </c>
       <c r="B68">
-        <v>458.2444725605875</v>
+        <v>410.79628053790333</v>
       </c>
       <c r="C68">
-        <v>295.02498716526662</v>
+        <v>309.64040212451499</v>
       </c>
       <c r="D68">
-        <v>287.23999403458578</v>
+        <v>251.51378883362264</v>
       </c>
       <c r="E68">
         <v>107.625</v>
       </c>
       <c r="F68">
-        <v>107.625</v>
+        <v>102.69907013447583</v>
       </c>
       <c r="G68">
         <v>107.625</v>
       </c>
       <c r="H68">
-        <v>71.809998508646444</v>
+        <v>62.87844720840566</v>
       </c>
       <c r="I68">
         <v>107.625</v>
@@ -2559,28 +2559,28 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>498.38565803133025</v>
+        <v>448.70284072493138</v>
       </c>
       <c r="B69">
-        <v>464.9500725605875</v>
+        <v>417.50188053790333</v>
       </c>
       <c r="C69">
-        <v>301.32779341701655</v>
+        <v>316.31385846992407</v>
       </c>
       <c r="D69">
-        <v>294.3386418098986</v>
+        <v>257.94765046608148</v>
       </c>
       <c r="E69">
         <v>107.625</v>
       </c>
       <c r="F69">
-        <v>107.625</v>
+        <v>104.37547013447583</v>
       </c>
       <c r="G69">
         <v>107.625</v>
       </c>
       <c r="H69">
-        <v>73.584660452474651</v>
+        <v>64.486912616520371</v>
       </c>
       <c r="I69">
         <v>107.625</v>
@@ -2591,28 +2591,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>505.09125803133026</v>
+        <v>455.40844072493138</v>
       </c>
       <c r="B70">
-        <v>471.6556725605875</v>
+        <v>424.20748053790334</v>
       </c>
       <c r="C70">
-        <v>307.61809966876649</v>
+        <v>322.9748148153331</v>
       </c>
       <c r="D70">
-        <v>301.42478958521144</v>
+        <v>264.36901209854034</v>
       </c>
       <c r="E70">
         <v>107.625</v>
       </c>
       <c r="F70">
-        <v>107.625</v>
+        <v>106.05187013447583</v>
       </c>
       <c r="G70">
         <v>107.625</v>
       </c>
       <c r="H70">
-        <v>75.356197396302861</v>
+        <v>66.092253024635085</v>
       </c>
       <c r="I70">
         <v>107.625</v>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>511.79685803133026</v>
+        <v>462.11404072493139</v>
       </c>
       <c r="B71">
-        <v>478.36127256058751</v>
+        <v>430.91308053790334</v>
       </c>
       <c r="C71">
-        <v>313.89590592051644</v>
+        <v>329.62327116074215</v>
       </c>
       <c r="D71">
-        <v>308.49843736052429</v>
+        <v>270.7778737309992</v>
       </c>
       <c r="E71">
         <v>107.625</v>
@@ -2644,7 +2644,7 @@
         <v>107.625</v>
       </c>
       <c r="H71">
-        <v>77.124609340131073</v>
+        <v>67.694468432749801</v>
       </c>
       <c r="I71">
         <v>107.625</v>
@@ -2655,16 +2655,16 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>518.50245803133021</v>
+        <v>468.81964072493139</v>
       </c>
       <c r="B72">
-        <v>485.06687256058751</v>
+        <v>437.61868053790334</v>
       </c>
       <c r="C72">
-        <v>320.16121217226635</v>
+        <v>336.25922750615121</v>
       </c>
       <c r="D72">
-        <v>315.55958513583715</v>
+        <v>277.17423536345802</v>
       </c>
       <c r="E72">
         <v>107.625</v>
@@ -2676,7 +2676,7 @@
         <v>107.625</v>
       </c>
       <c r="H72">
-        <v>78.889896283959288</v>
+        <v>69.293558840864506</v>
       </c>
       <c r="I72">
         <v>107.625</v>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>525.20805803133021</v>
+        <v>475.52524072493139</v>
       </c>
       <c r="B73">
-        <v>491.77247256058752</v>
+        <v>444.32428053790335</v>
       </c>
       <c r="C73">
-        <v>326.41401842401626</v>
+        <v>342.88268385156027</v>
       </c>
       <c r="D73">
-        <v>322.60823291115003</v>
+        <v>283.55809699591686</v>
       </c>
       <c r="E73">
         <v>107.625</v>
@@ -2708,7 +2708,7 @@
         <v>107.625</v>
       </c>
       <c r="H73">
-        <v>80.652058227787506</v>
+        <v>70.889524248979214</v>
       </c>
       <c r="I73">
         <v>107.625</v>
@@ -2719,16 +2719,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>531.91365803133021</v>
+        <v>482.2308407249314</v>
       </c>
       <c r="B74">
-        <v>498.47807256058752</v>
+        <v>451.02988053790335</v>
       </c>
       <c r="C74">
-        <v>332.65432467576619</v>
+        <v>349.49364019696935</v>
       </c>
       <c r="D74">
-        <v>329.64438068646285</v>
+        <v>289.9294586283757</v>
       </c>
       <c r="E74">
         <v>107.625</v>
@@ -2740,7 +2740,7 @@
         <v>107.625</v>
       </c>
       <c r="H74">
-        <v>82.411095171615713</v>
+        <v>72.482364657093925</v>
       </c>
       <c r="I74">
         <v>107.625</v>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>538.61925803133022</v>
+        <v>488.9364407249314</v>
       </c>
       <c r="B75">
-        <v>505.18367256058752</v>
+        <v>457.73548053790336</v>
       </c>
       <c r="C75">
-        <v>338.88213092751613</v>
+        <v>356.09209654237839</v>
       </c>
       <c r="D75">
-        <v>336.66802846177569</v>
+        <v>296.28832026083455</v>
       </c>
       <c r="E75">
         <v>107.625</v>
@@ -2772,7 +2772,7 @@
         <v>107.625</v>
       </c>
       <c r="H75">
-        <v>84.167007115443923</v>
+        <v>74.072080065208638</v>
       </c>
       <c r="I75">
         <v>107.625</v>
@@ -2783,16 +2783,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>545.32485803133022</v>
+        <v>495.64204072493141</v>
       </c>
       <c r="B76">
-        <v>511.88927256058753</v>
+        <v>464.44108053790336</v>
       </c>
       <c r="C76">
-        <v>345.09743717926608</v>
+        <v>362.67805288778743</v>
       </c>
       <c r="D76">
-        <v>343.67917623708854</v>
+        <v>302.63468189329342</v>
       </c>
       <c r="E76">
         <v>107.625</v>
@@ -2804,7 +2804,7 @@
         <v>107.625</v>
       </c>
       <c r="H76">
-        <v>85.919794059272135</v>
+        <v>75.658670473323355</v>
       </c>
       <c r="I76">
         <v>107.625</v>
@@ -2815,16 +2815,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>552.03045803133023</v>
+        <v>502.34764072493141</v>
       </c>
       <c r="B77">
-        <v>518.59487256058753</v>
+        <v>471.14668053790336</v>
       </c>
       <c r="C77">
-        <v>351.30024343101599</v>
+        <v>369.25150923319649</v>
       </c>
       <c r="D77">
-        <v>350.6778240124014</v>
+        <v>308.96854352575224</v>
       </c>
       <c r="E77">
         <v>107.625</v>
@@ -2836,7 +2836,7 @@
         <v>107.625</v>
       </c>
       <c r="H77">
-        <v>87.66945600310035</v>
+        <v>77.24213588143806</v>
       </c>
       <c r="I77">
         <v>107.625</v>
@@ -2847,16 +2847,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>558.73605803133023</v>
+        <v>509.05324072493141</v>
       </c>
       <c r="B78">
-        <v>525.30047256058754</v>
+        <v>477.85228053790337</v>
       </c>
       <c r="C78">
-        <v>357.4905496827659</v>
+        <v>375.81246557860555</v>
       </c>
       <c r="D78">
-        <v>357.66397178771427</v>
+        <v>315.28990515821107</v>
       </c>
       <c r="E78">
         <v>107.625</v>
@@ -2868,7 +2868,7 @@
         <v>107.625</v>
       </c>
       <c r="H78">
-        <v>89.415992946928569</v>
+        <v>78.822476289552768</v>
       </c>
       <c r="I78">
         <v>107.625</v>
@@ -2879,16 +2879,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>565.44165803133023</v>
+        <v>515.75884072493136</v>
       </c>
       <c r="B79">
-        <v>532.00607256058754</v>
+        <v>484.55788053790337</v>
       </c>
       <c r="C79">
-        <v>363.66835593451583</v>
+        <v>382.36092192401463</v>
       </c>
       <c r="D79">
-        <v>364.6376195630271</v>
+        <v>321.59876679066991</v>
       </c>
       <c r="E79">
         <v>107.625</v>
@@ -2900,7 +2900,7 @@
         <v>107.625</v>
       </c>
       <c r="H79">
-        <v>91.159404890756775</v>
+        <v>80.399691697667478</v>
       </c>
       <c r="I79">
         <v>107.625</v>
@@ -2911,16 +2911,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>572.14725803133024</v>
+        <v>522.46444072493136</v>
       </c>
       <c r="B80">
-        <v>538.71167256058754</v>
+        <v>491.26348053790338</v>
       </c>
       <c r="C80">
-        <v>369.83366218626577</v>
+        <v>388.89687826942367</v>
       </c>
       <c r="D80">
-        <v>371.59876733833994</v>
+        <v>327.89512842312877</v>
       </c>
       <c r="E80">
         <v>107.625</v>
@@ -2932,7 +2932,7 @@
         <v>107.625</v>
       </c>
       <c r="H80">
-        <v>92.899691834584985</v>
+        <v>81.973782105782192</v>
       </c>
       <c r="I80">
         <v>107.625</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>578.85285803133024</v>
+        <v>529.17004072493137</v>
       </c>
       <c r="B81">
-        <v>545.41727256058755</v>
+        <v>497.96908053790338</v>
       </c>
       <c r="C81">
-        <v>375.98646843801572</v>
+        <v>395.42033461483271</v>
       </c>
       <c r="D81">
-        <v>378.54741511365279</v>
+        <v>334.17899005558763</v>
       </c>
       <c r="E81">
         <v>107.625</v>
@@ -2964,7 +2964,7 @@
         <v>107.625</v>
       </c>
       <c r="H81">
-        <v>94.636853778413197</v>
+        <v>83.544747513896908</v>
       </c>
       <c r="I81">
         <v>107.625</v>
@@ -2975,16 +2975,16 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>585.55845803133025</v>
+        <v>535.87564072493137</v>
       </c>
       <c r="B82">
-        <v>552.12287256058755</v>
+        <v>504.67468053790338</v>
       </c>
       <c r="C82">
-        <v>382.12677468976563</v>
+        <v>401.93129096024177</v>
       </c>
       <c r="D82">
-        <v>385.48356288896565</v>
+        <v>340.45035168804645</v>
       </c>
       <c r="E82">
         <v>107.625</v>
@@ -2996,7 +2996,7 @@
         <v>107.625</v>
       </c>
       <c r="H82">
-        <v>96.370890722241413</v>
+        <v>85.112587922011613</v>
       </c>
       <c r="I82">
         <v>107.625</v>
@@ -3007,16 +3007,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>592.26405803133025</v>
+        <v>542.58124072493138</v>
       </c>
       <c r="B83">
-        <v>558.82847256058756</v>
+        <v>511.38028053790339</v>
       </c>
       <c r="C83">
-        <v>388.25458094151554</v>
+        <v>408.42974730565084</v>
       </c>
       <c r="D83">
-        <v>392.40721066427852</v>
+        <v>346.70921332050528</v>
       </c>
       <c r="E83">
         <v>107.625</v>
@@ -3028,7 +3028,7 @@
         <v>107.625</v>
       </c>
       <c r="H83">
-        <v>98.101802666069631</v>
+        <v>86.677303330126321</v>
       </c>
       <c r="I83">
         <v>107.625</v>
@@ -3039,16 +3039,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>598.96965803133025</v>
+        <v>549.28684072493138</v>
       </c>
       <c r="B84">
-        <v>565.53407256058756</v>
+        <v>518.08588053790334</v>
       </c>
       <c r="C84">
-        <v>394.36988719326547</v>
+        <v>414.91570365105991</v>
       </c>
       <c r="D84">
-        <v>399.31835843959135</v>
+        <v>352.95557495296413</v>
       </c>
       <c r="E84">
         <v>107.625</v>
@@ -3060,7 +3060,7 @@
         <v>107.625</v>
       </c>
       <c r="H84">
-        <v>99.829589609897837</v>
+        <v>88.238893738241032</v>
       </c>
       <c r="I84">
         <v>107.625</v>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>605.67525803133026</v>
+        <v>555.99244072493138</v>
       </c>
       <c r="B85">
-        <v>572.23967256058756</v>
+        <v>524.79148053790334</v>
       </c>
       <c r="C85">
-        <v>400.47269344501541</v>
+        <v>421.38915999646895</v>
       </c>
       <c r="D85">
-        <v>406.21700621490419</v>
+        <v>359.18943658542298</v>
       </c>
       <c r="E85">
         <v>107.625</v>
@@ -3092,7 +3092,7 @@
         <v>107.625</v>
       </c>
       <c r="H85">
-        <v>101.55425155372605</v>
+        <v>89.797359146355745</v>
       </c>
       <c r="I85">
         <v>107.625</v>
@@ -3103,16 +3103,16 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>612.38085803133026</v>
+        <v>562.69804072493139</v>
       </c>
       <c r="B86">
-        <v>578.94527256058757</v>
+        <v>531.49708053790334</v>
       </c>
       <c r="C86">
-        <v>406.56299969676536</v>
+        <v>427.85011634187799</v>
       </c>
       <c r="D86">
-        <v>413.10315399021704</v>
+        <v>365.41079821788185</v>
       </c>
       <c r="E86">
         <v>107.625</v>
@@ -3124,7 +3124,7 @@
         <v>107.625</v>
       </c>
       <c r="H86">
-        <v>103.27578849755426</v>
+        <v>91.352699554470462</v>
       </c>
       <c r="I86">
         <v>107.625</v>
@@ -3135,16 +3135,16 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>619.08645803133027</v>
+        <v>569.40364072493139</v>
       </c>
       <c r="B87">
-        <v>585.65087256058757</v>
+        <v>538.20268053790335</v>
       </c>
       <c r="C87">
-        <v>412.64080594851532</v>
+        <v>434.29857268728705</v>
       </c>
       <c r="D87">
-        <v>419.9768017655299</v>
+        <v>371.61965985034067</v>
       </c>
       <c r="E87">
         <v>107.625</v>
@@ -3156,7 +3156,7 @@
         <v>107.625</v>
       </c>
       <c r="H87">
-        <v>104.99420044138247</v>
+        <v>92.904914962585167</v>
       </c>
       <c r="I87">
         <v>107.625</v>
@@ -3167,16 +3167,16 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>625.79205803133027</v>
+        <v>576.1092407249314</v>
       </c>
       <c r="B88">
-        <v>592.35647256058758</v>
+        <v>544.90828053790335</v>
       </c>
       <c r="C88">
-        <v>418.70611220026524</v>
+        <v>440.74911428578957</v>
       </c>
       <c r="D88">
-        <v>426.83794954084277</v>
+        <v>377.8160214827995</v>
       </c>
       <c r="E88">
         <v>107.625</v>
@@ -3188,7 +3188,7 @@
         <v>107.625</v>
       </c>
       <c r="H88">
-        <v>106.70948738521069</v>
+        <v>94.454005370699875</v>
       </c>
       <c r="I88">
         <v>107.625</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>632.49765803133027</v>
+        <v>582.8148407249314</v>
       </c>
       <c r="B89">
-        <v>599.06207256058758</v>
+        <v>551.61388053790336</v>
       </c>
       <c r="C89">
-        <v>424.75891845201517</v>
+        <v>447.1996558842921</v>
       </c>
       <c r="D89">
-        <v>433.6865973161556</v>
+        <v>383.99988311525834</v>
       </c>
       <c r="E89">
         <v>107.625</v>
@@ -3220,7 +3220,7 @@
         <v>107.625</v>
       </c>
       <c r="H89">
-        <v>107.625</v>
+        <v>95.999970778814586</v>
       </c>
       <c r="I89">
         <v>107.625</v>
@@ -3231,16 +3231,16 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>639.20325803133028</v>
+        <v>589.5204407249314</v>
       </c>
       <c r="B90">
-        <v>605.76767256058758</v>
+        <v>558.31948053790336</v>
       </c>
       <c r="C90">
-        <v>430.79922470376511</v>
+        <v>453.65019748279462</v>
       </c>
       <c r="D90">
-        <v>440.53572662202436</v>
+        <v>390.1712447477172</v>
       </c>
       <c r="E90">
         <v>107.625</v>
@@ -3252,7 +3252,7 @@
         <v>107.625</v>
       </c>
       <c r="H90">
-        <v>107.625</v>
+        <v>97.542811186929299</v>
       </c>
       <c r="I90">
         <v>107.625</v>
@@ -3263,16 +3263,16 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>645.90885803133028</v>
+        <v>596.22604072493141</v>
       </c>
       <c r="B91">
-        <v>612.47327256058759</v>
+        <v>565.02508053790336</v>
       </c>
       <c r="C91">
-        <v>436.83493638233932</v>
+        <v>460.10073908129715</v>
       </c>
       <c r="D91">
-        <v>447.38485592789311</v>
+        <v>396.33010638017606</v>
       </c>
       <c r="E91">
         <v>107.625</v>
@@ -3284,7 +3284,7 @@
         <v>107.625</v>
       </c>
       <c r="H91">
-        <v>107.625</v>
+        <v>99.082526595044015</v>
       </c>
       <c r="I91">
         <v>107.625</v>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>652.61445803133029</v>
+        <v>602.93164072493141</v>
       </c>
       <c r="B92">
-        <v>619.17887256058759</v>
+        <v>571.73068053790337</v>
       </c>
       <c r="C92">
-        <v>442.87064806091354</v>
+        <v>466.55128067979967</v>
       </c>
       <c r="D92">
-        <v>454.23398523376187</v>
+        <v>402.47646801263488</v>
       </c>
       <c r="E92">
         <v>107.625</v>
@@ -3316,7 +3316,7 @@
         <v>107.625</v>
       </c>
       <c r="H92">
-        <v>107.625</v>
+        <v>100.61911700315872</v>
       </c>
       <c r="I92">
         <v>107.625</v>
@@ -3327,16 +3327,16 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>659.32005803133029</v>
+        <v>609.63724072493142</v>
       </c>
       <c r="B93">
-        <v>625.8844725605876</v>
+        <v>578.43628053790337</v>
       </c>
       <c r="C93">
-        <v>448.90635973948775</v>
+        <v>473.0018222783022</v>
       </c>
       <c r="D93">
-        <v>461.08311453963063</v>
+        <v>408.61032964509371</v>
       </c>
       <c r="E93">
         <v>107.625</v>
@@ -3348,7 +3348,7 @@
         <v>107.625</v>
       </c>
       <c r="H93">
-        <v>107.625</v>
+        <v>102.15258241127343</v>
       </c>
       <c r="I93">
         <v>107.625</v>
@@ -3359,16 +3359,16 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>666.02565803133029</v>
+        <v>616.34284072493142</v>
       </c>
       <c r="B94">
-        <v>632.5900725605876</v>
+        <v>585.14188053790338</v>
       </c>
       <c r="C94">
-        <v>454.94207141806197</v>
+        <v>479.45236387680472</v>
       </c>
       <c r="D94">
-        <v>467.93224384549939</v>
+        <v>414.73169127755256</v>
       </c>
       <c r="E94">
         <v>107.625</v>
@@ -3380,7 +3380,7 @@
         <v>107.625</v>
       </c>
       <c r="H94">
-        <v>107.625</v>
+        <v>103.68292281938814</v>
       </c>
       <c r="I94">
         <v>107.625</v>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>672.7312580313303</v>
+        <v>623.04844072493142</v>
       </c>
       <c r="B95">
-        <v>639.2956725605876</v>
+        <v>591.84748053790338</v>
       </c>
       <c r="C95">
-        <v>460.97778309663619</v>
+        <v>485.90290547530725</v>
       </c>
       <c r="D95">
-        <v>474.78137315136814</v>
+        <v>420.84055291001141</v>
       </c>
       <c r="E95">
         <v>107.625</v>
@@ -3412,7 +3412,7 @@
         <v>107.625</v>
       </c>
       <c r="H95">
-        <v>107.625</v>
+        <v>105.21013822750285</v>
       </c>
       <c r="I95">
         <v>107.625</v>
@@ -3423,16 +3423,16 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>679.4368580313303</v>
+        <v>629.75404072493143</v>
       </c>
       <c r="B96">
-        <v>646.00127256058761</v>
+        <v>598.55308053790338</v>
       </c>
       <c r="C96">
-        <v>467.0134947752104</v>
+        <v>492.35344707380978</v>
       </c>
       <c r="D96">
-        <v>481.6305024572369</v>
+        <v>426.93691454247028</v>
       </c>
       <c r="E96">
         <v>107.625</v>
@@ -3444,7 +3444,7 @@
         <v>107.625</v>
       </c>
       <c r="H96">
-        <v>107.625</v>
+        <v>106.73422863561757</v>
       </c>
       <c r="I96">
         <v>107.625</v>
@@ -3455,16 +3455,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>686.14245803133031</v>
+        <v>636.45964072493143</v>
       </c>
       <c r="B97">
-        <v>652.70687256058761</v>
+        <v>605.25868053790339</v>
       </c>
       <c r="C97">
-        <v>473.04920645378462</v>
+        <v>498.8039886723123</v>
       </c>
       <c r="D97">
-        <v>488.47963176310566</v>
+        <v>433.0207761749291</v>
       </c>
       <c r="E97">
         <v>107.625</v>
@@ -3487,16 +3487,16 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>692.84805803133031</v>
+        <v>643.16524072493144</v>
       </c>
       <c r="B98">
-        <v>659.41247256058762</v>
+        <v>611.96428053790339</v>
       </c>
       <c r="C98">
-        <v>479.08491813235884</v>
+        <v>505.25453027081483</v>
       </c>
       <c r="D98">
-        <v>495.32876106897442</v>
+        <v>439.10459755292601</v>
       </c>
       <c r="E98">
         <v>107.625</v>
@@ -3519,16 +3519,16 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>699.55365803133031</v>
+        <v>649.87084072493144</v>
       </c>
       <c r="B99">
-        <v>666.11807256058762</v>
+        <v>618.6698805379034</v>
       </c>
       <c r="C99">
-        <v>485.12062981093305</v>
+        <v>511.70507186931735</v>
       </c>
       <c r="D99">
-        <v>502.17789037484317</v>
+        <v>445.18841893092292</v>
       </c>
       <c r="E99">
         <v>107.625</v>
@@ -3551,16 +3551,16 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>706.25925803133032</v>
+        <v>656.57644072493144</v>
       </c>
       <c r="B100">
-        <v>672.82367256058762</v>
+        <v>625.3754805379034</v>
       </c>
       <c r="C100">
-        <v>491.15634148950727</v>
+        <v>518.15561346781988</v>
       </c>
       <c r="D100">
-        <v>509.02701968071193</v>
+        <v>451.27224030891983</v>
       </c>
       <c r="E100">
         <v>107.625</v>
@@ -3583,16 +3583,16 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>712.96485803133032</v>
+        <v>663.28204072493145</v>
       </c>
       <c r="B101">
-        <v>679.52927256058763</v>
+        <v>632.0810805379034</v>
       </c>
       <c r="C101">
-        <v>497.19205316808149</v>
+        <v>524.60615506632234</v>
       </c>
       <c r="D101">
-        <v>515.87614898658069</v>
+        <v>457.35606168691675</v>
       </c>
       <c r="E101">
         <v>107.625</v>
@@ -3615,16 +3615,16 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>719.67045803133033</v>
+        <v>669.98764072493145</v>
       </c>
       <c r="B102">
-        <v>686.23487256058763</v>
+        <v>638.78668053790341</v>
       </c>
       <c r="C102">
-        <v>503.2277648466557</v>
+        <v>531.05669666482481</v>
       </c>
       <c r="D102">
-        <v>522.7252782924495</v>
+        <v>463.43988306491366</v>
       </c>
       <c r="E102">
         <v>107.625</v>
@@ -3647,16 +3647,16 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>726.37605803133033</v>
+        <v>676.69324072493146</v>
       </c>
       <c r="B103">
-        <v>692.94047256058764</v>
+        <v>645.49228053790341</v>
       </c>
       <c r="C103">
-        <v>509.26347652522992</v>
+        <v>537.50723826332728</v>
       </c>
       <c r="D103">
-        <v>529.57440759831832</v>
+        <v>469.52370444291057</v>
       </c>
       <c r="E103">
         <v>107.625</v>
@@ -3679,16 +3679,16 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>733.08165803133033</v>
+        <v>683.39884072493146</v>
       </c>
       <c r="B104">
-        <v>699.64607256058764</v>
+        <v>652.19788053790342</v>
       </c>
       <c r="C104">
-        <v>515.29918820380408</v>
+        <v>543.95777986182975</v>
       </c>
       <c r="D104">
-        <v>536.42353690418713</v>
+        <v>475.60752582090748</v>
       </c>
       <c r="E104">
         <v>107.625</v>
@@ -3711,16 +3711,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>739.78725803133034</v>
+        <v>690.10444072493146</v>
       </c>
       <c r="B105">
-        <v>706.35167256058764</v>
+        <v>658.90348053790342</v>
       </c>
       <c r="C105">
-        <v>521.33489988237829</v>
+        <v>550.40832146033222</v>
       </c>
       <c r="D105">
-        <v>543.27266621005595</v>
+        <v>481.6913471989044</v>
       </c>
       <c r="E105">
         <v>107.625</v>
@@ -3743,16 +3743,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>746.49285803133034</v>
+        <v>696.81004072493147</v>
       </c>
       <c r="B106">
-        <v>713.05727256058765</v>
+        <v>665.60908053790342</v>
       </c>
       <c r="C106">
-        <v>527.37061156095251</v>
+        <v>556.85886305883469</v>
       </c>
       <c r="D106">
-        <v>550.12179551592476</v>
+        <v>487.77516857690131</v>
       </c>
       <c r="E106">
         <v>107.625</v>
@@ -3775,16 +3775,16 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>753.19845803133035</v>
+        <v>703.51564072493147</v>
       </c>
       <c r="B107">
-        <v>719.76287256058765</v>
+        <v>672.31468053790343</v>
       </c>
       <c r="C107">
-        <v>533.40632323952673</v>
+        <v>563.30940465733715</v>
       </c>
       <c r="D107">
-        <v>556.97092482179357</v>
+        <v>493.85898995489822</v>
       </c>
       <c r="E107">
         <v>107.625</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>759.90405803133035</v>
+        <v>710.22124072493148</v>
       </c>
       <c r="B108">
-        <v>726.46847256058766</v>
+        <v>679.02028053790343</v>
       </c>
       <c r="C108">
-        <v>539.44203491810094</v>
+        <v>569.75994625583962</v>
       </c>
       <c r="D108">
-        <v>563.82005412766239</v>
+        <v>499.94281133289513</v>
       </c>
       <c r="E108">
         <v>107.625</v>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>766.60965803133035</v>
+        <v>716.92684072493148</v>
       </c>
       <c r="B109">
-        <v>733.17407256058766</v>
+        <v>685.72588053790344</v>
       </c>
       <c r="C109">
-        <v>545.47774659667516</v>
+        <v>576.21048785434209</v>
       </c>
       <c r="D109">
-        <v>570.6691834335312</v>
+        <v>506.02663271089204</v>
       </c>
       <c r="E109">
         <v>107.625</v>
@@ -3871,16 +3871,16 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>773.31525803133036</v>
+        <v>723.63244072493148</v>
       </c>
       <c r="B110">
-        <v>739.87967256058766</v>
+        <v>692.43148053790344</v>
       </c>
       <c r="C110">
-        <v>551.51345827524938</v>
+        <v>582.66102945284456</v>
       </c>
       <c r="D110">
-        <v>577.51831273940002</v>
+        <v>512.11045408888901</v>
       </c>
       <c r="E110">
         <v>107.625</v>
@@ -3903,16 +3903,16 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>780.02085803133036</v>
+        <v>730.33804072493149</v>
       </c>
       <c r="B111">
-        <v>746.58527256058767</v>
+        <v>699.13708053790344</v>
       </c>
       <c r="C111">
-        <v>557.54916995382359</v>
+        <v>589.11157105134703</v>
       </c>
       <c r="D111">
-        <v>584.36744204526883</v>
+        <v>518.19427546688598</v>
       </c>
       <c r="E111">
         <v>107.625</v>
@@ -3935,16 +3935,16 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>786.72645803133037</v>
+        <v>737.04364072493149</v>
       </c>
       <c r="B112">
-        <v>753.29087256058767</v>
+        <v>705.84268053790345</v>
       </c>
       <c r="C112">
-        <v>563.58488163239781</v>
+        <v>595.5621126498495</v>
       </c>
       <c r="D112">
-        <v>591.21657135113765</v>
+        <v>524.27809684488295</v>
       </c>
       <c r="E112">
         <v>107.625</v>
@@ -3967,16 +3967,16 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>793.43205803133037</v>
+        <v>743.7492407249315</v>
       </c>
       <c r="B113">
-        <v>759.99647256058768</v>
+        <v>712.54828053790345</v>
       </c>
       <c r="C113">
-        <v>569.62059331097203</v>
+        <v>602.01265424835196</v>
       </c>
       <c r="D113">
-        <v>598.06570065700646</v>
+        <v>530.36191822287992</v>
       </c>
       <c r="E113">
         <v>107.625</v>
@@ -3999,16 +3999,16 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>800.13765803133037</v>
+        <v>750.4548407249315</v>
       </c>
       <c r="B114">
-        <v>766.70207256058768</v>
+        <v>719.25388053790346</v>
       </c>
       <c r="C114">
-        <v>575.65630498954624</v>
+        <v>608.46319584685443</v>
       </c>
       <c r="D114">
-        <v>604.91482996287527</v>
+        <v>536.44573960087689</v>
       </c>
       <c r="E114">
         <v>107.625</v>
@@ -4031,16 +4031,16 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>806.84325803133038</v>
+        <v>757.1604407249315</v>
       </c>
       <c r="B115">
-        <v>773.40767256058768</v>
+        <v>725.95948053790346</v>
       </c>
       <c r="C115">
-        <v>581.69201666812046</v>
+        <v>614.9137374453569</v>
       </c>
       <c r="D115">
-        <v>611.76395926874409</v>
+        <v>542.52956097887386</v>
       </c>
       <c r="E115">
         <v>107.625</v>
@@ -4063,16 +4063,16 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>813.54885803133038</v>
+        <v>763.86604072493151</v>
       </c>
       <c r="B116">
-        <v>780.11327256058769</v>
+        <v>732.66508053790346</v>
       </c>
       <c r="C116">
-        <v>587.72772834669468</v>
+        <v>621.36427904385937</v>
       </c>
       <c r="D116">
-        <v>618.6130885746129</v>
+        <v>548.61338235687083</v>
       </c>
       <c r="E116">
         <v>107.625</v>
@@ -4095,16 +4095,16 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>820.25445803133039</v>
+        <v>770.57164072493151</v>
       </c>
       <c r="B117">
-        <v>786.81887256058769</v>
+        <v>739.37068053790347</v>
       </c>
       <c r="C117">
-        <v>593.76344002526889</v>
+        <v>627.81482064236184</v>
       </c>
       <c r="D117">
-        <v>625.46221788048172</v>
+        <v>554.6972037348678</v>
       </c>
       <c r="E117">
         <v>107.625</v>
@@ -4127,16 +4127,16 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>826.96005803133039</v>
+        <v>777.27724072493152</v>
       </c>
       <c r="B118">
-        <v>793.5244725605877</v>
+        <v>746.07628053790347</v>
       </c>
       <c r="C118">
-        <v>599.79915170384311</v>
+        <v>634.26536224086431</v>
       </c>
       <c r="D118">
-        <v>632.31134718635053</v>
+        <v>560.78102511286477</v>
       </c>
       <c r="E118">
         <v>107.625</v>
@@ -4159,16 +4159,16 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>833.66565803133039</v>
+        <v>783.98284072493152</v>
       </c>
       <c r="B119">
-        <v>800.2300725605877</v>
+        <v>752.78188053790348</v>
       </c>
       <c r="C119">
-        <v>605.83486338241732</v>
+        <v>640.71590383936677</v>
       </c>
       <c r="D119">
-        <v>639.16047649221935</v>
+        <v>566.86484649086174</v>
       </c>
       <c r="E119">
         <v>107.625</v>
@@ -4191,16 +4191,16 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>840.3712580313304</v>
+        <v>790.68844072493152</v>
       </c>
       <c r="B120">
-        <v>806.9356725605877</v>
+        <v>759.48748053790348</v>
       </c>
       <c r="C120">
-        <v>611.87057506099154</v>
+        <v>647.16644543786924</v>
       </c>
       <c r="D120">
-        <v>646.00960579808816</v>
+        <v>572.94866786885871</v>
       </c>
       <c r="E120">
         <v>107.625</v>
@@ -4223,16 +4223,16 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>847.0768580313304</v>
+        <v>797.39404072493153</v>
       </c>
       <c r="B121">
-        <v>813.64127256058771</v>
+        <v>766.19308053790348</v>
       </c>
       <c r="C121">
-        <v>617.90628673956576</v>
+        <v>653.61698703637171</v>
       </c>
       <c r="D121">
-        <v>652.85873510395697</v>
+        <v>579.03248924685568</v>
       </c>
       <c r="E121">
         <v>107.625</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>853.78245803133041</v>
+        <v>804.09964072493153</v>
       </c>
       <c r="B122">
-        <v>820.34687256058771</v>
+        <v>772.89868053790349</v>
       </c>
       <c r="C122">
-        <v>623.94199841813997</v>
+        <v>660.06752863487418</v>
       </c>
       <c r="D122">
-        <v>659.70786440982579</v>
+        <v>585.11631062485264</v>
       </c>
       <c r="E122">
         <v>107.625</v>
@@ -4287,16 +4287,16 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>860.48805803133041</v>
+        <v>810.80524072493154</v>
       </c>
       <c r="B123">
-        <v>827.05247256058772</v>
+        <v>779.60428053790349</v>
       </c>
       <c r="C123">
-        <v>629.97771009671419</v>
+        <v>666.51807023337665</v>
       </c>
       <c r="D123">
-        <v>666.5569937156946</v>
+        <v>591.20013200284961</v>
       </c>
       <c r="E123">
         <v>107.625</v>
@@ -4319,16 +4319,16 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>867.19365803133041</v>
+        <v>817.51084072493154</v>
       </c>
       <c r="B124">
-        <v>833.75807256058772</v>
+        <v>786.3098805379035</v>
       </c>
       <c r="C124">
-        <v>636.01342177528841</v>
+        <v>672.96861183187912</v>
       </c>
       <c r="D124">
-        <v>673.40612302156342</v>
+        <v>597.28395338084658</v>
       </c>
       <c r="E124">
         <v>107.625</v>
@@ -4351,16 +4351,16 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>873.89925803133042</v>
+        <v>824.21644072493154</v>
       </c>
       <c r="B125">
-        <v>840.46367256058772</v>
+        <v>793.0154805379035</v>
       </c>
       <c r="C125">
-        <v>642.04913345386262</v>
+        <v>679.41915343038158</v>
       </c>
       <c r="D125">
-        <v>680.25525232743223</v>
+        <v>603.36777475884355</v>
       </c>
       <c r="E125">
         <v>107.625</v>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>880.60485803133042</v>
+        <v>830.92204072493155</v>
       </c>
       <c r="B126">
-        <v>847.16927256058773</v>
+        <v>799.7210805379035</v>
       </c>
       <c r="C126">
-        <v>648.08484513243684</v>
+        <v>685.86969502888405</v>
       </c>
       <c r="D126">
-        <v>687.10438163330105</v>
+        <v>609.45159613684052</v>
       </c>
       <c r="E126">
         <v>107.625</v>
@@ -4415,16 +4415,16 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>887.31045803133043</v>
+        <v>837.62764072493155</v>
       </c>
       <c r="B127">
-        <v>853.87487256058773</v>
+        <v>806.42668053790351</v>
       </c>
       <c r="C127">
-        <v>654.12055681101106</v>
+        <v>692.32023662738652</v>
       </c>
       <c r="D127">
-        <v>693.95351093916986</v>
+        <v>615.53541751483749</v>
       </c>
       <c r="E127">
         <v>107.625</v>
@@ -4447,16 +4447,16 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>894.01605803133043</v>
+        <v>844.33324072493156</v>
       </c>
       <c r="B128">
-        <v>860.58047256058774</v>
+        <v>813.13228053790351</v>
       </c>
       <c r="C128">
-        <v>660.15626848958527</v>
+        <v>698.77077822588899</v>
       </c>
       <c r="D128">
-        <v>700.80264024503867</v>
+        <v>621.61923889283446</v>
       </c>
       <c r="E128">
         <v>107.625</v>
@@ -4479,16 +4479,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>900.72165803133043</v>
+        <v>851.03884072493156</v>
       </c>
       <c r="B129">
-        <v>867.28607256058774</v>
+        <v>819.83788053790352</v>
       </c>
       <c r="C129">
-        <v>666.19198016815949</v>
+        <v>705.22131982439146</v>
       </c>
       <c r="D129">
-        <v>707.65176955090749</v>
+        <v>627.70306027083143</v>
       </c>
       <c r="E129">
         <v>107.625</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>907.42725803133044</v>
+        <v>857.74444072493156</v>
       </c>
       <c r="B130">
-        <v>873.99167256058774</v>
+        <v>826.54348053790352</v>
       </c>
       <c r="C130">
-        <v>672.22769184673371</v>
+        <v>711.67186142289393</v>
       </c>
       <c r="D130">
-        <v>714.5008988567763</v>
+        <v>633.7868816488284</v>
       </c>
       <c r="E130">
         <v>107.625</v>
@@ -4543,16 +4543,16 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>914.13285803133044</v>
+        <v>864.45004072493157</v>
       </c>
       <c r="B131">
-        <v>880.69727256058775</v>
+        <v>833.24908053790352</v>
       </c>
       <c r="C131">
-        <v>678.26340352530792</v>
+        <v>718.12240302139639</v>
       </c>
       <c r="D131">
-        <v>721.35002816264512</v>
+        <v>639.87070302682537</v>
       </c>
       <c r="E131">
         <v>107.625</v>
@@ -4575,16 +4575,16 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>920.83845803133045</v>
+        <v>871.15564072493157</v>
       </c>
       <c r="B132">
-        <v>887.40287256058775</v>
+        <v>839.95468053790353</v>
       </c>
       <c r="C132">
-        <v>684.29911520388214</v>
+        <v>724.57294461989886</v>
       </c>
       <c r="D132">
-        <v>728.19915746851393</v>
+        <v>645.95452440482234</v>
       </c>
       <c r="E132">
         <v>107.625</v>
@@ -4607,16 +4607,16 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>927.54405803133045</v>
+        <v>877.86124072493158</v>
       </c>
       <c r="B133">
-        <v>894.10847256058776</v>
+        <v>846.66028053790353</v>
       </c>
       <c r="C133">
-        <v>690.33482688245635</v>
+        <v>731.02348621840133</v>
       </c>
       <c r="D133">
-        <v>735.04828677438275</v>
+        <v>652.03834578281931</v>
       </c>
       <c r="E133">
         <v>107.625</v>
@@ -4639,16 +4639,16 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>934.24965803133045</v>
+        <v>884.56684072493158</v>
       </c>
       <c r="B134">
-        <v>900.81407256058776</v>
+        <v>853.36588053790354</v>
       </c>
       <c r="C134">
-        <v>696.37053856103057</v>
+        <v>737.4740278169038</v>
       </c>
       <c r="D134">
-        <v>741.89741608025156</v>
+        <v>658.12216716081628</v>
       </c>
       <c r="E134">
         <v>107.625</v>
@@ -4671,16 +4671,16 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>940.95525803133046</v>
+        <v>891.27244072493158</v>
       </c>
       <c r="B135">
-        <v>907.51967256058776</v>
+        <v>860.07148053790354</v>
       </c>
       <c r="C135">
-        <v>702.40625023960479</v>
+        <v>743.92456941540627</v>
       </c>
       <c r="D135">
-        <v>748.74654538612037</v>
+        <v>664.20598853881324</v>
       </c>
       <c r="E135">
         <v>107.625</v>
@@ -4703,16 +4703,16 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>947.66085803133046</v>
+        <v>897.97804072493159</v>
       </c>
       <c r="B136">
-        <v>914.22527256058777</v>
+        <v>866.77708053790354</v>
       </c>
       <c r="C136">
-        <v>708.441961918179</v>
+        <v>750.37511101390874</v>
       </c>
       <c r="D136">
-        <v>755.59567469198919</v>
+        <v>670.28980991681021</v>
       </c>
       <c r="E136">
         <v>107.625</v>
@@ -4735,16 +4735,16 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>954.36645803133047</v>
+        <v>904.68364072493159</v>
       </c>
       <c r="B137">
-        <v>920.93087256058777</v>
+        <v>873.48268053790355</v>
       </c>
       <c r="C137">
-        <v>714.47767359675322</v>
+        <v>756.8256526124112</v>
       </c>
       <c r="D137">
-        <v>762.444803997858</v>
+        <v>676.37363129480718</v>
       </c>
       <c r="E137">
         <v>107.625</v>
@@ -4767,16 +4767,16 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>961.07205803133047</v>
+        <v>911.3892407249316</v>
       </c>
       <c r="B138">
-        <v>927.63647256058778</v>
+        <v>880.18828053790355</v>
       </c>
       <c r="C138">
-        <v>720.51338527532744</v>
+        <v>763.27619421091367</v>
       </c>
       <c r="D138">
-        <v>769.29393330372682</v>
+        <v>682.45745267280415</v>
       </c>
       <c r="E138">
         <v>107.625</v>
@@ -4799,16 +4799,16 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>967.77765803133047</v>
+        <v>918.0948407249316</v>
       </c>
       <c r="B139">
-        <v>934.34207256058778</v>
+        <v>886.89388053790356</v>
       </c>
       <c r="C139">
-        <v>726.54909695390165</v>
+        <v>769.72673580941614</v>
       </c>
       <c r="D139">
-        <v>776.14306260959563</v>
+        <v>688.54127405080112</v>
       </c>
       <c r="E139">
         <v>107.625</v>
@@ -4831,16 +4831,16 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>974.48325803133048</v>
+        <v>924.8004407249316</v>
       </c>
       <c r="B140">
-        <v>941.04767256058778</v>
+        <v>893.59948053790356</v>
       </c>
       <c r="C140">
-        <v>732.58480863247587</v>
+        <v>776.17727740791861</v>
       </c>
       <c r="D140">
-        <v>782.99219191546445</v>
+        <v>694.62509542879809</v>
       </c>
       <c r="E140">
         <v>107.625</v>
@@ -4863,16 +4863,16 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>981.18885803133048</v>
+        <v>931.50604072493161</v>
       </c>
       <c r="B141">
-        <v>947.75327256058779</v>
+        <v>900.30508053790356</v>
       </c>
       <c r="C141">
-        <v>738.62052031105009</v>
+        <v>782.62781900642108</v>
       </c>
       <c r="D141">
-        <v>789.84132122133326</v>
+        <v>700.70891680679506</v>
       </c>
       <c r="E141">
         <v>107.625</v>
@@ -4895,16 +4895,16 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>987.89445803133049</v>
+        <v>938.21164072493161</v>
       </c>
       <c r="B142">
-        <v>954.45887256058779</v>
+        <v>907.01068053790357</v>
       </c>
       <c r="C142">
-        <v>744.6562319896243</v>
+        <v>789.07836060492355</v>
       </c>
       <c r="D142">
-        <v>796.69045052720207</v>
+        <v>706.79273818479203</v>
       </c>
       <c r="E142">
         <v>107.625</v>
@@ -4927,16 +4927,16 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>994.60005803133049</v>
+        <v>944.91724072493162</v>
       </c>
       <c r="B143">
-        <v>961.1644725605878</v>
+        <v>913.71628053790357</v>
       </c>
       <c r="C143">
-        <v>750.69194366819852</v>
+        <v>795.52890220342601</v>
       </c>
       <c r="D143">
-        <v>803.53957983307089</v>
+        <v>712.876559562789</v>
       </c>
       <c r="E143">
         <v>107.625</v>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1001.3056580313305</v>
+        <v>951.62284072493162</v>
       </c>
       <c r="B144">
-        <v>967.8700725605878</v>
+        <v>920.42188053790358</v>
       </c>
       <c r="C144">
-        <v>756.72765534677274</v>
+        <v>801.97944380192848</v>
       </c>
       <c r="D144">
-        <v>810.3887091389397</v>
+        <v>718.96038094078597</v>
       </c>
       <c r="E144">
         <v>107.625</v>
@@ -4991,16 +4991,16 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1008.0112580313305</v>
+        <v>958.32844072493162</v>
       </c>
       <c r="B145">
-        <v>974.5756725605878</v>
+        <v>927.12748053790358</v>
       </c>
       <c r="C145">
-        <v>762.76336702534695</v>
+        <v>808.42998540043095</v>
       </c>
       <c r="D145">
-        <v>817.23783844480852</v>
+        <v>725.04420231878294</v>
       </c>
       <c r="E145">
         <v>107.625</v>
@@ -5023,16 +5023,16 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1014.7168580313305</v>
+        <v>965.03404072493163</v>
       </c>
       <c r="B146">
-        <v>981.28127256058781</v>
+        <v>933.83308053790358</v>
       </c>
       <c r="C146">
-        <v>768.79907870392117</v>
+        <v>814.88052699893342</v>
       </c>
       <c r="D146">
-        <v>824.08696775067733</v>
+        <v>731.12802369677991</v>
       </c>
       <c r="E146">
         <v>107.625</v>
@@ -5055,16 +5055,16 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1021.4224580313305</v>
+        <v>971.73964072493163</v>
       </c>
       <c r="B147">
-        <v>987.98687256058781</v>
+        <v>940.53868053790359</v>
       </c>
       <c r="C147">
-        <v>774.83479038249538</v>
+        <v>821.33106859743589</v>
       </c>
       <c r="D147">
-        <v>830.93609705654615</v>
+        <v>737.21184507477687</v>
       </c>
       <c r="E147">
         <v>107.625</v>
@@ -5087,16 +5087,16 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1028.1280580313305</v>
+        <v>978.44524072493164</v>
       </c>
       <c r="B148">
-        <v>994.69247256058782</v>
+        <v>947.24428053790359</v>
       </c>
       <c r="C148">
-        <v>780.8705020610696</v>
+        <v>827.78161019593836</v>
       </c>
       <c r="D148">
-        <v>837.78522636241496</v>
+        <v>743.29566645277384</v>
       </c>
       <c r="E148">
         <v>107.625</v>
@@ -5119,16 +5119,16 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1034.8336580313305</v>
+        <v>985.15084072493164</v>
       </c>
       <c r="B149">
-        <v>1001.3980725605878</v>
+        <v>953.9498805379036</v>
       </c>
       <c r="C149">
-        <v>786.90621373964382</v>
+        <v>834.23215179444082</v>
       </c>
       <c r="D149">
-        <v>844.63435566828377</v>
+        <v>749.37948783077081</v>
       </c>
       <c r="E149">
         <v>107.625</v>
@@ -5151,16 +5151,16 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1041.5392580313305</v>
+        <v>991.85644072493164</v>
       </c>
       <c r="B150">
-        <v>1008.1036725605878</v>
+        <v>960.6554805379036</v>
       </c>
       <c r="C150">
-        <v>792.94192541821803</v>
+        <v>840.68269339294329</v>
       </c>
       <c r="D150">
-        <v>851.48348497415259</v>
+        <v>755.46330920876778</v>
       </c>
       <c r="E150">
         <v>107.625</v>
@@ -5183,16 +5183,16 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1048.2448580313305</v>
+        <v>998.56204072493165</v>
       </c>
       <c r="B151">
-        <v>1014.8092725605878</v>
+        <v>967.3610805379036</v>
       </c>
       <c r="C151">
-        <v>798.97763709679225</v>
+        <v>847.13323499144576</v>
       </c>
       <c r="D151">
-        <v>858.3326142800214</v>
+        <v>761.54713058676475</v>
       </c>
       <c r="E151">
         <v>107.625</v>
@@ -5215,16 +5215,16 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1054.9504580313305</v>
+        <v>1005.2676407249317</v>
       </c>
       <c r="B152">
-        <v>1021.5148725605878</v>
+        <v>974.06668053790361</v>
       </c>
       <c r="C152">
-        <v>805.01334877536647</v>
+        <v>853.58377658994823</v>
       </c>
       <c r="D152">
-        <v>865.18174358589022</v>
+        <v>767.63095196476172</v>
       </c>
       <c r="E152">
         <v>107.625</v>
@@ -5247,16 +5247,16 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1061.6560580313305</v>
+        <v>1011.9732407249317</v>
       </c>
       <c r="B153">
-        <v>1028.2204725605877</v>
+        <v>980.77228053790361</v>
       </c>
       <c r="C153">
-        <v>811.04906045394068</v>
+        <v>860.0343181884507</v>
       </c>
       <c r="D153">
-        <v>872.03087289175903</v>
+        <v>773.71477334275869</v>
       </c>
       <c r="E153">
         <v>107.625</v>
@@ -5279,16 +5279,16 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1068.3616580313305</v>
+        <v>1018.6788407249317</v>
       </c>
       <c r="B154">
-        <v>1034.9260725605877</v>
+        <v>987.47788053790362</v>
       </c>
       <c r="C154">
-        <v>817.0847721325149</v>
+        <v>866.48485978695317</v>
       </c>
       <c r="D154">
-        <v>878.88000219762785</v>
+        <v>779.79859472075566</v>
       </c>
       <c r="E154">
         <v>107.625</v>
@@ -5311,16 +5311,16 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1075.0672580313305</v>
+        <v>1025.3844407249317</v>
       </c>
       <c r="B155">
-        <v>1041.6316725605877</v>
+        <v>994.18348053790362</v>
       </c>
       <c r="C155">
-        <v>823.12048381108912</v>
+        <v>872.93540138545563</v>
       </c>
       <c r="D155">
-        <v>885.72913150349666</v>
+        <v>785.88241609875263</v>
       </c>
       <c r="E155">
         <v>107.625</v>
@@ -5343,16 +5343,16 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1081.7728580313305</v>
+        <v>1032.0900407249317</v>
       </c>
       <c r="B156">
-        <v>1048.3372725605877</v>
+        <v>1000.8890805379036</v>
       </c>
       <c r="C156">
-        <v>829.15619548966333</v>
+        <v>879.3859429839581</v>
       </c>
       <c r="D156">
-        <v>892.57826080936547</v>
+        <v>791.9662374767496</v>
       </c>
       <c r="E156">
         <v>107.625</v>
@@ -5375,16 +5375,16 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1088.4784580313305</v>
+        <v>1038.7956407249317</v>
       </c>
       <c r="B157">
-        <v>1055.0428725605877</v>
+        <v>1007.5946805379036</v>
       </c>
       <c r="C157">
-        <v>835.19190716823755</v>
+        <v>885.83648458246057</v>
       </c>
       <c r="D157">
-        <v>899.42739011523429</v>
+        <v>798.05005885474657</v>
       </c>
       <c r="E157">
         <v>107.625</v>
@@ -5407,16 +5407,16 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1095.1840580313306</v>
+        <v>1045.5012407249317</v>
       </c>
       <c r="B158">
-        <v>1061.7484725605877</v>
+        <v>1014.3002805379036</v>
       </c>
       <c r="C158">
-        <v>841.22761884681177</v>
+        <v>892.28702618096304</v>
       </c>
       <c r="D158">
-        <v>906.2765194211031</v>
+        <v>804.13388023274354</v>
       </c>
       <c r="E158">
         <v>107.625</v>
@@ -5439,16 +5439,16 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1101.8896580313306</v>
+        <v>1052.2068407249317</v>
       </c>
       <c r="B159">
-        <v>1068.4540725605877</v>
+        <v>1021.0058805379036</v>
       </c>
       <c r="C159">
-        <v>847.26333052538598</v>
+        <v>898.73756777946551</v>
       </c>
       <c r="D159">
-        <v>913.12564872697192</v>
+        <v>810.21770161074051</v>
       </c>
       <c r="E159">
         <v>107.625</v>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1108.5952580313306</v>
+        <v>1058.9124407249317</v>
       </c>
       <c r="B160">
-        <v>1075.1596725605878</v>
+        <v>1027.7114805379035</v>
       </c>
       <c r="C160">
-        <v>853.2990422039602</v>
+        <v>905.18810937796798</v>
       </c>
       <c r="D160">
-        <v>919.97477803284073</v>
+        <v>816.30152298873747</v>
       </c>
       <c r="E160">
         <v>107.625</v>
